--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1075.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1075.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.775048945656135</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03875244728280675</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03875244728280675</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.0620039156524908</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06046316076635782</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01046316076635782</v>
+        <v>0.02205508852274297</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008712761163152538</v>
+        <v>0.01836545600529243</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0002899116781895431</v>
+        <v>0.001787284058669264</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007193579416557482</v>
+        <v>0.0008079318192720394</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001644265030541603</v>
+        <v>0.006361492392659179</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007866983074015363</v>
+        <v>0.0007897799573567279</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005325912645002151</v>
+        <v>0.009447000139062356</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007617892119803491</v>
+        <v>0.0007876134539906082</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008706854789322316</v>
+        <v>0.001787284058669264</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008197255461651857</v>
+        <v>0.0008079318192720394</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002314177317698306</v>
+        <v>0.003546747064976902</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001438715883311496</v>
+        <v>0.001615863638544079</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004043021478168714</v>
+        <v>0.01170073368411972</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001573396614803073</v>
+        <v>0.001579559914713456</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01087626424940033</v>
+        <v>0.01899904897939469</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001523578423960698</v>
+        <v>0.001575226907981216</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01727037441427265</v>
+        <v>0.003546747064976902</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001639451092330371</v>
+        <v>0.001615863638544079</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002706267661740938</v>
+        <v>0.005082490770054925</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002158073824967245</v>
+        <v>0.002423795457816118</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.00557530728302303</v>
+        <v>0.01777132415966792</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002360094922204608</v>
+        <v>0.002369339872070184</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01598228589895742</v>
+        <v>0.02828811801543163</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002285367635941047</v>
+        <v>0.002362840361971824</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02481197258971674</v>
+        <v>0.005082490770054925</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002459176638495557</v>
+        <v>0.002423795457816118</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002904253721050846</v>
+        <v>0.003497374999999999</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007520160385246201</v>
+        <v>0.02292686410459019</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003146793229606145</v>
+        <v>0.003159119829426911</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01977520867943633</v>
+        <v>0.03704617874160748</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003047156847921396</v>
+        <v>0.003150453815962433</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03215306303052018</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003278902184660743</v>
+        <v>0.003497374999999999</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002904253721050846</v>
+        <v>0.003497374999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006591183384090926</v>
+        <v>0.007766777783752357</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003596789708278741</v>
+        <v>0.004039659096360197</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.009156618724979942</v>
+        <v>0.02772095380417278</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003933491537007681</v>
+        <v>0.00394889978678364</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02299999999999996</v>
+        <v>0.04560520265235696</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003514181957186538</v>
+        <v>0.003938067269953041</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03751505945154865</v>
+        <v>0.007766777783752357</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004098627730825928</v>
+        <v>0.004039659096360197</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006298526648854337</v>
+        <v>0.00875426951598017</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004316147649934489</v>
+        <v>0.004847590915632236</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01086372024236591</v>
+        <v>0.03100719354370216</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004720189844409217</v>
+        <v>0.004738679744140367</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02623824349022297</v>
+        <v>0.05299999999999999</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004570735271882094</v>
+        <v>0.00499625</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04199999999999998</v>
+        <v>0.00875426951598017</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004611923076923075</v>
+        <v>0.004847590915632236</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007921078893303735</v>
+        <v>0.009480703175560774</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005035505591590237</v>
+        <v>0.005655522734904276</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0123205028775458</v>
+        <v>0.03399999999999997</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005506888151810753</v>
+        <v>0.005291978193146412</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02892910317364114</v>
+        <v>0.05504218011506479</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005332524483862444</v>
+        <v>0.005513294177934257</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04771151849662431</v>
+        <v>0.009480703175560774</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.0057380788231563</v>
+        <v>0.005655522734904276</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008477316935299642</v>
+        <v>0.01065130168796311</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005754863533245985</v>
+        <v>0.006463454554176316</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01370600457066128</v>
+        <v>0.03674744916124464</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00629358645921229</v>
+        <v>0.006318239658853823</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03146823602878854</v>
+        <v>0.05859986394314115</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006094313695842793</v>
+        <v>0.006300907631924865</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05124449928734082</v>
+        <v>0.01065130168796311</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006557804369321485</v>
+        <v>0.006463454554176316</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.007985717592702592</v>
+        <v>0.01157128797865613</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006474221474901734</v>
+        <v>0.007271386373448355</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01469926326185404</v>
+        <v>0.03914359740604989</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007080284766613826</v>
+        <v>0.007108019616210551</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03420354402707937</v>
+        <v>0.06261851864762857</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006856102907823142</v>
+        <v>0.007088521085915473</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05337571294056365</v>
+        <v>0.01157128797865613</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007377529915486672</v>
+        <v>0.007271386373448355</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009464757683373105</v>
+        <v>0.01234588497310881</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007193579416557482</v>
+        <v>0.008079318192720394</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.016</v>
+        <v>0.04040616706041181</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007993999999999999</v>
+        <v>0.007897799573567279</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03618292913992793</v>
+        <v>0.06477431109674181</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00761789211980349</v>
+        <v>0.007876134539906082</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05649531880923014</v>
+        <v>0.01234588497310881</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008197255461651856</v>
+        <v>0.008079318192720394</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.008932914025171712</v>
+        <v>0.01338031559679011</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00791293735821323</v>
+        <v>0.008887250011992434</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01656824448305559</v>
+        <v>0.04278062041951358</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.0086536813814169</v>
+        <v>0.008687579530924005</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03825429333874841</v>
+        <v>0.06784340815869561</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00837968133178384</v>
+        <v>0.00866374799389669</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06019347624627736</v>
+        <v>0.01338031559679011</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009016981007817042</v>
+        <v>0.008887250011992434</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01046316076635782</v>
+        <v>0.013979802775169</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008712761163152538</v>
+        <v>0.009695181831264473</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01694565454785818</v>
+        <v>0.04351241977853829</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009440379688818433</v>
+        <v>0.009477359488280735</v>
       </c>
       <c r="L77" t="n">
-        <v>0.039965538594955</v>
+        <v>0.0697019767017048</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009141470543764189</v>
+        <v>0.009451361447887297</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06266034460464254</v>
+        <v>0.013979802775169</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009836706553982227</v>
+        <v>0.009695181831264473</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.008904562721286965</v>
+        <v>0.01494956943371439</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009351653241524727</v>
+        <v>0.01050311365053651</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01723244846599775</v>
+        <v>0.04504702743266903</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01022707799621997</v>
+        <v>0.01026713944563746</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04236456687996198</v>
+        <v>0.07192618359398406</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009903259755744537</v>
+        <v>0.01023897490187791</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06478608323726287</v>
+        <v>0.01494956943371439</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01065643210014741</v>
+        <v>0.01050311365053651</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.009417111528236786</v>
+        <v>0.01539483849789529</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01007101118318047</v>
+        <v>0.01131104546980855</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0178481076798257</v>
+        <v>0.04632990567708889</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01101377630362151</v>
+        <v>0.01105691940299419</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04389928016518349</v>
+        <v>0.07539219570374817</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01066504896772489</v>
+        <v>0.01102658835586851</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06746085149707542</v>
+        <v>0.01539483849789529</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0114761576463126</v>
+        <v>0.01131104546980855</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01094289167375179</v>
+        <v>0.01612083289318063</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01079036912483622</v>
+        <v>0.01211897728908059</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01801211363169347</v>
+        <v>0.04820651680698099</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01180047461102304</v>
+        <v>0.01184669936035092</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04611758042203382</v>
+        <v>0.07677617989921193</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01142683817970523</v>
+        <v>0.01181420180985912</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06997480873701756</v>
+        <v>0.01612083289318063</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01229588319247779</v>
+        <v>0.01211897728908059</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01047853332201875</v>
+        <v>0.01713277554503938</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01150972706649197</v>
+        <v>0.01292690910835263</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0183439477639525</v>
+        <v>0.04982232311752849</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01258717291842458</v>
+        <v>0.01263647931770765</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04826736962192721</v>
+        <v>0.08010330743965993</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01218862739168559</v>
+        <v>0.01258541351557865</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07331811431002622</v>
+        <v>0.01713277554503938</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01311560873864297</v>
+        <v>0.01292690910835263</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0130206666372245</v>
+        <v>0.0175358893789405</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01222908500814772</v>
+        <v>0.01373484092762467</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01866309151895415</v>
+        <v>0.05107919798120145</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01337387122582611</v>
+        <v>0.01325049028627091</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05107919798120145</v>
+        <v>0.08113333263523309</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0130073620241375</v>
+        <v>0.01338942871784034</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07588092756903875</v>
+        <v>0.0175358893789405</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01393533428480816</v>
+        <v>0.01373484092762467</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0125659217835558</v>
+        <v>0.01843539732035293</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01294844294980347</v>
+        <v>0.01454277274689671</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01928902633904991</v>
+        <v>0.05258567051506988</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01416056953322765</v>
+        <v>0.0142160392324211</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05349983882335566</v>
+        <v>0.08456944196858263</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01371220581564628</v>
+        <v>0.01417704217183095</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08010330743965993</v>
+        <v>0.01843539732035293</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01465993222693776</v>
+        <v>0.01454277274689671</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01311092892519947</v>
+        <v>0.01903652229474567</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01366780089145921</v>
+        <v>0.01535070456616875</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01934123366659118</v>
+        <v>0.05359448382142493</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01494726784062919</v>
+        <v>0.01500581918977783</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05632143369193565</v>
+        <v>0.08735616200714674</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01447399502762663</v>
+        <v>0.01496465562582155</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08422504600808595</v>
+        <v>0.01903652229474567</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01557478537713853</v>
+        <v>0.01535070456616875</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01465231822634231</v>
+        <v>0.01974448722758762</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01438715883311496</v>
+        <v>0.01615863638544079</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01993919494392936</v>
+        <v>0.05564268860002999</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01573396614803073</v>
+        <v>0.01579559914713456</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05880287516028204</v>
+        <v>0.08908704661905498</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01523578423960698</v>
+        <v>0.01575226907981216</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08965820845712952</v>
+        <v>0.01974448722758762</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01639451092330371</v>
+        <v>0.01615863638544079</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01418671985117111</v>
+        <v>0.02046451504434779</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01510651677477071</v>
+        <v>0.01696656820471283</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02020239161341593</v>
+        <v>0.05722557595149097</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01652066445543226</v>
+        <v>0.01658537910449128</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06218529903226624</v>
+        <v>0.09295564967243702</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01599757345158733</v>
+        <v>0.01653988253380277</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09517105896193573</v>
+        <v>0.02046451504434779</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0172142364694689</v>
+        <v>0.01696656820471283</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01571076396387267</v>
+        <v>0.02120182867049512</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01582587471642646</v>
+        <v>0.01777450002398487</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02085030511740225</v>
+        <v>0.05873843697641393</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0173073627628338</v>
+        <v>0.01737515906184801</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06570984111175968</v>
+        <v>0.09545552503542237</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01675936266356768</v>
+        <v>0.01732749598779338</v>
       </c>
       <c r="N87" t="n">
-        <v>0.102677905711074</v>
+        <v>0.02120182867049512</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01803396201563408</v>
+        <v>0.01777450002398487</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01522108072863379</v>
+        <v>0.02205508852274297</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01654523265808221</v>
+        <v>0.01836545600529243</v>
       </c>
       <c r="J88" t="n">
+        <v>0.06097656277540486</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.01816493901920474</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.09848022657614069</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.01811510944178399</v>
+      </c>
+      <c r="N88" t="n">
         <v>0.02205508852274297</v>
       </c>
-      <c r="K88" t="n">
+      <c r="O88" t="n">
         <v>0.01836545600529243</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.06941763720263364</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.01752115187554803</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.1092930568931137</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.01885368756179927</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01571430030964127</v>
+        <v>0.02265614890528375</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01726459059973796</v>
+        <v>0.01939036366252895</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02270742015214271</v>
+        <v>0.06313524444906973</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01888075937763687</v>
+        <v>0.01895471897656147</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0727498231087596</v>
+        <v>0.1003233081627216</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01828294108752838</v>
+        <v>0.01890272289577459</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1153308206966242</v>
+        <v>0.02265614890528375</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01967341310796445</v>
+        <v>0.01939036366252895</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0171870528710819</v>
+        <v>0.02358392146339594</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0179839485413937</v>
+        <v>0.02019829548180099</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02414274063883376</v>
+        <v>0.06390977309801454</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0196674576850384</v>
+        <v>0.0197444989339182</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07684753463400895</v>
+        <v>0.1030783236632946</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01904473029950873</v>
+        <v>0.0196903363497652</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1226055053101751</v>
+        <v>0.02358392146339594</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02049313865412964</v>
+        <v>0.02019829548180099</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01663596857714249</v>
+        <v>0.02444128947605918</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01870330648304945</v>
+        <v>0.02100622730107302</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02599340405185764</v>
+        <v>0.06599543982284531</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02045415599243994</v>
+        <v>0.02053427889127492</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07995190758225301</v>
+        <v>0.1054388269459893</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01980651951148907</v>
+        <v>0.02047794980375581</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1297314189223356</v>
+        <v>0.02444128947605918</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02131286420029483</v>
+        <v>0.02100622730107302</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01605767759200982</v>
+        <v>0.02542415040674713</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0194226644247052</v>
+        <v>0.02181415912034506</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02840514891412727</v>
+        <v>0.06788753572416806</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02124085429984148</v>
+        <v>0.02132405884863165</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08400407775736321</v>
+        <v>0.1088983718789352</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02056830872346942</v>
+        <v>0.02126556325774642</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1351228697216752</v>
+        <v>0.02542415040674713</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02213258974646001</v>
+        <v>0.02181415912034506</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01844881007987072</v>
+        <v>0.02632840171893351</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02014202236636095</v>
+        <v>0.0226220909396171</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03102371374855557</v>
+        <v>0.07028135190258872</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02202755260724301</v>
+        <v>0.02211383880598838</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08694518096321097</v>
+        <v>0.1108505123302621</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02133009793544978</v>
+        <v>0.02205317671173703</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1418941658967632</v>
+        <v>0.02632840171893351</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0229523152926252</v>
+        <v>0.0226220909396171</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01680599620491196</v>
+        <v>0.02744994087609194</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0208613803080167</v>
+        <v>0.02343002275888914</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03379483707805553</v>
+        <v>0.07177217945871334</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02281425091464455</v>
+        <v>0.02290361876334511</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0901163530036676</v>
+        <v>0.1138888021680995</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02209188714743012</v>
+        <v>0.02284079016572764</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1456596156361691</v>
+        <v>0.02744994087609194</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02377204083879039</v>
+        <v>0.02343002275888914</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01712586613132035</v>
+        <v>0.02828466534169609</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02158073824967244</v>
+        <v>0.02423795457816118</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03636425742554004</v>
+        <v>0.07335530949314784</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02360094922204609</v>
+        <v>0.02369339872070184</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09275872968260454</v>
+        <v>0.116906795260577</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02285367635941047</v>
+        <v>0.02362840361971824</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1491335271284622</v>
+        <v>0.02828466534169609</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02459176638495557</v>
+        <v>0.02423795457816118</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01740505002328267</v>
+        <v>0.02892847257921963</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02230009619132819</v>
+        <v>0.02504588639743322</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03867771331392206</v>
+        <v>0.0748260331064983</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02438764752944762</v>
+        <v>0.02448317867805856</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09411344680389314</v>
+        <v>0.1202980454758242</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02361546557139082</v>
+        <v>0.02441601707370885</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1525302085622121</v>
+        <v>0.02892847257921963</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02541149193112075</v>
+        <v>0.02504588639743322</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01964017804498575</v>
+        <v>0.02987726005213621</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02301945413298394</v>
+        <v>0.02585381821670526</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04058094326611453</v>
+        <v>0.0766796413993707</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02517434583684916</v>
+        <v>0.02527295863541529</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09562164017140476</v>
+        <v>0.1224561066819706</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02437725478337117</v>
+        <v>0.02520363052769946</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1529639681259881</v>
+        <v>0.02987726005213621</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02623121747728594</v>
+        <v>0.02585381821670526</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01882788036061637</v>
+        <v>0.03082692522391951</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02373881207463969</v>
+        <v>0.0266617500359773</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04181968580503036</v>
+        <v>0.07811142547237104</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02596104414425069</v>
+        <v>0.02606273859277202</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09752444558901088</v>
+        <v>0.1245745327471459</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02513904399535152</v>
+        <v>0.02599124398169007</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1541919720338767</v>
+        <v>0.03082692522391951</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02705094302345113</v>
+        <v>0.0266617500359773</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01996478713436132</v>
+        <v>0.03207336555804317</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02445817001629544</v>
+        <v>0.02746968185524934</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04263967945358249</v>
+        <v>0.07981667642610527</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02674774245165223</v>
+        <v>0.02685251855012875</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09776299886058282</v>
+        <v>0.1271468775394797</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02590083320733187</v>
+        <v>0.02677885743568068</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1539558558623516</v>
+        <v>0.03207336555804317</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02787066856961631</v>
+        <v>0.02746968185524934</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02004752853040741</v>
+        <v>0.0328124785179809</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02517752795795119</v>
+        <v>0.02827761367452138</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04263051426720754</v>
+        <v>0.08199068536117943</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02753444075905377</v>
+        <v>0.02764229850748548</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09833185909177666</v>
+        <v>0.1302666949271015</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02666262241931222</v>
+        <v>0.02756647088967128</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1533383641185575</v>
+        <v>0.0328124785179809</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0286903941157815</v>
+        <v>0.02827761367452138</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02007283403089564</v>
+        <v>0.0336401615672063</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02589688589960694</v>
+        <v>0.02908554549379342</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04239169425503737</v>
+        <v>0.08382874337819954</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02832113906645531</v>
+        <v>0.0284320784648422</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09745821943166649</v>
+        <v>0.1329275387781409</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02742441163129257</v>
+        <v>0.02835408434366189</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1527557189414032</v>
+        <v>0.0336401615672063</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02951011966194669</v>
+        <v>0.02908554549379342</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01805746899230161</v>
+        <v>0.03465231216919308</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02661624384126268</v>
+        <v>0.02989347731306546</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04205927951865805</v>
+        <v>0.08482614157777149</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02910783737385684</v>
+        <v>0.02922185842219893</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09722271574028724</v>
+        <v>0.1342229629607276</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02818620084327292</v>
+        <v>0.0291416977976525</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1519241424697976</v>
+        <v>0.03465231216919308</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03032984520811187</v>
+        <v>0.02989347731306546</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0180169233566673</v>
+        <v>0.03554482778741488</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02733560178291843</v>
+        <v>0.0307014091323375</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04194793202747138</v>
+        <v>0.08687817106050139</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02989453568125837</v>
+        <v>0.03001163837955566</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09694301041004641</v>
+        <v>0.136846521342991</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02894799005525326</v>
+        <v>0.02992931125164311</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1508598568426494</v>
+        <v>0.03554482778741488</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03114957075427706</v>
+        <v>0.0307014091323375</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01995321401623251</v>
+        <v>0.03661360588534539</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02805495972457418</v>
+        <v>0.03150934095160954</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04147231375087926</v>
+        <v>0.08878012292699519</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03068123398865992</v>
+        <v>0.03080141833691239</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09683676583335141</v>
+        <v>0.1398917677930609</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02970977926723361</v>
+        <v>0.03071692470563371</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1504790841988675</v>
+        <v>0.03661360588534539</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03196929630044224</v>
+        <v>0.03150934095160954</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01886835786323703</v>
+        <v>0.03745454392645825</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02877431766622993</v>
+        <v>0.03231727277088157</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04124708665828353</v>
+        <v>0.09022728827785892</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03146793229606145</v>
+        <v>0.03159119829426912</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0952216444026098</v>
+        <v>0.1410522561790668</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03047156847921396</v>
+        <v>0.03150453815962433</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1478980466773605</v>
+        <v>0.03745454392645825</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03278902184660742</v>
+        <v>0.03231727277088157</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01776437178992066</v>
+        <v>0.03796353937422713</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02949367560788567</v>
+        <v>0.03312520459015361</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04068691271908607</v>
+        <v>0.09111495821369847</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03225463060346299</v>
+        <v>0.03238097825162584</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09521530851022905</v>
+        <v>0.1437215403691384</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03123335769119431</v>
+        <v>0.03229215161361493</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1468329664170374</v>
+        <v>0.03796353937422713</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03360874739277261</v>
+        <v>0.03312520459015361</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01764327268852323</v>
+        <v>0.03873648969212568</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03021303354954142</v>
+        <v>0.03393313640942566</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04000645390268873</v>
+        <v>0.09283842383511998</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03304132891086452</v>
+        <v>0.03317075820898257</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09453542054861666</v>
+        <v>0.144893174231405</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03199514690317466</v>
+        <v>0.03307976506760554</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1457000655568069</v>
+        <v>0.03873648969212568</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0344284729389378</v>
+        <v>0.03393313640942566</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01850707745128453</v>
+        <v>0.03986929234362759</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03093239149119717</v>
+        <v>0.03474106822869769</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03982037217849335</v>
+        <v>0.09379297624272936</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03382802721826605</v>
+        <v>0.03396053816633929</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09269964291018001</v>
+        <v>0.1472607116339965</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03275693611515501</v>
+        <v>0.03386737852159614</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1453155662355778</v>
+        <v>0.03986929234362759</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03524819848510299</v>
+        <v>0.03474106822869769</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01735780297044435</v>
+        <v>0.04015784479220649</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03165174943285292</v>
+        <v>0.03554900004796974</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0392433295159018</v>
+        <v>0.09457390653713263</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0346147255256676</v>
+        <v>0.03475031812369602</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09232563798732671</v>
+        <v>0.1487177064450423</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03351872532713536</v>
+        <v>0.03465499197558676</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1435956905922589</v>
+        <v>0.04015784479220649</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03606792403126817</v>
+        <v>0.03554900004796974</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01719746613824249</v>
+        <v>0.04119804450133607</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03237110737450867</v>
+        <v>0.03635693186724177</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03878998788431598</v>
+        <v>0.09557650581893584</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03540142383306913</v>
+        <v>0.03554009808105275</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09113106817246414</v>
+        <v>0.1500577125326722</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03428051453911571</v>
+        <v>0.03544260542957737</v>
       </c>
       <c r="N110" t="n">
-        <v>0.141756660765759</v>
+        <v>0.04119804450133607</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03688764957743335</v>
+        <v>0.03635693186724177</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01902808384691878</v>
+        <v>0.04138578893448999</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03309046531616441</v>
+        <v>0.03716486368651382</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03837500925313769</v>
+        <v>0.09689606518874486</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03618812214047067</v>
+        <v>0.03632987803840948</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09063359585799985</v>
+        <v>0.1521742837650156</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03504230375109605</v>
+        <v>0.03623021888356798</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1413146988949869</v>
+        <v>0.04138578893448999</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03770737512359854</v>
+        <v>0.03716486368651382</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.018851672988713</v>
+        <v>0.0420169755551419</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03380982325782016</v>
+        <v>0.03797279550578585</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03771305559176884</v>
+        <v>0.09812787574716583</v>
       </c>
       <c r="K112" t="n">
-        <v>0.0369748204478722</v>
+        <v>0.03711965799576621</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08905088343634124</v>
+        <v>0.1536609740102021</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03580409296307641</v>
+        <v>0.03701783233755858</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1393860271188515</v>
+        <v>0.0420169755551419</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03852710066976373</v>
+        <v>0.03797279550578585</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01867025045586496</v>
+        <v>0.04248750182676547</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03452918119947591</v>
+        <v>0.03878072732505789</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03781878886961125</v>
+        <v>0.09916722859480459</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03776151875527373</v>
+        <v>0.03790943795312294</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08820059329989588</v>
+        <v>0.1551113371363614</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03656588217505675</v>
+        <v>0.03780544579154919</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1377868675762614</v>
+        <v>0.04248750182676547</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03934682621592891</v>
+        <v>0.03878072732505789</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01848583314061446</v>
+        <v>0.04279326521283439</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03524853914113166</v>
+        <v>0.03958865914432994</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0373068710560668</v>
+        <v>0.09970941483226728</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03854821706267528</v>
+        <v>0.03869921791047966</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08780038784107116</v>
+        <v>0.156918927011623</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0373276713870371</v>
+        <v>0.0385930592455398</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1365334424061254</v>
+        <v>0.04279326521283439</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0401665517620941</v>
+        <v>0.03958865914432994</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01630043793520131</v>
+        <v>0.04353016317682228</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03596789708278741</v>
+        <v>0.04039659096360197</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03739196412053733</v>
+        <v>0.1004497255601598</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03933491537007681</v>
+        <v>0.03948899786783639</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08686792945227464</v>
+        <v>0.1570772975041165</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03808946059901745</v>
+        <v>0.0393806726995304</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1358419737473526</v>
+        <v>0.04353016317682228</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04098627730825928</v>
+        <v>0.04039659096360197</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01711608173186529</v>
+        <v>0.0436940931822028</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03668725502444316</v>
+        <v>0.04120452278287401</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03718112843239341</v>
+        <v>0.1006834518790882</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04012161367747834</v>
+        <v>0.04027877782519312</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08622088052591376</v>
+        <v>0.1586800024819716</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0388512498109978</v>
+        <v>0.04016828615352101</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1347286837388514</v>
+        <v>0.0436940931822028</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04180600285442446</v>
+        <v>0.04120452278287401</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01593478142284623</v>
+        <v>0.04368095269244966</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03740661296609891</v>
+        <v>0.04201245460214605</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03713033515170922</v>
+        <v>0.1016058848896584</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04090831198487988</v>
+        <v>0.04106855778254985</v>
       </c>
       <c r="L117" t="n">
-        <v>0.085576903454396</v>
+        <v>0.1593205958133178</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03961303902297815</v>
+        <v>0.04095589960751162</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1330097945195309</v>
+        <v>0.04368095269244966</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04262572840058965</v>
+        <v>0.04201245460214605</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01675855390038393</v>
+        <v>0.04411017704548593</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03812597090775465</v>
+        <v>0.04282038642141809</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03752676196882013</v>
+        <v>0.1016123156924765</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04169501029228142</v>
+        <v>0.04185833773990658</v>
       </c>
       <c r="L118" t="n">
-        <v>0.08505366063012884</v>
+        <v>0.1588926313662847</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0403748282349585</v>
+        <v>0.04174351306150224</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1321015282282997</v>
+        <v>0.04411017704548593</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04344545394675484</v>
+        <v>0.04282038642141809</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01758941605671817</v>
+        <v>0.04371001112508201</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0388453288494104</v>
+        <v>0.04362831824069013</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03746655459037704</v>
+        <v>0.1021583959624029</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04248170859968296</v>
+        <v>0.04264811769726331</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08376881444551976</v>
+        <v>0.1602066148793199</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04113661744693885</v>
+        <v>0.04253112651549284</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1325201070040666</v>
+        <v>0.04371001112508201</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04426517949292003</v>
+        <v>0.04362831824069013</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01742938478408878</v>
+        <v>0.04380642759663095</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03956468679106615</v>
+        <v>0.04443625005996216</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03764585872303082</v>
+        <v>0.1017583843735009</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04326840690708449</v>
+        <v>0.04343789765462003</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08404002729297627</v>
+        <v>0.1587052446095988</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0418984066589192</v>
+        <v>0.04331873996948345</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1314817529857407</v>
+        <v>0.04380642759663095</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04508490503908522</v>
+        <v>0.04443625005996216</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01528047697473554</v>
+        <v>0.04389821876252614</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0402840447327219</v>
+        <v>0.04524418187923421</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03796082007343238</v>
+        <v>0.1017454086793977</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04405510521448602</v>
+        <v>0.04422767761197675</v>
       </c>
       <c r="L121" t="n">
-        <v>0.08418456526206147</v>
+        <v>0.1587725726908472</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04266019587089955</v>
+        <v>0.04410635342347406</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1316026883122304</v>
+        <v>0.04389821876252614</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0459046305852504</v>
+        <v>0.04524418187923421</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01614470952089827</v>
+        <v>0.04368545144709983</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04100340267437765</v>
+        <v>0.04605211369850624</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03810758434823265</v>
+        <v>0.1017085872615704</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04484180352188756</v>
+        <v>0.04501745756933349</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08359938287657839</v>
+        <v>0.1600538656650788</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04342198508287989</v>
+        <v>0.04489396687746466</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1312991351224447</v>
+        <v>0.04368545144709983</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04672435613141559</v>
+        <v>0.04605211369850624</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01502409931481676</v>
+        <v>0.04376819247468415</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0417227606160334</v>
+        <v>0.04686004551777828</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03868229725408248</v>
+        <v>0.1017488068166581</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0456285018292891</v>
+        <v>0.04580723752669021</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08456782297209667</v>
+        <v>0.1592544873779773</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04418377429486024</v>
+        <v>0.04568158033145527</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1304873155552923</v>
+        <v>0.04376819247468415</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04754408167758077</v>
+        <v>0.04686004551777828</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01592066324873082</v>
+        <v>0.04384650866961129</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04244211855768914</v>
+        <v>0.04766797733705033</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0388811044976328</v>
+        <v>0.1011669540413001</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04641520013669063</v>
+        <v>0.04659701748404694</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08447633157093248</v>
+        <v>0.1587790829465089</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04494556350684059</v>
+        <v>0.04646919378544587</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1312546370034956</v>
+        <v>0.04384650866961129</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04836380722374595</v>
+        <v>0.04766797733705033</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01583641821488024</v>
+        <v>0.04402046685621343</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04316147649934489</v>
+        <v>0.04847590915632236</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03920015178553447</v>
+        <v>0.1009639156321352</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04720189844409217</v>
+        <v>0.04738679744140367</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08511135469540204</v>
+        <v>0.1586322974876403</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04570735271882094</v>
+        <v>0.04725680723943649</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1313686108092035</v>
+        <v>0.04402046685621343</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04918353276991114</v>
+        <v>0.04847590915632236</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01477338110550484</v>
+        <v>0.04389013385882275</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04388083444100064</v>
+        <v>0.04928384097559441</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03963558482443844</v>
+        <v>0.1014405782858029</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04798859675149371</v>
+        <v>0.0481765773987604</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08585933836782145</v>
+        <v>0.1574187761183378</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0464691419308013</v>
+        <v>0.0480444206934271</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1320561692019264</v>
+        <v>0.04389013385882275</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05000325831607633</v>
+        <v>0.04928384097559441</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01573356881284442</v>
+        <v>0.04375557650177139</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04460019238265639</v>
+        <v>0.05009177279486644</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03958354932099557</v>
+        <v>0.101097828698942</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04877529505889525</v>
+        <v>0.04896635735611712</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08690672861050697</v>
+        <v>0.1571431639555679</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04723093114278164</v>
+        <v>0.04883203414741771</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1337437196110048</v>
+        <v>0.04375557650177139</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05082298386224151</v>
+        <v>0.05009177279486644</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01471899822913878</v>
+        <v>0.0436168616093916</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04531955032431213</v>
+        <v>0.05089970461413849</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04014019098185674</v>
+        <v>0.1008365535681918</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04956199336629678</v>
+        <v>0.04975613731347386</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08783997144577474</v>
+        <v>0.1575101061162971</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04799272035476199</v>
+        <v>0.04961964760140831</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1360576694657796</v>
+        <v>0.0436168616093916</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0516427094084067</v>
+        <v>0.05089970461413849</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0157415483736804</v>
+        <v>0.04347405600601549</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04603890826596788</v>
+        <v>0.05170763643341052</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04060165551367291</v>
+        <v>0.1004576395901913</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05034869167369832</v>
+        <v>0.05054591727083058</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08794551289594088</v>
+        <v>0.1567242477174917</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04875450956674234</v>
+        <v>0.05040726105539892</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1391244261955917</v>
+        <v>0.04347405600601549</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05246243495457188</v>
+        <v>0.05170763643341052</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01581084635819511</v>
+        <v>0.04362722651597527</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04675826620762363</v>
+        <v>0.05251556825268256</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04076408862309493</v>
+        <v>0.1005619734615797</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05113538998109985</v>
+        <v>0.05133569722818731</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08960979898332166</v>
+        <v>0.1554902338761182</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04951629877872268</v>
+        <v>0.05119487450938953</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1417703972297819</v>
+        <v>0.04362722651597527</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05328216050073706</v>
+        <v>0.05251556825268256</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01492231138654691</v>
+        <v>0.04357643996360309</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04747762414927938</v>
+        <v>0.0533235000719546</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04122363601677367</v>
+        <v>0.100050441878996</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05192208828850139</v>
+        <v>0.05212547718554403</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08991927573023323</v>
+        <v>0.1559127097091429</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05027808799070304</v>
+        <v>0.05198248796338014</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1445219899976908</v>
+        <v>0.04357643996360309</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05410188604690226</v>
+        <v>0.0533235000719546</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01607133649155525</v>
+        <v>0.04362176317323116</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04819698209093513</v>
+        <v>0.05413143189122664</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04167644340136011</v>
+        <v>0.1002239315390794</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05270878659590292</v>
+        <v>0.05291525714290076</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09096038915899174</v>
+        <v>0.1548963203335326</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05103987720268338</v>
+        <v>0.05277010141737074</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1456056119286593</v>
+        <v>0.04362176317323116</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05492161159306744</v>
+        <v>0.05413143189122664</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01625331470603959</v>
+        <v>0.04326326296919165</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04891634003259088</v>
+        <v>0.05493936371049868</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04201865648350508</v>
+        <v>0.09968332913846903</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05349548490330445</v>
+        <v>0.05370503710025749</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09191958529191341</v>
+        <v>0.1532457108662535</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05180166641466374</v>
+        <v>0.05355771487136135</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1490476704520282</v>
+        <v>0.04326326296919165</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05574133713923263</v>
+        <v>0.05493936371049868</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01646363906281938</v>
+        <v>0.04360100617581671</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04963569797424663</v>
+        <v>0.05574729552977072</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04214642096985953</v>
+        <v>0.099529521373804</v>
       </c>
       <c r="K134" t="n">
-        <v>0.054282183210706</v>
+        <v>0.05449481705761422</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09348331015131436</v>
+        <v>0.152565526424272</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05256345562664409</v>
+        <v>0.05434532832535197</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1511745729971382</v>
+        <v>0.04360100617581671</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05656106268539781</v>
+        <v>0.05574729552977072</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01769770259471407</v>
+        <v>0.04353505961743855</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05035505591590237</v>
+        <v>0.05655522734904275</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04265588256707428</v>
+        <v>0.0993633949417233</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05506888151810754</v>
+        <v>0.05528459701497095</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09413800975951078</v>
+        <v>0.1526604121245546</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05332524483862443</v>
+        <v>0.05513294177934256</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1536127269933303</v>
+        <v>0.04353505961743855</v>
       </c>
       <c r="O135" t="n">
-        <v>0.057380788231563</v>
+        <v>0.05655522734904275</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01695089833454312</v>
+        <v>0.04306549011838932</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05107441385755812</v>
+        <v>0.0573631591683148</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0430431869818003</v>
+        <v>0.09928583653886622</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05585557982550907</v>
+        <v>0.05607437697232767</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09527013013881891</v>
+        <v>0.1519350130840677</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05408703405060478</v>
+        <v>0.05592055523333318</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1549885398699452</v>
+        <v>0.04306549011838932</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05820051377772818</v>
+        <v>0.0573631591683148</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01621861931512598</v>
+        <v>0.04319236450300121</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05179377179921387</v>
+        <v>0.05817109098758684</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04310447992068846</v>
+        <v>0.09829773286187177</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05664227813291061</v>
+        <v>0.0568641569296844</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09636611731155487</v>
+        <v>0.1503939744197778</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05484882326258513</v>
+        <v>0.05670816868732378</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1565284190563235</v>
+        <v>0.04319236450300121</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05902023932389337</v>
+        <v>0.05817109098758684</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01749625856928211</v>
+        <v>0.0430157495956064</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05251312974086961</v>
+        <v>0.05897902280685888</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04343590709038966</v>
+        <v>0.09799997060737908</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05742897644031214</v>
+        <v>0.05765393688704113</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0974124173000348</v>
+        <v>0.1490419412486513</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05561061247456548</v>
+        <v>0.0574957821413144</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1591587719818063</v>
+        <v>0.0430157495956064</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05983996487005855</v>
+        <v>0.05897902280685888</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01677920912983095</v>
+        <v>0.04283571222053706</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05323248768252536</v>
+        <v>0.05978695462613091</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0437336141975548</v>
+        <v>0.09819343647202727</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05821567474771368</v>
+        <v>0.05844371684439786</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09869547612657495</v>
+        <v>0.1481835586876548</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05637240168654584</v>
+        <v>0.05828339559530501</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1602066148793199</v>
+        <v>0.04283571222053706</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06065969041622375</v>
+        <v>0.05978695462613091</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01706286402959197</v>
+        <v>0.04285231920212537</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05395184562418111</v>
+        <v>0.06059488644540295</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04369374694883475</v>
+        <v>0.09797901715245547</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05900237305511522</v>
+        <v>0.05923349680175458</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09890173981349151</v>
+        <v>0.1474234718537546</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05713419089852617</v>
+        <v>0.05907100904929561</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1586064772574849</v>
+        <v>0.04285231920212537</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06147941596238892</v>
+        <v>0.06059488644540295</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01834261630138462</v>
+        <v>0.04306563736470351</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05467120356583686</v>
+        <v>0.061402818264675</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04401245105088047</v>
+        <v>0.09765759934530277</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05978907136251674</v>
+        <v>0.06002327675911132</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1003176543831006</v>
+        <v>0.146166325863917</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05789598011050653</v>
+        <v>0.05985862250328622</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1599007518451476</v>
+        <v>0.04306563736470351</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06229914150855411</v>
+        <v>0.061402818264675</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01861385897802835</v>
+        <v>0.04267573353260365</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05539056150749261</v>
+        <v>0.06221075008394703</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04388587221034278</v>
+        <v>0.09713006974720831</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06057576966991829</v>
+        <v>0.06081305671646804</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1008296658577184</v>
+        <v>0.1466167658351087</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05865776932248688</v>
+        <v>0.06064623595727683</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1597867502308539</v>
+        <v>0.04267573353260365</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06311886705471929</v>
+        <v>0.06221075008394703</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01987198509234261</v>
+        <v>0.04278267453015797</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05610991944914835</v>
+        <v>0.06301868190321908</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04411017704548593</v>
+        <v>0.09679731505481118</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06136246797731983</v>
+        <v>0.06160283667382477</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1015242202596611</v>
+        <v>0.144679436884296</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05941955853446722</v>
+        <v>0.06143384941126743</v>
       </c>
       <c r="N143" t="n">
-        <v>0.159164654084803</v>
+        <v>0.04278267453015797</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06393859260088448</v>
+        <v>0.06301868190321908</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01811238767714685</v>
+        <v>0.04268652718169863</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0568292773908041</v>
+        <v>0.06382661372249111</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04381068665006879</v>
+        <v>0.09676022196475051</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06214916628472136</v>
+        <v>0.0623926166311815</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1018877636112448</v>
+        <v>0.1450589841284453</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06018134774644757</v>
+        <v>0.06222146286525804</v>
       </c>
       <c r="N144" t="n">
-        <v>0.158634645077194</v>
+        <v>0.04268652718169863</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06475831814704966</v>
+        <v>0.06382661372249111</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01833045976526054</v>
+        <v>0.04238735831155785</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05754863533245985</v>
+        <v>0.06463454554176315</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04411116225795775</v>
+        <v>0.09611967717366537</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0629358645921229</v>
+        <v>0.06318239658853823</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1011067419347858</v>
+        <v>0.1431600526845232</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06094313695842792</v>
+        <v>0.06300907631924865</v>
       </c>
       <c r="N145" t="n">
-        <v>0.159096904878226</v>
+        <v>0.04238735831155785</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06557804369321485</v>
+        <v>0.06463454554176315</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02052159438950314</v>
+        <v>0.04248523474406776</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0582679932741156</v>
+        <v>0.06544247736103519</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04411162343174731</v>
+        <v>0.09557656737819492</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06372256289952442</v>
+        <v>0.06397217654589496</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1021583959624029</v>
+        <v>0.1428872876694959</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06170492617040828</v>
+        <v>0.06379668977323927</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1585516151580982</v>
+        <v>0.04248523474406776</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06639776923938004</v>
+        <v>0.06544247736103519</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01968118458269407</v>
+        <v>0.04228022330356056</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05898735121577135</v>
+        <v>0.06625040918030722</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0440120702861129</v>
+        <v>0.09593177927497828</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06450926120692597</v>
+        <v>0.06476195650325167</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1015454259196069</v>
+        <v>0.1417453342003302</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06246671538238862</v>
+        <v>0.06458430322722987</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1596989575870097</v>
+        <v>0.04228022330356056</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06721749478554523</v>
+        <v>0.06625040918030722</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02080462337765281</v>
+        <v>0.04197239081436843</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0597067091574271</v>
+        <v>0.06705834099957926</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0437125029357299</v>
+        <v>0.09568619956065452</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06529595951432751</v>
+        <v>0.06555173646060841</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1019015977603062</v>
+        <v>0.1410388373939923</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06322850459436898</v>
+        <v>0.06537191668122047</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1597391138351597</v>
+        <v>0.04197239081436843</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0680372203317104</v>
+        <v>0.06705834099957926</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01888730380719881</v>
+        <v>0.04206180410082354</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06042606709908285</v>
+        <v>0.06786627281885131</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04391292149527375</v>
+        <v>0.09444071493186282</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06608265782172904</v>
+        <v>0.06634151641796514</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1013559725079521</v>
+        <v>0.1415723506777358</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06399029380634932</v>
+        <v>0.06615953013521109</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1593722655727472</v>
+        <v>0.04206180410082354</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06885694587787559</v>
+        <v>0.06786627281885131</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02092632153271563</v>
+        <v>0.04174852998725806</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06114542504073859</v>
+        <v>0.06867420463812335</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04381332607941987</v>
+        <v>0.09449621208524223</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06686935612913059</v>
+        <v>0.06713129637532186</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1021085532171401</v>
+        <v>0.1397330360129838</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06475208301832966</v>
+        <v>0.06694714358920169</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1595985944699714</v>
+        <v>0.04174852998725806</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06967667142404077</v>
+        <v>0.06867420463812335</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01992606738750984</v>
+        <v>0.04203263529800419</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06186478298239434</v>
+        <v>0.06948213645739539</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04391371680284362</v>
+        <v>0.09365357771743188</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06765605443653211</v>
+        <v>0.06792107633267859</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1020593429424655</v>
+        <v>0.1400086006445639</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06551387223031002</v>
+        <v>0.06773475704319229</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1586182821970314</v>
+        <v>0.04203263529800419</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07049639697020597</v>
+        <v>0.06948213645739539</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01992492567929823</v>
+        <v>0.04191418685739408</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06258414092405008</v>
+        <v>0.07029006827666744</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04371409378022047</v>
+        <v>0.0943136985250709</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06844275274393365</v>
+        <v>0.06871085629003533</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1019083447385237</v>
+        <v>0.1387980367763023</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06627566144229037</v>
+        <v>0.06852237049718291</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1583315104241264</v>
+        <v>0.04191418685739408</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07131612251637116</v>
+        <v>0.07029006827666744</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0209228792112016</v>
+        <v>0.04149325148975992</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06330349886570584</v>
+        <v>0.07109800009593947</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04391445712622578</v>
+        <v>0.09397746120479841</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0692294510513352</v>
+        <v>0.06950063624739204</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1017555616599098</v>
+        <v>0.1384003366120248</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06703745065427072</v>
+        <v>0.06930998395117352</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1587384608214555</v>
+        <v>0.04149325148975992</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07213584806253634</v>
+        <v>0.07109800009593947</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02091994198811071</v>
+        <v>0.04166989601943388</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06402285680736158</v>
+        <v>0.07190593191521151</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04371480695553502</v>
+        <v>0.09294575245325348</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07001614935873672</v>
+        <v>0.07029041620474878</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1016009967612195</v>
+        <v>0.1378144923555573</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06779923986625107</v>
+        <v>0.07009759740516412</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1589393150592178</v>
+        <v>0.04166989601943388</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07295557360870153</v>
+        <v>0.07190593191521151</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02091612801491634</v>
+        <v>0.04124418727074815</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06474221474901734</v>
+        <v>0.07271386373448355</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04371514338282356</v>
+        <v>0.09241945896707526</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07080284766613826</v>
+        <v>0.07108019616210551</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1017446530970477</v>
+        <v>0.1376394962107256</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06856102907823142</v>
+        <v>0.07088521085915474</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1583342548076125</v>
+        <v>0.04124418727074815</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07377529915486671</v>
+        <v>0.07271386373448355</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01891145129650926</v>
+        <v>0.04121619206803487</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06546157269067307</v>
+        <v>0.0735217955537556</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04391546652276679</v>
+        <v>0.09279946744290288</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07158954597353979</v>
+        <v>0.07186997611946223</v>
       </c>
       <c r="L156" t="n">
-        <v>0.10178653372199</v>
+        <v>0.1372743403813557</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06932281829021177</v>
+        <v>0.07167282431314534</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1586234617368387</v>
+        <v>0.04121619206803487</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0745950247010319</v>
+        <v>0.0735217955537556</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01890592583778027</v>
+        <v>0.04128597723562628</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06618093063232883</v>
+        <v>0.07432972737302763</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04381577649004018</v>
+        <v>0.09178629201911875</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07237624428094133</v>
+        <v>0.07265975607681896</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1021266416906417</v>
+        <v>0.1368180170712734</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0700846075021921</v>
+        <v>0.07246043776713595</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1587071175170954</v>
+        <v>0.04128597723562628</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07541475024719708</v>
+        <v>0.07432972737302763</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01989956564362014</v>
+        <v>0.04075360959785451</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06690028857398457</v>
+        <v>0.07513765919229967</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04401607339931908</v>
+        <v>0.09216978139899445</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07316294258834287</v>
+        <v>0.0734495360341757</v>
       </c>
       <c r="L158" t="n">
-        <v>0.101864980057598</v>
+        <v>0.1359695184843046</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07084639671417246</v>
+        <v>0.07324805122112656</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1585854038185819</v>
+        <v>0.04075360959785451</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07623447579336227</v>
+        <v>0.07513765919229967</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02089238471891963</v>
+        <v>0.04071915597905175</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06761964651564033</v>
+        <v>0.07594559101157171</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04411635736527895</v>
+        <v>0.09194525016297059</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07394964089574441</v>
+        <v>0.07423931599153241</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1019015518774544</v>
+        <v>0.1343278368242754</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07160818592615281</v>
+        <v>0.07403566467511716</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1580585023114973</v>
+        <v>0.04071915597905175</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07705420133952745</v>
+        <v>0.07594559101157171</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01888439706856954</v>
+        <v>0.04048268320355017</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06833900445729607</v>
+        <v>0.07675352283084375</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04371662850259518</v>
+        <v>0.09101299055605361</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07473633920314594</v>
+        <v>0.07502909594888915</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1022363602048063</v>
+        <v>0.1337919642950116</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07236997513813316</v>
+        <v>0.07482327812910777</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1583265946660407</v>
+        <v>0.04048268320355017</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07787392688569264</v>
+        <v>0.07675352283084375</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01887561669746064</v>
+        <v>0.04064425809568195</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06905836239895183</v>
+        <v>0.07756145465011578</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04401688692594319</v>
+        <v>0.09087329482325024</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07552303751054747</v>
+        <v>0.07581887590624588</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1028694080942487</v>
+        <v>0.133360893100339</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07313176435011351</v>
+        <v>0.07561089158309837</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1579898625524113</v>
+        <v>0.04064425809568195</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07869365243185782</v>
+        <v>0.07756145465011578</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01886605761048369</v>
+        <v>0.04050394747977927</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06977772034060757</v>
+        <v>0.07836938646938782</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04401713274999834</v>
+        <v>0.09022645520956707</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07630973581794902</v>
+        <v>0.07660865586360259</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1026006986003771</v>
+        <v>0.1335336154440836</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07389355356209386</v>
+        <v>0.07639850503708899</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1583484876408082</v>
+        <v>0.04050394747977927</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07951337797802301</v>
+        <v>0.07836938646938782</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0198557338125295</v>
+        <v>0.04016181818017432</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07049707828226331</v>
+        <v>0.07917731828865987</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04401736608943613</v>
+        <v>0.09027276396001069</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07709643412535055</v>
+        <v>0.07739843582095933</v>
       </c>
       <c r="L163" t="n">
-        <v>0.102330234777787</v>
+        <v>0.1321091235300713</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07465534277407421</v>
+        <v>0.07718611849107961</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1567026516014304</v>
+        <v>0.04016181818017432</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0803331035241882</v>
+        <v>0.07917731828865987</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01984465930848883</v>
+        <v>0.04011793702119924</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07121643622391906</v>
+        <v>0.07998525010793191</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04371758705893192</v>
+        <v>0.09001251331958779</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07788313243275208</v>
+        <v>0.07818821577831606</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1025580196810735</v>
+        <v>0.1317864095621278</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07541713198605456</v>
+        <v>0.07797373194507021</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1569525361044772</v>
+        <v>0.04011793702119924</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08115282907035339</v>
+        <v>0.07998525010793191</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01883284810325245</v>
+        <v>0.04007237082718623</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07193579416557482</v>
+        <v>0.08079318192720394</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04371779577316111</v>
+        <v>0.08964599553330491</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07866983074015362</v>
+        <v>0.07897799573567278</v>
       </c>
       <c r="L165" t="n">
-        <v>0.102484056364832</v>
+        <v>0.1311644657440793</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0761789211980349</v>
+        <v>0.07876134539906081</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1564983228201476</v>
+        <v>0.04007237082718623</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08197255461651856</v>
+        <v>0.08079318192720394</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01982031420171116</v>
+        <v>0.03992482020492283</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07265515210723056</v>
+        <v>0.08160111374647598</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04371799234679913</v>
+        <v>0.08937350284616871</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07945652904755517</v>
+        <v>0.07976777569302951</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1025083478836579</v>
+        <v>0.1316422842797516</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07694071041001525</v>
+        <v>0.07954895885305142</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1576401934186409</v>
+        <v>0.03992482020492283</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08279228016268375</v>
+        <v>0.08160111374647598</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02080707160875572</v>
+        <v>0.03955007000495292</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07337451004888632</v>
+        <v>0.08240904556574802</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0441181768945214</v>
+        <v>0.08869532750318579</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08024322735495669</v>
+        <v>0.08055755565038625</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1026308972921464</v>
+        <v>0.1311188573729705</v>
       </c>
       <c r="M167" t="n">
-        <v>0.0777024996219956</v>
+        <v>0.08033657230704203</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1573783295701561</v>
+        <v>0.03955007000495292</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08361200570884893</v>
+        <v>0.08240904556574802</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02079313432927691</v>
+        <v>0.03963533209441895</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07409386799054206</v>
+        <v>0.08321697738502006</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04391834953100329</v>
+        <v>0.08831176174936278</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08102992566235823</v>
+        <v>0.08134733560774296</v>
       </c>
       <c r="L168" t="n">
-        <v>0.102051707644893</v>
+        <v>0.129793177227562</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07846428883397595</v>
+        <v>0.08112418576103264</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1566129129448924</v>
+        <v>0.03963533209441895</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08443173125501413</v>
+        <v>0.08321697738502006</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01977851636816551</v>
+        <v>0.03918427144269157</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07481322593219782</v>
+        <v>0.08402490920429209</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04401851037092026</v>
+        <v>0.08832309782970624</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08181662396975976</v>
+        <v>0.0821371155650997</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1021707819964929</v>
+        <v>0.1302642360473519</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0792260780459563</v>
+        <v>0.08191179921502324</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1560441252130488</v>
+        <v>0.03918427144269157</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08525145680117931</v>
+        <v>0.08402490920429209</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0187632317303123</v>
+        <v>0.03880055301914143</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07553258387385355</v>
+        <v>0.08483284102356414</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04371865952894771</v>
+        <v>0.08762962798922289</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0826033222771613</v>
+        <v>0.08292689552245643</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1021881234015414</v>
+        <v>0.1288310260361662</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07998786725793665</v>
+        <v>0.08269941266901386</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1560721480448246</v>
+        <v>0.03880055301914143</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0860711823473445</v>
+        <v>0.08483284102356414</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01874729442060805</v>
+        <v>0.03858784179313914</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0762519418155093</v>
+        <v>0.08564077284283618</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04381879711976103</v>
+        <v>0.0873316444729193</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08339002058456284</v>
+        <v>0.08371667547981315</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1026037349146339</v>
+        <v>0.1279925393978307</v>
       </c>
       <c r="M171" t="n">
-        <v>0.080749656469917</v>
+        <v>0.08348702612300447</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1566971631104188</v>
+        <v>0.03858784179313914</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08689090789350967</v>
+        <v>0.08564077284283618</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01873071844394355</v>
+        <v>0.03804980273405534</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07697129975716505</v>
+        <v>0.08644870466210822</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04381892325803563</v>
+        <v>0.08642943952580201</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08417671889196437</v>
+        <v>0.08450645543716988</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1027176195903658</v>
+        <v>0.1281477683361715</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08151144568189735</v>
+        <v>0.08427463957699506</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1565193520800306</v>
+        <v>0.03804980273405534</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08771063343967486</v>
+        <v>0.08644870466210822</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01871351780520956</v>
+        <v>0.03769010081126067</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0776906576988208</v>
+        <v>0.08725663648138025</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04371903805844694</v>
+        <v>0.08622330539287779</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08496341719936591</v>
+        <v>0.08529623539452662</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1022297804833323</v>
+        <v>0.1274957050550142</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08227323489387769</v>
+        <v>0.08506225303098568</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1557388966238593</v>
+        <v>0.03769010081126067</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08853035898584005</v>
+        <v>0.08725663648138025</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01869570650929689</v>
+        <v>0.03761240099412574</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07841001564047655</v>
+        <v>0.08806456830065229</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04401914163567036</v>
+        <v>0.08561353431915311</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08575011550676744</v>
+        <v>0.08608601535188333</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1021402206481289</v>
+        <v>0.126435341758185</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08303502410585804</v>
+        <v>0.08584986648497629</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1556559784121037</v>
+        <v>0.03761240099412574</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08935008453200524</v>
+        <v>0.08806456830065229</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02067729856109628</v>
+        <v>0.03712036825202118</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0791293735821323</v>
+        <v>0.08887250011992433</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04401923410438133</v>
+        <v>0.08510041854963465</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08653681381416899</v>
+        <v>0.08687579530924007</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1025489431393508</v>
+        <v>0.1265656706495096</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08379681331783839</v>
+        <v>0.08663747993896689</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1551635244275836</v>
+        <v>0.03712036825202118</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09016981007817043</v>
+        <v>0.08887250011992433</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01865830796549853</v>
+        <v>0.03671766755431766</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07984873152378805</v>
+        <v>0.08968043193919636</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04391931557925519</v>
+        <v>0.08518425032932908</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08732351212157052</v>
+        <v>0.0876655752665968</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1025559510115933</v>
+        <v>0.1265856839328139</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08455860252981874</v>
+        <v>0.0874250933929575</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1545375005142401</v>
+        <v>0.03671766755431766</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09098953562433561</v>
+        <v>0.08968043193919636</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01963874872739441</v>
+        <v>0.03650796387038577</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08056808946544379</v>
+        <v>0.09048836375846842</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04391938617496741</v>
+        <v>0.08476532190324293</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08811021042897205</v>
+        <v>0.08845535522395351</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1021612473194516</v>
+        <v>0.125294373811924</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0853203917417991</v>
+        <v>0.08821270684694811</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1553773796672098</v>
+        <v>0.03650796387038577</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0918092611705008</v>
+        <v>0.09048836375846842</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02061863485167471</v>
+        <v>0.03609492216959617</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08128744740709953</v>
+        <v>0.09129629557774045</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04381944600619342</v>
+        <v>0.0840439255163829</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0888969087363736</v>
+        <v>0.08924513518131025</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1022648351175215</v>
+        <v>0.1253907324906656</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08608218095377944</v>
+        <v>0.08900032030093873</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1553847382402721</v>
+        <v>0.03609492216959617</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09262898671666597</v>
+        <v>0.09129629557774045</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01959798034323019</v>
+        <v>0.03528220742131948</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08200680534875529</v>
+        <v>0.09210422739701249</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04411949518760858</v>
+        <v>0.08332035341375549</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08968360704377512</v>
+        <v>0.09003491513866697</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1026667174603979</v>
+        <v>0.1247737521728646</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08684397016575979</v>
+        <v>0.08978793375492933</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1551611525872064</v>
+        <v>0.03528220742131948</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09344871226283118</v>
+        <v>0.09210422739701249</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01857679920695163</v>
+        <v>0.03517348459492632</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08272616329041103</v>
+        <v>0.09291215921628453</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04401953383388829</v>
+        <v>0.08349489784036743</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09047030535117666</v>
+        <v>0.0908246950960237</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1021639256764814</v>
+        <v>0.123542425062347</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08760575937774014</v>
+        <v>0.09057554720891993</v>
       </c>
       <c r="N180" t="n">
-        <v>0.154408199061792</v>
+        <v>0.03517348459492632</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09426843780899635</v>
+        <v>0.09291215921628453</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02055510544772982</v>
+        <v>0.03467241865978732</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08344552123206679</v>
+        <v>0.09372009103555656</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04381956205970802</v>
+        <v>0.08346785104122528</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09125700365857821</v>
+        <v>0.09161447505338043</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1029287295779098</v>
+        <v>0.1232957433629387</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08836754858972048</v>
+        <v>0.09136316066291054</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1541274540178084</v>
+        <v>0.03467241865978732</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09508816335516154</v>
+        <v>0.09372009103555656</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01853291307045553</v>
+        <v>0.03428267458527315</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08416487917372253</v>
+        <v>0.0945280228548286</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04401957997974315</v>
+        <v>0.08273950526133567</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09204370196597973</v>
+        <v>0.09240425501073717</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1027556099169823</v>
+        <v>0.1213326992784654</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08912933780170083</v>
+        <v>0.09215077411690116</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1539204938090349</v>
+        <v>0.03428267458527315</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09590788890132672</v>
+        <v>0.0945280228548286</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01851023608001954</v>
+        <v>0.0340079173407544</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08488423711537828</v>
+        <v>0.09533595467410065</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04391958770866908</v>
+        <v>0.08231015274570519</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09283040027338127</v>
+        <v>0.09319403496809388</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1024461587967775</v>
+        <v>0.1206522850127534</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08989112701368118</v>
+        <v>0.09293838757089175</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1533888947892511</v>
+        <v>0.0340079173407544</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09672761444749191</v>
+        <v>0.09533595467410065</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01848708848131262</v>
+        <v>0.03355181189560172</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08560359505703402</v>
+        <v>0.09614388649337269</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04391473183920414</v>
+        <v>0.08158008573934053</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09361709858078282</v>
+        <v>0.09398381492545062</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1024019683203737</v>
+        <v>0.1200534927696281</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09065291622566155</v>
+        <v>0.09372600102488236</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1519342333122361</v>
+        <v>0.03355181189560172</v>
       </c>
       <c r="O184" t="n">
-        <v>0.0975473399936571</v>
+        <v>0.09614388649337269</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01846348427922556</v>
+        <v>0.03341802321918574</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08632295299868978</v>
+        <v>0.09695181831264472</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04409289916421225</v>
+        <v>0.08134959648724821</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09440379688818434</v>
+        <v>0.09477359488280734</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1022246305908492</v>
+        <v>0.1201353147529158</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09141470543764188</v>
+        <v>0.09451361447887298</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1519580857317695</v>
+        <v>0.03341802321918574</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09836706553982229</v>
+        <v>0.09695181831264472</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02043943747864913</v>
+        <v>0.03311021628087708</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08704231094034552</v>
+        <v>0.09775975013191678</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04385423088439697</v>
+        <v>0.08091897723443492</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09519049519558588</v>
+        <v>0.09556337484016407</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1021157377112826</v>
+        <v>0.1188967431664423</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09217649464962223</v>
+        <v>0.09530122793286359</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1521620284016306</v>
+        <v>0.03311021628087708</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09918679108598746</v>
+        <v>0.09775975013191678</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01841496208447412</v>
+        <v>0.0325320560500464</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08776166888200128</v>
+        <v>0.09856768195118881</v>
       </c>
       <c r="J187" t="n">
-        <v>0.0438995118104399</v>
+        <v>0.08038852022590726</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09597719350298742</v>
+        <v>0.0963531547975208</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1019768817847523</v>
+        <v>0.1180367702140334</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09293828386160259</v>
+        <v>0.0960888413868542</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1504476376755989</v>
+        <v>0.0325320560500464</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1000065166321527</v>
+        <v>0.09856768195118881</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02039007210159128</v>
+        <v>0.03238720749606429</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08848102682365702</v>
+        <v>0.09937561377046085</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04362952675302262</v>
+        <v>0.08015851770667184</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09676389181038896</v>
+        <v>0.09714293475487752</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1012096549143367</v>
+        <v>0.116954388099515</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09370007307358293</v>
+        <v>0.0968764548408448</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1505164899074538</v>
+        <v>0.03238720749606429</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1008262421783178</v>
+        <v>0.09937561377046085</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02036478153489141</v>
+        <v>0.03226736725153775</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08920038476531278</v>
+        <v>0.1001835455897329</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04344506052282668</v>
+        <v>0.07932926192173526</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09755059011779049</v>
+        <v>0.09793271471223425</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1015156492031142</v>
+        <v>0.1174485890267131</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09446186228556328</v>
+        <v>0.09766406829483541</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1490701614509746</v>
+        <v>0.03226736725153775</v>
       </c>
       <c r="O189" t="n">
-        <v>0.101645967724483</v>
+        <v>0.1001835455897329</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02033910438926528</v>
+        <v>0.03185578819022084</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08991974270696851</v>
+        <v>0.1009914774090049</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04344689793053363</v>
+        <v>0.07910104511610419</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09833728842519203</v>
+        <v>0.09872249466959099</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1002964567541632</v>
+        <v>0.1168183651994535</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09522365149754364</v>
+        <v>0.09845168174882601</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1487102286599407</v>
+        <v>0.03185578819022084</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1024656932706482</v>
+        <v>0.1009914774090049</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01931305466960368</v>
+        <v>0.03155184790014288</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09063910064862427</v>
+        <v>0.101799409228277</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04353582378682506</v>
+        <v>0.07877415953478517</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09912398673259357</v>
+        <v>0.09951227462694771</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1007536696705623</v>
+        <v>0.1145627088215622</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09598544070952399</v>
+        <v>0.09923929520281662</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1485382678881315</v>
+        <v>0.03155184790014288</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1032854188168134</v>
+        <v>0.101799409228277</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01828448804667521</v>
+        <v>0.0313550922385052</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09135845859028001</v>
+        <v>0.102607341047549</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04351262290238254</v>
+        <v>0.07794889742278491</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09991068503999509</v>
+        <v>0.1003020545843044</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1004888800553896</v>
+        <v>0.114580612096865</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09674722992150432</v>
+        <v>0.1000269086568072</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1476558554893266</v>
+        <v>0.0313550922385052</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1041051443629786</v>
+        <v>0.102607341047549</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01825086901053709</v>
+        <v>0.03146506706250904</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09207781653193577</v>
+        <v>0.103415272866821</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04317808008788765</v>
+        <v>0.07772555102510992</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1006973833473966</v>
+        <v>0.1010918345416612</v>
       </c>
       <c r="L193" t="n">
-        <v>0.09930368001172374</v>
+        <v>0.1138710672291879</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09750901913348468</v>
+        <v>0.1008145221107978</v>
       </c>
       <c r="N193" t="n">
-        <v>0.147464567817305</v>
+        <v>0.03146506706250904</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1049248699091438</v>
+        <v>0.103415272866821</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02021238104532099</v>
+        <v>0.03118131822935569</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09279717447359151</v>
+        <v>0.1042232046860931</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04283298015402193</v>
+        <v>0.07790441258676692</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1014840816547982</v>
+        <v>0.1018816144990179</v>
       </c>
       <c r="L194" t="n">
-        <v>0.09909966164264317</v>
+        <v>0.1116330664223568</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09827080834546503</v>
+        <v>0.1016021355647884</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1471659812258466</v>
+        <v>0.03118131822935569</v>
       </c>
       <c r="O194" t="n">
-        <v>0.105744595455309</v>
+        <v>0.1042232046860931</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02016921483294453</v>
+        <v>0.0312033915962464</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09351653241524727</v>
+        <v>0.1050311365053651</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04277810791146697</v>
+        <v>0.07698577435276246</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1022707799621997</v>
+        <v>0.1026713944563746</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09887841705122624</v>
+        <v>0.1107656018801975</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09903259755744537</v>
+        <v>0.1023897490187791</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1460616720687303</v>
+        <v>0.0312033915962464</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1065643210014741</v>
+        <v>0.1050311365053651</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0191215610553253</v>
+        <v>0.03063083302038243</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09423589035690301</v>
+        <v>0.1058390683246372</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04291424817090432</v>
+        <v>0.07666992856810312</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1030574782696013</v>
+        <v>0.1034611744137313</v>
       </c>
       <c r="L196" t="n">
-        <v>0.09794153834055139</v>
+        <v>0.109867665806536</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09979438676942572</v>
+        <v>0.1031773624727697</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1464532166997358</v>
+        <v>0.03063083302038243</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1073840465476393</v>
+        <v>0.1058390683246372</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01906961039438092</v>
+        <v>0.03086318835896504</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09495524829855875</v>
+        <v>0.1066470001439092</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04254218574301556</v>
+        <v>0.07665716747779566</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1038441765770028</v>
+        <v>0.1042509543710881</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09789061761369702</v>
+        <v>0.109937056583383</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1005561759814061</v>
+        <v>0.1039649759267603</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1449421914726425</v>
+        <v>0.03086318835896504</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1082037720938045</v>
+        <v>0.1066470001439092</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.020013553532029</v>
+        <v>0.03060000346919549</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0956746062402145</v>
+        <v>0.1074549319631812</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04236270543848226</v>
+        <v>0.07584778332684658</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1046308748844043</v>
+        <v>0.1050407343284448</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0977272469737416</v>
+        <v>0.1089856048190819</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1013179651933864</v>
+        <v>0.1047525893807509</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1436301727412296</v>
+        <v>0.03060000346919549</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1090234976399697</v>
+        <v>0.1074549319631812</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01995358115018715</v>
+        <v>0.03034082420827507</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09639396418187025</v>
+        <v>0.1082628637824533</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04197659206798601</v>
+        <v>0.07564272586094956</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1054175731918058</v>
+        <v>0.1058305142858015</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09675301852376353</v>
+        <v>0.1074127882035929</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1020797544053668</v>
+        <v>0.1055402028347415</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1435187368592767</v>
+        <v>0.03034082420827507</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1098432231861349</v>
+        <v>0.1082628637824533</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01988988393077298</v>
+        <v>0.03008519643340506</v>
       </c>
       <c r="G200" t="n">
-        <v>0.097113322123526</v>
+        <v>0.1090707956017253</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04178463044220833</v>
+        <v>0.07514287690405375</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1062042714992074</v>
+        <v>0.1066202942431583</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09706952436684121</v>
+        <v>0.1043688911123212</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1028415436173471</v>
+        <v>0.1063278162887321</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1439094601805631</v>
+        <v>0.03008519643340506</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1106629487323001</v>
+        <v>0.1090707956017253</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0198226525557041</v>
+        <v>0.03023266600178667</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09783268006518175</v>
+        <v>0.1098787274209974</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04178760537183084</v>
+        <v>0.07414757289215401</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1069909698066089</v>
+        <v>0.107410074200515</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0955783566060531</v>
+        <v>0.1030041979206724</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1036033328293275</v>
+        <v>0.1071154297427227</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1427039190588683</v>
+        <v>0.03023266600178667</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1114826742784653</v>
+        <v>0.1098787274209974</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01975207770689812</v>
+        <v>0.02998277877062121</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0985520380068375</v>
+        <v>0.1106866592402694</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04168630166753506</v>
+        <v>0.07375612555532182</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1077776681140105</v>
+        <v>0.1081998541578717</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0956811073444776</v>
+        <v>0.09976899300405229</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1043651220413078</v>
+        <v>0.1079030431967133</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1416027623440356</v>
+        <v>0.02998277877062121</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1123023998246304</v>
+        <v>0.1106866592402694</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01967835006627267</v>
+        <v>0.02993508059710992</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09927139594849325</v>
+        <v>0.1114945910595414</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04118150414000259</v>
+        <v>0.07416784662362863</v>
       </c>
       <c r="K203" t="n">
-        <v>0.108564366421412</v>
+        <v>0.1089896341152284</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09507936868519315</v>
+        <v>0.09771356073786597</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1051269112532882</v>
+        <v>0.1086906566507039</v>
       </c>
       <c r="N203" t="n">
-        <v>0.140896616078883</v>
+        <v>0.02993508059710992</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1131221253707956</v>
+        <v>0.1114945910595414</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01760166031574532</v>
+        <v>0.02968911733845409</v>
       </c>
       <c r="G204" t="n">
-        <v>0.09999075389014898</v>
+        <v>0.1123025228788135</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04107399759991499</v>
+        <v>0.0732820478271459</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1093510647288135</v>
+        <v>0.1097794140725852</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09427473273127815</v>
+        <v>0.09628818549751922</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1058887004652685</v>
+        <v>0.1094782701046945</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1412826500476451</v>
+        <v>0.02968911733845409</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1139418509169608</v>
+        <v>0.1123025228788135</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01952219913723371</v>
+        <v>0.02954443485185494</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1007101118318047</v>
+        <v>0.1131104546980855</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04086456685795382</v>
+        <v>0.07339804089594507</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1101377630362151</v>
+        <v>0.1105691940299419</v>
       </c>
       <c r="L205" t="n">
-        <v>0.09386879158581105</v>
+        <v>0.09254315165841748</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1066504896772489</v>
+        <v>0.1102658835586851</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1396608619740691</v>
+        <v>0.02954443485185494</v>
       </c>
       <c r="O205" t="n">
-        <v>0.114761576463126</v>
+        <v>0.1131104546980855</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01844015721265543</v>
+        <v>0.02910057899451381</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1014294697734605</v>
+        <v>0.1139183865173575</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04095399672480067</v>
+        <v>0.07231513756009758</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1109244613436166</v>
+        <v>0.1113589739872986</v>
       </c>
       <c r="L206" t="n">
-        <v>0.09376313735187025</v>
+        <v>0.09012874359596623</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1074122788892292</v>
+        <v>0.1110534970126757</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1394312495819026</v>
+        <v>0.02910057899451381</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1155813020092912</v>
+        <v>0.1139183865173575</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01835572522392812</v>
+        <v>0.02935709562363187</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1021488277151162</v>
+        <v>0.1147263183366296</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04074307201113711</v>
+        <v>0.07243264954967493</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1117111596510181</v>
+        <v>0.1121487539446553</v>
       </c>
       <c r="L207" t="n">
-        <v>0.09285936213253418</v>
+        <v>0.08809524568557092</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1081740681012096</v>
+        <v>0.1118411104666664</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1393938105948928</v>
+        <v>0.02935709562363187</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1164010275554564</v>
+        <v>0.1147263183366296</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01726909385296936</v>
+        <v>0.02921353059641046</v>
       </c>
       <c r="G208" t="n">
-        <v>0.102868185656772</v>
+        <v>0.1155342501559016</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04033257752764467</v>
+        <v>0.07194988859474857</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1124978579584197</v>
+        <v>0.1129385339020121</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09215905803088129</v>
+        <v>0.08569294230263713</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1089358573131899</v>
+        <v>0.112628723920657</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1374485427367875</v>
+        <v>0.02921353059641046</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1172207531016215</v>
+        <v>0.1155342501559016</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01918045378169678</v>
+        <v>0.02896942977005082</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1035875435984277</v>
+        <v>0.1163421819751737</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04022329808500495</v>
+        <v>0.07136616642539004</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1132845562658212</v>
+        <v>0.1137283138593688</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09206381714998998</v>
+        <v>0.08477211782257044</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1096976465251703</v>
+        <v>0.1134163373746476</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1377954437313338</v>
+        <v>0.02896942977005082</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1180404786477867</v>
+        <v>0.1163421819751737</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01808999569202799</v>
+        <v>0.02882433900175423</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1043069015400835</v>
+        <v>0.1171501137944457</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03971569100062031</v>
+        <v>0.07078079477167062</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1140712545732227</v>
+        <v>0.1145180938167255</v>
       </c>
       <c r="L210" t="n">
-        <v>0.09207523159293865</v>
+        <v>0.08288305662077627</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1104594357371506</v>
+        <v>0.1142039508286382</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1364345113022793</v>
+        <v>0.02882433900175423</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1188602041939519</v>
+        <v>0.1171501137944457</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01899791026588058</v>
+        <v>0.02857780414872194</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1050262594817392</v>
+        <v>0.1179580456137178</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03950297913640648</v>
+        <v>0.07019308536366192</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1148579528806243</v>
+        <v>0.1153078737740823</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09079489346280575</v>
+        <v>0.0809760430726601</v>
       </c>
       <c r="M211" t="n">
-        <v>0.111221224949131</v>
+        <v>0.1149915642826288</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1366657431733716</v>
+        <v>0.02857780414872194</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1196799297401171</v>
+        <v>0.1179580456137178</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01690438818517218</v>
+        <v>0.02862937106815519</v>
       </c>
       <c r="G212" t="n">
-        <v>0.105745617423395</v>
+        <v>0.1187659774329898</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03948223516541416</v>
+        <v>0.07060234993143533</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1156446511880258</v>
+        <v>0.116097653731439</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0911140977105469</v>
+        <v>0.07920136155362761</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1119830141611113</v>
+        <v>0.1157791777366194</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1363891370683579</v>
+        <v>0.02862937106815519</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1204996552862823</v>
+        <v>0.1187659774329898</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01680962013182039</v>
+        <v>0.02817858561725531</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1064649753650507</v>
+        <v>0.1195739092522618</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03905351042541798</v>
+        <v>0.07000790020506231</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1164313494954274</v>
+        <v>0.1168874336887957</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08982295042985186</v>
+        <v>0.07850929643908405</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1127448033730917</v>
+        <v>0.11656679119061</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1344046907109857</v>
+        <v>0.02817858561725531</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1213193808324475</v>
+        <v>0.1195739092522618</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01771379678774282</v>
+        <v>0.02812499365322348</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1071843333067065</v>
+        <v>0.1203818410715339</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03911685625419249</v>
+        <v>0.06970904791461438</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1172180478028289</v>
+        <v>0.1176772136461525</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09002150655075736</v>
+        <v>0.07852412776745954</v>
       </c>
       <c r="M214" t="n">
-        <v>0.113506592585072</v>
+        <v>0.1173544046446006</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1338124018250026</v>
+        <v>0.02812499365322348</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1221391063786127</v>
+        <v>0.1203818410715339</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01661710883485708</v>
+        <v>0.02816814103326104</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1079036912483622</v>
+        <v>0.1211897728908059</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03857232398951235</v>
+        <v>0.06930510479016294</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1180047461102304</v>
+        <v>0.1184669936035092</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08900982117073619</v>
+        <v>0.07914526611255818</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1142683817970523</v>
+        <v>0.1181420180985912</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1340122681341558</v>
+        <v>0.02816814103326104</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1229588319247778</v>
+        <v>0.1211897728908059</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0165197469550808</v>
+        <v>0.02800757361456922</v>
       </c>
       <c r="G216" t="n">
-        <v>0.108623049190018</v>
+        <v>0.1219977047100779</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03861996496915213</v>
+        <v>0.06869538256177948</v>
       </c>
       <c r="K216" t="n">
-        <v>0.118791444417632</v>
+        <v>0.1192567735608659</v>
       </c>
       <c r="L216" t="n">
-        <v>0.08818794938726135</v>
+        <v>0.07827341423801765</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1150301710090327</v>
+        <v>0.1189296315525818</v>
       </c>
       <c r="N216" t="n">
-        <v>0.132904287362193</v>
+        <v>0.02800757361456922</v>
       </c>
       <c r="O216" t="n">
-        <v>0.123778557470943</v>
+        <v>0.1219977047100779</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01842189939648129</v>
+        <v>0.02764378374384291</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1093424071316737</v>
+        <v>0.12280563652935</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03845983053088646</v>
+        <v>0.06867919295953545</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1195781427250335</v>
+        <v>0.1200465535182226</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08855594629780567</v>
+        <v>0.07850851539087544</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1157919602210131</v>
+        <v>0.1197172450065724</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1317884572328615</v>
+        <v>0.02764378374384291</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1245982830171082</v>
+        <v>0.12280563652935</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01832205496204919</v>
+        <v>0.02767971267009622</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1100617650733295</v>
+        <v>0.123613568348622</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03789197201248995</v>
+        <v>0.06785584771350225</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1203648410324351</v>
+        <v>0.1208363334755794</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08721386699984199</v>
+        <v>0.07685051281816874</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1165537494329934</v>
+        <v>0.1205048584605631</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1308647754699087</v>
+        <v>0.02767971267009622</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1254180085632734</v>
+        <v>0.123613568348622</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01721883035625225</v>
+        <v>0.02741561051825321</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1107811230149852</v>
+        <v>0.1244215001678941</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03751644075173714</v>
+        <v>0.06742465855375146</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1211515393398366</v>
+        <v>0.1216261134329361</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08716176659084324</v>
+        <v>0.07699934976693462</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1173155386449738</v>
+        <v>0.1212924719145537</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1305332397970821</v>
+        <v>0.02741561051825321</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1262377341094386</v>
+        <v>0.1244215001678941</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01711224996117514</v>
+        <v>0.0273514769436952</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1115004809566409</v>
+        <v>0.1252294319871661</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03763328808640273</v>
+        <v>0.06708493721035444</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1219382376472381</v>
+        <v>0.1224158933902928</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0866997001682823</v>
+        <v>0.07775496948421062</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1180773278569541</v>
+        <v>0.1220800853685443</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1302938479381293</v>
+        <v>0.0273514769436952</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1270574596556038</v>
+        <v>0.1252294319871661</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01800233815890257</v>
+        <v>0.02698731160180351</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1122198388982967</v>
+        <v>0.1260373638064382</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03724256535426125</v>
+        <v>0.0670359954133827</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1227249359546397</v>
+        <v>0.1232056733476495</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08592772282963204</v>
+        <v>0.07671731521703373</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1188391170689344</v>
+        <v>0.1228676988225349</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1296465976167975</v>
+        <v>0.02698731160180351</v>
       </c>
       <c r="O221" t="n">
-        <v>0.127877185201769</v>
+        <v>0.1260373638064382</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01688911933151924</v>
+        <v>0.02662311414795944</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1129391968399524</v>
+        <v>0.1268452956257102</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03664432389308735</v>
+        <v>0.06627714489290767</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1235116342620412</v>
+        <v>0.1239954533050063</v>
       </c>
       <c r="L222" t="n">
-        <v>0.08554588967236529</v>
+        <v>0.07668633021244137</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1196009062809148</v>
+        <v>0.1236553122765255</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1276914865568343</v>
+        <v>0.02662311414795944</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1286969107479342</v>
+        <v>0.1268452956257102</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01677261786110987</v>
+        <v>0.02665888423754424</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1136585547816082</v>
+        <v>0.1276532274449822</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0366386150406556</v>
+        <v>0.06590769737900085</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1242983325694427</v>
+        <v>0.124785233262363</v>
       </c>
       <c r="L223" t="n">
-        <v>0.08475425579395499</v>
+        <v>0.07566195771747053</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1203626954928951</v>
+        <v>0.1244429257305161</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1272285124819871</v>
+        <v>0.02665888423754424</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1295166362940993</v>
+        <v>0.1276532274449822</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01565285812975916</v>
+        <v>0.02629462152593931</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1143779127232639</v>
+        <v>0.1284611592642543</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03622549013474065</v>
+        <v>0.06512696460173367</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1250850308768442</v>
+        <v>0.1255750132197197</v>
       </c>
       <c r="L224" t="n">
-        <v>0.08365287629187398</v>
+        <v>0.0758441409791587</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1211244847048755</v>
+        <v>0.1252305391845067</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1270576731160034</v>
+        <v>0.02629462152593931</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1303363618402645</v>
+        <v>0.1284611592642543</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01752986451955182</v>
+        <v>0.02643032566852586</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1150972706649197</v>
+        <v>0.1292690910835263</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03570500051311705</v>
+        <v>0.06413425829117758</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1258717291842458</v>
+        <v>0.1263647931770765</v>
       </c>
       <c r="L225" t="n">
-        <v>0.08334180626359519</v>
+        <v>0.07633282324454305</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1218862739168558</v>
+        <v>0.1260181526384973</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1268789661826305</v>
+        <v>0.02643032566852586</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1311560873864297</v>
+        <v>0.1292690910835263</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01540366141257253</v>
+        <v>0.02616599632068524</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1158166286065754</v>
+        <v>0.1300770229027984</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03547719751355946</v>
+        <v>0.06382958854984996</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1266584274916473</v>
+        <v>0.1271545731344332</v>
       </c>
       <c r="L226" t="n">
-        <v>0.08232110080659144</v>
+        <v>0.07492794776066075</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1226480631288362</v>
+        <v>0.1268057660924879</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1260923894056161</v>
+        <v>0.02616599632068524</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1319758129325949</v>
+        <v>0.1300770229027984</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01727427319090602</v>
+        <v>0.02590163313779877</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1165359865482312</v>
+        <v>0.1308849547220704</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03534213247384244</v>
+        <v>0.06311533976634659</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1274451257990488</v>
+        <v>0.1279443530917899</v>
       </c>
       <c r="L227" t="n">
-        <v>0.08169081501833564</v>
+        <v>0.07572945777454904</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1234098523408166</v>
+        <v>0.1275933795464785</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1241979405087074</v>
+        <v>0.02590163313779877</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1327955384787601</v>
+        <v>0.1308849547220704</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01614172423663698</v>
+        <v>0.02563723577524769</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1172553444898869</v>
+        <v>0.1316928865413424</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03499985673174062</v>
+        <v>0.06339183420520855</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1282318241064504</v>
+        <v>0.1287341330491466</v>
       </c>
       <c r="L228" t="n">
-        <v>0.08135100399630069</v>
+        <v>0.07613729653324525</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1241716415527969</v>
+        <v>0.1283809930004691</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1229956172156518</v>
+        <v>0.02563723577524769</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1336152640249253</v>
+        <v>0.1316928865413424</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01500603893185012</v>
+        <v>0.02547280388841335</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1179747024315427</v>
+        <v>0.1325008183606144</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03435042162502862</v>
+        <v>0.06275913267262742</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1290185224138519</v>
+        <v>0.1295239130065033</v>
       </c>
       <c r="L229" t="n">
-        <v>0.08050172283795939</v>
+        <v>0.07535140728378653</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1249334307647772</v>
+        <v>0.1291686064544597</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1236854172501971</v>
+        <v>0.02547280388841335</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1344349895710905</v>
+        <v>0.1325008183606144</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01486724165863015</v>
+        <v>0.02540833713267707</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1186940603731984</v>
+        <v>0.1333087501798865</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03429387849148099</v>
+        <v>0.06211729597479482</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1298052207212535</v>
+        <v>0.1303136929638601</v>
       </c>
       <c r="L230" t="n">
-        <v>0.08034302664078469</v>
+        <v>0.07457173327321021</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1256952199767576</v>
+        <v>0.1299562199084503</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1223673383360904</v>
+        <v>0.02540833713267707</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1352547151172556</v>
+        <v>0.1333087501798865</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01472535679906176</v>
+        <v>0.02534383516342009</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1194134183148542</v>
+        <v>0.1341166819991585</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03403027866887239</v>
+        <v>0.06156638491790248</v>
       </c>
       <c r="K231" t="n">
-        <v>0.130591919028655</v>
+        <v>0.1311034729212168</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07967497050224942</v>
+        <v>0.07459821774855341</v>
       </c>
       <c r="M231" t="n">
-        <v>0.126457009188738</v>
+        <v>0.1307438333624409</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1208413781970794</v>
+        <v>0.02534383516342009</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1360744406634208</v>
+        <v>0.1341166819991585</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01558040873522968</v>
+        <v>0.02517929763602376</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1201327762565099</v>
+        <v>0.1349246138184306</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03365967349497739</v>
+        <v>0.06130646030814196</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1313786173360565</v>
+        <v>0.1318932528785735</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07929760951982656</v>
+        <v>0.07383080395685337</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1272187984007183</v>
+        <v>0.1315314468164316</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1201075345569113</v>
+        <v>0.02517929763602376</v>
       </c>
       <c r="O232" t="n">
-        <v>0.136894166209586</v>
+        <v>0.1349246138184306</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01543242184921858</v>
+        <v>0.02491472420586939</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1208521341981657</v>
+        <v>0.1357325456377026</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03328211430757065</v>
+        <v>0.06073758295170492</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1321653156434581</v>
+        <v>0.1326830328359303</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07801099879098883</v>
+        <v>0.07486943514514749</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1279805876126986</v>
+        <v>0.1323190602704222</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1199658051393337</v>
+        <v>0.02491472420586939</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1377138917557512</v>
+        <v>0.1357325456377026</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01628142052311319</v>
+        <v>0.02465011452833826</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1215714921398214</v>
+        <v>0.1365404774569747</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03249765244442671</v>
+        <v>0.05995981365478298</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1329520139508596</v>
+        <v>0.133472812793287</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07771519341320926</v>
+        <v>0.07511405456047288</v>
       </c>
       <c r="M234" t="n">
-        <v>0.128742376824679</v>
+        <v>0.1331066737244128</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1182161876680941</v>
+        <v>0.02465011452833826</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1385336173019164</v>
+        <v>0.1365404774569747</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0161274291389982</v>
+        <v>0.02468546825881168</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1222908500814772</v>
+        <v>0.1373484092762467</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03210633924332019</v>
+        <v>0.05967321322356786</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1337387122582612</v>
+        <v>0.1342625927506437</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07661024848396061</v>
+        <v>0.07436460544986684</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1295041660366593</v>
+        <v>0.1338942871784034</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1173586798669398</v>
+        <v>0.02468546825881168</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1393533428480815</v>
+        <v>0.1373484092762467</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01497047207895832</v>
+        <v>0.02442078505267095</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1230102080231329</v>
+        <v>0.1381563410955187</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03170822604202572</v>
+        <v>0.05807784246425116</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1345254105656627</v>
+        <v>0.1350523727080005</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07559621910071582</v>
+        <v>0.07332103106036653</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1302659552486397</v>
+        <v>0.134681900632394</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1176932794596183</v>
+        <v>0.02442078505267095</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1401730683942468</v>
+        <v>0.1381563410955187</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01381057372507825</v>
+        <v>0.02455606456529738</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1237295659647887</v>
+        <v>0.1389642729147908</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03170336417831789</v>
+        <v>0.05787376218302451</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1353121088730642</v>
+        <v>0.1358421526653572</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07587316036094779</v>
+        <v>0.07358327463900921</v>
       </c>
       <c r="M237" t="n">
-        <v>0.13102774446062</v>
+        <v>0.1354695140863846</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1162199841698771</v>
+        <v>0.02455606456529738</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1409927939404119</v>
+        <v>0.1389642729147908</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0156477584594427</v>
+        <v>0.02419130645207226</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1244489239064444</v>
+        <v>0.1397722047340628</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03099180498997128</v>
+        <v>0.0570610331860795</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1360988071804658</v>
+        <v>0.1366319326227139</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07444112736212932</v>
+        <v>0.0739512794328322</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1317895336726004</v>
+        <v>0.1362571275403752</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1144387917214636</v>
+        <v>0.02419130645207226</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1418125194865771</v>
+        <v>0.1397722047340628</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01348205066413639</v>
+        <v>0.02412651036837692</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1251682818481002</v>
+        <v>0.1405801365533349</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03057359981476056</v>
+        <v>0.05703971627960788</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1368855054878673</v>
+        <v>0.1374217125800707</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07410017520173337</v>
+        <v>0.07362498868887257</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1325513228845807</v>
+        <v>0.1370447409943658</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1137496998381252</v>
+        <v>0.02412651036837692</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1426322450327423</v>
+        <v>0.1405801365533349</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01331347472124399</v>
+        <v>0.02386167596959263</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1258876397897559</v>
+        <v>0.1413880683726069</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03004879999046028</v>
+        <v>0.05630987226980125</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1376722037952688</v>
+        <v>0.1382114925374274</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07275035897723275</v>
+        <v>0.07380434565416777</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1333131120965611</v>
+        <v>0.1378323544483564</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1127527062436095</v>
+        <v>0.02386167596959263</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1434519705789075</v>
+        <v>0.1413880683726069</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01314205501285022</v>
+        <v>0.02359680291110072</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1266069977314117</v>
+        <v>0.1421960001918789</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02981745685484503</v>
+        <v>0.05597156196285122</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1384589021026704</v>
+        <v>0.1390012724947841</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07229173378610043</v>
+        <v>0.0739892935757549</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1340749013085414</v>
+        <v>0.138619967902347</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1122478086616637</v>
+        <v>0.02359680291110072</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1442716961250727</v>
+        <v>0.1421960001918789</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0149678159210398</v>
+        <v>0.02373189084828249</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1273263556730674</v>
+        <v>0.143003932011151</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0292796217456895</v>
+        <v>0.05502484616494951</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1392456004100719</v>
+        <v>0.1397910524521408</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0720243547258092</v>
+        <v>0.07397977570067121</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1348366905205218</v>
+        <v>0.1394075813563377</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1109350048160356</v>
+        <v>0.02373189084828249</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1450914216712379</v>
+        <v>0.143003932011151</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01479078182789741</v>
+        <v>0.02336693943651921</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1280457136147232</v>
+        <v>0.143811863830423</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02913534600076821</v>
+        <v>0.05426978568228763</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1400322987174734</v>
+        <v>0.1405808324094976</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07104827689383195</v>
+        <v>0.07377573527595399</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1355984797325021</v>
+        <v>0.1401951948103282</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1104142924304722</v>
+        <v>0.02336693943651921</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1459111472174031</v>
+        <v>0.143811863830423</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01461097711550777</v>
+        <v>0.02310194833119224</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1287650715563789</v>
+        <v>0.144619795649695</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02868468095785581</v>
+        <v>0.05400644132105736</v>
       </c>
       <c r="K244" t="n">
-        <v>0.140818997024875</v>
+        <v>0.1413706123668543</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07046355538764162</v>
+        <v>0.0738771155486404</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1363602689444825</v>
+        <v>0.1409828082643189</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1091856692287213</v>
+        <v>0.02310194833119224</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1467308727635682</v>
+        <v>0.144619795649695</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01442842616595557</v>
+        <v>0.02323691718768282</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1294844294980347</v>
+        <v>0.1454277274689671</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02782767795472689</v>
+        <v>0.05293487388745025</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1416056953322765</v>
+        <v>0.142160392324211</v>
       </c>
       <c r="L245" t="n">
-        <v>0.069670245304711</v>
+        <v>0.0721838597657678</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1371220581564628</v>
+        <v>0.1417704217183095</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1081491329345303</v>
+        <v>0.02323691718768282</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1475505983097334</v>
+        <v>0.1454277274689671</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01324315336132553</v>
+        <v>0.02277184566137232</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1302037874396904</v>
+        <v>0.1462356592882391</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02746438832915607</v>
+        <v>0.05245514418765801</v>
       </c>
       <c r="K246" t="n">
-        <v>0.142392393639678</v>
+        <v>0.1429501722815677</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06806840174251302</v>
+        <v>0.07309591117437331</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1378838473684432</v>
+        <v>0.1425580351723001</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1087046812716465</v>
+        <v>0.02277184566137232</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1483703238558986</v>
+        <v>0.1462356592882391</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01305518308370236</v>
+        <v>0.02250673340764198</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1309231453813461</v>
+        <v>0.1470435911075112</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02699486341891792</v>
+        <v>0.05156731302787221</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1431790919470796</v>
+        <v>0.1437399522389245</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06745807979852053</v>
+        <v>0.07291321302149423</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1386456365804235</v>
+        <v>0.1433456486262907</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1066523119638174</v>
+        <v>0.02250673340764198</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1491900494020638</v>
+        <v>0.1470435911075112</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01386453971517074</v>
+        <v>0.02264158008187313</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1316425033230019</v>
+        <v>0.1478515229267832</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02651915456178706</v>
+        <v>0.05087144121428455</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1439657902544811</v>
+        <v>0.1445297321962812</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0667393345702065</v>
+        <v>0.07323570855416772</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1394074257924039</v>
+        <v>0.1441332620802813</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1067920227347905</v>
+        <v>0.02264158008187313</v>
       </c>
       <c r="O248" t="n">
-        <v>0.150009774948229</v>
+        <v>0.1478515229267832</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01267124763781539</v>
+        <v>0.02237638533944708</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1323618612646577</v>
+        <v>0.1486594547460553</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02623731309553812</v>
+        <v>0.05056758955308663</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1447524885618827</v>
+        <v>0.1453195121536379</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06561222115504373</v>
+        <v>0.07236334101943115</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1401692150043842</v>
+        <v>0.1449208755342719</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1044238113083132</v>
+        <v>0.02237638533944708</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1508295004943942</v>
+        <v>0.1486594547460553</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01247533123372101</v>
+        <v>0.02241114883574515</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1330812192063134</v>
+        <v>0.1494673865653273</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02544939035794569</v>
+        <v>0.04935581885047013</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1455391868692842</v>
+        <v>0.1461092921109946</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06517679465050508</v>
+        <v>0.07179605366432162</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1409310042163646</v>
+        <v>0.1457084889882625</v>
       </c>
       <c r="N250" t="n">
-        <v>0.103947675408133</v>
+        <v>0.02241114883574515</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1516492260405593</v>
+        <v>0.1494673865653273</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0132768148849723</v>
+        <v>0.0222458702261486</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1338005771479691</v>
+        <v>0.1502753183845993</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02505543768678437</v>
+        <v>0.04813618991262669</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1463258851766857</v>
+        <v>0.1468990720683514</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06423311015406349</v>
+        <v>0.07223378973587652</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1416927934283449</v>
+        <v>0.1464961024422531</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1027636127579972</v>
+        <v>0.0222458702261486</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1524689515867245</v>
+        <v>0.1502753183845993</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01207572297365397</v>
+        <v>0.02168054916603876</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1345199350896249</v>
+        <v>0.1510832502038714</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02485550641982874</v>
+        <v>0.0475087635457479</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1471125834840873</v>
+        <v>0.1476888520257081</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06318122276319177</v>
+        <v>0.07177649248113294</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1424545826403253</v>
+        <v>0.1472837158962437</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1015716210816535</v>
+        <v>0.02168054916603876</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1532886771328897</v>
+        <v>0.1510832502038714</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01287207988185073</v>
+        <v>0.02161518531079691</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1352392930312807</v>
+        <v>0.1518911820231434</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02404964789485348</v>
+        <v>0.0470736005560255</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1478992817914888</v>
+        <v>0.1484786319830648</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06212118757536284</v>
+        <v>0.07172410514712829</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1432163718523056</v>
+        <v>0.1480713293502343</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1011716981028492</v>
+        <v>0.02161518531079691</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1541084026790549</v>
+        <v>0.1518911820231434</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01266590999164728</v>
+        <v>0.02134977831580438</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1359586509729364</v>
+        <v>0.1526991138424154</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02373791344963311</v>
+        <v>0.046130761749651</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1486859800988904</v>
+        <v>0.1492684119404216</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06205305968804958</v>
+        <v>0.07167657098089952</v>
       </c>
       <c r="M254" t="n">
-        <v>0.143978161064286</v>
+        <v>0.1488589428042249</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0996638415453317</v>
+        <v>0.02134977831580438</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1549281282252201</v>
+        <v>0.1526991138424154</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01245723768512832</v>
+        <v>0.02148432783644247</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1366780089145921</v>
+        <v>0.1535070456616875</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02312035442194228</v>
+        <v>0.04618030793281611</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1494726784062919</v>
+        <v>0.1500581918977783</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06107689419872489</v>
+        <v>0.07313383322948414</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1447399502762663</v>
+        <v>0.1496465562582155</v>
       </c>
       <c r="N255" t="n">
-        <v>0.09844804913284844</v>
+        <v>0.02148432783644247</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1557478537713853</v>
+        <v>0.1535070456616875</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01124608734437856</v>
+        <v>0.02121883352809248</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1373973668562479</v>
+        <v>0.1543149774809595</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02279702214955562</v>
+        <v>0.04542229991171254</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1502593767136934</v>
+        <v>0.150847971855135</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06009274620486157</v>
+        <v>0.07159583513991935</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1455017394882467</v>
+        <v>0.1504341697122062</v>
       </c>
       <c r="N256" t="n">
-        <v>0.09802431858914701</v>
+        <v>0.02121883352809248</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1565675793175505</v>
+        <v>0.1543149774809595</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0100324833514827</v>
+        <v>0.02095329504613572</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1381167247979037</v>
+        <v>0.1551229093002316</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02206796797024767</v>
+        <v>0.04425679849253183</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1510460750210949</v>
+        <v>0.1516377518124918</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05860067080393261</v>
+        <v>0.07146251995924224</v>
       </c>
       <c r="M257" t="n">
-        <v>0.146263528700227</v>
+        <v>0.1512217831661967</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09649264763797472</v>
+        <v>0.02095329504613572</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1573873048637156</v>
+        <v>0.1551229093002316</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01181645008852544</v>
+        <v>0.02088771204595345</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1388360827395594</v>
+        <v>0.1559308411195036</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02163324322179307</v>
+        <v>0.04358386448146567</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1518327733284965</v>
+        <v>0.1524275317698485</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05800072309341078</v>
+        <v>0.07253383093449023</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1470253179122074</v>
+        <v>0.1520093966201874</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09555303400307913</v>
+        <v>0.02088771204595345</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1582070304098808</v>
+        <v>0.1559308411195036</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0105980119375915</v>
+        <v>0.02082208418292704</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1395554406812151</v>
+        <v>0.1567387729387756</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02099289924196643</v>
+        <v>0.04270355868470568</v>
       </c>
       <c r="K259" t="n">
-        <v>0.152619471635898</v>
+        <v>0.1532173117272052</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05689295817076895</v>
+        <v>0.07180971131270047</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1477871071241877</v>
+        <v>0.152797010074178</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09520547540820756</v>
+        <v>0.02082208418292704</v>
       </c>
       <c r="O259" t="n">
-        <v>0.159026755956046</v>
+        <v>0.1567387729387756</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.009377193280765576</v>
+        <v>0.02065641111243775</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1402747986228709</v>
+        <v>0.1575467047580477</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02054698736854235</v>
+        <v>0.04131594190844351</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1534061699432996</v>
+        <v>0.1540070916845619</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05607743113348015</v>
+        <v>0.07149010434091008</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1485488963361681</v>
+        <v>0.1535846235281686</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09374996957710752</v>
+        <v>0.02065641111243775</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1598464815022112</v>
+        <v>0.1575467047580477</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01015401850013237</v>
+        <v>0.02029069248986688</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1409941565645266</v>
+        <v>0.1583546365773197</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01979555893929545</v>
+        <v>0.04062107495887082</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1541928682507011</v>
+        <v>0.1547968716419187</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05515419707901714</v>
+        <v>0.07257495326615654</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1493106855481484</v>
+        <v>0.1543722369821592</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09308651423352649</v>
+        <v>0.02029069248986688</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1606662070483764</v>
+        <v>0.1583546365773197</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01092851197777658</v>
+        <v>0.02002492797059577</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1417135145061824</v>
+        <v>0.1591625683965918</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01943866529200029</v>
+        <v>0.03971901864217922</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1549795665581026</v>
+        <v>0.1555866515992754</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05502331110485278</v>
+        <v>0.07266420133547691</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1500724747601288</v>
+        <v>0.1551598504361498</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09151510710121186</v>
+        <v>0.02002492797059577</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1614859325945416</v>
+        <v>0.1591625683965918</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01070069809578293</v>
+        <v>0.02005911721000568</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1424328724478381</v>
+        <v>0.1599705002158638</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01857635776443153</v>
+        <v>0.03990983376456039</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1557662648655042</v>
+        <v>0.1563764315566321</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05338482830846003</v>
+        <v>0.07185779179590851</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1508342639721091</v>
+        <v>0.1559474638901404</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0912357459039112</v>
+        <v>0.02005911721000568</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1623056581407068</v>
+        <v>0.1599705002158638</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.008470601236236108</v>
+        <v>0.02009325986347793</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1431522303894939</v>
+        <v>0.1607784320351358</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01840868769436373</v>
+        <v>0.0385935811322059</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1565529631729057</v>
+        <v>0.1571662115139889</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05223880378731172</v>
+        <v>0.07185566789448855</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1515960531840894</v>
+        <v>0.156735077344131</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08944842836537176</v>
+        <v>0.02009325986347793</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1631253836868719</v>
+        <v>0.1607784320351358</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1075.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1075.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.775048945656135</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03875244728280675</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03875244728280675</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.0620039156524908</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08425146836968406</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02205508852274297</v>
+        <v>0.03425146836968405</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01836545600529243</v>
+        <v>0.01884063740350283</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001787284058669264</v>
+        <v>0.0015836699711302</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008079318192720394</v>
+        <v>0.0006949811858939679</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.006361492392659179</v>
+        <v>0.001625819195252932</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007897799573567279</v>
+        <v>0.0008079318192720394</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009447000139062356</v>
+        <v>0.006089264523701315</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007876134539906082</v>
+        <v>0.0007934139524168174</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001787284058669264</v>
+        <v>0.007907564298517911</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008079318192720394</v>
+        <v>0.0007900839731424441</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003546747064976902</v>
+        <v>0.003142438104578475</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001615863638544079</v>
+        <v>0.001389962371787936</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01170073368411972</v>
+        <v>0.003418758435442412</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001579559914713456</v>
+        <v>0.001615863638544079</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01899904897939469</v>
+        <v>0.01245554395306028</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001575226907981216</v>
+        <v>0.001586827904833635</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003546747064976902</v>
+        <v>0.01646823210958887</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001615863638544079</v>
+        <v>0.001580167946284888</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005082490770054925</v>
+        <v>0.004676382469297344</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002423795457816118</v>
+        <v>0.002084943557681903</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01777132415966792</v>
+        <v>0.005443791736738875</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002369339872070184</v>
+        <v>0.002423795457816118</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02828811801543163</v>
+        <v>0.01760385276474652</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002362840361971824</v>
+        <v>0.002380241857250452</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005082490770054925</v>
+        <v>0.02387731869362458</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002423795457816118</v>
+        <v>0.002370251919427333</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.006185581134239282</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003497374999999999</v>
+        <v>0.002779924743575871</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02292686410459019</v>
+        <v>0.006965893115312753</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003159119829426911</v>
+        <v>0.003231727277088158</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03704617874160748</v>
+        <v>0.02303920543542962</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003150453815962433</v>
+        <v>0.003173655809667269</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.02800000000000002</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003497374999999999</v>
+        <v>0.002797900000000002</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003497374999999999</v>
+        <v>0.01161701488420339</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007766777783752357</v>
+        <v>0.0076701121683568</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004039659096360197</v>
+        <v>0.003474905929469839</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02772095380417278</v>
+        <v>0.008650036587334486</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00394889978678364</v>
+        <v>0.004039659096360197</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04560520265235696</v>
+        <v>0.02826661644177922</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003938067269953041</v>
+        <v>0.003967069762084087</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.007766777783752357</v>
+        <v>0.03499802034700533</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004039659096360197</v>
+        <v>0.003950419865712221</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.00875426951598017</v>
+        <v>0.00913005364060239</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004847590915632236</v>
+        <v>0.004169887115363807</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.03100719354370216</v>
+        <v>0.01016119616897453</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004738679744140367</v>
+        <v>0.004847590915632236</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.05299999999999999</v>
+        <v>0.03299110026046484</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00499625</v>
+        <v>0.004760483714500905</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.00875426951598017</v>
+        <v>0.04034675073941807</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004847590915632236</v>
+        <v>0.004740503838854665</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009480703175560774</v>
+        <v>0.01056548361992855</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005655522734904276</v>
+        <v>0.004864868301257774</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.03399999999999997</v>
+        <v>0.012</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005291978193146412</v>
+        <v>0.005995499999999998</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05504218011506479</v>
+        <v>0.03651767136815609</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005513294177934257</v>
+        <v>0.005553897666917722</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.009480703175560774</v>
+        <v>0.0442980932782947</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005655522734904276</v>
+        <v>0.005530587811997109</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01065130168796311</v>
+        <v>0.01197648017528778</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006463454554176316</v>
+        <v>0.005559849487151743</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03674744916124464</v>
+        <v>0.01235435558152118</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006318239658853823</v>
+        <v>0.006463454554176316</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05859986394314115</v>
+        <v>0.03935134424152253</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006300907631924865</v>
+        <v>0.006347311619334539</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01065130168796311</v>
+        <v>0.04967422180683856</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006463454554176316</v>
+        <v>0.006320671785139553</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01157128797865613</v>
+        <v>0.01336312137563257</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007271386373448355</v>
+        <v>0.006254830673045711</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03914359740604989</v>
+        <v>0.01314702075399825</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007108019616210551</v>
+        <v>0.007271386373448355</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06261851864762857</v>
+        <v>0.04099999999999998</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007088521085915473</v>
+        <v>0.006897180134680131</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01157128797865613</v>
+        <v>0.05229731016825306</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007271386373448355</v>
+        <v>0.007110755758281998</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01234588497310881</v>
+        <v>0.01472548528991541</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008079318192720394</v>
+        <v>0.006949811858939678</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.04040616706041181</v>
+        <v>0.01416574501739683</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007897799573567279</v>
+        <v>0.008079318192720394</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06477431109674181</v>
+        <v>0.04225860054602731</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007876134539906082</v>
+        <v>0.007934139524168174</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01234588497310881</v>
+        <v>0.05618953220574147</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008079318192720394</v>
+        <v>0.007900839731424442</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01338031559679011</v>
+        <v>0.01606364998708883</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008887250011992434</v>
+        <v>0.007644793044833646</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.04278062041951358</v>
+        <v>0.01501944908276268</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008687579530924005</v>
+        <v>0.008887250011992434</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06784340815869561</v>
+        <v>0.04334277332638112</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00866374799389669</v>
+        <v>0.008727553476584991</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01338031559679011</v>
+        <v>0.0607730617625073</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008887250011992434</v>
+        <v>0.008690923704566885</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.013979802775169</v>
+        <v>0.0173776935361053</v>
       </c>
       <c r="G77" t="n">
+        <v>0.008339774230727614</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01551705366114146</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009695181831264473</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.04351241977853829</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009477359488280735</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.0697019767017048</v>
+        <v>0.04543500406198966</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009451361447887297</v>
+        <v>0.00952096742900181</v>
       </c>
       <c r="N77" t="n">
-        <v>0.013979802775169</v>
+        <v>0.06457007268175391</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009695181831264473</v>
+        <v>0.009481007677709331</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01494956943371439</v>
+        <v>0.01866769400591731</v>
       </c>
       <c r="G78" t="n">
+        <v>0.009034755416621581</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01596747946357895</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01050311365053651</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.04504702743266903</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01026713944563746</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.07192618359398406</v>
+        <v>0.04568997874895458</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01023897490187791</v>
+        <v>0.01031438138141863</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01494956943371439</v>
+        <v>0.06730273880668464</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01050311365053651</v>
+        <v>0.01027109165085177</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01539483849789529</v>
+        <v>0.01993372946547738</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009729736602515549</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01657964720112082</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01131104546980855</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.04632990567708889</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01105691940299419</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.07539219570374817</v>
+        <v>0.04656238338337776</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01102658835586851</v>
+        <v>0.01110779533383544</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01539483849789529</v>
+        <v>0.06989323398050284</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01131104546980855</v>
+        <v>0.01106117562399422</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01612083289318063</v>
+        <v>0.021175877983738</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01042471778840952</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01756247758481282</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01211897728908059</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.04820651680698099</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01184669936035092</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.07677617989921193</v>
+        <v>0.04790690396136099</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01181420180985912</v>
+        <v>0.01190120928625226</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01612083289318063</v>
+        <v>0.07416373204641191</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01211897728908059</v>
+        <v>0.01185125959713666</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01713277554503938</v>
+        <v>0.02239421762965165</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01111969897430349</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01772489132570065</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01292690910835263</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04982232311752849</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01263647931770765</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.08010330743965993</v>
+        <v>0.04867822647900605</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01258541351557865</v>
+        <v>0.01269462323866908</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01713277554503938</v>
+        <v>0.07703640684761526</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01292690910835263</v>
+        <v>0.01264134357027911</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0175358893789405</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01161701488420339</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01827580913483004</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01373484092762467</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.05107919798120145</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01325049028627091</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.08113333263523309</v>
+        <v>0.04973103693241465</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01338942871784034</v>
+        <v>0.01348803719108589</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0175358893789405</v>
+        <v>0.08010330743965993</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01373484092762467</v>
+        <v>0.01334053832651336</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01843539732035293</v>
+        <v>0.02478856669628567</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01250966134609142</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01902415172324666</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01454277274689671</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.05258567051506988</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.0142160392324211</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.08456944196858263</v>
+        <v>0.05107919798120145</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01417704217183095</v>
+        <v>0.01432123697607058</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01843539732035293</v>
+        <v>0.08182395110236468</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01454277274689671</v>
+        <v>0.014221511516564</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01903652229474567</v>
+        <v>0.0259876940982439</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01320464253198539</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01967883980199633</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01535070456616875</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.05359448382142493</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01500581918977783</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.08735616200714674</v>
+        <v>0.05224821522636941</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01496465562582155</v>
+        <v>0.01507486509591953</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01903652229474567</v>
+        <v>0.08603756602147927</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01535070456616875</v>
+        <v>0.01501159548970644</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01974448722758762</v>
+        <v>0.02717576336168854</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01389962371787936</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01994879408212469</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01615863638544079</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.05564268860002999</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01579559914713456</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.08908704661905498</v>
+        <v>0.05336842358382418</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01575226907981216</v>
+        <v>0.01586827904833635</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01974448722758762</v>
+        <v>0.08836930496084855</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01615863638544079</v>
+        <v>0.01580167946284888</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02046451504434779</v>
+        <v>0.02834075464799039</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01459460490377332</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02054293527467746</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01696656820471283</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.05722557595149097</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01658537910449128</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.09295564967243702</v>
+        <v>0.05487338310078441</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01653988253380277</v>
+        <v>0.01666169300075316</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02046451504434779</v>
+        <v>0.09131363485381255</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01696656820471283</v>
+        <v>0.01659176343599133</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02120182867049512</v>
+        <v>0.02947064811852024</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01528958608966729</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02127018409070039</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01777450002398487</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.05873843697641393</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01737515906184801</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.09545552503542237</v>
+        <v>0.05605594852678389</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01732749598779338</v>
+        <v>0.01745510695316998</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02120182867049512</v>
+        <v>0.09486502263371138</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01777450002398487</v>
+        <v>0.01738184740913377</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
+        <v>0.03055342393464889</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.01598456727556126</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.02205508852274297</v>
       </c>
-      <c r="G88" t="n">
+      <c r="K88" t="n">
         <v>0.01836545600529243</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.06097656277540486</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01816493901920474</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.09848022657614069</v>
+        <v>0.05750897461135643</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01811510944178399</v>
+        <v>0.0182485209055868</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02205508852274297</v>
+        <v>0.09801793523388475</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01836545600529243</v>
+        <v>0.01817193138227622</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02265614890528375</v>
+        <v>0.03157706225774713</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01667954846145523</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02265620112659442</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01939036366252895</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.06313524444906973</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01895471897656147</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1003233081627216</v>
+        <v>0.05932531610403582</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01890272289577459</v>
+        <v>0.01904193485800362</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02265614890528375</v>
+        <v>0.100066839587673</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01939036366252895</v>
+        <v>0.01896201535541866</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02358392146339594</v>
+        <v>0.03252954324918576</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01737452964734919</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02341700516569394</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.02019829548180099</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.06390977309801454</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.0197444989339182</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1030783236632946</v>
+        <v>0.06059782775435588</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0196903363497652</v>
+        <v>0.01983534881042044</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02358392146339594</v>
+        <v>0.103606202628416</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02019829548180099</v>
+        <v>0.0197520993285611</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02444128947605918</v>
+        <v>0.03339884707033555</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01806951083324316</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02431724286251581</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02100622730107302</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.06599543982284531</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02053427889127492</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1054388269459893</v>
+        <v>0.06241936431185036</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02047794980375581</v>
+        <v>0.02062876276283725</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02444128947605918</v>
+        <v>0.1068304912894538</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02100622730107302</v>
+        <v>0.02054218330170355</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02542415040674713</v>
+        <v>0.03425146836968405</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01884063740350283</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02515227699787341</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02181415912034506</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.06788753572416806</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02132405884863165</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1088983718789352</v>
+        <v>0.0645827805260531</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02126556325774642</v>
+        <v>0.02142217671525407</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02542415040674713</v>
+        <v>0.1085341725041266</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02181415912034506</v>
+        <v>0.02133226727484599</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02632840171893351</v>
+        <v>0.03487876478297965</v>
       </c>
       <c r="G93" t="n">
+        <v>0.0194594732050311</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02591747035258002</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.0226220909396171</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.07028135190258872</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02211383880598838</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1108505123302621</v>
+        <v>0.06658093114649793</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02205317671173703</v>
+        <v>0.02221559066767089</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02632840171893351</v>
+        <v>0.1116117132057741</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0226220909396171</v>
+        <v>0.02212235124798844</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02744994087609194</v>
+        <v>0.03556948866381329</v>
       </c>
       <c r="G94" t="n">
+        <v>0.02015445439092507</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02700818570744888</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02343002275888914</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.07177217945871334</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02290361876334511</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1138888021680995</v>
+        <v>0.06780667092271858</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02284079016572764</v>
+        <v>0.02300900462008771</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02744994087609194</v>
+        <v>0.1143575803277365</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02343002275888914</v>
+        <v>0.02291243522113088</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02828466534169609</v>
+        <v>0.03624469031458908</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02084943557681904</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02761978584329333</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02423795457816118</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.07335530949314784</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02369339872070184</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.116906795260577</v>
+        <v>0.06985285460424887</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02362840361971824</v>
+        <v>0.02380241857250452</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02828466534169609</v>
+        <v>0.1182662408033539</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02423795457816118</v>
+        <v>0.02370251919427332</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02892847257921963</v>
+        <v>0.03690336729060851</v>
       </c>
       <c r="G96" t="n">
+        <v>0.021544416762713</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02864763354092666</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02504588639743322</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.0748260331064983</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02448317867805856</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1202980454758242</v>
+        <v>0.07181233694062261</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02441601707370885</v>
+        <v>0.02459583252492134</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02892847257921963</v>
+        <v>0.1200321615659661</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02504588639743322</v>
+        <v>0.02449260316741577</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02987726005213621</v>
+        <v>0.03754451714717292</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02223939794860697</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02958709158116217</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02585381821670526</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.0766796413993707</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02527295863541529</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1224561066819706</v>
+        <v>0.07357797268137362</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02520363052769946</v>
+        <v>0.02538924647733816</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02987726005213621</v>
+        <v>0.1222498095489133</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02585381821670526</v>
+        <v>0.02528268714055821</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03082692522391951</v>
+        <v>0.0381671374395838</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02293437913450094</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.03073352274481313</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.0266617500359773</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.07811142547237104</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02606273859277202</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1245745327471459</v>
+        <v>0.07584261657603567</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02599124398169007</v>
+        <v>0.02618266042975497</v>
       </c>
       <c r="N98" t="n">
-        <v>0.03082692522391951</v>
+        <v>0.1264136516855355</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0266617500359773</v>
+        <v>0.02607277111370066</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03207336555804317</v>
+        <v>0.03877022572314252</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02362936032039491</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.03178228981269286</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02746968185524934</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.07981667642610527</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02685251855012875</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1271468775394797</v>
+        <v>0.07669912337414259</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02677885743568068</v>
+        <v>0.02697607438217179</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03207336555804317</v>
+        <v>0.1285181549091727</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02746968185524934</v>
+        <v>0.0268628550868431</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0328124785179809</v>
+        <v>0.03935277955315051</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02432434150628887</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.03272875556561466</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02827761367452138</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.08199068536117943</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02764229850748548</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1302666949271015</v>
+        <v>0.07934034782522811</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02756647088967128</v>
+        <v>0.02776948833458861</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0328124785179809</v>
+        <v>0.130357786153165</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02827761367452138</v>
+        <v>0.02765293905998555</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0336401615672063</v>
+        <v>0.0399137964849092</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02501932269218284</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.03346828278439182</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02908554549379342</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.08382874337819954</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.0284320784648422</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1329275387781409</v>
+        <v>0.08115914467882612</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02835408434366189</v>
+        <v>0.02856290228700543</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0336401615672063</v>
+        <v>0.1327270123508522</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02908554549379342</v>
+        <v>0.02844302303312799</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03465231216919308</v>
+        <v>0.04045227407372001</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02571430387807681</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03459623424983764</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02989347731306546</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.08482614157777149</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02922185842219893</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1342229629607276</v>
+        <v>0.08234836868447037</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0291416977976525</v>
+        <v>0.02935631623942224</v>
       </c>
       <c r="N102" t="n">
-        <v>0.03465231216919308</v>
+        <v>0.1358203004355746</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02989347731306546</v>
+        <v>0.02923310700627044</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03554482778741488</v>
+        <v>0.04096720987488433</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02640928506397078</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03510797274276541</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.0307014091323375</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.08687817106050139</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.03001163837955566</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.136846521342991</v>
+        <v>0.08400087459169467</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02992931125164311</v>
+        <v>0.03014973019183906</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03554482778741488</v>
+        <v>0.137632117340672</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0307014091323375</v>
+        <v>0.03002319097941288</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03661360588534539</v>
+        <v>0.04145760144370361</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02710426624986475</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.0363988610439884</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03150934095160954</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.08878012292699519</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03080141833691239</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1398917677930609</v>
+        <v>0.08610951715003282</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03071692470563371</v>
+        <v>0.03094314414425588</v>
       </c>
       <c r="N104" t="n">
-        <v>0.03661360588534539</v>
+        <v>0.1394569299994846</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03150934095160954</v>
+        <v>0.03081327495255532</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03745454392645825</v>
+        <v>0.04192244633547924</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02779924743575871</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.03696426193431998</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03231727277088157</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.09022728827785892</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03159119829426912</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1410522561790668</v>
+        <v>0.08756715110901864</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03150453815962433</v>
+        <v>0.0317365580966727</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03745454392645825</v>
+        <v>0.1425892053453522</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03231727277088157</v>
+        <v>0.03160335892569777</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03796353937422713</v>
+        <v>0.04236074210551267</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02849422862165268</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03799953819457337</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03312520459015361</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.09111495821369847</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03238097825162584</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1437215403691384</v>
+        <v>0.08886663121818583</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03229215161361493</v>
+        <v>0.03252997204908951</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03796353937422713</v>
+        <v>0.1447234103116152</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03312520459015361</v>
+        <v>0.03239344289884021</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03873648969212568</v>
+        <v>0.04277148630910529</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02918920980754665</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.03850005260556191</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03393313640942566</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.09283842383511998</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03317075820898257</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.144893174231405</v>
+        <v>0.09070081222706836</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03307976506760554</v>
+        <v>0.03332338600150633</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03873648969212568</v>
+        <v>0.1454540118316133</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03393313640942566</v>
+        <v>0.03318352687198265</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03986929234362759</v>
+        <v>0.04315367650155853</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02988419099344062</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03966116794809889</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03474106822869769</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.09379297624272936</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03396053816633929</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1472607116339965</v>
+        <v>0.09186254888519985</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03386737852159614</v>
+        <v>0.03411679995392315</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03986929234362759</v>
+        <v>0.1485754768386865</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03474106822869769</v>
+        <v>0.0339736108451251</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04015784479220649</v>
+        <v>0.0435063102381738</v>
       </c>
       <c r="G109" t="n">
+        <v>0.03057917217933458</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.0399782470029976</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03554900004796974</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.09457390653713263</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03475031812369602</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1487177064450423</v>
+        <v>0.0938446959421142</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03465499197558676</v>
+        <v>0.03491021390633996</v>
       </c>
       <c r="N109" t="n">
-        <v>0.04015784479220649</v>
+        <v>0.1497822722661752</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03554900004796974</v>
+        <v>0.03476369481826754</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04119804450133607</v>
+        <v>0.04382838507425253</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03127415336522855</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.04094665255107131</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03635693186724177</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.09557650581893584</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03554009808105275</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1500577125326722</v>
+        <v>0.0949401081473453</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03544260542957737</v>
+        <v>0.03570362785875678</v>
       </c>
       <c r="N110" t="n">
-        <v>0.04119804450133607</v>
+        <v>0.151068865047419</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03635693186724177</v>
+        <v>0.03555377879140999</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04138578893448999</v>
+        <v>0.04411889856509615</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03196913455112252</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.04126174737313336</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03716486368651382</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.09689606518874486</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03632987803840948</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1521742837650156</v>
+        <v>0.09624164025042675</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03623021888356798</v>
+        <v>0.0364970418111736</v>
       </c>
       <c r="N111" t="n">
-        <v>0.04138578893448999</v>
+        <v>0.1520297221157581</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03716486368651382</v>
+        <v>0.03634386276455243</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0420169755551419</v>
+        <v>0.04437684826600603</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03266411573701649</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.04191889424999704</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03797279550578585</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.09812787574716583</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03711965799576621</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1536609740102021</v>
+        <v>0.09704214700089248</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03701783233755858</v>
+        <v>0.03729045576359041</v>
       </c>
       <c r="N112" t="n">
-        <v>0.0420169755551419</v>
+        <v>0.1537593104045325</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03797279550578585</v>
+        <v>0.03713394673769488</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04248750182676547</v>
+        <v>0.04460920236874687</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03335909692291045</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.04241345596247563</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03878072732505789</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.09916722859480459</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03790943795312294</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1551113371363614</v>
+        <v>0.09853448314827626</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03780544579154919</v>
+        <v>0.03808386971600724</v>
       </c>
       <c r="N113" t="n">
-        <v>0.04248750182676547</v>
+        <v>0.1560520968470823</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03878072732505789</v>
+        <v>0.03792403071083732</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04279326521283439</v>
+        <v>0.04483781217464759</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03405407810880443</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.04304079529138242</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03958865914432994</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.09970941483226728</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03869921791047966</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.156918927011623</v>
+        <v>0.09931150344211181</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0385930592455398</v>
+        <v>0.03887728366842405</v>
       </c>
       <c r="N114" t="n">
-        <v>0.04279326521283439</v>
+        <v>0.1572025483767474</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03958865914432994</v>
+        <v>0.03871411468397976</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04353016317682228</v>
+        <v>0.04506392645943593</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03474905929469839</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04329627501753074</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.04039659096360197</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.1004497255601598</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03948899786783639</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1570772975041165</v>
+        <v>0.09976606263193313</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0393806726995304</v>
+        <v>0.03967069762084088</v>
       </c>
       <c r="N115" t="n">
-        <v>0.04353016317682228</v>
+        <v>0.1567051319268679</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04039659096360197</v>
+        <v>0.03950419865712221</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0436940931822028</v>
+        <v>0.04528746314337622</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03544404048059236</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.04337525792173386</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04120452278287401</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.1006834518790882</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04027877782519312</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1586800024819716</v>
+        <v>0.1001910154672738</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04016828615352101</v>
+        <v>0.04046411157325769</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0436940931822028</v>
+        <v>0.1580543144307838</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04120452278287401</v>
+        <v>0.04029428263026465</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04368095269244966</v>
+        <v>0.0455083401467327</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03613902166648632</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.04357310678480508</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04201245460214605</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.1016058848896584</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04106855778254985</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1593205958133178</v>
+        <v>0.1008792166976677</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04095589960751162</v>
+        <v>0.0412575255256745</v>
       </c>
       <c r="N117" t="n">
-        <v>0.04368095269244966</v>
+        <v>0.1588445628218352</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04201245460214605</v>
+        <v>0.0410843666034071</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
+        <v>0.04572647538976959</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.0368340028523803</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.04411017704548593</v>
       </c>
-      <c r="G118" t="n">
+      <c r="K118" t="n">
         <v>0.04282038642141809</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.1016123156924765</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04185833773990658</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1588926313662847</v>
+        <v>0.1013235210726487</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04174351306150224</v>
+        <v>0.04205093947809133</v>
       </c>
       <c r="N118" t="n">
-        <v>0.04411017704548593</v>
+        <v>0.158870344033362</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04282038642141809</v>
+        <v>0.04187445057654954</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04371001112508201</v>
+        <v>0.04594178679275115</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03752898403827426</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.04370971360193705</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04362831824069013</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.1021583959624029</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.04264811769726331</v>
-      </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
+        <v>0.04284435343050814</v>
+      </c>
+      <c r="N119" t="n">
         <v>0.1602066148793199</v>
       </c>
-      <c r="M119" t="n">
-        <v>0.04253112651549284</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.04371001112508201</v>
-      </c>
       <c r="O119" t="n">
-        <v>0.04362831824069013</v>
+        <v>0.04266453454969198</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04380642759663095</v>
+        <v>0.04615419227594166</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03822396522416823</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.04409979118843579</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04443625005996216</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.1017583843735009</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04343789765462003</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1587052446095988</v>
+        <v>0.1013568746584694</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04331873996948345</v>
+        <v>0.04363776738292496</v>
       </c>
       <c r="N120" t="n">
-        <v>0.04380642759663095</v>
+        <v>0.1586065335649933</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04443625005996216</v>
+        <v>0.04345461852283443</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04389821876252614</v>
+        <v>0.04636360975960534</v>
       </c>
       <c r="G121" t="n">
+        <v>0.0389189464100622</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.04407733304434802</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04524418187923421</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.1017454086793977</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04422767761197675</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1587725726908472</v>
+        <v>0.1018274300930402</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04410635342347406</v>
+        <v>0.04443118133534178</v>
       </c>
       <c r="N121" t="n">
-        <v>0.04389821876252614</v>
+        <v>0.1588734423278649</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04524418187923421</v>
+        <v>0.04424470249597687</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04368545144709983</v>
+        <v>0.04656995716400649</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03961392759595617</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.04394285165166656</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04605211369850624</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.1017085872615704</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04501745756933349</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1600538656650788</v>
+        <v>0.1015616048870079</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04489396687746466</v>
+        <v>0.04522459528775859</v>
       </c>
       <c r="N122" t="n">
-        <v>0.04368545144709983</v>
+        <v>0.1593819357160864</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04605211369850624</v>
+        <v>0.04503478646911931</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04376819247468415</v>
+        <v>0.0467731524094093</v>
       </c>
       <c r="G123" t="n">
+        <v>0.04030890878185014</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.04379685949238421</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04686004551777828</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.1017488068166581</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04580723752669021</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1592544873779773</v>
+        <v>0.1014608959812777</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04568158033145527</v>
+        <v>0.04601800924017541</v>
       </c>
       <c r="N123" t="n">
-        <v>0.04376819247468415</v>
+        <v>0.1586342402005118</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04686004551777828</v>
+        <v>0.04582487044226177</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04384650866961129</v>
+        <v>0.04697311341607806</v>
       </c>
       <c r="G124" t="n">
+        <v>0.0410038899677441</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.04383986904849381</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04766797733705033</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.1011669540413001</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04659701748404694</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1587790829465089</v>
+        <v>0.1011268003167548</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04646919378544587</v>
+        <v>0.04681142319259222</v>
       </c>
       <c r="N124" t="n">
-        <v>0.04384650866961129</v>
+        <v>0.1589325822519956</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04766797733705033</v>
+        <v>0.04661495441540421</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04402046685621343</v>
+        <v>0.04716975810427704</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04169887115363807</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.04367239280198816</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04847590915632236</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.1009639156321352</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04738679744140367</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1586322974876403</v>
+        <v>0.1010608148343445</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04725680723943649</v>
+        <v>0.04760483714500904</v>
       </c>
       <c r="N125" t="n">
-        <v>0.04402046685621343</v>
+        <v>0.159379188341392</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04847590915632236</v>
+        <v>0.04740503838854665</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04389013385882275</v>
+        <v>0.04736300439427044</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04239385233953204</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.04379494323486008</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04928384097559441</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.1014405782858029</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.0481765773987604</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1574187761183378</v>
+        <v>0.101064436474952</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0480444206934271</v>
+        <v>0.04839825109742586</v>
       </c>
       <c r="N126" t="n">
-        <v>0.04389013385882275</v>
+        <v>0.1591762849395553</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04928384097559441</v>
+        <v>0.0481951223616891</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04375557650177139</v>
+        <v>0.04755277020632256</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04308883352542601</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.04340803282910238</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.05009177279486644</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.101097828698942</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04896635735611712</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1571431639555679</v>
+        <v>0.1006391621794827</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04883203414741771</v>
+        <v>0.04919166504984268</v>
       </c>
       <c r="N127" t="n">
-        <v>0.04375557650177139</v>
+        <v>0.1578260985173398</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05009177279486644</v>
+        <v>0.04898520633483154</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0436168616093916</v>
+        <v>0.04773897346069764</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04378381471131997</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.04361217406670788</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05089970461413849</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.1008365535681918</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04975613731347386</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1575101061162971</v>
+        <v>0.1002864888888417</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04961964760140831</v>
+        <v>0.0499850790022595</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0436168616093916</v>
+        <v>0.1573308555455996</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05089970461413849</v>
+        <v>0.04977529030797399</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04347405600601549</v>
+        <v>0.04792153207765992</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04447879589721394</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.04310787942966941</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05170763643341052</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.1004576395901913</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05054591727083058</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1567242477174917</v>
+        <v>0.1006079135439343</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05040726105539892</v>
+        <v>0.05077849295467631</v>
       </c>
       <c r="N129" t="n">
-        <v>0.04347405600601549</v>
+        <v>0.1577927824951891</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05170763643341052</v>
+        <v>0.05056537428111643</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04362722651597527</v>
+        <v>0.04810036397747367</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04517377708310791</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.04329566139997976</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05251556825268256</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.1005619734615797</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05133569722818731</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1554902338761182</v>
+        <v>0.09940493308566561</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05119487450938953</v>
+        <v>0.05157190690709313</v>
       </c>
       <c r="N130" t="n">
-        <v>0.04362722651597527</v>
+        <v>0.1560141058369625</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05251556825268256</v>
+        <v>0.05135545825425887</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04357643996360309</v>
+        <v>0.04827538708040312</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04586875826900188</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.04297603245963176</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.0533235000719546</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.100050441878996</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05212547718554403</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1559127097091429</v>
+        <v>0.09977904445494115</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05198248796338014</v>
+        <v>0.05236532085950995</v>
       </c>
       <c r="N131" t="n">
-        <v>0.04357643996360309</v>
+        <v>0.1556970520417743</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0533235000719546</v>
+        <v>0.05214554222740132</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04362176317323116</v>
+        <v>0.04844651930671256</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04656373945489584</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.04314950509061823</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05413143189122664</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.1002239315390794</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05291525714290076</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1548963203335326</v>
+        <v>0.09883174459266594</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05277010141737074</v>
+        <v>0.05315873481192677</v>
       </c>
       <c r="N132" t="n">
-        <v>0.04362176317323116</v>
+        <v>0.1553438475804784</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05413143189122664</v>
+        <v>0.05293562620054376</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04326326296919165</v>
+        <v>0.0486136785766662</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04725872064078981</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.04261659177493198</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05493936371049868</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.09968332913846903</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05370503710025749</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1532457108662535</v>
+        <v>0.0987645304397454</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05355771487136135</v>
+        <v>0.05395214876434358</v>
       </c>
       <c r="N133" t="n">
-        <v>0.04326326296919165</v>
+        <v>0.1549567189239294</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05493936371049868</v>
+        <v>0.05372571017368621</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04360100617581671</v>
+        <v>0.04877678281052832</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04795370182668378</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.0426778049945658</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05574729552977072</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.099529521373804</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05449481705761422</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.152565526424272</v>
+        <v>0.09867889893708459</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05434532832535197</v>
+        <v>0.0547455627167604</v>
       </c>
       <c r="N134" t="n">
-        <v>0.04360100617581671</v>
+        <v>0.1543378925429814</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05574729552977072</v>
+        <v>0.05451579414682865</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04353505961743855</v>
+        <v>0.04893574992856316</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04864868301257775</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.04263365723151255</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05655522734904275</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.0993633949417233</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05528459701497095</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1526604121245546</v>
+        <v>0.09777634702558891</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05513294177934256</v>
+        <v>0.05553897666917722</v>
       </c>
       <c r="N135" t="n">
-        <v>0.04353505961743855</v>
+        <v>0.1531895949084887</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05655522734904275</v>
+        <v>0.0553058781199711</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04306549011838932</v>
+        <v>0.04909049785103501</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04934366419847171</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.04218466096776503</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.0573631591683148</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.09928583653886622</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05607437697232767</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1519350130840677</v>
+        <v>0.09715837164616356</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05592055523333318</v>
+        <v>0.05633239062159403</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04306549011838932</v>
+        <v>0.1531140524913056</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0573631591683148</v>
+        <v>0.05609596209311354</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04319236450300121</v>
+        <v>0.04924094449820806</v>
       </c>
       <c r="G137" t="n">
+        <v>0.05003864538436568</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.04203132868531607</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05817109098758684</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.09829773286187177</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.0568641569296844</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1503939744197778</v>
+        <v>0.09722646973971377</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05670816868732378</v>
+        <v>0.05712580457401085</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04319236450300121</v>
+        <v>0.1520134917622863</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05817109098758684</v>
+        <v>0.05688604606625598</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0430157495956064</v>
+        <v>0.0493870077903466</v>
       </c>
       <c r="G138" t="n">
+        <v>0.05073362657025965</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04207417286615843</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05897902280685888</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.09799997060737908</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05765393688704113</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1490419412486513</v>
+        <v>0.09678213824714482</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0574957821413144</v>
+        <v>0.05791921852642767</v>
       </c>
       <c r="N138" t="n">
-        <v>0.0430157495956064</v>
+        <v>0.151990139192285</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05897902280685888</v>
+        <v>0.05767613003939842</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04283571222053706</v>
+        <v>0.04952860564771488</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05142860775615362</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.04211370599228499</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05978695462613091</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.09819343647202727</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05844371684439786</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1481835586876548</v>
+        <v>0.09642687410936193</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05828339559530501</v>
+        <v>0.05871263247884449</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04283571222053706</v>
+        <v>0.1511462212521563</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05978695462613091</v>
+        <v>0.05846621401254087</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04285231920212537</v>
+        <v>0.04966565599057714</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05212358894204758</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.04185044054568851</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.06059488644540295</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.09797901715245547</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05923349680175458</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1474234718537546</v>
+        <v>0.09626217426727035</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05907100904929561</v>
+        <v>0.0595060464312613</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04285231920212537</v>
+        <v>0.1508839644127541</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06059488644540295</v>
+        <v>0.05925629798568331</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04306563736470351</v>
+        <v>0.04979807673919767</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05281857012794156</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.04178488900836187</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.061402818264675</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.09765759934530277</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.06002327675911132</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.146166325863917</v>
+        <v>0.09498953566177532</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05985862250328622</v>
+        <v>0.06029946038367812</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04306563736470351</v>
+        <v>0.1489055951449328</v>
       </c>
       <c r="O141" t="n">
-        <v>0.061402818264675</v>
+        <v>0.06004638195882576</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04267573353260365</v>
+        <v>0.04992578581384067</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05351355131383553</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.04141756386229783</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06221075008394703</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.09713006974720831</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06081305671646804</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1466167658351087</v>
+        <v>0.09541045523378211</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06064623595727683</v>
+        <v>0.06109287433609495</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04267573353260365</v>
+        <v>0.1483133399195468</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06221075008394703</v>
+        <v>0.06083646593196821</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04278267453015797</v>
+        <v>0.05004870113477042</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05420853249972949</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.04144897758948923</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06301868190321908</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.09679731505481118</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06160283667382477</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.144679436884296</v>
+        <v>0.093926429924196</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06143384941126743</v>
+        <v>0.06188628828851175</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04278267453015797</v>
+        <v>0.1479094252074503</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06301868190321908</v>
+        <v>0.06162654990511065</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04268652718169863</v>
+        <v>0.05016674062225119</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05490351368562346</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.0409796426719289</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06382661372249111</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.09676022196475051</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.0623926166311815</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1450589841284453</v>
+        <v>0.09393895667392219</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06222146286525804</v>
+        <v>0.06267970224092857</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04268652718169863</v>
+        <v>0.1465960774794974</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06382661372249111</v>
+        <v>0.06241663387825309</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04238735831155785</v>
+        <v>0.0502798221965472</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05559849487151743</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.04071007159160961</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06463454554176315</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.09611967717366537</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06318239658853823</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1431600526845232</v>
+        <v>0.09294953242386592</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06300907631924865</v>
+        <v>0.06347311619334539</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04238735831155785</v>
+        <v>0.1463755232065426</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06463454554176315</v>
+        <v>0.06320671785139553</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04248523474406776</v>
+        <v>0.05038786377792272</v>
       </c>
       <c r="G146" t="n">
+        <v>0.0562934760574114</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.04064077683052421</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06544247736103519</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.09557656737819492</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06397217654589496</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1428872876694959</v>
+        <v>0.09295965411493246</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06379668977323927</v>
+        <v>0.06426653014576221</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04248523474406776</v>
+        <v>0.1449499888594399</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06544247736103519</v>
+        <v>0.06399680182453799</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04228022330356056</v>
+        <v>0.05049078328664199</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05698845724330536</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.04037227087066551</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06625040918030722</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.09593177927497828</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06476195650325167</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1417453342003302</v>
+        <v>0.09277081868802703</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06458430322722987</v>
+        <v>0.06505994409817903</v>
       </c>
       <c r="N147" t="n">
-        <v>0.04228022330356056</v>
+        <v>0.1443217009090439</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06625040918030722</v>
+        <v>0.06478688579768042</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04197239081436843</v>
+        <v>0.05058849864296929</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05768343842919933</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.04040506619402633</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06705834099957926</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.09568619956065452</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06555173646060841</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1410388373939923</v>
+        <v>0.09218452308405492</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06537191668122047</v>
+        <v>0.06585335805059585</v>
       </c>
       <c r="N148" t="n">
-        <v>0.04197239081436843</v>
+        <v>0.1432928858262087</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06705834099957926</v>
+        <v>0.06557696977082288</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04206180410082354</v>
+        <v>0.05068092776716885</v>
       </c>
       <c r="G149" t="n">
+        <v>0.0583784196150933</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.04023967528259947</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06786627281885131</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.09444071493186282</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06634151641796514</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1415723506777358</v>
+        <v>0.09150226424392138</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06615953013521109</v>
+        <v>0.06664677200301265</v>
       </c>
       <c r="N149" t="n">
-        <v>0.04206180410082354</v>
+        <v>0.1431657700817885</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06786627281885131</v>
+        <v>0.0663670537439653</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04174852998725806</v>
+        <v>0.05076798857950494</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05907340080098727</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.04017661061837777</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06867420463812335</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.09449621208524223</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06713129637532186</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1397330360129838</v>
+        <v>0.09062553910853158</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06694714358920169</v>
+        <v>0.06744018595542949</v>
       </c>
       <c r="N150" t="n">
-        <v>0.04174852998725806</v>
+        <v>0.1417425801466378</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06867420463812335</v>
+        <v>0.06715713771710775</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04203263529800419</v>
+        <v>0.05084959900024177</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05976838198688123</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.04001638468335401</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06948213645739539</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.09365357771743188</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06792107633267859</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1400086006445639</v>
+        <v>0.0908558446187909</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06773475704319229</v>
+        <v>0.0682335999078463</v>
       </c>
       <c r="N151" t="n">
-        <v>0.04203263529800419</v>
+        <v>0.1406255424916106</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06948213645739539</v>
+        <v>0.06794722169025019</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04191418685739408</v>
+        <v>0.05092567694964365</v>
       </c>
       <c r="G152" t="n">
+        <v>0.0604633631727752</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.03975950995952104</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.07029006827666744</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.0943136985250709</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06871085629003533</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1387980367763023</v>
+        <v>0.09029467771560445</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06852237049718291</v>
+        <v>0.06902701386026311</v>
       </c>
       <c r="N152" t="n">
-        <v>0.04191418685739408</v>
+        <v>0.1405168835875614</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07029006827666744</v>
+        <v>0.06873730566339264</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04149325148975992</v>
+        <v>0.0509961403479748</v>
       </c>
       <c r="G153" t="n">
+        <v>0.06115834435866917</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03980649892887167</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.07109800009593947</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.09397746120479841</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06950063624739204</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1384003366120248</v>
+        <v>0.08964353533987757</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06930998395117352</v>
+        <v>0.06982042781267993</v>
       </c>
       <c r="N153" t="n">
-        <v>0.04149325148975992</v>
+        <v>0.1392188299053442</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07109800009593947</v>
+        <v>0.06952738963653508</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04166989601943388</v>
+        <v>0.05106090711549948</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06185332554456314</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.03925786407339871</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07190593191521151</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.09294575245325348</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.07029041620474878</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1378144923555573</v>
+        <v>0.08890391443251547</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07009759740516412</v>
+        <v>0.07061384176509675</v>
       </c>
       <c r="N154" t="n">
-        <v>0.04166989601943388</v>
+        <v>0.1387336079158135</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07190593191521151</v>
+        <v>0.07031747360967754</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04124418727074815</v>
+        <v>0.05111989517248195</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06254830673045711</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03931411787509496</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07271386373448355</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.09241945896707526</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07108019616210551</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1376394962107256</v>
+        <v>0.08847731193442343</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07088521085915474</v>
+        <v>0.07140725571751357</v>
       </c>
       <c r="N155" t="n">
-        <v>0.04124418727074815</v>
+        <v>0.1384634440898235</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07271386373448355</v>
+        <v>0.07110755758281999</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04121619206803487</v>
+        <v>0.05117302243918644</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06324328791635107</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.03897577281595326</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.0735217955537556</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.09279946744290288</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07186997611946223</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1372743403813557</v>
+        <v>0.08806522478650666</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07167282431314534</v>
+        <v>0.07220066966993038</v>
       </c>
       <c r="N156" t="n">
-        <v>0.04121619206803487</v>
+        <v>0.1380105648982284</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0735217955537556</v>
+        <v>0.07189764155596241</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04128597723562628</v>
+        <v>0.05122020683587724</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06393826910224504</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03924334137796641</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07432972737302763</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.09178629201911875</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07265975607681896</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1368180170712734</v>
+        <v>0.08816914992967043</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07246043776713595</v>
+        <v>0.0729940836223472</v>
       </c>
       <c r="N157" t="n">
-        <v>0.04128597723562628</v>
+        <v>0.1358771968118827</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07432972737302763</v>
+        <v>0.07268772552910487</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04075360959785451</v>
+        <v>0.05126136628281856</v>
       </c>
       <c r="G158" t="n">
+        <v>0.064633250288139</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03911547284410742</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07513765919229967</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.09216978139899445</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.0734495360341757</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1359695184843046</v>
+        <v>0.08708359825559772</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07324805122112656</v>
+        <v>0.07378749757476402</v>
       </c>
       <c r="N158" t="n">
-        <v>0.04075360959785451</v>
+        <v>0.1366463892991986</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07513765919229967</v>
+        <v>0.0734778095022473</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04071915597905175</v>
+        <v>0.05129641870027469</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06532823147403298</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03888921589795982</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07594559101157171</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.09194525016297059</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07423931599153241</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1343278368242754</v>
+        <v>0.08699753357499521</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07403566467511716</v>
+        <v>0.07458091152718083</v>
       </c>
       <c r="N159" t="n">
-        <v>0.04071915597905175</v>
+        <v>0.1349879620108377</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07594559101157171</v>
+        <v>0.07426789347538976</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04048268320355017</v>
+        <v>0.05132528200850987</v>
       </c>
       <c r="G160" t="n">
+        <v>0.06602321265992694</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03856437468093875</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07675352283084375</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.09101299055605361</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07502909594888915</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1337919642950116</v>
+        <v>0.08681074270553979</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07482327812910777</v>
+        <v>0.07537432547959766</v>
       </c>
       <c r="N160" t="n">
-        <v>0.04048268320355017</v>
+        <v>0.1344032652642499</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07675352283084375</v>
+        <v>0.0750579774485322</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04064425809568195</v>
+        <v>0.05134787412778832</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06671819384582091</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03854079719731844</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07756145465011578</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.09087329482325024</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07581887590624588</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.133360893100339</v>
+        <v>0.08652318717139049</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07561089158309837</v>
+        <v>0.07616773943201448</v>
       </c>
       <c r="N161" t="n">
-        <v>0.04064425809568195</v>
+        <v>0.1331941580686548</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07756145465011578</v>
+        <v>0.07584806142167465</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04050394747977927</v>
+        <v>0.05136411297837436</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06741317503171489</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.03861833145137331</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07836938646938782</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.09022645520956707</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07660865586360259</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1335336154440836</v>
+        <v>0.08563482849670626</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07639850503708899</v>
+        <v>0.07696115338443128</v>
       </c>
       <c r="N162" t="n">
-        <v>0.04050394747977927</v>
+        <v>0.1330624994332718</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07836938646938782</v>
+        <v>0.07663814539481709</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04016181818017432</v>
+        <v>0.05137391648053218</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06810815621760885</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0381968254473776</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07917731828865987</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.09027276396001069</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07739843582095933</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1321091235300713</v>
+        <v>0.08534562820564598</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07718611849107961</v>
+        <v>0.0777545673368481</v>
       </c>
       <c r="N163" t="n">
-        <v>0.04016181818017432</v>
+        <v>0.1313101483673203</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07917731828865987</v>
+        <v>0.07742822936795953</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04011793702119924</v>
+        <v>0.05137720255452607</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06880313740350281</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.03827612718960564</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07998525010793191</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.09001251331958779</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07818821577831606</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1317864095621278</v>
+        <v>0.08485554782236862</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07797373194507021</v>
+        <v>0.07854798128926492</v>
       </c>
       <c r="N164" t="n">
-        <v>0.04011793702119924</v>
+        <v>0.1311389638800199</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07998525010793191</v>
+        <v>0.07821831334110196</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04007237082718623</v>
+        <v>0.05137720255452607</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06880313740350281</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.03815608468233181</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.08079318192720394</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.08964599553330491</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07897799573567278</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1311644657440793</v>
+        <v>0.08476454887103313</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07876134539906081</v>
+        <v>0.07934139524168175</v>
       </c>
       <c r="N165" t="n">
-        <v>0.04007237082718623</v>
+        <v>0.1300508049805901</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08079318192720394</v>
+        <v>0.07900839731424442</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03992482020492283</v>
+        <v>0.05051459786918825</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06880286887503879</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.03813654592983036</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08160111374647598</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.08937350284616871</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07976777569302951</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1316422842797516</v>
+        <v>0.08477259287579844</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07954895885305142</v>
+        <v>0.08013480919409856</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03992482020492283</v>
+        <v>0.1283475306782504</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08160111374647598</v>
+        <v>0.07979848128738685</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03955007000495292</v>
+        <v>0.04966159400254293</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06880260034657479</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.03801735893637566</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08240904556574802</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.08869532750318579</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08055755565038625</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1311188573729705</v>
+        <v>0.08417964136082351</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08033657230704203</v>
+        <v>0.08092822314651538</v>
       </c>
       <c r="N167" t="n">
-        <v>0.03955007000495292</v>
+        <v>0.1284309999822201</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08240904556574802</v>
+        <v>0.08058856526052931</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03963533209441895</v>
+        <v>0.04881863045596283</v>
       </c>
       <c r="G168" t="n">
+        <v>0.06880233181811075</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.03789837170624198</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08321697738502006</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.08831176174936278</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08134733560774296</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.129793177227562</v>
+        <v>0.08398565585026724</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08112418576103264</v>
+        <v>0.0817216370989322</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03963533209441895</v>
+        <v>0.1270030719017189</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08321697738502006</v>
+        <v>0.08137864923367176</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03918427144269157</v>
+        <v>0.0479861467309305</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06880206328964675</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.03747943224370368</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08402490920429209</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.08832309782970624</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.0821371155650997</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1302642360473519</v>
+        <v>0.08369059786828867</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08191179921502324</v>
+        <v>0.082515051051349</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03918427144269157</v>
+        <v>0.1265656054459661</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08402490920429209</v>
+        <v>0.0821687332068142</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03880055301914143</v>
+        <v>0.04716458232881818</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06880179476118273</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.03736038855303504</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08483284102356414</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.08762962798922289</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08292689552245643</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1288310260361662</v>
+        <v>0.08259442893904664</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08269941266901386</v>
+        <v>0.08330846500376583</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03880055301914143</v>
+        <v>0.1255204596241813</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08483284102356414</v>
+        <v>0.08295881717995664</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03858784179313914</v>
+        <v>0.04635437675103512</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06880152623271872</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.03714108863851041</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08564077284283618</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.0873316444729193</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08371667547981315</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1279925393978307</v>
+        <v>0.08239711058670016</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08348702612300447</v>
+        <v>0.08410187895618265</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03858784179313914</v>
+        <v>0.124669493445584</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08564077284283618</v>
+        <v>0.08374890115309908</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03804980273405534</v>
+        <v>0.04555596949895595</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06880125770425469</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.03702138050440411</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08644870466210822</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.08642943952580201</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08450645543716988</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1281477683361715</v>
+        <v>0.08219860433540813</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08427463957699506</v>
+        <v>0.08489529290859946</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03804980273405534</v>
+        <v>0.1238145659193937</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08644870466210822</v>
+        <v>0.08453898512624153</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03769010081126067</v>
+        <v>0.04476980007405942</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06880098917579068</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.03690111215499041</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08725663648138025</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.08622330539287779</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08529623539452662</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1274957050550142</v>
+        <v>0.08179887170932953</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08506225303098568</v>
+        <v>0.08568870686101628</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03769010081126067</v>
+        <v>0.1229575360548297</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08725663648138025</v>
+        <v>0.08532906909938397</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03761240099412574</v>
+        <v>0.04399630797771963</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06880072064732666</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.03708013159454369</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08806456830065229</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.08561353431915311</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08608601535188333</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.126435341758185</v>
+        <v>0.08099787423262325</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08584986648497629</v>
+        <v>0.08648212081343309</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03761240099412574</v>
+        <v>0.1224002628611117</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08806456830065229</v>
+        <v>0.08611915307252642</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03712036825202118</v>
+        <v>0.04323593271134581</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06880045211886265</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.03675828682733824</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08887250011992433</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.08510041854963465</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08687579530924007</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1265656706495096</v>
+        <v>0.08039557342944831</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08663747993896689</v>
+        <v>0.08727553476584991</v>
       </c>
       <c r="N175" t="n">
-        <v>0.03712036825202118</v>
+        <v>0.1213446053474591</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08887250011992433</v>
+        <v>0.08690923704566886</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03671766755431766</v>
+        <v>0.0424891137763149</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06880018359039862</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.03683542585764837</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08968043193919636</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.08518425032932908</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.0876655752665968</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1265856839328139</v>
+        <v>0.0807919308239636</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0874250933929575</v>
+        <v>0.08806894871826673</v>
       </c>
       <c r="N176" t="n">
-        <v>0.03671766755431766</v>
+        <v>0.1200924225230913</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08968043193919636</v>
+        <v>0.08769932101881131</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03650796387038577</v>
+        <v>0.04175629067410114</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06879991506193461</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.03661139668974843</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.09048836375846842</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.08476532190324293</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08845535522395351</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.125294373811924</v>
+        <v>0.08008690794032811</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08821270684694811</v>
+        <v>0.08886236267068355</v>
       </c>
       <c r="N177" t="n">
-        <v>0.03650796387038577</v>
+        <v>0.1187455733972279</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09048836375846842</v>
+        <v>0.08848940499195375</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03609492216959617</v>
+        <v>0.04103790290608089</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06879964653347059</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.03658604732791269</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09129629557774045</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.0840439255163829</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08924513518131025</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1253907324906656</v>
+        <v>0.0796804663027007</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08900032030093873</v>
+        <v>0.08965577662310037</v>
       </c>
       <c r="N178" t="n">
-        <v>0.03609492216959617</v>
+        <v>0.1173059169790884</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09129629557774045</v>
+        <v>0.08927948896509619</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03528220742131948</v>
+        <v>0.04033438997366332</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06879937800500657</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.03635922577641554</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09210422739701249</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.08332035341375549</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.09003491513866697</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1247737521728646</v>
+        <v>0.07927256743524036</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08978793375492933</v>
+        <v>0.09044919057551719</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03528220742131948</v>
+        <v>0.1163753122778922</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09210422739701249</v>
+        <v>0.09006957293823863</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03517348459492632</v>
+        <v>0.03964619137822801</v>
       </c>
       <c r="G180" t="n">
+        <v>0.06879910947654255</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.03603078003953122</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09291215921628453</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.08349489784036743</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.0908246950960237</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.123542425062347</v>
+        <v>0.07836317286210606</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09057554720891993</v>
+        <v>0.09124260452793401</v>
       </c>
       <c r="N180" t="n">
-        <v>0.03517348459492632</v>
+        <v>0.1153556183028588</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09291215921628453</v>
+        <v>0.09085965691138108</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03467241865978732</v>
+        <v>0.03897374662124404</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06879884094807853</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.03620055812153408</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09372009103555656</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.08346785104122528</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09161447505338043</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1232957433629387</v>
+        <v>0.07815224410745675</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09136316066291054</v>
+        <v>0.09203601848035083</v>
       </c>
       <c r="N181" t="n">
-        <v>0.03467241865978732</v>
+        <v>0.1155486940632077</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09372009103555656</v>
+        <v>0.09164974088452353</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03428267458527315</v>
+        <v>0.03831749520409029</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06879857241961453</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.03606840802669845</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.0945280228548286</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.08273950526133567</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09240425501073717</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1213326992784654</v>
+        <v>0.07783974269545127</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09215077411690116</v>
+        <v>0.09282943243276763</v>
       </c>
       <c r="N182" t="n">
-        <v>0.03428267458527315</v>
+        <v>0.1138563985681584</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0945280228548286</v>
+        <v>0.09243982485766597</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0340079173407544</v>
+        <v>0.03767787662817598</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06879830389115051</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.03563417775929865</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09533595467410065</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.08231015274570519</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09319403496809388</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1206522850127534</v>
+        <v>0.0774256301502487</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09293838757089175</v>
+        <v>0.09362284638518445</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0340079173407544</v>
+        <v>0.1125805908269303</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09533595467410065</v>
+        <v>0.09322990883080842</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03355181189560172</v>
+        <v>0.03705533039488355</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06879803536268649</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.03559771532360899</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09614388649337269</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.08158008573934053</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09398381492545062</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1200534927696281</v>
+        <v>0.07760986799600789</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09372600102488236</v>
+        <v>0.09441626033760127</v>
       </c>
       <c r="N184" t="n">
-        <v>0.03355181189560172</v>
+        <v>0.1126231298487431</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09614388649337269</v>
+        <v>0.09401999280395086</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03341802321918574</v>
+        <v>0.03645029600567636</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06879776683422247</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.03555886872390376</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09695181831264472</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.08134959648724821</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09477359488280734</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1201353147529158</v>
+        <v>0.07719241775688787</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09451361447887298</v>
+        <v>0.09520967429001809</v>
       </c>
       <c r="N185" t="n">
-        <v>0.03341802321918574</v>
+        <v>0.1111858746428161</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09695181831264472</v>
+        <v>0.0948100767770933</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03311021628087708</v>
+        <v>0.03586321296193617</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06879749830575846</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.03531748596445736</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09775975013191678</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.08091897723443492</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09556337484016407</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1188967431664423</v>
+        <v>0.07677324095704746</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09530122793286359</v>
+        <v>0.09600308824243491</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03311021628087708</v>
+        <v>0.1111706842183687</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09775975013191678</v>
+        <v>0.09560016075023574</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0325320560500464</v>
+        <v>0.03529452076507211</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06879722977729444</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.035373415049544</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09856768195118881</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.08038852022590726</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.0963531547975208</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1180367702140334</v>
+        <v>0.07645229912064569</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0960888413868542</v>
+        <v>0.09679650219485172</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0325320560500464</v>
+        <v>0.1091794175846206</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09856768195118881</v>
+        <v>0.09639024472337819</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03238720749606429</v>
+        <v>0.03474465891646985</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06879696124883042</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.03522650398343806</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09937561377046085</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.08015851770667184</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09714293475487752</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.116954388099515</v>
+        <v>0.07582955377184147</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0968764548408448</v>
+        <v>0.09758991614726854</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03238720749606429</v>
+        <v>0.1093139337507912</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09937561377046085</v>
+        <v>0.09718032869652063</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03226736725153775</v>
+        <v>0.03421406691758647</v>
       </c>
       <c r="G189" t="n">
+        <v>0.0687966927203664</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.03497660077041387</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.1001835455897329</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.07932926192173526</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09793271471223425</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1174485890267131</v>
+        <v>0.0749049664347938</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09766406829483541</v>
+        <v>0.09838333009968536</v>
       </c>
       <c r="N189" t="n">
-        <v>0.03226736725153775</v>
+        <v>0.1083760917260999</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1001835455897329</v>
+        <v>0.09797041266966308</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03185578819022084</v>
+        <v>0.03370138963905279</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06879642419190239</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.03492355341474572</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.1009914774090049</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.07910104511610419</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09872249466959099</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1168183651994535</v>
+        <v>0.07417849863366155</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09845168174882601</v>
+        <v>0.09917674405210218</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03185578819022084</v>
+        <v>0.1083677505197664</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1009914774090049</v>
+        <v>0.09876049664280552</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03155184790014288</v>
+        <v>0.03319629879775298</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06879615566343837</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.03456720992070796</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.101799409228277</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.07877415953478517</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09951227462694771</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.1145627088215622</v>
+        <v>0.07455011189260369</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09923929520281662</v>
+        <v>0.099970158004519</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03155184790014288</v>
+        <v>0.1065907691410099</v>
       </c>
       <c r="O191" t="n">
-        <v>0.101799409228277</v>
+        <v>0.09955058061594797</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0313550922385052</v>
+        <v>0.03269743926432033</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06879588713497435</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.03430741829257486</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.102607341047549</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.07794889742278491</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.1003020545843044</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.114580612096865</v>
+        <v>0.0735197677357792</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1000269086568072</v>
+        <v>0.1007635719569358</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0313550922385052</v>
+        <v>0.1060470065990501</v>
       </c>
       <c r="O192" t="n">
-        <v>0.102607341047549</v>
+        <v>0.1003406645890904</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03146506706250904</v>
+        <v>0.03220525054020745</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06879561860651033</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.03454198706109786</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.103415272866821</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.07772555102510992</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1010918345416612</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1138710672291879</v>
+        <v>0.07308126525320846</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1008145221107978</v>
+        <v>0.1015569859093526</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03146506706250904</v>
+        <v>0.1051276824210723</v>
       </c>
       <c r="O193" t="n">
-        <v>0.103415272866821</v>
+        <v>0.1011307485622329</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03118131822935569</v>
+        <v>0.03172017212680169</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06879535007804631</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.0342686471779267</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1042232046860931</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.07790441258676692</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1018816144990179</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1116330664223568</v>
+        <v>0.0732276228651835</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1016021355647884</v>
+        <v>0.1023503998617695</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03118131822935569</v>
+        <v>0.1055197501615305</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1042232046860931</v>
+        <v>0.1019208325353753</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0312033915962464</v>
+        <v>0.03124264352551221</v>
       </c>
       <c r="G195" t="n">
+        <v>0.0687950815495823</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.03388782109142803</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1050311365053651</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.07698577435276246</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1026713944563746</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1107656018801975</v>
+        <v>0.07205997225886163</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1023897490187791</v>
+        <v>0.1031438138141863</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0312033915962464</v>
+        <v>0.1051228144819354</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1050311365053651</v>
+        <v>0.1027109165085177</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03063083302038243</v>
+        <v>0.03077310423772794</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06879481302111827</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.0335999374143494</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1058390683246372</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.07666992856810312</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1034611744137313</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.109867665806536</v>
+        <v>0.07177946885580372</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1031773624727697</v>
+        <v>0.1039372277666031</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03063083302038243</v>
+        <v>0.1048365258840365</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1058390683246372</v>
+        <v>0.1035010004816602</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03086318835896504</v>
+        <v>0.03031199376489894</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06879454449265426</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.0338054247594385</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1066470001439092</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.07665716747779566</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1042509543710881</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.109937056583383</v>
+        <v>0.07178726807757055</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1039649759267603</v>
+        <v>0.1047306417190199</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03086318835896504</v>
+        <v>0.1033605348695829</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1066470001439092</v>
+        <v>0.1042910844548026</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03060000346919549</v>
+        <v>0.02985975160841382</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06879427596419024</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.03360471173944288</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1074549319631812</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.07584778332684658</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1050407343284448</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1089856048190819</v>
+        <v>0.071184525345723</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1047525893807509</v>
+        <v>0.1055240556714367</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03060000346919549</v>
+        <v>0.1023944919403242</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1074549319631812</v>
+        <v>0.1050811684279451</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03034082420827507</v>
+        <v>0.02941681726968168</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06879400743572624</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.03339822696711016</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1082628637824533</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.07564272586094956</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1058305142858015</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.1074127882035929</v>
+        <v>0.07087239608182197</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1055402028347415</v>
+        <v>0.1063174696238535</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03034082420827507</v>
+        <v>0.1015380475980098</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1082628637824533</v>
+        <v>0.1058712524010875</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03008519643340506</v>
+        <v>0.02898363025009316</v>
       </c>
       <c r="G200" t="n">
+        <v>0.0687937389072622</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03278639905518795</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1090707956017253</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.07514287690405375</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1066202942431583</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1043688911123212</v>
+        <v>0.07005203570742818</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1063278162887321</v>
+        <v>0.1071108835762703</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03008519643340506</v>
+        <v>0.101090852344389</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1090707956017253</v>
+        <v>0.10666133637423</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03023266600178667</v>
+        <v>0.02856063005109508</v>
       </c>
       <c r="G201" t="n">
+        <v>0.0687934703787982</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.03286965661642384</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1098787274209974</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.07414757289215401</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.107410074200515</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1030041979206724</v>
+        <v>0.06972459964410258</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1071154297427227</v>
+        <v>0.1079042975286872</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03023266600178667</v>
+        <v>0.1007525566812111</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1098787274209974</v>
+        <v>0.1074514203473724</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02998277877062121</v>
+        <v>0.02814825617407759</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06879320185033418</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03254842826356542</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1106866592402694</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.07375612555532182</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1081998541578717</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.09976899300405229</v>
+        <v>0.06849124331340592</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1079030431967133</v>
+        <v>0.108697711481104</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02998277877062121</v>
+        <v>0.1002228111102256</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1106866592402694</v>
+        <v>0.1082415043205149</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02993508059710992</v>
+        <v>0.02774694812044986</v>
       </c>
       <c r="G203" t="n">
+        <v>0.06879293332187016</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.03212314260936036</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1114945910595414</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.07416784662362863</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1089896341152284</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.09771356073786597</v>
+        <v>0.06865312213689911</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1086906566507039</v>
+        <v>0.1094911254335208</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02993508059710992</v>
+        <v>0.1005012661331819</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1114945910595414</v>
+        <v>0.1090315882936573</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02968911733845409</v>
+        <v>0.02735714539160437</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06879266479340614</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.03189422826655618</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1123025228788135</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.0732820478271459</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1097794140725852</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.09628818549751922</v>
+        <v>0.06741139153614298</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1094782701046945</v>
+        <v>0.1102845393859376</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02968911733845409</v>
+        <v>0.09978757225182933</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1123025228788135</v>
+        <v>0.1098216722667997</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02954443485185494</v>
+        <v>0.02697928748898425</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06879239626494212</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.03176211384790055</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1131104546980855</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.07339804089594507</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1105691940299419</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.09254315165841748</v>
+        <v>0.06736720693269835</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1102658835586851</v>
+        <v>0.1110779533383544</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02954443485185494</v>
+        <v>0.09838137996791713</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1131104546980855</v>
+        <v>0.1106117562399422</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02910057899451381</v>
+        <v>0.02661381391398144</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06879212773647811</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.03182722796614101</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1139183865173575</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.07231513756009758</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1113589739872986</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.09012874359596623</v>
+        <v>0.06682172374812603</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1110534970126757</v>
+        <v>0.1118713672907713</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02910057899451381</v>
+        <v>0.09878233978319489</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1139183865173575</v>
+        <v>0.1114018402130846</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02935709562363187</v>
+        <v>0.02626116416800513</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06879185920801409</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.03128999923402521</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1147263183366296</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.07243264954967493</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1121487539446553</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.08809524568557092</v>
+        <v>0.06647609740398694</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1118411104666664</v>
+        <v>0.1126647812431881</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02935709562363187</v>
+        <v>0.09839010219941186</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1147263183366296</v>
+        <v>0.1121919241862271</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02921353059641046</v>
+        <v>0.02592177775245005</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06879159067955007</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.03105085626430075</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1155342501559016</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.07194988859474857</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1129385339020121</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.08569294230263713</v>
+        <v>0.06583148332184188</v>
       </c>
       <c r="M208" t="n">
-        <v>0.112628723920657</v>
+        <v>0.1134581951956049</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02921353059641046</v>
+        <v>0.09740431771831748</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1155342501559016</v>
+        <v>0.1129820081593695</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02896942977005082</v>
+        <v>0.02559609416875489</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06879132215108605</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.03101022766971522</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1163421819751737</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.07136616642539004</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1137283138593688</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.08477211782257044</v>
+        <v>0.0649890369232517</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1134163373746476</v>
+        <v>0.1142516091480217</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02896942977005082</v>
+        <v>0.09662463684166106</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1163421819751737</v>
+        <v>0.113772092132512</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02882433900175423</v>
+        <v>0.02528455291831378</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06879105362262204</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.03056854206301624</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1171501137944457</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.07078079477167062</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1145180938167255</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.08288305662077627</v>
+        <v>0.06414991362977721</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1142039508286382</v>
+        <v>0.1150450231004385</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02882433900175423</v>
+        <v>0.09665071007119208</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1171501137944457</v>
+        <v>0.1145621761056544</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02857780414872194</v>
+        <v>0.02498759350253592</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06879078509415802</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.03052622805695139</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1179580456137178</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.07019308536366192</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1153078737740823</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.0809760430726601</v>
+        <v>0.06351526886297923</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1149915642826288</v>
+        <v>0.1158384370528553</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02857780414872194</v>
+        <v>0.09628218790865983</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1179580456137178</v>
+        <v>0.1153522600787968</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02862937106815519</v>
+        <v>0.02470565542281854</v>
       </c>
       <c r="G212" t="n">
+        <v>0.068790516565694</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.03038371426426831</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1187659774329898</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.07060234993143533</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.116097653731439</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.07920136155362761</v>
+        <v>0.06298625804441868</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1157791777366194</v>
+        <v>0.1166318510052722</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02862937106815519</v>
+        <v>0.0961187208558138</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1187659774329898</v>
+        <v>0.1161423440519393</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02817858561725531</v>
+        <v>0.02443917818059538</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06879024803722998</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.03014142929771456</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1195739092522618</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.07000790020506231</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1168874336887957</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.07850929643908405</v>
+        <v>0.06256403659565637</v>
       </c>
       <c r="M213" t="n">
-        <v>0.11656679119061</v>
+        <v>0.117425264957689</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02817858561725531</v>
+        <v>0.09465995941440319</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1195739092522618</v>
+        <v>0.1169324280250817</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02812499365322348</v>
+        <v>0.02418860127726303</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06878997950876597</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02959980177003778</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1203818410715339</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.06970904791461438</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1176772136461525</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.07852412776745954</v>
+        <v>0.06294975993825316</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1173544046446006</v>
+        <v>0.1182186789101058</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02812499365322348</v>
+        <v>0.0946055540861776</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1203818410715339</v>
+        <v>0.1177225119982242</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02816814103326104</v>
+        <v>0.02418860127726303</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06878997950876597</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02925926029398557</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1211897728908059</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.06930510479016294</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1184669936035092</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.07914526611255818</v>
+        <v>0.06234458349376984</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1181420180985912</v>
+        <v>0.1190120928625226</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02816814103326104</v>
+        <v>0.0947551553728862</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1211897728908059</v>
+        <v>0.1185125959713666</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02800757361456922</v>
+        <v>0.02358251406889211</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06870907515922675</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02922023348230549</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1219977047100779</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.06869538256177948</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1192567735608659</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.07827341423801765</v>
+        <v>0.0616496626837672</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1189296315525818</v>
+        <v>0.1198055068149394</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02800757361456922</v>
+        <v>0.09320841377627848</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1219977047100779</v>
+        <v>0.1193026799445091</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02764378374384291</v>
+        <v>0.02298314601494753</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06862817080968753</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.0290831499477452</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.12280563652935</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.06867919295953545</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1200465535182226</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.07850851539087544</v>
+        <v>0.06086615292980624</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1197172450065724</v>
+        <v>0.1205989207673562</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02764378374384291</v>
+        <v>0.09376497979810378</v>
       </c>
       <c r="O217" t="n">
-        <v>0.12280563652935</v>
+        <v>0.1200927639176515</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02767971267009622</v>
+        <v>0.02239079966433202</v>
       </c>
       <c r="G218" t="n">
+        <v>0.0685472664601483</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.0286484383030523</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.123613568348622</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.06785584771350225</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1208363334755794</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.07685051281816874</v>
+        <v>0.0600952096534477</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1205048584605631</v>
+        <v>0.1213923347197731</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02767971267009622</v>
+        <v>0.09252450394011152</v>
       </c>
       <c r="O218" t="n">
-        <v>0.123613568348622</v>
+        <v>0.120882847890794</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02741561051825321</v>
+        <v>0.02180577756594795</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06846636211060908</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02831652716097435</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1244215001678941</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.06742465855375146</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1216261134329361</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.07699934976693462</v>
+        <v>0.06003798827625245</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1212924719145537</v>
+        <v>0.1221857486721899</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02741561051825321</v>
+        <v>0.092486636704051</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1244215001678941</v>
+        <v>0.1216729318639364</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0273514769436952</v>
+        <v>0.021228382268698</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06838545776106986</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02838784513425899</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1252294319871661</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.06708493721035444</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1224158933902928</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.07775496948421062</v>
+        <v>0.05979564421978131</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1220800853685443</v>
+        <v>0.1229791626246067</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0273514769436952</v>
+        <v>0.09305102859167169</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1252294319871661</v>
+        <v>0.1224630158370789</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02698731160180351</v>
+        <v>0.02065891632148453</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06830455341153063</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.0281628208356538</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1260373638064382</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.0670359954133827</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1232056733476495</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.07671731521703373</v>
+        <v>0.05916933290559512</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1228676988225349</v>
+        <v>0.1237725765770235</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02698731160180351</v>
+        <v>0.09131733010472293</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1260373638064382</v>
+        <v>0.1232530998102213</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02662311414795944</v>
+        <v>0.02009768227321025</v>
       </c>
       <c r="G222" t="n">
+        <v>0.06822364906199141</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02784188287790643</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1268452956257102</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.06627714489290767</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1239954533050063</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.07668633021244137</v>
+        <v>0.05846020975525473</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1236553122765255</v>
+        <v>0.1245659905294403</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02662311414795944</v>
+        <v>0.0921851917449541</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1268452956257102</v>
+        <v>0.1240431837833637</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02665888423754424</v>
+        <v>0.01954498267277753</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06814274471245219</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02772545987376443</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1276532274449822</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.06590769737900085</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.124785233262363</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.07566195771747053</v>
+        <v>0.05806943019032099</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1244429257305161</v>
+        <v>0.1253594044818571</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02665888423754424</v>
+        <v>0.09065426401411464</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1276532274449822</v>
+        <v>0.1248332677565062</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02629462152593931</v>
+        <v>0.01900112006908906</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06806184036291296</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02721398043597545</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1284611592642543</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.06512696460173367</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1255750132197197</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.0758441409791587</v>
+        <v>0.05849814963235472</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1252305391845067</v>
+        <v>0.126152818434274</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02629462152593931</v>
+        <v>0.0898241974139537</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1284611592642543</v>
+        <v>0.1256233517296486</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02643032566852586</v>
+        <v>0.0184663970110472</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06798093601337374</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02700787317728703</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1292690910835263</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.06413425829117758</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1263647931770765</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.07633282324454305</v>
+        <v>0.05714752350291677</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1260181526384973</v>
+        <v>0.1269462323866908</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02643032566852586</v>
+        <v>0.08999464244622091</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1292690910835263</v>
+        <v>0.1264134357027911</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02616599632068524</v>
+        <v>0.01794111604755465</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06790003166383451</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02720756671044683</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1300770229027984</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.06382958854984996</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1271545731344332</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.07492794776066075</v>
+        <v>0.05741870722356796</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1268057660924879</v>
+        <v>0.1277396463391076</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02616599632068524</v>
+        <v>0.09036524961266557</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1300770229027984</v>
+        <v>0.1272035196759335</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02590163313779877</v>
+        <v>0.0174255797275138</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06781912731429529</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02691348964820243</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1308849547220704</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.06311533976634659</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1279443530917899</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.07572945777454904</v>
+        <v>0.05701285621586918</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1275933795464785</v>
+        <v>0.1285330602915244</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02590163313779877</v>
+        <v>0.08863566941503703</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1308849547220704</v>
+        <v>0.127993603649076</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02563723577524769</v>
+        <v>0.0169200905998273</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06773822296475607</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02662607060330147</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1316928865413424</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.06339183420520855</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1287341330491466</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.07613729653324525</v>
+        <v>0.05683112590138129</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1283809930004691</v>
+        <v>0.1293264742439412</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02563723577524769</v>
+        <v>0.08950555235508473</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1316928865413424</v>
+        <v>0.1287836876222184</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02547280388841335</v>
+        <v>0.01642495121339756</v>
       </c>
       <c r="G229" t="n">
+        <v>0.06765731861521684</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.0262457381884915</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1325008183606144</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.06275913267262742</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1295239130065033</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.07535140728378653</v>
+        <v>0.05667467170166504</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1291686064544597</v>
+        <v>0.1301198881963581</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02547280388841335</v>
+        <v>0.08837454893455793</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1325008183606144</v>
+        <v>0.1295737715953608</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02540833713267707</v>
+        <v>0.01594046411712725</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06757641426567762</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02647287588894878</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1333087501798865</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.06211729597479482</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1303136929638601</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.07457173327321021</v>
+        <v>0.05634446585941399</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1299562199084503</v>
+        <v>0.1309133021487749</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02540833713267707</v>
+        <v>0.08874233243104479</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1333087501798865</v>
+        <v>0.1303638555685033</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02534383516342009</v>
+        <v>0.01546693185991882</v>
       </c>
       <c r="G231" t="n">
+        <v>0.0674955099161384</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02600385767763815</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1341166819991585</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.06156638491790248</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1311034729212168</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.07459821774855341</v>
+        <v>0.05552503028747047</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1307438333624409</v>
+        <v>0.1317067161011917</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02534383516342009</v>
+        <v>0.08761090482793055</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1341166819991585</v>
+        <v>0.1311539395416458</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02517929763602376</v>
+        <v>0.01500465699067475</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06741460556659917</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02583620349958519</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1349246138184306</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.06130646030814196</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1318932528785735</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.07383080395685337</v>
+        <v>0.05610614676821155</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1315314468164316</v>
+        <v>0.1325001300536085</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02517929763602376</v>
+        <v>0.0870817471208411</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1349246138184306</v>
+        <v>0.1319440235147882</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02491472420586939</v>
+        <v>0.01455394205829768</v>
       </c>
       <c r="G233" t="n">
+        <v>0.06733370121705995</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02596994862626871</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1357325456377026</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.06073758295170492</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1326830328359303</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.07486943514514749</v>
+        <v>0.05538818445376281</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1323190602704222</v>
+        <v>0.1332935440060253</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02491472420586939</v>
+        <v>0.08735487781289297</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1357325456377026</v>
+        <v>0.1327341074879306</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02465011452833826</v>
+        <v>0.01411508961169004</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06725279686752073</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02570512832916749</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1365404774569747</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.05995981365478298</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.133472812793287</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.07511405456047288</v>
+        <v>0.05497151249624985</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1331066737244128</v>
+        <v>0.1340869579584421</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02465011452833826</v>
+        <v>0.08603031540720302</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1365404774569747</v>
+        <v>0.1335241914610731</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02468546825881168</v>
+        <v>0.01368840219975447</v>
       </c>
       <c r="G235" t="n">
+        <v>0.0671718925179815</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.0252417778797603</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1373484092762467</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.05967321322356786</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1342625927506437</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.07436460544986684</v>
+        <v>0.05555650004779816</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1338942871784034</v>
+        <v>0.134880371910859</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02468546825881168</v>
+        <v>0.08510807840688783</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1373484092762467</v>
+        <v>0.1343142754342155</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02442078505267095</v>
+        <v>0.0132741823713934</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06709098816844228</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.0252799325495259</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1381563410955187</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.05807784246425116</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1350523727080005</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.07332103106036653</v>
+        <v>0.0553435162605333</v>
       </c>
       <c r="M236" t="n">
-        <v>0.134681900632394</v>
+        <v>0.1356737858632758</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02442078505267095</v>
+        <v>0.08608818531506407</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1381563410955187</v>
+        <v>0.135104359407358</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02455606456529738</v>
+        <v>0.01287273267550945</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06701008381890305</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.02511962760994309</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1389642729147908</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.05787376218302451</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1358421526653572</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.07358327463900921</v>
+        <v>0.05423293028658083</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1354695140863846</v>
+        <v>0.1364671998156926</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02455606456529738</v>
+        <v>0.08527065463484851</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1389642729147908</v>
+        <v>0.1358944433805004</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02419130645207226</v>
+        <v>0.01248435566100505</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06692917946936383</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02476089833249065</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1397722047340628</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.0570610331860795</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1366319326227139</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.0739512794328322</v>
+        <v>0.0543251112780663</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1362571275403752</v>
+        <v>0.1372606137681094</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02419130645207226</v>
+        <v>0.08475550486935773</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1397722047340628</v>
+        <v>0.1366845273536429</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02412651036837692</v>
+        <v>0.01210935387678285</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06684827511982461</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02490377998864735</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1405801365533349</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.05703971627960788</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1374217125800707</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.07362498868887257</v>
+        <v>0.05472042838711527</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1370447409943658</v>
+        <v>0.1380540277205262</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02412651036837692</v>
+        <v>0.08464275452170839</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1405801365533349</v>
+        <v>0.1374746113267853</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02386167596959263</v>
+        <v>0.0117467944637266</v>
       </c>
       <c r="G240" t="n">
+        <v>0.06676737077028538</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02454830784989194</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1413880683726069</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.05630987226980125</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1382114925374274</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.07380434565416777</v>
+        <v>0.05461925076585325</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1378323544483564</v>
+        <v>0.1388474416729431</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02386167596959263</v>
+        <v>0.08413242209501731</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1413880683726069</v>
+        <v>0.1382646952999277</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02359680291110072</v>
+        <v>0.01138956752262691</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06668646642074616</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02439451718770325</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1421960001918789</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.05597156196285122</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1390012724947841</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.0739892935757549</v>
+        <v>0.05372194756640586</v>
       </c>
       <c r="M241" t="n">
-        <v>0.138619967902347</v>
+        <v>0.1396408556253599</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02359680291110072</v>
+        <v>0.08312452609240106</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1421960001918789</v>
+        <v>0.1390547792730702</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02373189084828249</v>
+        <v>0.01103674019436754</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06660556207120694</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02444244327355997</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.143003932011151</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.05502484616494951</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1397910524521408</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.07397977570067121</v>
+        <v>0.05372888794089861</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1394075813563377</v>
+        <v>0.1404342695777767</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02373189084828249</v>
+        <v>0.08321908501697634</v>
       </c>
       <c r="O242" t="n">
-        <v>0.143003932011151</v>
+        <v>0.1398448632462126</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02336693943651921</v>
+        <v>0.01068861502785113</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06652465772166771</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.024092121378941</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.143811863830423</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.05426978568228763</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1405808324094976</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.07377573527595399</v>
+        <v>0.05404044104145705</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1401951948103282</v>
+        <v>0.1412276835301935</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02336693943651921</v>
+        <v>0.08221611737185991</v>
       </c>
       <c r="O243" t="n">
-        <v>0.143811863830423</v>
+        <v>0.1406349472193551</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02310194833119224</v>
+        <v>0.01034549457198011</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06644375337212849</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.023943586775325</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.144619795649695</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.05400644132105736</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1413706123668543</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.0738771155486404</v>
+        <v>0.05315697602020675</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1409828082643189</v>
+        <v>0.1420210974826103</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02310194833119224</v>
+        <v>0.08241564166016829</v>
       </c>
       <c r="O244" t="n">
-        <v>0.144619795649695</v>
+        <v>0.1414250311924975</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02323691718768282</v>
+        <v>0.01000768137565709</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06636284902258927</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.02369687473419081</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1454277274689671</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.05293487388745025</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.142160392324211</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.0721838597657678</v>
+        <v>0.05297886202927324</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1417704217183095</v>
+        <v>0.1428145114350271</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02323691718768282</v>
+        <v>0.0822176763850182</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1454277274689671</v>
+        <v>0.14221511516564</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02277184566137232</v>
+        <v>0.009675477987784523</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06628194467305004</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.0238520205270172</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1462356592882391</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.05245514418765801</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1429501722815677</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.07309591117437331</v>
+        <v>0.05290646822078207</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1425580351723001</v>
+        <v>0.1436079253874439</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02277184566137232</v>
+        <v>0.08192224004952653</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1462356592882391</v>
+        <v>0.1430051991387824</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02250673340764198</v>
+        <v>0.009349186957265034</v>
       </c>
       <c r="G247" t="n">
+        <v>0.06620104032351082</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02350905942528293</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1470435911075112</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.05156731302787221</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1437399522389245</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.07291321302149423</v>
+        <v>0.0527401637468588</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1433456486262907</v>
+        <v>0.1444013393398608</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02250673340764198</v>
+        <v>0.08022935115680963</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1470435911075112</v>
+        <v>0.1437952831119248</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02264158008187313</v>
+        <v>0.009029110833001112</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06612013597397161</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02356802670046677</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1478515229267832</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.05087144121428455</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1445297321962812</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.07323570855416772</v>
+        <v>0.05288031775962898</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1441332620802813</v>
+        <v>0.1451947532922776</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02264158008187313</v>
+        <v>0.08063902820998448</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1478515229267832</v>
+        <v>0.1445853670850673</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02237638533944708</v>
+        <v>0.008715552163895239</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06603923162443237</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02312895762404756</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1486594547460553</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.05056758955308663</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1453195121536379</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.07236334101943115</v>
+        <v>0.05272729941121818</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1449208755342719</v>
+        <v>0.1459881672446944</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02237638533944708</v>
+        <v>0.08095128971216753</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1486594547460553</v>
+        <v>0.1453754510582097</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02241114883574515</v>
+        <v>0.008408813498850032</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06595832727489316</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02309188746750401</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1494673865653273</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.04935581885047013</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1461092921109946</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.07179605366432162</v>
+        <v>0.05198147785375193</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1457084889882625</v>
+        <v>0.1467815811971112</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02241114883574515</v>
+        <v>0.08016615416647566</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1494673865653273</v>
+        <v>0.1461655350313522</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0222458702261486</v>
+        <v>0.008109197386767936</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06587742292535392</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02325685150231491</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1502753183845993</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.04813618991262669</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1468990720683514</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.07223378973587652</v>
+        <v>0.05234322223935575</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1464961024422531</v>
+        <v>0.147574995149528</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0222458702261486</v>
+        <v>0.07888364007602539</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1502753183845993</v>
+        <v>0.1469556190044946</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02168054916603876</v>
+        <v>0.007817006376551569</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06579651857581471</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02292388499995905</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1510832502038714</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.0475087635457479</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1476888520257081</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.07177649248113294</v>
+        <v>0.05211290172015529</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1472837158962437</v>
+        <v>0.1483684091019449</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02168054916603876</v>
+        <v>0.07940376594393345</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1510832502038714</v>
+        <v>0.1477457029776371</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02161518531079691</v>
+        <v>0.007532543017103377</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06571561422627548</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02289302323191519</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1518911820231434</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.0470736005560255</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1484786319830648</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.07172410514712829</v>
+        <v>0.05229088544827601</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1480713293502343</v>
+        <v>0.1491618230543617</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02161518531079691</v>
+        <v>0.07932655027331653</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1518911820231434</v>
+        <v>0.1485357869507795</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02134977831580438</v>
+        <v>0.007256109857325985</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06563470987673627</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02286430146966213</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1526991138424154</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.046130761749651</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1492684119404216</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.07167657098089952</v>
+        <v>0.05237754257584346</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1488589428042249</v>
+        <v>0.1499552370067785</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02134977831580438</v>
+        <v>0.07795201156729137</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1526991138424154</v>
+        <v>0.1493258709239219</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02148432783644247</v>
+        <v>0.00698800944612183</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06555380552719703</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.02273775498467866</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1535070456616875</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.04618030793281611</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1500581918977783</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.07313383322948414</v>
+        <v>0.05177324225498325</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1496465562582155</v>
+        <v>0.1507486509591953</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02148432783644247</v>
+        <v>0.07868016832897456</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1535070456616875</v>
+        <v>0.1501159548970644</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02121883352809248</v>
+        <v>0.006728544332393532</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06547290117765782</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02221341904844348</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1543149774809595</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.04542229991171254</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.150847971855135</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.07159583513991935</v>
+        <v>0.05147835363782088</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1504341697122062</v>
+        <v>0.1515420649116121</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02121883352809248</v>
+        <v>0.07691103906148278</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1543149774809595</v>
+        <v>0.1509060388702068</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02095329504613572</v>
+        <v>0.006478017065043529</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06539199682811858</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.02249132893243545</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1551229093002316</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.04425679849253183</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1516377518124918</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.07146251995924224</v>
+        <v>0.05209324587648195</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1512217831661967</v>
+        <v>0.152335478864029</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02095329504613572</v>
+        <v>0.07684464226793275</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1551229093002316</v>
+        <v>0.1516961228433493</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02088771204595345</v>
+        <v>0.006236730192974445</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06531109247857937</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.02227151990813329</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1559308411195036</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.04358386448146567</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1524275317698485</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.07253383093449023</v>
+        <v>0.05131828812309194</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1520093966201874</v>
+        <v>0.1531288928164458</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02088771204595345</v>
+        <v>0.07598099645144113</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1559308411195036</v>
+        <v>0.1524862068164917</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02082208418292704</v>
+        <v>0.00600498626508874</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06523018812904013</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.02195402724701584</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1567387729387756</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.04270355868470568</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1532173117272052</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.07180971131270047</v>
+        <v>0.05105384952977646</v>
       </c>
       <c r="M259" t="n">
-        <v>0.152797010074178</v>
+        <v>0.1539223067688626</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02082208418292704</v>
+        <v>0.07722012011512464</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1567387729387756</v>
+        <v>0.1532762907896342</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02065641111243775</v>
+        <v>0.005783087830289003</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06514928377950092</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.02183888622056181</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1575467047580477</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.04131594190844351</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1540070916845619</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.07149010434091008</v>
+        <v>0.05130029924866106</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1535846235281686</v>
+        <v>0.1547157207212794</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02065641111243775</v>
+        <v>0.07606203176209986</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1575467047580477</v>
+        <v>0.1540663747627766</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02029069248986688</v>
+        <v>0.005571337437477696</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06506837942996169</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.02192613210025</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1583546365773197</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.04062107495887082</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1547968716419187</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.07257495326615654</v>
+        <v>0.05145800643187126</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1543722369821592</v>
+        <v>0.1555091346736962</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02029069248986688</v>
+        <v>0.07520674989548359</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1583546365773197</v>
+        <v>0.1548564587359191</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02002492797059577</v>
+        <v>0.005370037635557434</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06498747508042248</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.02151580015755922</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1591625683965918</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.03971901864217922</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1555866515992754</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.07266420133547691</v>
+        <v>0.05092734023153261</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1551598504361498</v>
+        <v>0.156302548626113</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02002492797059577</v>
+        <v>0.07585429301839253</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1591625683965918</v>
+        <v>0.1556465427090615</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02005911721000568</v>
+        <v>0.005179490973430671</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06490657073088324</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.0215079256639682</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1599705002158638</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.03990983376456039</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1563764315566321</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.07185779179590851</v>
+        <v>0.05140866979977068</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1559474638901404</v>
+        <v>0.1570959625785298</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02005911721000568</v>
+        <v>0.07530467963394322</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1599705002158638</v>
+        <v>0.1564366266822039</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02009325986347793</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06482566638134403</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.02160254389095573</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1607784320351358</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.0385935811322059</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1571662115139889</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.07185566789448855</v>
+        <v>0.05110236428871107</v>
       </c>
       <c r="M264" t="n">
-        <v>0.156735077344131</v>
+        <v>0.1578893765309467</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02009325986347793</v>
+        <v>0.07485792824525239</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1607784320351358</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1572267106553464</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06481250848660718</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005646740624024274</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0648127770150712</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006289942661583427</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06481304554353522</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006929566633017602</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06481331407199924</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007565573058583519</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06481358260046326</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008197922458621491</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06481385112892726</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008826575353443923</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06481411965739128</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009451492263390322</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.0648143881858553</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01007263370871868</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06481465671431932</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01068996020976869</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06481492524278333</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01130343228685272</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06481519377124735</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01191301046030963</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06481546229971137</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01251865525039876</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06481573082817539</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01312032717745911</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.0648159993566394</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01371798676180307</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06481626788510342</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.0143115945237688</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06481653641356744</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01490111098361702</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06481680494203146</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01548649666168603</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06481707347049548</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01606771207828826</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06481734199895949</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01664471775376109</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06481761052742352</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01721747420836671</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06481787905588753</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01778594196244273</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06481814758435155</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01835008153630153</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.06481841611281555</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01890985345027977</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06481868464127959</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01946521822464113</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06481895316974359</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02001629758844686</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06481922169820761</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02056401931435566</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06481949022667162</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02110850513142792</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06481975875513565</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02164971555992864</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06482002728359966</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02218761112019398</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06482029581206368</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02272215233253636</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0648205643405277</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.0232532997172912</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06482083286899172</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02378101379472466</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06482110139745574</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02430525508517232</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06482136992591975</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02482598410894658</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06482163845438377</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02534316138638228</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06482190698284779</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0258567474377468</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06482217551131181</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.0263667027833751</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06482244403977581</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.0268729879435796</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06482271256823983</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02737556343869445</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06482298109670385</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02787438978898835</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06482324962516788</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02836942751479562</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.0648235181536319</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02886063713642866</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.0648237866820959</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02934797917422102</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06482405521055994</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02983141414844261</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06482432373902394</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03031090257942718</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06482459226748796</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0307864049874871</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06482486079595197</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.0312578818929552</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.064825129324416</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03172529381610286</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06482539785288001</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03218860127726304</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06482566638134403</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03218860127726304</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06481250848660718</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03268825066490696</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06489394989307444</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03318339039017001</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0649753912995417</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03367390550347717</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06505683270600895</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03415968105525347</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06513827411247622</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03464060209592387</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06521971551894347</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03511655367591338</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06530115692541073</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03558742084564701</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06538259833187798</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03605308865554977</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06546403973834525</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03651344215604662</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06554548114481251</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.0369683663975626</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06562692255127976</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03741774643052271</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06570836395774703</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03786146730535186</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.06578980536421426</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03829941407247518</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06587124677068153</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03873147178231761</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06595268817714879</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03915752548530415</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06603412958361604</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.0395774602318598</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06611557099008331</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03999116107240958</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06619701239655056</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04039851305737845</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06627845380301782</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04079940123719147</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06635989520948508</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04119371066227357</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06644133661595233</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04158132638304977</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.0665227780224196</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0419621334499451</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06660421942888685</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04233601691338452</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06668566083535411</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04270286182379306</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06676710224182136</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04306302260902697</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06684854364828863</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04341920058409874</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06692998505475589</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04377175017686464</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06701142646122314</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04412055643774965</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06709286786769041</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04446550441717877</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06717430927415766</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04480647916557703</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06725575068062492</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.0451433657333694</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06733719208709217</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04547604917098089</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06741863349355944</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04580441452883651</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.0675000749000267</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04612834685736125</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06758151630649395</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04644773120698008</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06766295771296121</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04676245262811805</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06774439911942846</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04707239617120009</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06782584052589571</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04737744688665129</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06790728193236298</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04767748982489661</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06798872333883023</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04797241003636104</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06807016474529749</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04826209257146958</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.06815160615176474</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04854642248064726</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.06823304755823201</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04882528481431902</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06831448896469927</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04909856462290992</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06839593037116652</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04936614695684492</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06847737177763379</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04962791686654904</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06855881318410104</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04988375940244728</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.0686402545905683</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05013355961496461</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06872169599703555</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05037720255452607</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06880313740350281</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04525146836968404</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06880313740350281</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05048555609878196</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07072950260694889</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05058578556009145</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07265586781039497</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05067820752288626</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07458223301384105</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05076313857159815</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07650859821728713</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05084089529065885</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07843496342073321</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05091179426450011</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08036132862417929</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.05097615207755366</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08228769382762538</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05103428531425123</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08421405903107144</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05108651055902459</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08614042423451752</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.05113314439630545</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.0880667894379636</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05117450341052557</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.0899931546414097</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.0512109041861167</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09191951984485577</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05124266330751055</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09384588504830185</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05127009735913885</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09577225025174793</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05129352292543341</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09769861545519401</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05131325659082591</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09962498065864009</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0513296149397481</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1015513458620862</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05134291455663175</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1034777110655322</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05135347202590853</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1054040762689783</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.05136160393201026</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1073304414724244</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05136762685936865</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1092568066758705</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05137185739241543</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1111831718793166</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05137461211558234</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1131095370827627</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.05137620761330112</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1150359022862087</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05137696047000354</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1169622674896548</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05137718727012131</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1188886326931009</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05137114274358014</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.120814997896547</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0512847997255664</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.122741363099993</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05110249779221736</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1246677283034391</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05083232727189772</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1265940935068852</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05048237849297212</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1285204587103313</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05006074178380523</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1304468239137773</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.0495755074727617</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1323731891172234</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04903476588820623</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1342995543206695</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04844660735850344</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1362259195241156</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.047819122212018</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1381522847275617</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04716040077711461</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1400786499310077</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04647853338215786</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1420050151344538</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04578161035551249</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1439313803378999</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04507772202554312</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.145857745541346</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04437495872061441</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1477841107447921</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04368141076909104</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04300516849933767</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1516368411516842</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04235432223971895</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1535632063551303</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04173696231859955</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1554895715585764</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04116117906434414</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1574159367620225</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04063506280531737</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1593423019654686</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04016670386988391</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1612686671689146</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.0397641925864084</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1631950323723607</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03943561928325556</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1651213975758068</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03916879959820754</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1670477627792529</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03891020634290591</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.168974127982699</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03865665250185759</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.170900493186145</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.0384083985700601</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1728268583895911</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0381657050425109</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1747532235930372</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03792883241420749</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1766795887964833</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03769804118014738</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1786059539999293</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03747359183532808</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1805323192033754</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03725574487474705</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1824586844068215</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03704476079340181</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1843850496102676</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03684090008628985</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1863114148137137</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03664442324840868</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1882377800171597</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03645559077475579</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1901641452206058</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03627466316032869</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1920905104240519</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03610190090012485</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.194016875627498</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03593756448914178</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1959432408309441</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03578191442237697</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1978696060343902</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03563521119482791</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1997959712378362</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03549771530149213</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2017223364412823</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.0353696872373671</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2036487016447284</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03525138749745032</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2055750668481744</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03514307657673928</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2075014320516205</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03504501497023151</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2094277972550666</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03495746317292447</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2113541624585127</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03488068167981569</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2132805276619588</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03481488887755389</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2152068928654049</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03475426572322152</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.217133258068851</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03469466977655456</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.219059623272297</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03463625614843602</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2209859884757431</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03457917994974883</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2229123536791892</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03452359629137592</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2248387188826352</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03446966028420025</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2267650840860813</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03441752703910477</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2286914492895274</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03436735166697245</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2306178144929735</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03431928927868619</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2325441796964196</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03427349498512899</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2344705448998656</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03423012389718378</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2363969101033117</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03418933112573348</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2383232753067578</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03415127178166109</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2402496405102039</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03411610097584952</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2421760057136499</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03408397381918173</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2441023709170961</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.0340550454225407</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2460287361205421</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03402947089680933</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2479551013239882</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03400740535287061</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2498814665274343</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03398900390160745</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2518078317308804</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03397442165390283</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2537341969343265</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03396381372063968</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2556605621377725</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03395733521270098</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2575869273412186</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03395514124096965</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2595132925446647</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1075.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1075.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08425146836968406</v>
+        <v>0.06046316076635782</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03425146836968405</v>
+        <v>0.01046316076635782</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01884063740350283</v>
+        <v>0.008712761163152538</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0015836699711302</v>
+        <v>0.001701316232353138</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006949811858939679</v>
+        <v>0.001626004872765844</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001625819195252932</v>
+        <v>0.002900969496773008</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008079318192720394</v>
+        <v>0.001638712417172113</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006089264523701315</v>
+        <v>0.01031111994207368</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007934139524168174</v>
+        <v>0.001638712417172113</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.007907564298517911</v>
+        <v>0.01629104421604177</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007900839731424441</v>
+        <v>0.001644989113152012</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003142438104578475</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001389962371787936</v>
+        <v>0.002904253721050846</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003418758435442412</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001615863638544079</v>
+        <v>0.003747187499999996</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01245554395306028</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001586827904833635</v>
+        <v>0.003747187499999998</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01646823210958887</v>
+        <v>0.03016079278021433</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001580167946284888</v>
+        <v>0.003289978226304025</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004676382469297344</v>
+        <v>0.007843360516543565</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002084943557681903</v>
+        <v>0.004878014618297532</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005443791736738875</v>
+        <v>0.009606179853873957</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002423795457816118</v>
+        <v>0.004916137251516339</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01760385276474652</v>
+        <v>0.02703914095088536</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002380241857250452</v>
+        <v>0.004916137251516339</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02387731869362458</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002370251919427333</v>
+        <v>0.004163541666666664</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006185581134239282</v>
+        <v>0.008106153398238135</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002779924743575871</v>
+        <v>0.006504019491063377</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.006965893115312753</v>
+        <v>0.01345375203206348</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003231727277088158</v>
+        <v>0.006554849668688452</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02303920543542962</v>
+        <v>0.03431517900346753</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003173655809667269</v>
+        <v>0.006554849668688452</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02800000000000002</v>
+        <v>0.05192436655086624</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002797900000000002</v>
+        <v>0.00657995645260805</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01161701488420339</v>
+        <v>0.002904253721050846</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.0076701121683568</v>
+        <v>0.01046316076635782</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003474905929469839</v>
+        <v>0.008712761163152538</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008650036587334486</v>
+        <v>0.01671810087476933</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004039659096360197</v>
+        <v>0.008193562085860565</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02826661644177922</v>
+        <v>0.04058203653869849</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003967069762084087</v>
+        <v>0.008193562085860565</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03499802034700533</v>
+        <v>0.05981317544063625</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003950419865712221</v>
+        <v>0.008224945565760063</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.00913005364060239</v>
+        <v>0.009043154158434936</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004169887115363807</v>
+        <v>0.009756029236595064</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01016119616897453</v>
+        <v>0.0195820871477954</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004847590915632236</v>
+        <v>0.009832274503032678</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03299110026046484</v>
+        <v>0.04596406136708059</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004760483714500905</v>
+        <v>0.009832274503032678</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04034675073941807</v>
+        <v>0.06827871100908334</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004740503838854665</v>
+        <v>0.009869934678912074</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01056548361992855</v>
+        <v>0.009922835883760202</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004864868301257774</v>
+        <v>0.01138203410936091</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.012</v>
+        <v>0.02205508852274297</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005995499999999998</v>
+        <v>0.01124156249999999</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03651767136815609</v>
+        <v>0.05107919798120145</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005553897666917722</v>
+        <v>0.01124156249999999</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0442980932782947</v>
+        <v>0.07548299982467727</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005530587811997109</v>
+        <v>0.01151492379206409</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01197648017528778</v>
+        <v>0.01276961084549066</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005559849487151743</v>
+        <v>0.01300803898212675</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01235435558152118</v>
+        <v>0.02390663675512504</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006463454554176316</v>
+        <v>0.0131096993373769</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03935134424152253</v>
+        <v>0.05581869524897187</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006347311619334539</v>
+        <v>0.0131096993373769</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04967422180683856</v>
+        <v>0.08010330743965993</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006320671785139553</v>
+        <v>0.01249062499999999</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01336312137563257</v>
+        <v>0.01357969858053829</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006254830673045711</v>
+        <v>0.0146340438548926</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01314702075399825</v>
+        <v>0.02598633142977809</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007271386373448355</v>
+        <v>0.01474841175454902</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04099999999999998</v>
+        <v>0.05941529343162391</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006897180134680131</v>
+        <v>0.01474841175454902</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05229731016825306</v>
+        <v>0.0881387700375606</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007110755758281998</v>
+        <v>0.01480490201836811</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01472548528991541</v>
+        <v>0.01234931862581509</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.006949811858939678</v>
+        <v>0.01626004872765844</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01416574501739683</v>
+        <v>0.02767161204516967</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008079318192720394</v>
+        <v>0.01638712417172113</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04225860054602731</v>
+        <v>0.06366114920444052</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007934139524168174</v>
+        <v>0.01638712417172113</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05618953220574147</v>
+        <v>0.095261819209985</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007900839731424442</v>
+        <v>0.01644989113152013</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01606364998708883</v>
+        <v>0.01407469051823304</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007644793044833646</v>
+        <v>0.01788605360042429</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01501944908276268</v>
+        <v>0.0295574064415336</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008887250011992434</v>
+        <v>0.01802583658889324</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04334277332638112</v>
+        <v>0.06783392977467698</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008727553476584991</v>
+        <v>0.01802583658889324</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0607730617625073</v>
+        <v>0.1006424733623446</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008690923704566885</v>
+        <v>0.01809488024467214</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0173776935361053</v>
+        <v>0.01575203379470413</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008339774230727614</v>
+        <v>0.01951205847319013</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01551705366114146</v>
+        <v>0.03093864245910369</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009695181831264473</v>
+        <v>0.01966454900606536</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04543500406198966</v>
+        <v>0.07181130234958844</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00952096742900181</v>
+        <v>0.01966454900606536</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06457007268175391</v>
+        <v>0.1066280478107955</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009481007677709331</v>
+        <v>0.01973986935782415</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01866769400591731</v>
+        <v>0.01637756799214034</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009034755416621581</v>
+        <v>0.02113806334595597</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01596747946357895</v>
+        <v>0.03271024793811375</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01050311365053651</v>
+        <v>0.02130326142323747</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04568997874895458</v>
+        <v>0.07467093413643025</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01031438138141863</v>
+        <v>0.02130326142323747</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06730273880668464</v>
+        <v>0.1127658578714937</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01027109165085177</v>
+        <v>0.02138485847097616</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01993372946547738</v>
+        <v>0.01494751264745366</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009729736602515549</v>
+        <v>0.02276406821872182</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01657964720112082</v>
+        <v>0.03376715071879767</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01131104546980855</v>
+        <v>0.02294197384040958</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04656238338337776</v>
+        <v>0.07829049234245761</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01110779533383544</v>
+        <v>0.02294197384040958</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06989323398050284</v>
+        <v>0.118203218860595</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01106117562399422</v>
+        <v>0.02302984758412817</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.021175877983738</v>
+        <v>0.01645808729755609</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01042471778840952</v>
+        <v>0.02439007309148766</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01756247758481282</v>
+        <v>0.03490427864138923</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01211897728908059</v>
+        <v>0.02458068625758169</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04790690396136099</v>
+        <v>0.08134764417492579</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01190120928625226</v>
+        <v>0.02458068625758169</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07416373204641191</v>
+        <v>0.1222874460942555</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01185125959713666</v>
+        <v>0.02467483669728019</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02239421762965165</v>
+        <v>0.0159055114793596</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01111969897430349</v>
+        <v>0.02601607796425351</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01772489132570065</v>
+        <v>0.03631655954612228</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01292690910835263</v>
+        <v>0.02621939867475381</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04867822647900605</v>
+        <v>0.08312005684108997</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01269462323866908</v>
+        <v>0.02621939867475381</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07703640684761526</v>
+        <v>0.1285658548886309</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01264134357027911</v>
+        <v>0.0263198258104322</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.01828600472977616</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01161701488420339</v>
+        <v>0.02764208283701935</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01827580913483004</v>
+        <v>0.03719892127323063</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01373484092762467</v>
+        <v>0.02785811109192592</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04973103693241465</v>
+        <v>0.08578539754820549</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01348803719108589</v>
+        <v>0.02785811109192592</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08010330743965993</v>
+        <v>0.1318857605598775</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01334053832651336</v>
+        <v>0.02796481492358421</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02478856669628567</v>
+        <v>0.01859578658571779</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01250966134609142</v>
+        <v>0.0292680877097852</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01902415172324666</v>
+        <v>0.03824629166294813</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01454277274689671</v>
+        <v>0.02949682350909803</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05107919798120145</v>
+        <v>0.08752133350352756</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01432123697607058</v>
+        <v>0.02949682350909803</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08182395110236468</v>
+        <v>0.1364944784241511</v>
       </c>
       <c r="O83" t="n">
-        <v>0.014221511516564</v>
+        <v>0.02960980403673622</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0259876940982439</v>
+        <v>0.01784874567788174</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01320464253198539</v>
+        <v>0.03089409258255104</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01967883980199633</v>
+        <v>0.03855359855550859</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01535070456616875</v>
+        <v>0.03113553592627015</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05224821522636941</v>
+        <v>0.08980553191431143</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01507486509591953</v>
+        <v>0.03113553592627015</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08603756602147927</v>
+        <v>0.1387393237976076</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01501159548970644</v>
+        <v>0.03125479314988824</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02717576336168854</v>
+        <v>0.01809211590869263</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01389962371787936</v>
+        <v>0.03252009745531689</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01994879408212469</v>
+        <v>0.03942218628727862</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01615863638544079</v>
+        <v>0.03277424834344226</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05336842358382418</v>
+        <v>0.09093268987953071</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01586827904833635</v>
+        <v>0.03277424834344226</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08836930496084855</v>
+        <v>0.1413676119964031</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01580167946284888</v>
+        <v>0.03289978226304025</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02834075464799039</v>
+        <v>0.01832729039750694</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01459460490377332</v>
+        <v>0.03414610232808273</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02054293527467746</v>
+        <v>0.03974512698987409</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01696656820471283</v>
+        <v>0.03441296076061438</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05487338310078441</v>
+        <v>0.09224381136982795</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01666169300075316</v>
+        <v>0.03441296076061438</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09131363485381255</v>
+        <v>0.1427531966936688</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01659176343599133</v>
+        <v>0.03454477137619226</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02947064811852024</v>
+        <v>0.01955266500315728</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01528958608966729</v>
+        <v>0.03577210720084858</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02127018409070039</v>
+        <v>0.04045186417867637</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01777450002398487</v>
+        <v>0.03605167317778649</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05605594852678389</v>
+        <v>0.09351740580653034</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01745510695316998</v>
+        <v>0.03605167317778649</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09486502263371138</v>
+        <v>0.1445422310991176</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01738184740913377</v>
+        <v>0.03618976048934427</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03055342393464889</v>
+        <v>0.01776663558447619</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01598456727556126</v>
+        <v>0.03739811207361442</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02205508852274297</v>
+        <v>0.0408389366178083</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01836545600529243</v>
+        <v>0.0376903855949586</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05750897461135643</v>
+        <v>0.09474545702808637</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0182485209055868</v>
+        <v>0.0376903855949586</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09801793523388475</v>
+        <v>0.1476678837078477</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01817193138227622</v>
+        <v>0.03783474960249628</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03157706225774713</v>
+        <v>0.01896759800029623</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01667954846145523</v>
+        <v>0.03902411694638026</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02265620112659442</v>
+        <v>0.04110288307139266</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01939036366252895</v>
+        <v>0.03932909801213071</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05932531610403582</v>
+        <v>0.09521994887294447</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01904193485800362</v>
+        <v>0.03932909801213071</v>
       </c>
       <c r="N89" t="n">
-        <v>0.100066839587673</v>
+        <v>0.1491174384270106</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01896201535541866</v>
+        <v>0.0394797387156483</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03252954324918576</v>
+        <v>0.01915394810944999</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01737452964734919</v>
+        <v>0.0406501218191461</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02341700516569394</v>
+        <v>0.04174024230355219</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02019829548180099</v>
+        <v>0.04096781042930282</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06059782775435588</v>
+        <v>0.09623286517955312</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01983534881042044</v>
+        <v>0.04096781042930282</v>
       </c>
       <c r="N90" t="n">
-        <v>0.103606202628416</v>
+        <v>0.1509781791637577</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0197520993285611</v>
+        <v>0.04112472782880031</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03339884707033555</v>
+        <v>0.01832408177077001</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01806951083324316</v>
+        <v>0.04227612669191195</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02431724286251581</v>
+        <v>0.04234755307840971</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02100622730107302</v>
+        <v>0.04260652284647494</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06241936431185036</v>
+        <v>0.09737618978636073</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02062876276283725</v>
+        <v>0.04260652284647494</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1068304912894538</v>
+        <v>0.1520373898252403</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02054218330170355</v>
+        <v>0.04276971694195233</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03425146836968405</v>
+        <v>0.01847639484308886</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01884063740350283</v>
+        <v>0.04390213156467779</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02515227699787341</v>
+        <v>0.04252135416008798</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02181415912034506</v>
+        <v>0.04424523526364705</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0645827805260531</v>
+        <v>0.09854190653181583</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02142217671525407</v>
+        <v>0.04424523526364705</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1085341725041266</v>
+        <v>0.15358235431861</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02133226727484599</v>
+        <v>0.04441470605510434</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03487876478297965</v>
+        <v>0.01860928318523913</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0194594732050311</v>
+        <v>0.04552813643744363</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02591747035258002</v>
+        <v>0.04275818431270983</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0226220909396171</v>
+        <v>0.04588394768081917</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06658093114649793</v>
+        <v>0.09892199925436679</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02221559066767089</v>
+        <v>0.04588394768081917</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1116117132057741</v>
+        <v>0.1541003565510181</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02212235124798844</v>
+        <v>0.04605969516825634</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03556948866381329</v>
+        <v>0.01872114265605336</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02015445439092507</v>
+        <v>0.04715414131020948</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02700818570744888</v>
+        <v>0.043254582300398</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02343002275888914</v>
+        <v>0.04752266009799128</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06780667092271858</v>
+        <v>0.09960845179246211</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02300900462008771</v>
+        <v>0.04752266009799128</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1143575803277365</v>
+        <v>0.1561786804296159</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02291243522113088</v>
+        <v>0.04770468428140836</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03624469031458908</v>
+        <v>0.02081036911436413</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02084943557681904</v>
+        <v>0.04878014618297533</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02761978584329333</v>
+        <v>0.04330708688727532</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02423795457816118</v>
+        <v>0.04916137251516339</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06985285460424887</v>
+        <v>0.1005932479845502</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02380241857250452</v>
+        <v>0.04916137251516339</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1182662408033539</v>
+        <v>0.1578046098615548</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02370251919427332</v>
+        <v>0.04934967339456037</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03690336729060851</v>
+        <v>0.01887535841900401</v>
       </c>
       <c r="G96" t="n">
-        <v>0.021544416762713</v>
+        <v>0.05040615105574117</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02864763354092666</v>
+        <v>0.04341223683746449</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02504588639743322</v>
+        <v>0.0508000849323355</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07181233694062261</v>
+        <v>0.1009683716690797</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02459583252492134</v>
+        <v>0.0508000849323355</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1200321615659661</v>
+        <v>0.1579654287539864</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02449260316741577</v>
+        <v>0.05099466250771239</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03754451714717292</v>
+        <v>0.02092632153271563</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02223939794860697</v>
+        <v>0.05203215592850702</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02958709158116217</v>
+        <v>0.04386657091508837</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02585381821670526</v>
+        <v>0.05243879734950761</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07357797268137362</v>
+        <v>0.1013258066844988</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02538924647733816</v>
+        <v>0.05243879734950761</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1222498095489133</v>
+        <v>0.1587484210140619</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02528268714055821</v>
+        <v>0.0526396516208644</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0381671374395838</v>
+        <v>0.01892626656442531</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02293437913450094</v>
+        <v>0.05365816080127286</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03073352274481313</v>
+        <v>0.04411017704548593</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0266617500359773</v>
+        <v>0.05407750976667972</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07584261657603567</v>
+        <v>0.1021583959624029</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02618266042975497</v>
+        <v>0.05407750976667972</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1264136516855355</v>
+        <v>0.1583408705489328</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02607277111370066</v>
+        <v>0.05428464073401642</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03877022572314252</v>
+        <v>0.01891811445030631</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02362936032039491</v>
+        <v>0.0552841656740387</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03178228981269286</v>
+        <v>0.04390894650913135</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02746968185524934</v>
+        <v>0.05571622218385184</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07669912337414259</v>
+        <v>0.1017555460617999</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02697607438217179</v>
+        <v>0.05571622218385184</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1285181549091727</v>
+        <v>0.1602066148793199</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0268628550868431</v>
+        <v>0.05592962984716842</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03935277955315051</v>
+        <v>0.02089671348138851</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02432434150628887</v>
+        <v>0.05691017054680454</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03272875556561466</v>
+        <v>0.04410062042589602</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02827761367452138</v>
+        <v>0.05735493460102395</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07934034782522811</v>
+        <v>0.1015362629991386</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02776948833458861</v>
+        <v>0.05735493460102395</v>
       </c>
       <c r="N100" t="n">
-        <v>0.130357786153165</v>
+        <v>0.1586049897664266</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02765293905998555</v>
+        <v>0.05757461896032044</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0399137964849092</v>
+        <v>0.018862909086328</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02501932269218284</v>
+        <v>0.0585361754195704</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03346828278439182</v>
+        <v>0.04406279652819944</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02908554549379342</v>
+        <v>0.05899364701819607</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08115914467882612</v>
+        <v>0.1014486635158324</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02856290228700543</v>
+        <v>0.05899364701819607</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1327270123508522</v>
+        <v>0.1598322405128276</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02844302303312799</v>
+        <v>0.05921960807347244</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04045227407372001</v>
+        <v>0.01881754669378089</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02571430387807681</v>
+        <v>0.06016218029233623</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03459623424983764</v>
+        <v>0.04389792171899363</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02989347731306546</v>
+        <v>0.06063235943536818</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08234836868447037</v>
+        <v>0.1013984145961784</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02935631623942224</v>
+        <v>0.06063235943536818</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1358203004355746</v>
+        <v>0.1587563210721779</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02923310700627044</v>
+        <v>0.06086459718662446</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04096720987488433</v>
+        <v>0.01876147173240329</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02640928506397078</v>
+        <v>0.06178818516510208</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03510797274276541</v>
+        <v>0.04390782016940238</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0307014091323375</v>
+        <v>0.06227107185254029</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08400087459169467</v>
+        <v>0.1013897409884874</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03014973019183906</v>
+        <v>0.06227107185254029</v>
       </c>
       <c r="N103" t="n">
-        <v>0.137632117340672</v>
+        <v>0.15898393319212</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03002319097941288</v>
+        <v>0.06250958629977647</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04145760144370361</v>
+        <v>0.01969552963085131</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02710426624986475</v>
+        <v>0.06341419003786793</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0363988610439884</v>
+        <v>0.04349431605054949</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03150934095160954</v>
+        <v>0.0639097842697124</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08610951715003282</v>
+        <v>0.1012268674410705</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03094314414425588</v>
+        <v>0.0639097842697124</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1394569299994846</v>
+        <v>0.1591217786202974</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03081327495255532</v>
+        <v>0.06415457541292849</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04192244633547924</v>
+        <v>0.01862056581778103</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02779924743575871</v>
+        <v>0.06504019491063377</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03696426193431998</v>
+        <v>0.04365923353355874</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03231727277088157</v>
+        <v>0.06554849668688452</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08756715110901864</v>
+        <v>0.1008140187022384</v>
       </c>
       <c r="M105" t="n">
-        <v>0.0317365580966727</v>
+        <v>0.06554849668688452</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1425892053453522</v>
+        <v>0.1582765591043526</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03160335892569777</v>
+        <v>0.0657995645260805</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04236074210551267</v>
+        <v>0.02053742572184857</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02849422862165268</v>
+        <v>0.0666661997833996</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03799953819457337</v>
+        <v>0.04330439678955395</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03312520459015361</v>
+        <v>0.06718720910405664</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08886663121818583</v>
+        <v>0.1000554195203023</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03252997204908951</v>
+        <v>0.06718720910405664</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1447234103116152</v>
+        <v>0.158154976391929</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03239344289884021</v>
+        <v>0.0674445536392325</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04277148630910529</v>
+        <v>0.01944695477171002</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02918920980754665</v>
+        <v>0.06829220465616546</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03850005260556191</v>
+        <v>0.04333162998965893</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03393313640942566</v>
+        <v>0.06882592152122875</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09070081222706836</v>
+        <v>0.09965529464357295</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03332338600150633</v>
+        <v>0.06882592152122875</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1454540118316133</v>
+        <v>0.1567637322306695</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03318352687198265</v>
+        <v>0.06908954275238452</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04315367650155853</v>
+        <v>0.01934999839602151</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02988419099344062</v>
+        <v>0.0699182095289313</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03966116794809889</v>
+        <v>0.04314275730499748</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03474106822869769</v>
+        <v>0.07046463393840086</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09186254888519985</v>
+        <v>0.09931786882036145</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03411679995392315</v>
+        <v>0.07046463393840086</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1485754768386865</v>
+        <v>0.1560095283682171</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0339736108451251</v>
+        <v>0.07073453186553653</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0435063102381738</v>
+        <v>0.01824740202343912</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03057917217933458</v>
+        <v>0.07154421440169716</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0399782470029976</v>
+        <v>0.04253960290669338</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03554900004796974</v>
+        <v>0.07210334635557297</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0938446959421142</v>
+        <v>0.09864736679897868</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03491021390633996</v>
+        <v>0.07210334635557297</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1497822722661752</v>
+        <v>0.1563990665522146</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03476369481826754</v>
+        <v>0.07237952097868855</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04382838507425253</v>
+        <v>0.02014001108261897</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03127415336522855</v>
+        <v>0.07317021927446299</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04094665255107131</v>
+        <v>0.04252399096587045</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03635693186724177</v>
+        <v>0.07374205877274508</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0949401081473453</v>
+        <v>0.09854801332773555</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03570362785875678</v>
+        <v>0.07374205877274508</v>
       </c>
       <c r="N110" t="n">
-        <v>0.151068865047419</v>
+        <v>0.1552390485303053</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03555377879140999</v>
+        <v>0.07402451009184056</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04411889856509615</v>
+        <v>0.01802867100221715</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03196913455112252</v>
+        <v>0.07479622414722883</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04126174737313336</v>
+        <v>0.04239774565365249</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03716486368651382</v>
+        <v>0.07538077118991719</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09624164025042675</v>
+        <v>0.09742403315494308</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0364970418111736</v>
+        <v>0.07538077118991719</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1520297221157581</v>
+        <v>0.153336176050132</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03634386276455243</v>
+        <v>0.07566949920499257</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04437684826600603</v>
+        <v>0.01991422721088978</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03266411573701649</v>
+        <v>0.07642222901999468</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04191889424999704</v>
+        <v>0.04226269114116329</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03797279550578585</v>
+        <v>0.07701948360708931</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09704214700089248</v>
+        <v>0.09737965102891219</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03729045576359041</v>
+        <v>0.07701948360708931</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1537593104045325</v>
+        <v>0.1537971508593378</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03713394673769488</v>
+        <v>0.07731448831814458</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04460920236874687</v>
+        <v>0.01979752513729295</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03335909692291045</v>
+        <v>0.07804823389276051</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04241345596247563</v>
+        <v>0.04172065159952666</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03878072732505789</v>
+        <v>0.07865819602426143</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09853448314827626</v>
+        <v>0.09641909169795376</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03808386971600724</v>
+        <v>0.07865819602426143</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1560520968470823</v>
+        <v>0.1523286747055656</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03792403071083732</v>
+        <v>0.0789594774312966</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04483781217464759</v>
+        <v>0.01867941021008276</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03405407810880443</v>
+        <v>0.07967423876552637</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04304079529138242</v>
+        <v>0.04157345119986637</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03958865914432994</v>
+        <v>0.08029690844143353</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09931150344211181</v>
+        <v>0.09654657991037882</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03887728366842405</v>
+        <v>0.08029690844143353</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1572025483767474</v>
+        <v>0.1513374493364585</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03871411468397976</v>
+        <v>0.08060446654444861</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04506392645943593</v>
+        <v>0.01856072785791534</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03474905929469839</v>
+        <v>0.08130024363829221</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04329627501753074</v>
+        <v>0.04122291411330629</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04039659096360197</v>
+        <v>0.08193562085860565</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09976606263193313</v>
+        <v>0.09556634041449835</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03967069762084088</v>
+        <v>0.08193562085860565</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1567051319268679</v>
+        <v>0.1501301764996595</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03950419865712221</v>
+        <v>0.08224945565760063</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04528746314337622</v>
+        <v>0.01944232350944677</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03544404048059236</v>
+        <v>0.08292624851105805</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04337525792173386</v>
+        <v>0.04097086451097018</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04120452278287401</v>
+        <v>0.08357433327577776</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1001910154672738</v>
+        <v>0.09498259795862318</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04046411157325769</v>
+        <v>0.08357433327577776</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1580543144307838</v>
+        <v>0.1495135579428115</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04029428263026465</v>
+        <v>0.08389444477075263</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0455083401467327</v>
+        <v>0.01932504259333316</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03613902166648632</v>
+        <v>0.0845522533838239</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04357310678480508</v>
+        <v>0.04091912656398181</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04201245460214605</v>
+        <v>0.08521304569294988</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1008792166976677</v>
+        <v>0.09439957729106432</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0412575255256745</v>
+        <v>0.08521304569294988</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1588445628218352</v>
+        <v>0.1479942954135576</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0410843666034071</v>
+        <v>0.08553943388390466</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04572647538976959</v>
+        <v>0.01720397335284696</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0368340028523803</v>
+        <v>0.08617825825658974</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04411017704548593</v>
+        <v>0.04036952444346503</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04282038642141809</v>
+        <v>0.08685175811012198</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1013235210726487</v>
+        <v>0.0934215031601327</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04205093947809133</v>
+        <v>0.08685175811012198</v>
       </c>
       <c r="N118" t="n">
-        <v>0.158870344033362</v>
+        <v>0.1480790906595407</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04187445057654954</v>
+        <v>0.08718442299705666</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04594178679275115</v>
+        <v>0.01706602602399951</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03752898403827426</v>
+        <v>0.08780426312935559</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04370971360193705</v>
+        <v>0.04011572274883776</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04362831824069013</v>
+        <v>0.0884904705272941</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1021583959624029</v>
+        <v>0.09283370288925816</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04284435343050814</v>
+        <v>0.0884904705272941</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1602066148793199</v>
+        <v>0.1463745087172327</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04266453454969198</v>
+        <v>0.08882941211020867</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04615419227594166</v>
+        <v>0.01891317142412934</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03822396522416823</v>
+        <v>0.08943026800212144</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04409979118843579</v>
+        <v>0.04012719944392647</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04443625005996216</v>
+        <v>0.09012918294446622</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1013568746584694</v>
+        <v>0.09276548797828388</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04363776738292496</v>
+        <v>0.09012918294446622</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1586065335649933</v>
+        <v>0.145197805648475</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04345461852283443</v>
+        <v>0.09047440122336069</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04636360975960534</v>
+        <v>0.01774816406085655</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0389189464100622</v>
+        <v>0.09105627287488727</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04407733304434802</v>
+        <v>0.03970602088185737</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04524418187923421</v>
+        <v>0.09176789536163833</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1018274300930402</v>
+        <v>0.09202164406478847</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04443118133534178</v>
+        <v>0.09176789536163833</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1588734423278649</v>
+        <v>0.1446895921742607</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04424470249597687</v>
+        <v>0.09211939033651269</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04656995716400649</v>
+        <v>0.01657375844180122</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03961392759595617</v>
+        <v>0.09268227774765313</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04394285165166656</v>
+        <v>0.03915813043020452</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04605211369850624</v>
+        <v>0.09340660777881045</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1015616048870079</v>
+        <v>0.09081593588377521</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04522459528775859</v>
+        <v>0.09340660777881045</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1593819357160864</v>
+        <v>0.1433717033895058</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04503478646911931</v>
+        <v>0.09376437944966472</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0467731524094093</v>
+        <v>0.01639270907458345</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04030890878185014</v>
+        <v>0.09430828262041896</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04379685949238421</v>
+        <v>0.03908947145654197</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04686004551777828</v>
+        <v>0.09504532019598255</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1014608959812777</v>
+        <v>0.0907621281702474</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04601800924017541</v>
+        <v>0.09504532019598255</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1586342402005118</v>
+        <v>0.1417659743891257</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04582487044226177</v>
+        <v>0.09540936856281672</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04697311341607806</v>
+        <v>0.01620777046682333</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0410038899677441</v>
+        <v>0.09593428749318482</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04383986904849381</v>
+        <v>0.03870598732844373</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04766797733705033</v>
+        <v>0.09668403261315466</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1011268003167548</v>
+        <v>0.08907398565920835</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04681142319259222</v>
+        <v>0.09668403261315466</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1589325822519956</v>
+        <v>0.1415942402680367</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04661495441540421</v>
+        <v>0.09705435767596873</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04716975810427704</v>
+        <v>0.01602169712614096</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04169887115363807</v>
+        <v>0.09756029236595065</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04367239280198816</v>
+        <v>0.03841362141348389</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04847590915632236</v>
+        <v>0.09832274503032677</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1010608148343445</v>
+        <v>0.08856527308566134</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04760483714500904</v>
+        <v>0.09832274503032677</v>
       </c>
       <c r="N125" t="n">
-        <v>0.159379188341392</v>
+        <v>0.1395783361211543</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04740503838854665</v>
+        <v>0.09869934678912075</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04736300439427044</v>
+        <v>0.01683724356015641</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04239385233953204</v>
+        <v>0.0991862972387165</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04379494323486008</v>
+        <v>0.03801831707923649</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04928384097559441</v>
+        <v>0.09996145744749889</v>
       </c>
       <c r="L126" t="n">
-        <v>0.101064436474952</v>
+        <v>0.08794975518460968</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04839825109742586</v>
+        <v>0.09996145744749889</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1591762849395553</v>
+        <v>0.1379400970433943</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0481951223616891</v>
+        <v>0.1003443359022728</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04755277020632256</v>
+        <v>0.01565716427648979</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04308883352542601</v>
+        <v>0.1008123021114823</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04340803282910238</v>
+        <v>0.03762601769327557</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05009177279486644</v>
+        <v>0.101600169864671</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1006391621794827</v>
+        <v>0.08684119669105667</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04919166504984268</v>
+        <v>0.101600169864671</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1578260985173398</v>
+        <v>0.1371013581296726</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04898520633483154</v>
+        <v>0.1019893250154248</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04773897346069764</v>
+        <v>0.01648421378276118</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04378381471131997</v>
+        <v>0.1024383069842482</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04361217406670788</v>
+        <v>0.03704266662317517</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05089970461413849</v>
+        <v>0.1032388822818431</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1002864888888417</v>
+        <v>0.0853533623400056</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0499850790022595</v>
+        <v>0.1032388822818431</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1573308555455996</v>
+        <v>0.135783954474905</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04977529030797399</v>
+        <v>0.1036343141285768</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04792153207765992</v>
+        <v>0.01731575388000028</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04447879589721394</v>
+        <v>0.104064311857014</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04310787942966941</v>
+        <v>0.03687420723650936</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05170763643341052</v>
+        <v>0.1048775946990152</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1006079135439343</v>
+        <v>0.08480001686645983</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05077849295467631</v>
+        <v>0.1048775946990152</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1577927824951891</v>
+        <v>0.1345097211740072</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05056537428111643</v>
+        <v>0.1052793032417288</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04810036397747367</v>
+        <v>0.01713254519869607</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04517377708310791</v>
+        <v>0.1056903167297799</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04329566139997976</v>
+        <v>0.03641694040315348</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05251556825268256</v>
+        <v>0.1065163071161873</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09940493308566561</v>
+        <v>0.08387259314996534</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05157190690709313</v>
+        <v>0.1065163071161873</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1560141058369625</v>
+        <v>0.1327003776805331</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05135545825425887</v>
+        <v>0.1069242923548808</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04827538708040312</v>
+        <v>0.01693601908824106</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04586875826900188</v>
+        <v>0.1073163216025457</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04297603245963176</v>
+        <v>0.03602916099240316</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0533235000719546</v>
+        <v>0.1081550195333594</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09977904445494115</v>
+        <v>0.08267450283968053</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05236532085950995</v>
+        <v>0.1081550195333594</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1556970520417743</v>
+        <v>0.1311523525304644</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05214554222740132</v>
+        <v>0.1085692814680328</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04844651930671256</v>
+        <v>0.01573011862710037</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04656373945489584</v>
+        <v>0.1089423264753116</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04314950509061823</v>
+        <v>0.03551253676455017</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05413143189122664</v>
+        <v>0.1097937319505316</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09883174459266594</v>
+        <v>0.08240960843917411</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05315873481192677</v>
+        <v>0.1097937319505316</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1553438475804784</v>
+        <v>0.1290828976354225</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05293562620054376</v>
+        <v>0.1102142705811848</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0486136785766662</v>
+        <v>0.01451878689373906</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04725872064078981</v>
+        <v>0.1105683313480774</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04261659177493198</v>
+        <v>0.0351755756520179</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05493936371049868</v>
+        <v>0.1114324443677037</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0987645304397454</v>
+        <v>0.08089761417063573</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05395214876434358</v>
+        <v>0.1114324443677037</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1549567189239294</v>
+        <v>0.1273232699401758</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05372571017368621</v>
+        <v>0.1118592596943368</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04877678281052832</v>
+        <v>0.01430596696662226</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04795370182668378</v>
+        <v>0.1121943362208433</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0426778049945658</v>
+        <v>0.03472678558722969</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05574729552977072</v>
+        <v>0.1130711567848758</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09867889893708459</v>
+        <v>0.08015822425625502</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0547455627167604</v>
+        <v>0.1130711567848758</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1543378925429814</v>
+        <v>0.1261047263894928</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05451579414682865</v>
+        <v>0.1135042488074888</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04893574992856316</v>
+        <v>0.01509560192421506</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04864868301257775</v>
+        <v>0.1138203410936091</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04263365723151255</v>
+        <v>0.03417467450260896</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05655522734904275</v>
+        <v>0.1147098692020479</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09777634702558891</v>
+        <v>0.07911114291822161</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05553897666917722</v>
+        <v>0.1147098692020479</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1531895949084887</v>
+        <v>0.1250585239281423</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0553058781199711</v>
+        <v>0.1151492379206409</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04909049785103501</v>
+        <v>0.01589163484498254</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04934366419847171</v>
+        <v>0.1154463459663749</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04218466096776503</v>
+        <v>0.03392775033057902</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0573631591683148</v>
+        <v>0.11634858161922</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09715837164616356</v>
+        <v>0.07787607437872504</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05633239062159403</v>
+        <v>0.11634858161922</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1531140524913056</v>
+        <v>0.1227159195008927</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05609596209311354</v>
+        <v>0.1167942270337929</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04924094449820806</v>
+        <v>0.01369800880738982</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05003864538436568</v>
+        <v>0.1170723508391408</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04203132868531607</v>
+        <v>0.03339452100356324</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05817109098758684</v>
+        <v>0.1179872940363921</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09722646973971377</v>
+        <v>0.0769727228599551</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05712580457401085</v>
+        <v>0.1179872940363921</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1520134917622863</v>
+        <v>0.1214081700525128</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05688604606625598</v>
+        <v>0.1184392161469449</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0493870077903466</v>
+        <v>0.01351866688990197</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05073362657025965</v>
+        <v>0.1186983557119066</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04207417286615843</v>
+        <v>0.03278349445398501</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05897902280685888</v>
+        <v>0.1196260064535642</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09678213824714482</v>
+        <v>0.0761207925841012</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05791921852642767</v>
+        <v>0.1196260064535642</v>
       </c>
       <c r="N138" t="n">
-        <v>0.151990139192285</v>
+        <v>0.1206665325277709</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05767613003939842</v>
+        <v>0.1200842052600969</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04952860564771488</v>
+        <v>0.01335755217098412</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05142860775615362</v>
+        <v>0.1203243605846725</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04211370599228499</v>
+        <v>0.03250317861426771</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05978695462613091</v>
+        <v>0.1212647188707364</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09642687410936193</v>
+        <v>0.07513998777335312</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05871263247884449</v>
+        <v>0.1212647188707364</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1511462212521563</v>
+        <v>0.1179222638714358</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05846621401254087</v>
+        <v>0.1217291943732489</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04966565599057714</v>
+        <v>0.01421860772910134</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05212358894204758</v>
+        <v>0.1219503654574383</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04185044054568851</v>
+        <v>0.03216208141683467</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06059488644540295</v>
+        <v>0.1229034312879085</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09626217426727035</v>
+        <v>0.07445001264990042</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0595060464312613</v>
+        <v>0.1229034312879085</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1508839644127541</v>
+        <v>0.1179066210282761</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05925629798568331</v>
+        <v>0.1233741834864009</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04979807673919767</v>
+        <v>0.01410577664271873</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05281857012794156</v>
+        <v>0.1235763703302042</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04178488900836187</v>
+        <v>0.03186871079410933</v>
       </c>
       <c r="K141" t="n">
-        <v>0.061402818264675</v>
+        <v>0.1245421437050806</v>
       </c>
       <c r="L141" t="n">
-        <v>0.09498953566177532</v>
+        <v>0.07387057143593267</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06029946038367812</v>
+        <v>0.1245421437050806</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1489055951449328</v>
+        <v>0.1162508609430603</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06004638195882576</v>
+        <v>0.1250191725995529</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04992578581384067</v>
+        <v>0.01302300199030139</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05351355131383553</v>
+        <v>0.12520237520297</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04141756386229783</v>
+        <v>0.03163157467851496</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06221075008394703</v>
+        <v>0.1261808561222527</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09541045523378211</v>
+        <v>0.07272136835363963</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06109287433609495</v>
+        <v>0.1261808561222527</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1483133399195468</v>
+        <v>0.114986240560557</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06083646593196821</v>
+        <v>0.126664161712705</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05004870113477042</v>
+        <v>0.01297422685031442</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05420853249972949</v>
+        <v>0.1268283800757359</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04144897758948923</v>
+        <v>0.03135918100247499</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06301868190321908</v>
+        <v>0.1278195685394248</v>
       </c>
       <c r="L143" t="n">
-        <v>0.093926429924196</v>
+        <v>0.07242210762521079</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06188628828851175</v>
+        <v>0.1278195685394248</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1479094252074503</v>
+        <v>0.1136440168255348</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06162654990511065</v>
+        <v>0.128309150825857</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05016674062225119</v>
+        <v>0.01396247485380232</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05490351368562346</v>
+        <v>0.1284543849485017</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0409796426719289</v>
+        <v>0.03126003769841276</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06382661372249111</v>
+        <v>0.1294582809565969</v>
       </c>
       <c r="L144" t="n">
-        <v>0.09393895667392219</v>
+        <v>0.07259249347283578</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06267970224092857</v>
+        <v>0.1294582809565969</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1465960774794974</v>
+        <v>0.1132554466827622</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06241663387825309</v>
+        <v>0.129954139939009</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0502798221965472</v>
+        <v>0.01396673774304974</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05559849487151743</v>
+        <v>0.1300803898212675</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04071007159160961</v>
+        <v>0.03113933375004775</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06463454554176315</v>
+        <v>0.131096993373769</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09294953242386592</v>
+        <v>0.07284454349174915</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06347311619334539</v>
+        <v>0.131096993373769</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1463755232065426</v>
+        <v>0.1135517870770079</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06320671785139553</v>
+        <v>0.131599129052161</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05038786377792272</v>
+        <v>0.01397662136635118</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0562934760574114</v>
+        <v>0.1317063946940334</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04064077683052421</v>
+        <v>0.03134929268465601</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06544247736103519</v>
+        <v>0.1327357057909412</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09295965411493246</v>
+        <v>0.07236760820953586</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06426653014576221</v>
+        <v>0.1327357057909412</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1449499888594399</v>
+        <v>0.1139640484802704</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06399680182453799</v>
+        <v>0.133244118165313</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05049078328664199</v>
+        <v>0.01299183598773738</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05698845724330536</v>
+        <v>0.1333323995667992</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04037227087066551</v>
+        <v>0.03127123709805499</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06625040918030722</v>
+        <v>0.1343744182081133</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09277081868802703</v>
+        <v>0.07301843108587261</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06505994409817903</v>
+        <v>0.1343744182081133</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1443217009090439</v>
+        <v>0.1142246700923258</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06478688579768042</v>
+        <v>0.134889107278465</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05058849864296929</v>
+        <v>0.01401209187123906</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05768343842919933</v>
+        <v>0.1349584044395651</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04040506619402633</v>
+        <v>0.03120454183046933</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06705834099957926</v>
+        <v>0.1360131306252854</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09218452308405492</v>
+        <v>0.07249556426169046</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06585335805059585</v>
+        <v>0.1360131306252854</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1432928858262087</v>
+        <v>0.1145278940038523</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06557696977082288</v>
+        <v>0.136534096391617</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05068092776716885</v>
+        <v>0.01503709928088693</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0583784196150933</v>
+        <v>0.1365844093123309</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04023967528259947</v>
+        <v>0.03164858172212376</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06786627281885131</v>
+        <v>0.1376518430424575</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09150226424392138</v>
+        <v>0.07289755987792054</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06664677200301265</v>
+        <v>0.1376518430424575</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1431657700817885</v>
+        <v>0.1137714234659341</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0663670537439653</v>
+        <v>0.138179085504769</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05076798857950494</v>
+        <v>0.01406656848071173</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05907340080098727</v>
+        <v>0.1382104141850967</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04017661061837777</v>
+        <v>0.03170273161324295</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06867420463812335</v>
+        <v>0.1392905554596296</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09062553910853158</v>
+        <v>0.07342297007549406</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06744018595542949</v>
+        <v>0.1392905554596296</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1417425801466378</v>
+        <v>0.1147529617296554</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06715713771710775</v>
+        <v>0.139824074617921</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05084959900024177</v>
+        <v>0.01310020973474416</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05976838198688123</v>
+        <v>0.1398364190578626</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04001638468335401</v>
+        <v>0.03156636634405162</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06948213645739539</v>
+        <v>0.1409292678768017</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0908558446187909</v>
+        <v>0.07267034699534208</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0682335999078463</v>
+        <v>0.1409292678768017</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1406255424916106</v>
+        <v>0.1147702120461008</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06794722169025019</v>
+        <v>0.1414690637310731</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05092567694964365</v>
+        <v>0.01313773330701496</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0604633631727752</v>
+        <v>0.1414624239306284</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03975950995952104</v>
+        <v>0.03153886075477449</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07029006827666744</v>
+        <v>0.1425679802939738</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09029467771560445</v>
+        <v>0.07343824277839575</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06902701386026311</v>
+        <v>0.1425679802939738</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1405168835875614</v>
+        <v>0.1148208776663543</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06873730566339264</v>
+        <v>0.1431140528442251</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0509961403479748</v>
+        <v>0.01317884946155486</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06115834435866917</v>
+        <v>0.1430884288033943</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03980649892887167</v>
+        <v>0.03191958968563624</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07109800009593947</v>
+        <v>0.1442066927111459</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08964353533987757</v>
+        <v>0.07342520956558615</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06982042781267993</v>
+        <v>0.1442066927111459</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1392188299053442</v>
+        <v>0.1151026618415005</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06952738963653508</v>
+        <v>0.1447590419573771</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05106090711549948</v>
+        <v>0.01322326846239456</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06185332554456314</v>
+        <v>0.1447144336761601</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03925786407339871</v>
+        <v>0.03170792797686155</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07190593191521151</v>
+        <v>0.1458454051283181</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08890391443251547</v>
+        <v>0.07392979949784445</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07061384176509675</v>
+        <v>0.1458454051283181</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1387336079158135</v>
+        <v>0.1147132678226234</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07031747360967754</v>
+        <v>0.1464040310705291</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05111989517248195</v>
+        <v>0.01327070057356478</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06254830673045711</v>
+        <v>0.146340438548926</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03931411787509496</v>
+        <v>0.03210325046867513</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07271386373448355</v>
+        <v>0.1474841175454902</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08847731193442343</v>
+        <v>0.07355056471610177</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07140725571751357</v>
+        <v>0.1474841175454902</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1384634440898235</v>
+        <v>0.1164503988608075</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07110755758281999</v>
+        <v>0.1480490201836811</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05117302243918644</v>
+        <v>0.01332133411619983</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06324328791635107</v>
+        <v>0.1479664434216918</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03897577281595326</v>
+        <v>0.03210493200130168</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0735217955537556</v>
+        <v>0.1491228299626623</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08806522478650666</v>
+        <v>0.07398605736128924</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07220066966993038</v>
+        <v>0.1491228299626623</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1380105648982284</v>
+        <v>0.1168117582071372</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07189764155596241</v>
+        <v>0.1496940092968331</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05122020683587724</v>
+        <v>0.01540495228496716</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06393826910224504</v>
+        <v>0.1495924482944577</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03924334137796641</v>
+        <v>0.03231719700603075</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07432972737302763</v>
+        <v>0.1507615423798344</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08816914992967043</v>
+        <v>0.07484606114214018</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0729940836223472</v>
+        <v>0.1507615423798344</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1358771968118827</v>
+        <v>0.1157950491126966</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07268772552910487</v>
+        <v>0.1513389984099851</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05126136628281856</v>
+        <v>0.01553313319015102</v>
       </c>
       <c r="G158" t="n">
-        <v>0.064633250288139</v>
+        <v>0.1512184531672235</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03911547284410742</v>
+        <v>0.03211198993998589</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07513765919229967</v>
+        <v>0.1524002547970065</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08708359825559772</v>
+        <v>0.07519719815882339</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07378749757476402</v>
+        <v>0.1524002547970065</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1366463892991986</v>
+        <v>0.1169509136191798</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0734778095022473</v>
+        <v>0.1529839875231372</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05129641870027469</v>
+        <v>0.01569713040214163</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06532823147403298</v>
+        <v>0.1528444580399894</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03888921589795982</v>
+        <v>0.03249897659036119</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07594559101157171</v>
+        <v>0.1540389672141786</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08699753357499521</v>
+        <v>0.07556185420485853</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07458091152718083</v>
+        <v>0.1540389672141786</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1349879620108377</v>
+        <v>0.1175696672848396</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07426789347538976</v>
+        <v>0.1546289766362892</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05132528200850987</v>
+        <v>0.01388819749132918</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06602321265992694</v>
+        <v>0.1544704629127552</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03856437468093875</v>
+        <v>0.03305928489241726</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07675352283084375</v>
+        <v>0.1556776796313507</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08681074270553979</v>
+        <v>0.07609632190948892</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07537432547959766</v>
+        <v>0.1556776796313507</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1344032652642499</v>
+        <v>0.1196845444239814</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0750579774485322</v>
+        <v>0.1562739657494412</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05134787412778832</v>
+        <v>0.01509758802810389</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06671819384582091</v>
+        <v>0.156096467785521</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03854079719731844</v>
+        <v>0.03347404278141469</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07756145465011578</v>
+        <v>0.1573163920485229</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08652318717139049</v>
+        <v>0.07775689390195761</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07616773943201448</v>
+        <v>0.1573163920485229</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1331941580686548</v>
+        <v>0.1206262117302414</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07584806142167465</v>
+        <v>0.1579189548625932</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05136411297837436</v>
+        <v>0.01631655558285595</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06741317503171489</v>
+        <v>0.1577224726582869</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03861833145137331</v>
+        <v>0.03382437819261404</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07836938646938782</v>
+        <v>0.158955104465695</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08563482849670626</v>
+        <v>0.0777998628115078</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07696115338443128</v>
+        <v>0.158955104465695</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1330624994332718</v>
+        <v>0.1224253358972563</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07663814539481709</v>
+        <v>0.1595639439757452</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05137391648053218</v>
+        <v>0.01553635372597555</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06810815621760885</v>
+        <v>0.1593484775310527</v>
       </c>
       <c r="J163" t="n">
-        <v>0.0381968254473776</v>
+        <v>0.03419141906127593</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07917731828865987</v>
+        <v>0.1605938168828671</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08534562820564598</v>
+        <v>0.07918152126738257</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0777545673368481</v>
+        <v>0.1605938168828671</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1313101483673203</v>
+        <v>0.1240125836186627</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07742822936795953</v>
+        <v>0.1612089330888972</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05137720255452607</v>
+        <v>0.0167482360278529</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06880313740350281</v>
+        <v>0.1609744824038186</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03827612718960564</v>
+        <v>0.03455629332266089</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07998525010793191</v>
+        <v>0.1622325293000392</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08485554782236862</v>
+        <v>0.08085816189882516</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07854798128926492</v>
+        <v>0.1622325293000392</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1311389638800199</v>
+        <v>0.1253186215880971</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07821831334110196</v>
+        <v>0.1628539222020492</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05137720255452607</v>
+        <v>0.01594345605887821</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06880313740350281</v>
+        <v>0.1626004872765844</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03815608468233181</v>
+        <v>0.03540012891202952</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08079318192720394</v>
+        <v>0.1638712417172113</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08476454887103313</v>
+        <v>0.08138607733507863</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07934139524168175</v>
+        <v>0.1638712417172113</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1300508049805901</v>
+        <v>0.126774116499196</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07900839731424442</v>
+        <v>0.1644989113152013</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05051459786918825</v>
+        <v>0.01611333120453958</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06880286887503879</v>
+        <v>0.1642264921493503</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03813654592983036</v>
+        <v>0.03570405376464245</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08160111374647598</v>
+        <v>0.1655099541343834</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08477259287579844</v>
+        <v>0.08262156020538619</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08013480919409856</v>
+        <v>0.1655099541343834</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1283475306782504</v>
+        <v>0.1279097350455957</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07979848128738685</v>
+        <v>0.1661439004283533</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04966159400254293</v>
+        <v>0.01626747981872583</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06880260034657479</v>
+        <v>0.1658524970221161</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03801735893637566</v>
+        <v>0.03615222595371152</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08240904556574802</v>
+        <v>0.1671486665515555</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08417964136082351</v>
+        <v>0.08372792088531128</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08092822314651538</v>
+        <v>0.1671486665515555</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1284309999822201</v>
+        <v>0.130456143920933</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08058856526052931</v>
+        <v>0.1677888895415053</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04881863045596283</v>
+        <v>0.01641782229880869</v>
       </c>
       <c r="G168" t="n">
-        <v>0.06880233181811075</v>
+        <v>0.1674785018948819</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03789837170624198</v>
+        <v>0.03637765015692593</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08321697738502006</v>
+        <v>0.1687873789687276</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08398565585026724</v>
+        <v>0.08438159762919392</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0817216370989322</v>
+        <v>0.1687873789687276</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1270030719017189</v>
+        <v>0.1314544368571759</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08137864923367176</v>
+        <v>0.1694338786546573</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0479861467309305</v>
+        <v>0.01556463610786025</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06880206328964675</v>
+        <v>0.1691045067676478</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03747943224370368</v>
+        <v>0.03639507395046764</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08402490920429209</v>
+        <v>0.1704260913858998</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08369059786828867</v>
+        <v>0.08431674556467103</v>
       </c>
       <c r="M169" t="n">
-        <v>0.082515051051349</v>
+        <v>0.1704260913858998</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1265656054459661</v>
+        <v>0.1327221417970329</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0821687332068142</v>
+        <v>0.1710788677678093</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04716458232881818</v>
+        <v>0.01670819870895258</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06880179476118273</v>
+        <v>0.1707305116404136</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03736038855303504</v>
+        <v>0.03680509601303099</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08483284102356414</v>
+        <v>0.1720648038030718</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08259442893904664</v>
+        <v>0.08513475122109293</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08330846500376583</v>
+        <v>0.1720648038030718</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1255204596241813</v>
+        <v>0.1330619603042115</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08295881717995664</v>
+        <v>0.1727238568809613</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04635437675103512</v>
+        <v>0.01684878756515779</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06880152623271872</v>
+        <v>0.1723565165131795</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03714108863851041</v>
+        <v>0.03720831502331039</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08564077284283618</v>
+        <v>0.173703516220244</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08239711058670016</v>
+        <v>0.08593700112780964</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08410187895618265</v>
+        <v>0.173703516220244</v>
       </c>
       <c r="N171" t="n">
-        <v>0.124669493445584</v>
+        <v>0.1340760918398679</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08374890115309908</v>
+        <v>0.1743688459941133</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04555596949895595</v>
+        <v>0.01598668013954792</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06880125770425469</v>
+        <v>0.1739825213859453</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03702138050440411</v>
+        <v>0.03760532966000016</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08644870466210822</v>
+        <v>0.1753422286374161</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08219860433540813</v>
+        <v>0.08642488181417129</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08489529290859946</v>
+        <v>0.1753422286374161</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1238145659193937</v>
+        <v>0.1364667358651582</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08453898512624153</v>
+        <v>0.1760138351072653</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04476980007405942</v>
+        <v>0.0181221538951951</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06880098917579068</v>
+        <v>0.1756085262587112</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03690111215499041</v>
+        <v>0.03799673860179473</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08725663648138025</v>
+        <v>0.1769809410545882</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08179887170932953</v>
+        <v>0.08729977980952813</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08568870686101628</v>
+        <v>0.1769809410545882</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1229575360548297</v>
+        <v>0.1372360918412385</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08532906909938397</v>
+        <v>0.1776588242204173</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04399630797771963</v>
+        <v>0.01725548629517139</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06880072064732666</v>
+        <v>0.177234531131477</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03708013159454369</v>
+        <v>0.03788314052738838</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08806456830065229</v>
+        <v>0.1786196534717603</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08099787423262325</v>
+        <v>0.08856308164323015</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08648212081343309</v>
+        <v>0.1786196534717603</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1224002628611117</v>
+        <v>0.1374863592292649</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08611915307252642</v>
+        <v>0.1793038133335693</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04323593271134581</v>
+        <v>0.01638695480254888</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06880045211886265</v>
+        <v>0.1788605360042429</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03675828682733824</v>
+        <v>0.03826513411547554</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08887250011992433</v>
+        <v>0.1802583658889324</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08039557342944831</v>
+        <v>0.08891617384462758</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08727553476584991</v>
+        <v>0.1802583658889324</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1213446053474591</v>
+        <v>0.1394197374903935</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08690923704566886</v>
+        <v>0.1809488024467214</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0424891137763149</v>
+        <v>0.01851683688039964</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06880018359039862</v>
+        <v>0.1804865408770087</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03683542585764837</v>
+        <v>0.03844331804475054</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08968043193919636</v>
+        <v>0.1818970783061045</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0807919308239636</v>
+        <v>0.08916044294307057</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08806894871826673</v>
+        <v>0.1818970783061045</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1200924225230913</v>
+        <v>0.1401384260857804</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08769932101881131</v>
+        <v>0.1825937915598734</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04175629067410114</v>
+        <v>0.01764540999179578</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06879991506193461</v>
+        <v>0.1821125457497745</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03661139668974843</v>
+        <v>0.03891829099390778</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09048836375846842</v>
+        <v>0.1835357907232767</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08008690794032811</v>
+        <v>0.08959727546790916</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08886236267068355</v>
+        <v>0.1835357907232767</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1187455733972279</v>
+        <v>0.1408446244765817</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08848940499195375</v>
+        <v>0.1842387806730254</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04103790290608089</v>
+        <v>0.01677588916789033</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06879964653347059</v>
+        <v>0.1837385506225404</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03658604732791269</v>
+        <v>0.03909068447280925</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09129629557774045</v>
+        <v>0.1851745031404488</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0796804663027007</v>
+        <v>0.09052813398490159</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08965577662310037</v>
+        <v>0.1851745031404488</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1173059169790884</v>
+        <v>0.1418405321239535</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08927948896509619</v>
+        <v>0.1858837697861774</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04033438997366332</v>
+        <v>0.01791394936691427</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06879937800500657</v>
+        <v>0.1853645554953063</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03635922577641554</v>
+        <v>0.03937361900460995</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09210422739701249</v>
+        <v>0.1868132155576209</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07927256743524036</v>
+        <v>0.09128340539542731</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09044919057551719</v>
+        <v>0.1868132155576209</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1163753122778922</v>
+        <v>0.1430512870197445</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09006957293823863</v>
+        <v>0.1875287588993294</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03964619137822801</v>
+        <v>0.01705532358007967</v>
       </c>
       <c r="G180" t="n">
-        <v>0.06879910947654255</v>
+        <v>0.1869905603680721</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03603078003953122</v>
+        <v>0.03987042745332324</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09291215921628453</v>
+        <v>0.188451927974793</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07836317286210606</v>
+        <v>0.09227080855405376</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09124260452793401</v>
+        <v>0.188451927974793</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1153556183028588</v>
+        <v>0.1436211343967115</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09085965691138108</v>
+        <v>0.1891737480124814</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03897374662124404</v>
+        <v>0.0191952454811776</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06879884094807853</v>
+        <v>0.1886165652408379</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03620055812153408</v>
+        <v>0.03997082557488645</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09372009103555656</v>
+        <v>0.1900906403919651</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07815224410745675</v>
+        <v>0.09296652533200667</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09203601848035083</v>
+        <v>0.1900906403919651</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1155486940632077</v>
+        <v>0.1458162293516784</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09164974088452353</v>
+        <v>0.1908187371256334</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03831749520409029</v>
+        <v>0.01832894874399916</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06879857241961453</v>
+        <v>0.1902425701136038</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03606840802669845</v>
+        <v>0.04046452912523693</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0945280228548286</v>
+        <v>0.1917293528091372</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07783974269545127</v>
+        <v>0.09304673760051166</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09282943243276763</v>
+        <v>0.1917293528091372</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1138563985681584</v>
+        <v>0.1465987890212349</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09243982485766597</v>
+        <v>0.1924637262387855</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03767787662817598</v>
+        <v>0.0174516670423354</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06879830389115051</v>
+        <v>0.1918685749863696</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03563417775929865</v>
+        <v>0.04044125386031201</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09533595467410065</v>
+        <v>0.1933680652263093</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0774256301502487</v>
+        <v>0.09408762723079447</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09362284638518445</v>
+        <v>0.1933680652263093</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1125805908269303</v>
+        <v>0.1477310305419711</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09322990883080842</v>
+        <v>0.1941087153519375</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03705533039488355</v>
+        <v>0.0195586340499774</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06879803536268649</v>
+        <v>0.1934945798591355</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03559771532360899</v>
+        <v>0.04089071553604905</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09614388649337269</v>
+        <v>0.1950067776434815</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07760986799600789</v>
+        <v>0.09496537609408082</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09441626033760127</v>
+        <v>0.1950067776434815</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1126231298487431</v>
+        <v>0.1477751710504772</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09401999280395086</v>
+        <v>0.1957537044650895</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03645029600567636</v>
+        <v>0.01864508344071625</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06879776683422247</v>
+        <v>0.1951205847319013</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03555886872390376</v>
+        <v>0.04110262990838537</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09695181831264472</v>
+        <v>0.1966454900606535</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07719241775688787</v>
+        <v>0.09525616606159631</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09520967429001809</v>
+        <v>0.1966454900606535</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1111858746428161</v>
+        <v>0.1497934276833431</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0948100767770933</v>
+        <v>0.1973986935782415</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03586321296193617</v>
+        <v>0.01770664978044192</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06879749830575846</v>
+        <v>0.1967465896046671</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03531748596445736</v>
+        <v>0.04116671273325834</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09775975013191678</v>
+        <v>0.1982842024778257</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07677324095704746</v>
+        <v>0.09593617900456677</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09600308824243491</v>
+        <v>0.1982842024778257</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1111706842183687</v>
+        <v>0.1492480175771591</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09560016075023574</v>
+        <v>0.1990436826913935</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03529452076507211</v>
+        <v>0.01875783210685717</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06879722977729444</v>
+        <v>0.198372594477433</v>
       </c>
       <c r="J187" t="n">
-        <v>0.035373415049544</v>
+        <v>0.04148249655242939</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09856768195118881</v>
+        <v>0.1999229148949978</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07645229912064569</v>
+        <v>0.0959043322979149</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09679650219485172</v>
+        <v>0.1999229148949978</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1091794175846206</v>
+        <v>0.1499090724696043</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09639024472337819</v>
+        <v>0.2006886718045455</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03474465891646985</v>
+        <v>0.01780790511623555</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06879696124883042</v>
+        <v>0.1999985993501988</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03522650398343806</v>
+        <v>0.04149028269715174</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09937561377046085</v>
+        <v>0.2015616273121699</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07582955377184147</v>
+        <v>0.09565396311758839</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09758991614726854</v>
+        <v>0.2015616273121699</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1093139337507912</v>
+        <v>0.1497045747259594</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09718032869652063</v>
+        <v>0.2023336609176976</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03421406691758647</v>
+        <v>0.01885685126785165</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0687966927203664</v>
+        <v>0.2016246042229647</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03497660077041387</v>
+        <v>0.04179567859449088</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1001835455897329</v>
+        <v>0.203200339729342</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0749049664347938</v>
+        <v>0.096198058166268</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09838333009968536</v>
+        <v>0.203200339729342</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1083760917260999</v>
+        <v>0.1502913693789396</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09797041266966308</v>
+        <v>0.2039786500308496</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03370138963905279</v>
+        <v>0.01890465302098004</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06879642419190239</v>
+        <v>0.2032506090957305</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03492355341474572</v>
+        <v>0.041598646397037</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1009914774090049</v>
+        <v>0.2048390521465141</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07417849863366155</v>
+        <v>0.09623652979001682</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09917674405210218</v>
+        <v>0.2048390521465141</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1083677505197664</v>
+        <v>0.1520693173824948</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09876049664280552</v>
+        <v>0.2056236391440016</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03319629879775298</v>
+        <v>0.01895129283489533</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06879615566343837</v>
+        <v>0.2048766139684964</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03456720992070796</v>
+        <v>0.04179914825738032</v>
       </c>
       <c r="K191" t="n">
-        <v>0.101799409228277</v>
+        <v>0.2064777645636862</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07455011189260369</v>
+        <v>0.09706929033489795</v>
       </c>
       <c r="M191" t="n">
-        <v>0.099970158004519</v>
+        <v>0.2064777645636862</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1065907691410099</v>
+        <v>0.1515382796905752</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09955058061594797</v>
+        <v>0.2072686282571536</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03269743926432033</v>
+        <v>0.01799675316887209</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06879588713497435</v>
+        <v>0.2065026188412622</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03430741829257486</v>
+        <v>0.04199714632811107</v>
       </c>
       <c r="K192" t="n">
-        <v>0.102607341047549</v>
+        <v>0.2081164769808584</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0735197677357792</v>
+        <v>0.09679625214697452</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1007635719569358</v>
+        <v>0.2081164769808584</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1060470065990501</v>
+        <v>0.1521981172571307</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1003406645890904</v>
+        <v>0.2089136173703056</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03220525054020745</v>
+        <v>0.02004101648218492</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06879561860651033</v>
+        <v>0.2081286237140281</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03454198706109786</v>
+        <v>0.04179260276181944</v>
       </c>
       <c r="K193" t="n">
-        <v>0.103415272866821</v>
+        <v>0.2097551893980305</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07308126525320846</v>
+        <v>0.09691732757230967</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1015569859093526</v>
+        <v>0.2097551893980305</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1051276824210723</v>
+        <v>0.1518486910361113</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1011307485622329</v>
+        <v>0.2105586064834576</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03172017212680169</v>
+        <v>0.01908406523410839</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06879535007804631</v>
+        <v>0.2097546285867939</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0342686471779267</v>
+        <v>0.04228547971109568</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1042232046860931</v>
+        <v>0.2113939018152026</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0732276228651835</v>
+        <v>0.09783242895696651</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1023503998617695</v>
+        <v>0.2113939018152026</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1055197501615305</v>
+        <v>0.1532898619814669</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1019208325353753</v>
+        <v>0.2122035955966096</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03124264352551221</v>
+        <v>0.02012588188391708</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0687950815495823</v>
+        <v>0.2113806334595597</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03388782109142803</v>
+        <v>0.04227573932852999</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1050311365053651</v>
+        <v>0.2130326142323747</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07205997225886163</v>
+        <v>0.09784146864700813</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1031438138141863</v>
+        <v>0.2130326142323747</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1051228144819354</v>
+        <v>0.1525214910471476</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1027109165085177</v>
+        <v>0.2138485847097616</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03077310423772794</v>
+        <v>0.01916644889088561</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06879481302111827</v>
+        <v>0.2130066383323256</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0335999374143494</v>
+        <v>0.04246334376671258</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1058390683246372</v>
+        <v>0.2146713266495468</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07177946885580372</v>
+        <v>0.09754435898849764</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1039372277666031</v>
+        <v>0.2146713266495468</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1048365258840365</v>
+        <v>0.1534434391871033</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1035010004816602</v>
+        <v>0.2154935738229136</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03031199376489894</v>
+        <v>0.01820574871428853</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06879454449265426</v>
+        <v>0.2146326432050914</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0338054247594385</v>
+        <v>0.04224825517823368</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1066470001439092</v>
+        <v>0.2163100390667189</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07178726807757055</v>
+        <v>0.09784101232749814</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1047306417190199</v>
+        <v>0.2163100390667189</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1033605348695829</v>
+        <v>0.1538555673552839</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1042910844548026</v>
+        <v>0.2171385629360657</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02985975160841382</v>
+        <v>0.01824376381340045</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06879427596419024</v>
+        <v>0.2162586480778573</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03360471173944288</v>
+        <v>0.04233043571568348</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1074549319631812</v>
+        <v>0.217948751483891</v>
       </c>
       <c r="L198" t="n">
-        <v>0.071184525345723</v>
+        <v>0.09773134101007278</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1055240556714367</v>
+        <v>0.217948751483891</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1023944919403242</v>
+        <v>0.1543577365056397</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1050811684279451</v>
+        <v>0.2187835520492176</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02941681726968168</v>
+        <v>0.01928047664749595</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06879400743572624</v>
+        <v>0.2178846529506231</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03339822696711016</v>
+        <v>0.04270984753165223</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1082628637824533</v>
+        <v>0.2195874639010632</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07087239608182197</v>
+        <v>0.09861525738228463</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1063174696238535</v>
+        <v>0.2195874639010632</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1015380475980098</v>
+        <v>0.1540498075921203</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1058712524010875</v>
+        <v>0.2204285411623697</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02898363025009316</v>
+        <v>0.01931586967584961</v>
       </c>
       <c r="G200" t="n">
-        <v>0.0687937389072622</v>
+        <v>0.219510657823389</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03278639905518795</v>
+        <v>0.04248645277873014</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1090707956017253</v>
+        <v>0.2212261763182353</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07005203570742818</v>
+        <v>0.09859267379019687</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1071108835762703</v>
+        <v>0.2212261763182353</v>
       </c>
       <c r="N200" t="n">
-        <v>0.101090852344389</v>
+        <v>0.155031641568676</v>
       </c>
       <c r="O200" t="n">
-        <v>0.10666133637423</v>
+        <v>0.2220735302755217</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02856063005109508</v>
+        <v>0.01934992535773602</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0687934703787982</v>
+        <v>0.2211366626961548</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03286965661642384</v>
+        <v>0.04276021360950738</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1098787274209974</v>
+        <v>0.2228648887354074</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06972459964410258</v>
+        <v>0.0986635025798725</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1079042975286872</v>
+        <v>0.2228648887354074</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1007525566812111</v>
+        <v>0.1550030993892567</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1074514203473724</v>
+        <v>0.2237185193886737</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02814825617407759</v>
+        <v>0.01938262615242975</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06879320185033418</v>
+        <v>0.2227626675689207</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03254842826356542</v>
+        <v>0.04293109217657426</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1106866592402694</v>
+        <v>0.2245036011525795</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06849124331340592</v>
+        <v>0.09862765609737473</v>
       </c>
       <c r="M202" t="n">
-        <v>0.108697711481104</v>
+        <v>0.2245036011525795</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1002228111102256</v>
+        <v>0.1555640420078123</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1082415043205149</v>
+        <v>0.2253635085018257</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02774694812044986</v>
+        <v>0.01841395451920542</v>
       </c>
       <c r="G203" t="n">
-        <v>0.06879293332187016</v>
+        <v>0.2243886724416865</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03212314260936036</v>
+        <v>0.04299905063252089</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1114945910595414</v>
+        <v>0.2261423135697516</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06865312213689911</v>
+        <v>0.09958504668876669</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1094911254335208</v>
+        <v>0.2261423135697516</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1005012661331819</v>
+        <v>0.1547143303782927</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1090315882936573</v>
+        <v>0.2270084976149777</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02735714539160437</v>
+        <v>0.01944389291733759</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06879266479340614</v>
+        <v>0.2260146773144524</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03189422826655618</v>
+        <v>0.04296405112993756</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1123025228788135</v>
+        <v>0.2277810259869237</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06741139153614298</v>
+        <v>0.09963558670011138</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1102845393859376</v>
+        <v>0.2277810259869237</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09978757225182933</v>
+        <v>0.1557538254546482</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1098216722667997</v>
+        <v>0.2286534867281297</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02697928748898425</v>
+        <v>0.02047242380610086</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06879239626494212</v>
+        <v>0.2276406821872182</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03176211384790055</v>
+        <v>0.04302605582141446</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1131104546980855</v>
+        <v>0.2294197384040958</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06736720693269835</v>
+        <v>0.09947918847747203</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1110779533383544</v>
+        <v>0.2294197384040958</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09838137996791713</v>
+        <v>0.1554823881908286</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1106117562399422</v>
+        <v>0.2302984758412817</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02661381391398144</v>
+        <v>0.0204995296447698</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06879212773647811</v>
+        <v>0.229266687059984</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03182722796614101</v>
+        <v>0.0430850268595418</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1139183865173575</v>
+        <v>0.2310584508212679</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06682172374812603</v>
+        <v>0.09961576436691161</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1118713672907713</v>
+        <v>0.2310584508212679</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09878233978319489</v>
+        <v>0.1554998795407838</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1114018402130846</v>
+        <v>0.2319434649544337</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02626116416800513</v>
+        <v>0.01852519289261902</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06879185920801409</v>
+        <v>0.2308926919327499</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03128999923402521</v>
+        <v>0.04284092639690981</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1147263183366296</v>
+        <v>0.2326971632384401</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06647609740398694</v>
+        <v>0.09974522671449337</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1126647812431881</v>
+        <v>0.2326971632384401</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09839010219941186</v>
+        <v>0.155806160458464</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1121919241862271</v>
+        <v>0.2335884540675858</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02592177775245005</v>
+        <v>0.01954939600892308</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06879159067955007</v>
+        <v>0.2325186968055157</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03105085626430075</v>
+        <v>0.04289371658610869</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1155342501559016</v>
+        <v>0.2343358756556121</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06583148332184188</v>
+        <v>0.09996748786628043</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1134581951956049</v>
+        <v>0.2343358756556121</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09740431771831748</v>
+        <v>0.156601091897819</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1129820081593695</v>
+        <v>0.2352334431807378</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02559609416875489</v>
+        <v>0.01857212145295657</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06879132215108605</v>
+        <v>0.2341447016782816</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03101022766971522</v>
+        <v>0.04294335957972868</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1163421819751737</v>
+        <v>0.2359745880727843</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0649890369232517</v>
+        <v>0.09978246016833575</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1142516091480217</v>
+        <v>0.2359745880727843</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09662463684166106</v>
+        <v>0.1566845348127988</v>
       </c>
       <c r="O209" t="n">
-        <v>0.113772092132512</v>
+        <v>0.2368784322938898</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02528455291831378</v>
+        <v>0.0185933516839941</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06879105362262204</v>
+        <v>0.2357707065510474</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03056854206301624</v>
+        <v>0.04338981753035998</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1171501137944457</v>
+        <v>0.2376133004899564</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06414991362977721</v>
+        <v>0.1000900559667227</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1150450231004385</v>
+        <v>0.2376133004899564</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09665071007119208</v>
+        <v>0.1574563501573536</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1145621761056544</v>
+        <v>0.2385234214070418</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02498759350253592</v>
+        <v>0.01861306916131023</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06879078509415802</v>
+        <v>0.2373967114238132</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03052622805695139</v>
+        <v>0.04343305259059281</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1179580456137178</v>
+        <v>0.2392520129071285</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06351526886297923</v>
+        <v>0.100590187607504</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1158384370528553</v>
+        <v>0.2392520129071285</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09628218790865983</v>
+        <v>0.1566163988854331</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1153522600787968</v>
+        <v>0.2401684105201938</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02470565542281854</v>
+        <v>0.02063125634417957</v>
       </c>
       <c r="G212" t="n">
-        <v>0.068790516565694</v>
+        <v>0.2390227162965791</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03038371426426831</v>
+        <v>0.04337302691301737</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1187659774329898</v>
+        <v>0.2408907253243006</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06298625804441868</v>
+        <v>0.1006827674367432</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1166318510052722</v>
+        <v>0.2408907253243006</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0961187208558138</v>
+        <v>0.1578645419509874</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1161423440519393</v>
+        <v>0.2418133996333458</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02443917818059538</v>
+        <v>0.01864789569187668</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06879024803722998</v>
+        <v>0.2406487211693449</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03014142929771456</v>
+        <v>0.0431097026502239</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1195739092522618</v>
+        <v>0.2425294377414727</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06256403659565637</v>
+        <v>0.1000677078005031</v>
       </c>
       <c r="M213" t="n">
-        <v>0.117425264957689</v>
+        <v>0.2425294377414727</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09465995941440319</v>
+        <v>0.1564006403079666</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1169324280250817</v>
+        <v>0.2434583887464978</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02418860127726303</v>
+        <v>0.02066296966367616</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06878997950876597</v>
+        <v>0.2422747260421108</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02959980177003778</v>
+        <v>0.0434430419548026</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1203818410715339</v>
+        <v>0.2441681501586448</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06294975993825316</v>
+        <v>0.1004449210448469</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1182186789101058</v>
+        <v>0.2441681501586448</v>
       </c>
       <c r="N214" t="n">
-        <v>0.0946055540861776</v>
+        <v>0.1569245549103206</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1177225119982242</v>
+        <v>0.2451033778596499</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02418860127726303</v>
+        <v>0.01867646071885259</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06878997950876597</v>
+        <v>0.2439007309148767</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02925926029398557</v>
+        <v>0.0435730069793437</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1211897728908059</v>
+        <v>0.245806862575817</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06234458349376984</v>
+        <v>0.1005143195158377</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1190120928625226</v>
+        <v>0.245806862575817</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0947551553728862</v>
+        <v>0.1579361467119992</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1185125959713666</v>
+        <v>0.2467483669728019</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02358251406889211</v>
+        <v>0.02068835131668056</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06870907515922675</v>
+        <v>0.2455267357876425</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02922023348230549</v>
+        <v>0.0435995598764374</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1219977047100779</v>
+        <v>0.2474455749929891</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0616496626837672</v>
+        <v>0.1003758155595387</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1198055068149394</v>
+        <v>0.2474455749929891</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09320841377627848</v>
+        <v>0.1573352766669528</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1193026799445091</v>
+        <v>0.2483933560859539</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02298314601494753</v>
+        <v>0.01969862391643467</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06862817080968753</v>
+        <v>0.2471527406604083</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0290831499477452</v>
+        <v>0.04332266279867394</v>
       </c>
       <c r="K217" t="n">
-        <v>0.12280563652935</v>
+        <v>0.2490842874101612</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06086615292980624</v>
+        <v>0.100929321522013</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1205989207673562</v>
+        <v>0.2490842874101612</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09376497979810378</v>
+        <v>0.1572218057291311</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1200927639176515</v>
+        <v>0.2500383451991059</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02239079966433202</v>
+        <v>0.02070726097738949</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0685472664601483</v>
+        <v>0.2487787455331741</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0286484383030523</v>
+        <v>0.0435422778986435</v>
       </c>
       <c r="K218" t="n">
-        <v>0.123613568348622</v>
+        <v>0.2507229998273333</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0600952096534477</v>
+        <v>0.1008747497493236</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1213923347197731</v>
+        <v>0.2507229998273333</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09252450394011152</v>
+        <v>0.158295594852484</v>
       </c>
       <c r="O218" t="n">
-        <v>0.120882847890794</v>
+        <v>0.2516833343122579</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02180577756594795</v>
+        <v>0.0197142449588196</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06846636211060908</v>
+        <v>0.25040475040594</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02831652716097435</v>
+        <v>0.04365836732893634</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1244215001678941</v>
+        <v>0.2523617122445054</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06003798827625245</v>
+        <v>0.1007120125875337</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1221857486721899</v>
+        <v>0.2523617122445054</v>
       </c>
       <c r="N219" t="n">
-        <v>0.092486636704051</v>
+        <v>0.1576565049909618</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1216729318639364</v>
+        <v>0.25332832342541</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.021228382268698</v>
+        <v>0.0207195583199996</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06838545776106986</v>
+        <v>0.2520307552787059</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02838784513425899</v>
+        <v>0.04367089324214264</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1252294319871661</v>
+        <v>0.2540004246616775</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05979564421978131</v>
+        <v>0.1008410223827064</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1229791626246067</v>
+        <v>0.2540004246616775</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09305102859167169</v>
+        <v>0.1571043970985141</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1224630158370789</v>
+        <v>0.254973312538562</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02065891632148453</v>
+        <v>0.02072318352020407</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06830455341153063</v>
+        <v>0.2536567601514717</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0281628208356538</v>
+        <v>0.04347981779085262</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1260373638064382</v>
+        <v>0.2556391370788496</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05916933290559512</v>
+        <v>0.1007616914809048</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1237725765770235</v>
+        <v>0.2556391370788496</v>
       </c>
       <c r="N221" t="n">
-        <v>0.09131733010472293</v>
+        <v>0.1571391321290914</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1232530998102213</v>
+        <v>0.256618301651714</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02009768227321025</v>
+        <v>0.01972510301870759</v>
       </c>
       <c r="G222" t="n">
-        <v>0.06822364906199141</v>
+        <v>0.2552827650242375</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02784188287790643</v>
+        <v>0.04328510312765653</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1268452956257102</v>
+        <v>0.2572778494960217</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05846020975525473</v>
+        <v>0.100973932228192</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1245659905294403</v>
+        <v>0.2572778494960217</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0921851917449541</v>
+        <v>0.1586605710366431</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1240431837833637</v>
+        <v>0.258263290764866</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01954498267277753</v>
+        <v>0.01872138648564341</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06814274471245219</v>
+        <v>0.2569087698970034</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02772545987376443</v>
+        <v>0.04328646867030826</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1276532274449822</v>
+        <v>0.2589165619131938</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05806943019032099</v>
+        <v>0.1010770948010099</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1253594044818571</v>
+        <v>0.2589165619131938</v>
       </c>
       <c r="N223" t="n">
-        <v>0.09065426401411464</v>
+        <v>0.1578685747751196</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1248332677565062</v>
+        <v>0.259908279878018</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01900112006908906</v>
+        <v>0.01967512722286487</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06806184036291296</v>
+        <v>0.2585347747697692</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02721398043597545</v>
+        <v>0.04342242379292174</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1284611592642543</v>
+        <v>0.260555274330366</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05849814963235472</v>
+        <v>0.1009287679888852</v>
       </c>
       <c r="M224" t="n">
-        <v>0.126152818434274</v>
+        <v>0.260555274330366</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0898241974139537</v>
+        <v>0.1582965352963944</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1256233517296486</v>
+        <v>0.26155326899117</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0184663970110472</v>
+        <v>0.01958157655206746</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06798093601337374</v>
+        <v>0.2601607796425351</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02700787317728703</v>
+        <v>0.04325347034178523</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1292690910835263</v>
+        <v>0.2621939867475381</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05714752350291677</v>
+        <v>0.1006374747609614</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1269462323866908</v>
+        <v>0.2621939867475381</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08999464244622091</v>
+        <v>0.157135671888828</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1264134357027911</v>
+        <v>0.263198258104322</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01794111604755465</v>
+        <v>0.01944620267832335</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06790003166383451</v>
+        <v>0.2617867845153009</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02720756671044683</v>
+        <v>0.04289140699644388</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1300770229027984</v>
+        <v>0.2638326991647102</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05741870722356796</v>
+        <v>0.09943054065201395</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1277396463391076</v>
+        <v>0.2638326991647102</v>
       </c>
       <c r="N226" t="n">
-        <v>0.09036524961266557</v>
+        <v>0.1558275906506248</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1272035196759335</v>
+        <v>0.264843247217474</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0174255797275138</v>
+        <v>0.02027447380670468</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06781912731429529</v>
+        <v>0.2634127893880668</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02691348964820243</v>
+        <v>0.04264803243644283</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1308849547220704</v>
+        <v>0.2654714115818823</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05701285621586918</v>
+        <v>0.09883529119681836</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1285330602915244</v>
+        <v>0.2654714115818823</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08863566941503703</v>
+        <v>0.1558156382677401</v>
       </c>
       <c r="O227" t="n">
-        <v>0.127993603649076</v>
+        <v>0.266488236330626</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0169200905998273</v>
+        <v>0.01807185814228365</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06773822296475607</v>
+        <v>0.2650387942608326</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02662607060330147</v>
+        <v>0.04203514534132727</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1316928865413424</v>
+        <v>0.2671101239990544</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05683112590138129</v>
+        <v>0.09727905193015013</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1293264742439412</v>
+        <v>0.2671101239990544</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08950555235508473</v>
+        <v>0.1533431614261294</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1287836876222184</v>
+        <v>0.268133225443778</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01642495121339756</v>
+        <v>0.01784382389013241</v>
       </c>
       <c r="G229" t="n">
-        <v>0.06765731861521684</v>
+        <v>0.2666647991335984</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0262457381884915</v>
+        <v>0.04176454439064234</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1325008183606144</v>
+        <v>0.2687488364162265</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05667467170166504</v>
+        <v>0.09688914838678467</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1301198881963581</v>
+        <v>0.2687488364162265</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08837454893455793</v>
+        <v>0.1519535068117481</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1295737715953608</v>
+        <v>0.26977821455693</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01594046411712725</v>
+        <v>0.01959583925532314</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06757641426567762</v>
+        <v>0.2682908040063643</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02647287588894878</v>
+        <v>0.04114802826393325</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1333087501798865</v>
+        <v>0.2703875488333987</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05634446585941399</v>
+        <v>0.09539290610149745</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1309133021487749</v>
+        <v>0.2703875488333987</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08874233243104479</v>
+        <v>0.1504900211105514</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1303638555685033</v>
+        <v>0.271423203670082</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01546693185991882</v>
+        <v>0.01833337244292799</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0674955099161384</v>
+        <v>0.2699168088791301</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02600385767763815</v>
+        <v>0.04069739564074511</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1341166819991585</v>
+        <v>0.2720262612505707</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05552503028747047</v>
+        <v>0.09431765060906397</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1317067161011917</v>
+        <v>0.2720262612505707</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08761090482793055</v>
+        <v>0.148496051008495</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1311539395416458</v>
+        <v>0.2730681927832341</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01500465699067475</v>
+        <v>0.01706189165801914</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06741460556659917</v>
+        <v>0.271542813751896</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02583620349958519</v>
+        <v>0.04012444520062312</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1349246138184306</v>
+        <v>0.2736649736677428</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05610614676821155</v>
+        <v>0.09289070744425967</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1325001300536085</v>
+        <v>0.2736649736677428</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0870817471208411</v>
+        <v>0.1457149431915342</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1319440235147882</v>
+        <v>0.274713181896386</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01455394205829768</v>
+        <v>0.01678686510566875</v>
       </c>
       <c r="G233" t="n">
-        <v>0.06733370121705995</v>
+        <v>0.2731688186246619</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02596994862626871</v>
+        <v>0.03974097562311243</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1357325456377026</v>
+        <v>0.275303686084915</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05538818445376281</v>
+        <v>0.09193940214186003</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1332935440060253</v>
+        <v>0.275303686084915</v>
       </c>
       <c r="N233" t="n">
-        <v>0.08735487781289297</v>
+        <v>0.1436900443456243</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1327341074879306</v>
+        <v>0.2763581710095381</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01411508961169004</v>
+        <v>0.01651376099094899</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06725279686752073</v>
+        <v>0.2747948234974277</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02570512832916749</v>
+        <v>0.03905878558775824</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1365404774569747</v>
+        <v>0.2769423985020871</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05497151249624985</v>
+        <v>0.08999106023664052</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1340869579584421</v>
+        <v>0.2769423985020871</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08603031540720302</v>
+        <v>0.1415647011567207</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1335241914610731</v>
+        <v>0.2780031601226901</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01368840219975447</v>
+        <v>0.01724804751893204</v>
       </c>
       <c r="G235" t="n">
-        <v>0.0671718925179815</v>
+        <v>0.2764208283701935</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0252417778797603</v>
+        <v>0.03858967377410566</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1373484092762467</v>
+        <v>0.2785811109192592</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05555650004779816</v>
+        <v>0.08857300726337655</v>
       </c>
       <c r="M235" t="n">
-        <v>0.134880371910859</v>
+        <v>0.2785811109192592</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08510807840688783</v>
+        <v>0.1393822603107789</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1343142754342155</v>
+        <v>0.2796481492358421</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0132741823713934</v>
+        <v>0.01799519289469004</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06709098816844228</v>
+        <v>0.2780468332429594</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0252799325495259</v>
+        <v>0.03804543886169988</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1381563410955187</v>
+        <v>0.2802198233364313</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0553435162605333</v>
+        <v>0.08751256875684368</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1356737858632758</v>
+        <v>0.2802198233364313</v>
       </c>
       <c r="N236" t="n">
-        <v>0.08608818531506407</v>
+        <v>0.1368860684937542</v>
       </c>
       <c r="O236" t="n">
-        <v>0.135104359407358</v>
+        <v>0.2812931383489941</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01287273267550945</v>
+        <v>0.01676066532329519</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06701008381890305</v>
+        <v>0.2796728381157252</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02511962760994309</v>
+        <v>0.03753787953008605</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1389642729147908</v>
+        <v>0.2818585357536034</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05423293028658083</v>
+        <v>0.0861370702518173</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1364671998156926</v>
+        <v>0.2818585357536034</v>
       </c>
       <c r="N237" t="n">
-        <v>0.08527065463484851</v>
+        <v>0.1356194723916021</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1358944433805004</v>
+        <v>0.2829381274621461</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01248435566100505</v>
+        <v>0.01754366777920413</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06692917946936383</v>
+        <v>0.2812988429884911</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02476089833249065</v>
+        <v>0.03667243980294069</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1397722047340628</v>
+        <v>0.2834972481707755</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0543251112780663</v>
+        <v>0.08525912001159683</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1372606137681094</v>
+        <v>0.2834972481707755</v>
       </c>
       <c r="N238" t="n">
-        <v>0.08475550486935773</v>
+        <v>0.1339116314719766</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1366845273536429</v>
+        <v>0.2845831165752982</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01210935387678285</v>
+        <v>0.01632723565798888</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06684827511982461</v>
+        <v>0.2829248478612569</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02490377998864735</v>
+        <v>0.0363130053567131</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1405801365533349</v>
+        <v>0.2851359605879477</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05472042838711527</v>
+        <v>0.08399507789659727</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1380540277205262</v>
+        <v>0.2851359605879477</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08464275452170839</v>
+        <v>0.1320372081781031</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1374746113267853</v>
+        <v>0.2862281056884502</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0117467944637266</v>
+        <v>0.01710998338244977</v>
       </c>
       <c r="G240" t="n">
-        <v>0.06676737077028538</v>
+        <v>0.2845508527340228</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02454830784989194</v>
+        <v>0.03615182041510495</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1413880683726069</v>
+        <v>0.2867746730051198</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05461925076585325</v>
+        <v>0.0830269816650151</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1388474416729431</v>
+        <v>0.2867746730051198</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08413242209501731</v>
+        <v>0.1300563881452915</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1382646952999277</v>
+        <v>0.2878730948016022</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01138956752262691</v>
+        <v>0.01589189799820624</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06668646642074616</v>
+        <v>0.2861768576067886</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02439451718770325</v>
+        <v>0.03528885702660682</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1421960001918789</v>
+        <v>0.2884133854222919</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05372194756640586</v>
+        <v>0.08185476658164523</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1396408556253599</v>
+        <v>0.2884133854222919</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08312452609240106</v>
+        <v>0.128369068683635</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1390547792730702</v>
+        <v>0.2895180839147542</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01103674019436754</v>
+        <v>0.01667296655087768</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06660556207120694</v>
+        <v>0.2878028624795544</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02444244327355997</v>
+        <v>0.03502408723970936</v>
       </c>
       <c r="K242" t="n">
-        <v>0.143003932011151</v>
+        <v>0.290052097839464</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05372888794089861</v>
+        <v>0.08137836791128236</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1404342695777767</v>
+        <v>0.290052097839464</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08321908501697634</v>
+        <v>0.1273751471032274</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1398448632462126</v>
+        <v>0.2911630730279062</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01068861502785113</v>
+        <v>0.0144531760860835</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06652465772166771</v>
+        <v>0.2894288673523203</v>
       </c>
       <c r="J243" t="n">
-        <v>0.024092121378941</v>
+        <v>0.03445748310290318</v>
       </c>
       <c r="K243" t="n">
-        <v>0.143811863830423</v>
+        <v>0.2916908102566361</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05404044104145705</v>
+        <v>0.07979772091872123</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1412276835301935</v>
+        <v>0.2916908102566361</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08221611737185991</v>
+        <v>0.1257745207141622</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1406349472193551</v>
+        <v>0.2928080621410582</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01034549457198011</v>
+        <v>0.0152325136494431</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06644375337212849</v>
+        <v>0.2910548722250861</v>
       </c>
       <c r="J244" t="n">
-        <v>0.023943586775325</v>
+        <v>0.0341890166646789</v>
       </c>
       <c r="K244" t="n">
-        <v>0.144619795649695</v>
+        <v>0.2933295226738082</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05315697602020675</v>
+        <v>0.07941276086875673</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1420210974826103</v>
+        <v>0.2933295226738082</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08241564166016829</v>
+        <v>0.1239670868265328</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1414250311924975</v>
+        <v>0.2944530512542102</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01000768137565709</v>
+        <v>0.01601096628657587</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06636284902258927</v>
+        <v>0.292680877097852</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02369687473419081</v>
+        <v>0.03361865997352713</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1454277274689671</v>
+        <v>0.2949682350909803</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05297886202927324</v>
+        <v>0.07762342302618366</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1428145114350271</v>
+        <v>0.2949682350909803</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0822176763850182</v>
+        <v>0.1223527427504329</v>
       </c>
       <c r="O245" t="n">
-        <v>0.14221511516564</v>
+        <v>0.2960980403673623</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009675477987784523</v>
+        <v>0.01578852104310122</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06628194467305004</v>
+        <v>0.2943068819706178</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0238520205270172</v>
+        <v>0.03314638507793852</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1462356592882391</v>
+        <v>0.2966069475081524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05290646822078207</v>
+        <v>0.07682964265579673</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1436079253874439</v>
+        <v>0.2966069475081524</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08192224004952653</v>
+        <v>0.1208313857959559</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1430051991387824</v>
+        <v>0.2977430294805142</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009349186957265034</v>
+        <v>0.01356516496463857</v>
       </c>
       <c r="G247" t="n">
-        <v>0.06620104032351082</v>
+        <v>0.2959328868433836</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02350905942528293</v>
+        <v>0.03277216402640365</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1470435911075112</v>
+        <v>0.2982456599253245</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0527401637468588</v>
+        <v>0.07613135502239077</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1444013393398608</v>
+        <v>0.2982456599253245</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08022935115680963</v>
+        <v>0.1182029132731953</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1437952831119248</v>
+        <v>0.2993880185936663</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009029110833001112</v>
+        <v>0.01534088509680732</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06612013597397161</v>
+        <v>0.2975588917161495</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02356802670046677</v>
+        <v>0.0321959688674132</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1478515229267832</v>
+        <v>0.2998843723424967</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05288031775962898</v>
+        <v>0.07502849539076054</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1451947532922776</v>
+        <v>0.2998843723424967</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08063902820998448</v>
+        <v>0.1164672224922447</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1445853670850673</v>
+        <v>0.3010330077068183</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008715552163895239</v>
+        <v>0.01411566848522686</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06603923162443237</v>
+        <v>0.2991848965889153</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02312895762404756</v>
+        <v>0.03151777164945775</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1486594547460553</v>
+        <v>0.3015230847596688</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05272729941121818</v>
+        <v>0.07322099902570089</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1459881672446944</v>
+        <v>0.3015230847596688</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08095128971216753</v>
+        <v>0.1157242107631977</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1453754510582097</v>
+        <v>0.3026779968199703</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008408813498850032</v>
+        <v>0.01388950217551661</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06595832727489316</v>
+        <v>0.3008109014616812</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02309188746750401</v>
+        <v>0.0314375444210279</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1494673865653273</v>
+        <v>0.3031617971768409</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05198147785375193</v>
+        <v>0.07180880119200661</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1467815811971112</v>
+        <v>0.3031617971768409</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08016615416647566</v>
+        <v>0.1136737753961477</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1461655350313522</v>
+        <v>0.3043229859331223</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008109197386767936</v>
+        <v>0.01266237321329595</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06587742292535392</v>
+        <v>0.302436906334447</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02325685150231491</v>
+        <v>0.03065525923061432</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1502753183845993</v>
+        <v>0.304800509594013</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05234322223935575</v>
+        <v>0.0715918371544724</v>
       </c>
       <c r="M251" t="n">
-        <v>0.147574995149528</v>
+        <v>0.304800509594013</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07888364007602539</v>
+        <v>0.1119158137011882</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1469556190044946</v>
+        <v>0.3059679750462743</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007817006376551569</v>
+        <v>0.01243426864418432</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06579651857581471</v>
+        <v>0.3040629112072128</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02292388499995905</v>
+        <v>0.03027088812670761</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1510832502038714</v>
+        <v>0.3064392220111851</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05211290172015529</v>
+        <v>0.07037004217789314</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1483684091019449</v>
+        <v>0.3064392220111851</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07940376594393345</v>
+        <v>0.1106502229884129</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1477457029776371</v>
+        <v>0.3076129641594263</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007532543017103377</v>
+        <v>0.01420517551380109</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06571561422627548</v>
+        <v>0.3056889160799787</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02289302323191519</v>
+        <v>0.02978440315779841</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1518911820231434</v>
+        <v>0.3080779344283572</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05229088544827601</v>
+        <v>0.0687433515270636</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1491618230543617</v>
+        <v>0.3080779344283572</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07932655027331653</v>
+        <v>0.1079769005679151</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1485357869507795</v>
+        <v>0.3092579532725783</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007256109857325985</v>
+        <v>0.01197508086776569</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06563470987673627</v>
+        <v>0.3073149209527446</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02286430146966213</v>
+        <v>0.02919577637237732</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1526991138424154</v>
+        <v>0.3097166468455294</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05237754257584346</v>
+        <v>0.06751170046677854</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1499552370067785</v>
+        <v>0.3097166468455294</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07795201156729137</v>
+        <v>0.1055957437497885</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1493258709239219</v>
+        <v>0.3109029423857304</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.00698800944612183</v>
+        <v>0.0117439717516975</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06555380552719703</v>
+        <v>0.3089409258255104</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02273775498467866</v>
+        <v>0.02870497981893493</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1535070456616875</v>
+        <v>0.3113553592627015</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05177324225498325</v>
+        <v>0.0669750242618328</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1507486509591953</v>
+        <v>0.3113553592627015</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07868016832897456</v>
+        <v>0.1046066498441265</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1501159548970644</v>
+        <v>0.3125479314988824</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006728544332393532</v>
+        <v>0.01351183521121595</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06547290117765782</v>
+        <v>0.3105669306982762</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02221341904844348</v>
+        <v>0.0283119855459619</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1543149774809595</v>
+        <v>0.3129940716798736</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05147835363782088</v>
+        <v>0.06543325817702114</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1515420649116121</v>
+        <v>0.3129940716798736</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07691103906148278</v>
+        <v>0.1030095161610228</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1509060388702068</v>
+        <v>0.3141929206120344</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006478017065043529</v>
+        <v>0.01227865829194041</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06539199682811858</v>
+        <v>0.3121929355710421</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02249132893243545</v>
+        <v>0.02761676560194889</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1551229093002316</v>
+        <v>0.3146327840970457</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05209324587648195</v>
+        <v>0.06388633747713837</v>
       </c>
       <c r="M257" t="n">
-        <v>0.152335478864029</v>
+        <v>0.3146327840970457</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07684464226793275</v>
+        <v>0.1011042400105708</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1516961228433493</v>
+        <v>0.3158379097251864</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006236730192974445</v>
+        <v>0.01104442803949032</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06531109247857937</v>
+        <v>0.3138189404438079</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02227151990813329</v>
+        <v>0.02711929203538646</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1559308411195036</v>
+        <v>0.3162714965142178</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05131828812309194</v>
+        <v>0.06333419742697924</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1531288928164458</v>
+        <v>0.3162714965142178</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07598099645144113</v>
+        <v>0.09879071870286388</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1524862068164917</v>
+        <v>0.3174828988383384</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.00600498626508874</v>
+        <v>0.01280913149948504</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06523018812904013</v>
+        <v>0.3154449453165738</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02195402724701584</v>
+        <v>0.02691953689476523</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1567387729387756</v>
+        <v>0.3179102089313899</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05105384952977646</v>
+        <v>0.06227677329133857</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1539223067688626</v>
+        <v>0.3179102089313899</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07722012011512464</v>
+        <v>0.09716884954799582</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1532762907896342</v>
+        <v>0.3191278879514904</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005783087830289003</v>
+        <v>0.01157275571754404</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06514928377950092</v>
+        <v>0.3170709501893396</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02183888622056181</v>
+        <v>0.02651747222857588</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1575467047580477</v>
+        <v>0.319548921348562</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05130029924866106</v>
+        <v>0.06121400033501118</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1547157207212794</v>
+        <v>0.319548921348562</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07606203176209986</v>
+        <v>0.09593852985606011</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1540663747627766</v>
+        <v>0.3207728770646424</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005571337437477696</v>
+        <v>0.01033528773928667</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06506837942996169</v>
+        <v>0.3186969550621055</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02192613210025</v>
+        <v>0.02601307008530897</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1583546365773197</v>
+        <v>0.3211876337657341</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05145800643187126</v>
+        <v>0.0598458138227918</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1555091346736962</v>
+        <v>0.3211876337657341</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07520674989548359</v>
+        <v>0.09329965693715014</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1548564587359191</v>
+        <v>0.3224178661777944</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005370037635557434</v>
+        <v>0.01009671461033233</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06498747508042248</v>
+        <v>0.3203229599348713</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02151580015755922</v>
+        <v>0.02530630251345513</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1591625683965918</v>
+        <v>0.3228263461829062</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05092734023153261</v>
+        <v>0.05847214901947526</v>
       </c>
       <c r="M262" t="n">
-        <v>0.156302548626113</v>
+        <v>0.3228263461829062</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07585429301839253</v>
+        <v>0.09105212810135954</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1556465427090615</v>
+        <v>0.3240628552909465</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005179490973430671</v>
+        <v>0.01185702337630047</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06490657073088324</v>
+        <v>0.3219489648076371</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0215079256639682</v>
+        <v>0.02479714156150502</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1599705002158638</v>
+        <v>0.3244650586000784</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05140866979977068</v>
+        <v>0.05719294118985632</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1570959625785298</v>
+        <v>0.3244650586000784</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07530467963394322</v>
+        <v>0.08919584065878189</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1564366266822039</v>
+        <v>0.3257078444040984</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01161620108281046</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06482566638134403</v>
+        <v>0.323574969680403</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02160254389095573</v>
+        <v>0.02428555927794925</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1607784320351358</v>
+        <v>0.3261037710172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05110236428871107</v>
+        <v>0.05650812559872986</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1578893765309467</v>
+        <v>0.3261037710172505</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07485792824525239</v>
+        <v>0.08763069191951051</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1572267106553464</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06481250848660718</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005646740624024274</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.0648127770150712</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006289942661583427</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06481304554353522</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006929566633017602</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06481331407199924</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007565573058583519</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06481358260046326</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008197922458621491</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06481385112892726</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008826575353443923</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06481411965739128</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009451492263390322</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.0648143881858553</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01007263370871868</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06481465671431932</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01068996020976869</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06481492524278333</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01130343228685272</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06481519377124735</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01191301046030963</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06481546229971137</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01251865525039876</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06481573082817539</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01312032717745911</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.0648159993566394</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01371798676180307</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06481626788510342</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.0143115945237688</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06481653641356744</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01490111098361702</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06481680494203146</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01548649666168603</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06481707347049548</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01606771207828826</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06481734199895949</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01664471775376109</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06481761052742352</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01721747420836671</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06481787905588753</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01778594196244273</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06481814758435155</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01835008153630153</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.06481841611281555</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01890985345027977</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06481868464127959</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01946521822464113</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06481895316974359</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02001629758844686</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06481922169820761</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02056401931435566</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06481949022667162</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02110850513142792</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06481975875513565</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02164971555992864</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06482002728359966</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02218761112019398</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06482029581206368</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02272215233253636</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.0648205643405277</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.0232532997172912</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06482083286899172</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02378101379472466</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06482110139745574</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02430525508517232</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06482136992591975</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02482598410894658</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06482163845438377</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02534316138638228</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06482190698284779</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.0258567474377468</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06482217551131181</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.0263667027833751</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06482244403977581</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.0268729879435796</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06482271256823983</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02737556343869445</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06482298109670385</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02787438978898835</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06482324962516788</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02836942751479562</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.0648235181536319</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02886063713642866</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.0648237866820959</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02934797917422102</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06482405521055994</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02983141414844261</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06482432373902394</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03031090257942718</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06482459226748796</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.0307864049874871</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06482486079595197</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.0312578818929552</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.064825129324416</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03172529381610286</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06482539785288001</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03218860127726304</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06482566638134403</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03218860127726304</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06481250848660718</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03268825066490696</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06489394989307444</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03318339039017001</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.0649753912995417</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03367390550347717</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06505683270600895</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03415968105525347</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06513827411247622</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03464060209592387</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06521971551894347</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03511655367591338</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06530115692541073</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03558742084564701</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06538259833187798</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03605308865554977</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06546403973834525</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03651344215604662</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06554548114481251</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.0369683663975626</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06562692255127976</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03741774643052271</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06570836395774703</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03786146730535186</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.06578980536421426</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03829941407247518</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06587124677068153</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03873147178231761</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06595268817714879</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03915752548530415</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06603412958361604</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.0395774602318598</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06611557099008331</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03999116107240958</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06619701239655056</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04039851305737845</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06627845380301782</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04079940123719147</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06635989520948508</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04119371066227357</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06644133661595233</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04158132638304977</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.0665227780224196</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.0419621334499451</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06660421942888685</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04233601691338452</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06668566083535411</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04270286182379306</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06676710224182136</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04306302260902697</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06684854364828863</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04341920058409874</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06692998505475589</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04377175017686464</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06701142646122314</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04412055643774965</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06709286786769041</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04446550441717877</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06717430927415766</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04480647916557703</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06725575068062492</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.0451433657333694</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06733719208709217</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04547604917098089</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06741863349355944</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04580441452883651</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.0675000749000267</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04612834685736125</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06758151630649395</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04644773120698008</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06766295771296121</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04676245262811805</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06774439911942846</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04707239617120009</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06782584052589571</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04737744688665129</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06790728193236298</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04767748982489661</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06798872333883023</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04797241003636104</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06807016474529749</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04826209257146958</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.06815160615176474</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04854642248064726</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.06823304755823201</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04882528481431902</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06831448896469927</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04909856462290992</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06839593037116652</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04936614695684492</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06847737177763379</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04962791686654904</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06855881318410104</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04988375940244728</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.0686402545905683</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05013355961496461</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06872169599703555</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05037720255452607</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06880313740350281</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04525146836968404</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06880313740350281</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05048555609878196</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.07072950260694889</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05058578556009145</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.07265586781039497</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05067820752288626</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07458223301384105</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05076313857159815</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07650859821728713</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05084089529065885</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07843496342073321</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05091179426450011</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.08036132862417929</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.05097615207755366</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.08228769382762538</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05103428531425123</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.08421405903107144</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05108651055902459</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08614042423451752</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.05113314439630545</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.0880667894379636</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05117450341052557</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.0899931546414097</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.0512109041861167</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.09191951984485577</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05124266330751055</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.09384588504830185</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05127009735913885</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09577225025174793</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05129352292543341</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09769861545519401</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05131325659082591</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09962498065864009</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.0513296149397481</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1015513458620862</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05134291455663175</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1034777110655322</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05135347202590853</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1054040762689783</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.05136160393201026</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1073304414724244</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05136762685936865</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1092568066758705</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05137185739241543</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1111831718793166</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05137461211558234</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1131095370827627</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.05137620761330112</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1150359022862087</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05137696047000354</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1169622674896548</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05137718727012131</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1188886326931009</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05137114274358014</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.120814997896547</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.0512847997255664</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.122741363099993</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05110249779221736</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1246677283034391</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05083232727189772</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1265940935068852</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05048237849297212</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1285204587103313</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05006074178380523</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1304468239137773</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.0495755074727617</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1323731891172234</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04903476588820623</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1342995543206695</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04844660735850344</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1362259195241156</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.047819122212018</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1381522847275617</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04716040077711461</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1400786499310077</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04647853338215786</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1420050151344538</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04578161035551249</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1439313803378999</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04507772202554312</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.145857745541346</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04437495872061441</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1477841107447921</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04368141076909104</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04300516849933767</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1516368411516842</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04235432223971895</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1535632063551303</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04173696231859955</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1554895715585764</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04116117906434414</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1574159367620225</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04063506280531737</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1593423019654686</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04016670386988391</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1612686671689146</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.0397641925864084</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1631950323723607</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03943561928325556</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1651213975758068</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03916879959820754</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1670477627792529</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03891020634290591</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.168974127982699</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03865665250185759</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.170900493186145</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.0384083985700601</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1728268583895911</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.0381657050425109</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1747532235930372</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03792883241420749</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1766795887964833</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03769804118014738</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1786059539999293</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03747359183532808</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1805323192033754</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03725574487474705</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1824586844068215</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03704476079340181</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1843850496102676</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03684090008628985</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1863114148137137</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03664442324840868</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1882377800171597</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03645559077475579</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1901641452206058</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03627466316032869</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1920905104240519</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03610190090012485</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.194016875627498</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03593756448914178</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1959432408309441</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03578191442237697</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1978696060343902</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03563521119482791</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1997959712378362</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03549771530149213</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.2017223364412823</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.0353696872373671</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2036487016447284</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03525138749745032</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2055750668481744</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03514307657673928</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2075014320516205</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03504501497023151</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2094277972550666</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03495746317292447</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2113541624585127</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03488068167981569</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2132805276619588</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03481488887755389</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2152068928654049</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03475426572322152</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.217133258068851</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03469466977655456</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.219059623272297</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03463625614843602</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2209859884757431</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03457917994974883</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2229123536791892</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03452359629137592</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2248387188826352</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03446966028420025</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2267650840860813</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03441752703910477</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2286914492895274</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03436735166697245</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2306178144929735</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03431928927868619</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2325441796964196</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03427349498512899</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2344705448998656</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03423012389718378</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2363969101033117</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03418933112573348</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2383232753067578</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03415127178166109</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2402496405102039</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03411610097584952</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2421760057136499</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03408397381918173</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2441023709170961</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.0340550454225407</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2460287361205421</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03402947089680933</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2479551013239882</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03400740535287061</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2498814665274343</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03398900390160745</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2518078317308804</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03397442165390283</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2537341969343265</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03396381372063968</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2556605621377725</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03395733521270098</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2575869273412186</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03395514124096965</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2595132925446647</v>
-      </c>
-    </row>
+        <v>0.3273528335172505</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1075.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1075.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001701316232353138</v>
+        <v>0.001175430607959563</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001626004872765844</v>
+        <v>0.0004917450622540661</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002900969496773008</v>
+        <v>0.003193646186544899</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001638712417172113</v>
+        <v>0.001580162268602505</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01031111994207368</v>
+        <v>0.01104191515886913</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001638712417172113</v>
+        <v>0.001552642958417435</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01629104421604177</v>
+        <v>0.01639777594530267</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001644989113152012</v>
+        <v>0.001558439735523877</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.002317001134421064</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.002904253721050846</v>
+        <v>0.0009834901245081322</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9374,13 +9374,13 @@
         <v>0.02249999999999999</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003747187499999998</v>
+        <v>0.003406534090909089</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03016079278021433</v>
+        <v>0.02994895025835176</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003289978226304025</v>
+        <v>0.003116879471047755</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.007843360516543565</v>
+        <v>0.003390851497886399</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004878014618297532</v>
+        <v>0.001475235186762198</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.009606179853873957</v>
+        <v>0.008778054314386788</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004916137251516339</v>
+        <v>0.004740486805807513</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02703914095088536</v>
+        <v>0.02684919316810919</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004916137251516339</v>
+        <v>0.004657928875252304</v>
       </c>
       <c r="N68" s="171" t="n">
         <v>0.03749999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004163541666666664</v>
+        <v>0.00394440789473684</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008106153398238135</v>
+        <v>0.004363121616857507</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006504019491063377</v>
+        <v>0.001966980249016264</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01345375203206348</v>
+        <v>0.01092569697847211</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006554849668688452</v>
+        <v>0.006320649074410018</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03431517900346753</v>
+        <v>0.03268155539847262</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006554849668688452</v>
+        <v>0.006210571833669739</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05192436655086624</v>
+        <v>0.04916957855942622</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.00657995645260805</v>
+        <v>0.00623375894209551</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.005812867092421008</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01046316076635782</v>
+        <v>0.005199951409836305</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008712761163152538</v>
+        <v>0.00245872531127033</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01671810087476933</v>
+        <v>0.01240749892312096</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008193562085860565</v>
+        <v>0.007900811343012522</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04058203653869849</v>
+        <v>0.03800073417983957</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008193562085860565</v>
+        <v>0.007763214792087173</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.05981317544063625</v>
+        <v>0.05711978067071283</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008224945565760063</v>
+        <v>0.007792198677619388</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009043154158434936</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009756029236595064</v>
+        <v>0.002904253721050846</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0195820871477954</v>
+        <v>0.01423684737588979</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009832274503032678</v>
+        <v>0.009480973611615026</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04596406136708059</v>
+        <v>0.04294991303725579</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009832274503032678</v>
+        <v>0.009315857750504608</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06827871100908334</v>
+        <v>0.06335194099734814</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009869934678912074</v>
+        <v>0.009350638413143264</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009922835883760202</v>
+        <v>0.006444671415754284</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01138203410936091</v>
+        <v>0.003442215435778462</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02205508852274297</v>
+        <v>0.01602712956433502</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01124156249999999</v>
+        <v>0.01106113588021753</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05107919798120145</v>
+        <v>0.04617227549576691</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01124156249999999</v>
+        <v>0.01086850070892204</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07548299982467727</v>
+        <v>0.06896785398923488</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01151492379206409</v>
+        <v>0.01090907814866714</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01276961084549066</v>
+        <v>0.006995340108026306</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01300803898212675</v>
+        <v>0.003933960498032529</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02390663675512504</v>
+        <v>0.01729173271601318</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0131096993373769</v>
+        <v>0.01264129814882004</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05581869524897187</v>
+        <v>0.05107919798120145</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.0131096993373769</v>
+        <v>0.01288911327846352</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.08010330743965993</v>
+        <v>0.07406931409627615</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01249062499999999</v>
+        <v>0.01246751788419102</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01357969858053829</v>
+        <v>0.007517602675893922</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0146340438548926</v>
+        <v>0.004425705560286594</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02598633142977809</v>
+        <v>0.01854404405848065</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01474841175454902</v>
+        <v>0.01422146041742254</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05941529343162391</v>
+        <v>0.05222807294551768</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01474841175454902</v>
+        <v>0.01397378662575691</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0881387700375606</v>
+        <v>0.08010330743965993</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01480490201836811</v>
+        <v>0.01404267192264565</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01234931862581509</v>
+        <v>0.008008788142660865</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01626004872765844</v>
+        <v>0.004917450622540661</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02767161204516967</v>
+        <v>0.01989745081929392</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01638712417172113</v>
+        <v>0.01580162268602504</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06366114920444052</v>
+        <v>0.05538969538839228</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01638712417172113</v>
+        <v>0.01552642958417435</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.095261819209985</v>
+        <v>0.0836579246829649</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01644989113152013</v>
+        <v>0.01558439735523878</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01407469051823304</v>
+        <v>0.008466225531630893</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01788605360042429</v>
+        <v>0.005409195684794726</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0295574064415336</v>
+        <v>0.02126534022600944</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01802583658889324</v>
+        <v>0.01738178495462755</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06783392977467698</v>
+        <v>0.0582143399437039</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01802583658889324</v>
+        <v>0.01707907254259178</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1006424733623446</v>
+        <v>0.08682946174574807</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01809488024467214</v>
+        <v>0.01714283709076265</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01575203379470413</v>
+        <v>0.008887243866107716</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01951205847319013</v>
+        <v>0.005900940747048793</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03093864245910369</v>
+        <v>0.02205508852274297</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01966454900606536</v>
+        <v>0.01836545600529243</v>
       </c>
       <c r="L77" t="n">
-        <v>0.07181130234958844</v>
+        <v>0.06069764325143273</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01966454900606536</v>
+        <v>0.01863171550100922</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1066280478107955</v>
+        <v>0.09136448379634482</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01973986935782415</v>
+        <v>0.01870127682628653</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01637756799214034</v>
+        <v>0.009269172169395094</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02113806334595597</v>
+        <v>0.006392685809302859</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03271024793811375</v>
+        <v>0.02315760304670121</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02130326142323747</v>
+        <v>0.02054210949183256</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07467093413643025</v>
+        <v>0.06293524195155889</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02130326142323747</v>
+        <v>0.02018435845942665</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1127658578714937</v>
+        <v>0.09555471948695238</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02138485847097616</v>
+        <v>0.0202597165618104</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01494751264745366</v>
+        <v>0.009609339464796737</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02276406821872182</v>
+        <v>0.006884430871556924</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03376715071879767</v>
+        <v>0.02445155036040896</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02294197384040958</v>
+        <v>0.02212227176043506</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07829049234245761</v>
+        <v>0.06542277268406269</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02294197384040958</v>
+        <v>0.02173700141784408</v>
       </c>
       <c r="N79" t="n">
-        <v>0.118203218860595</v>
+        <v>0.0991918974697677</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02302984758412817</v>
+        <v>0.02181815629733428</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01645808729755609</v>
+        <v>0.009905074775616418</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02439007309148766</v>
+        <v>0.007376175933810992</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03490427864138923</v>
+        <v>0.02534480143127503</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02458068625758169</v>
+        <v>0.02370243402903757</v>
       </c>
       <c r="L80" t="n">
-        <v>0.08134764417492579</v>
+        <v>0.06845587208892417</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02458068625758169</v>
+        <v>0.02328964437626152</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1222874460942555</v>
+        <v>0.1041677463969879</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02467483669728019</v>
+        <v>0.02337659603285816</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0159055114793596</v>
+        <v>0.01015370712515785</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02601607796425351</v>
+        <v>0.007867920996065057</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03631655954612228</v>
+        <v>0.02683435976038952</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02621939867475381</v>
+        <v>0.02528259629764007</v>
       </c>
       <c r="L81" t="n">
-        <v>0.08312005684108997</v>
+        <v>0.07063017680612355</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02621939867475381</v>
+        <v>0.02484228733467896</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1285658548886309</v>
+        <v>0.1085739949208102</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0263198258104322</v>
+        <v>0.02493503576838204</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01828600472977616</v>
+        <v>0.01035256553672477</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02764208283701935</v>
+        <v>0.008359666058319122</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03719892127323063</v>
+        <v>0.02751722884884251</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02785811109192592</v>
+        <v>0.02686275856624257</v>
       </c>
       <c r="L82" t="n">
-        <v>0.08578539754820549</v>
+        <v>0.07314132347564101</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02785811109192592</v>
+        <v>0.02639493029309639</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1318857605598775</v>
+        <v>0.1113023716934316</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02796481492358421</v>
+        <v>0.02649347550390592</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01859578658571779</v>
+        <v>0.01046316076635782</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0292680877097852</v>
+        <v>0.008712761163152538</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03824629166294813</v>
+        <v>0.02859041219772415</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02949682350909803</v>
+        <v>0.02844292083484508</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08752133350352756</v>
+        <v>0.07548494873745679</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02949682350909803</v>
+        <v>0.02794757325151382</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1364944784241511</v>
+        <v>0.1155446053670494</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02960980403673622</v>
+        <v>0.0280519152394298</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01784874567788174</v>
+        <v>0.01063434226881176</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03089409258255104</v>
+        <v>0.009343156182827255</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03855359855550859</v>
+        <v>0.02995091330812449</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03113553592627015</v>
+        <v>0.03002308310344758</v>
       </c>
       <c r="L84" t="n">
-        <v>0.08980553191431143</v>
+        <v>0.07795668923155097</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03113553592627015</v>
+        <v>0.02950021620993126</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1387393237976076</v>
+        <v>0.1193924245938603</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03125479314988824</v>
+        <v>0.02961035497495367</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01809211590869263</v>
+        <v>0.01076573695177098</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03252009745531689</v>
+        <v>0.009834901245081322</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03942218628727862</v>
+        <v>0.0307957356811337</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03277424834344226</v>
+        <v>0.03160324537205009</v>
       </c>
       <c r="L85" t="n">
-        <v>0.09093268987953071</v>
+        <v>0.07965218159790377</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03277424834344226</v>
+        <v>0.03105285916834869</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1413676119964031</v>
+        <v>0.1221375580260619</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03289978226304025</v>
+        <v>0.03116879471047755</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01832729039750694</v>
+        <v>0.01089526471688888</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03414610232808273</v>
+        <v>0.01032664630733539</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03974512698987409</v>
+        <v>0.03172188281784181</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03441296076061438</v>
+        <v>0.03318340764065259</v>
       </c>
       <c r="L86" t="n">
-        <v>0.09224381136982795</v>
+        <v>0.08196706247649538</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03441296076061438</v>
+        <v>0.03260550212676613</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1427531966936688</v>
+        <v>0.125471734315851</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03454477137619226</v>
+        <v>0.03272723444600143</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01955266500315728</v>
+        <v>0.01102293102040478</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03577210720084858</v>
+        <v>0.01081839136958945</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04045186417867637</v>
+        <v>0.03272635821933899</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03605167317778649</v>
+        <v>0.0347635699092551</v>
       </c>
       <c r="L87" t="n">
-        <v>0.09351740580653034</v>
+        <v>0.08409696850730591</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03605167317778649</v>
+        <v>0.03415814508518356</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1445422310991176</v>
+        <v>0.1285866821154248</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03618976048934427</v>
+        <v>0.0342856741815253</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01776663558447619</v>
+        <v>0.011148741318558</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03739811207361442</v>
+        <v>0.01131013643184352</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0408389366178083</v>
+        <v>0.03400616538671529</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0376903855949586</v>
+        <v>0.0363437321778576</v>
       </c>
       <c r="L88" t="n">
-        <v>0.09474545702808637</v>
+        <v>0.08653753633031561</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0376903855949586</v>
+        <v>0.035710788043601</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1476678837078477</v>
+        <v>0.1329741300769803</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03783474960249628</v>
+        <v>0.03584411391704918</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01896759800029623</v>
+        <v>0.01127270106758788</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03902411694638026</v>
+        <v>0.01180188149409759</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04110288307139266</v>
+        <v>0.03505830782106086</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03932909801213071</v>
+        <v>0.0379238944464601</v>
       </c>
       <c r="L89" t="n">
-        <v>0.09521994887294447</v>
+        <v>0.08808440258550462</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03932909801213071</v>
+        <v>0.03726343100201843</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1491174384270106</v>
+        <v>0.1359258068527148</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0394797387156483</v>
+        <v>0.03740255365257306</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01915394810944999</v>
+        <v>0.01139481572373371</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0406501218191461</v>
+        <v>0.01229362655635165</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04174024230355219</v>
+        <v>0.03597978902346577</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04096781042930282</v>
+        <v>0.03950405671506261</v>
       </c>
       <c r="L90" t="n">
-        <v>0.09623286517955312</v>
+        <v>0.09003320391285319</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04096781042930282</v>
+        <v>0.03881607396043587</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1509781791637577</v>
+        <v>0.1382334410948253</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04112472782880031</v>
+        <v>0.03896099338809694</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01832408177077001</v>
+        <v>0.01151509074323484</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04227612669191195</v>
+        <v>0.01278537161860572</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04234755307840971</v>
+        <v>0.03656761249502014</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04260652284647494</v>
+        <v>0.04108421898366512</v>
       </c>
       <c r="L91" t="n">
-        <v>0.09737618978636073</v>
+        <v>0.0912795769523414</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04260652284647494</v>
+        <v>0.0403687169188533</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1520373898252403</v>
+        <v>0.1410887614555089</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04276971694195233</v>
+        <v>0.04051943312362081</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01847639484308886</v>
+        <v>0.01163353158233056</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04390213156467779</v>
+        <v>0.01327711668085979</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04252135416008798</v>
+        <v>0.03771878173681407</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04424523526364705</v>
+        <v>0.04266438125226762</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09854190653181583</v>
+        <v>0.09291915834394945</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04424523526364705</v>
+        <v>0.04192135987727073</v>
       </c>
       <c r="N92" t="n">
-        <v>0.15358235431861</v>
+        <v>0.1430834965869627</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04441470605510434</v>
+        <v>0.04207787285914469</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01860928318523913</v>
+        <v>0.01175014369726022</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04552813643744363</v>
+        <v>0.01376886174311385</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04275818431270983</v>
+        <v>0.03813030024993769</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04588394768081917</v>
+        <v>0.04424454352087013</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09892199925436679</v>
+        <v>0.09424758472765751</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04588394768081917</v>
+        <v>0.04347400283568817</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1541003565510181</v>
+        <v>0.146809375141384</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04605969516825634</v>
+        <v>0.04363631259466857</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01872114265605336</v>
+        <v>0.01186493254426311</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04715414131020948</v>
+        <v>0.01426060680536792</v>
       </c>
       <c r="J94" t="n">
-        <v>0.043254582300398</v>
+        <v>0.03899917153548108</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04752266009799128</v>
+        <v>0.04582470578947263</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09960845179246211</v>
+        <v>0.0960604927434458</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04752266009799128</v>
+        <v>0.0450266457941056</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1561786804296159</v>
+        <v>0.1487581257709695</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04770468428140836</v>
+        <v>0.04519475233019245</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02081036911436413</v>
+        <v>0.01197790357957858</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04878014618297533</v>
+        <v>0.01475235186762198</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04330708688727532</v>
+        <v>0.03992239909453429</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04916137251516339</v>
+        <v>0.04740486805807514</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1005932479845502</v>
+        <v>0.09705351903129447</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04916137251516339</v>
+        <v>0.04657928875252304</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1578046098615548</v>
+        <v>0.1505214771279167</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04934967339456037</v>
+        <v>0.04675319206571632</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01887535841900401</v>
+        <v>0.01208906225944593</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05040615105574117</v>
+        <v>0.01524409692987605</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04341223683746449</v>
+        <v>0.04059698642818754</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0508000849323355</v>
+        <v>0.04898503032667764</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1009683716690797</v>
+        <v>0.09812230023118368</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0508000849323355</v>
+        <v>0.04813193171094048</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1579654287539864</v>
+        <v>0.1523911578644225</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05099466250771239</v>
+        <v>0.0483116318012402</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02092632153271563</v>
+        <v>0.01219841404010448</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05203215592850702</v>
+        <v>0.01573584199213011</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04386657091508837</v>
+        <v>0.04091993703753086</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05243879734950761</v>
+        <v>0.05056519259528015</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1013258066844988</v>
+        <v>0.09886247298309367</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05243879734950761</v>
+        <v>0.04968457466935791</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1587484210140619</v>
+        <v>0.1545588966326841</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0526396516208644</v>
+        <v>0.04987007153676408</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01892626656442531</v>
+        <v>0.01230596437779357</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05365816080127286</v>
+        <v>0.01622758705438418</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04411017704548593</v>
+        <v>0.04148825442365436</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05407750976667972</v>
+        <v>0.05214535486388265</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1021583959624029</v>
+        <v>0.09926967392700459</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05407750976667972</v>
+        <v>0.05123721762777535</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1583408705489328</v>
+        <v>0.1559164220848985</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05428464073401642</v>
+        <v>0.05142851127228796</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01891811445030631</v>
+        <v>0.01241171872875249</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0552841656740387</v>
+        <v>0.01671933211663824</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04390894650913135</v>
+        <v>0.04239894208764816</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05571622218385184</v>
+        <v>0.05372551713248515</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1017555460617999</v>
+        <v>0.1005395397028965</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05571622218385184</v>
+        <v>0.05278986058619278</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1602066148793199</v>
+        <v>0.156355462873263</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05592962984716842</v>
+        <v>0.05298695100781183</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02089671348138851</v>
+        <v>0.01251568254922059</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05691017054680454</v>
+        <v>0.01721107717889231</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04410062042589602</v>
+        <v>0.04244900353060237</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05735493460102395</v>
+        <v>0.05530567940108765</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1015362629991386</v>
+        <v>0.1010677069507497</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05735493460102395</v>
+        <v>0.05434250354461021</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1586049897664266</v>
+        <v>0.1575677476499745</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05757461896032044</v>
+        <v>0.0545453907433357</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.018862909086328</v>
+        <v>0.01261786129543717</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0585361754195704</v>
+        <v>0.01770282224114638</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04406279652819944</v>
+        <v>0.04313544225360705</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05899364701819607</v>
+        <v>0.05688584166969016</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1014486635158324</v>
+        <v>0.1018498123105445</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05899364701819607</v>
+        <v>0.05589514650302765</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1598322405128276</v>
+        <v>0.1588450050672302</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05921960807347244</v>
+        <v>0.05610383047885959</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01881754669378089</v>
+        <v>0.01271826042364156</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06016218029233623</v>
+        <v>0.01819456730340044</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04389792171899363</v>
+        <v>0.04315526175775236</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06063235943536818</v>
+        <v>0.05846600393829266</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1013984145961784</v>
+        <v>0.1021583959624029</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06063235943536818</v>
+        <v>0.05744778946144508</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1587563210721779</v>
+        <v>0.1588789637772273</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06086459718662446</v>
+        <v>0.05766227021438346</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.01876147173240329</v>
+        <v>0.01281688539007308</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06178818516510208</v>
+        <v>0.01868631236565451</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04390782016940238</v>
+        <v>0.04350546554412837</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06227107185254029</v>
+        <v>0.06004616620689517</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1013897409884874</v>
+        <v>0.1013583899628016</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06227107185254029</v>
+        <v>0.05900043241986251</v>
       </c>
       <c r="N103" t="n">
-        <v>0.15898393319212</v>
+        <v>0.1602066148793199</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06250958629977647</v>
+        <v>0.05922070994990734</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01969552963085131</v>
+        <v>0.01291374165097105</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06341419003786793</v>
+        <v>0.01917805742790858</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04349431605054949</v>
+        <v>0.0438830571138252</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0639097842697124</v>
+        <v>0.06162632847549767</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1012268674410705</v>
+        <v>0.1020192914835897</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0639097842697124</v>
+        <v>0.06055307537827995</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1591217786202974</v>
+        <v>0.1601960700397027</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06415457541292849</v>
+        <v>0.06077914968543122</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01862056581778103</v>
+        <v>0.01300883466257477</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06504019491063377</v>
+        <v>0.01966980249016264</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04365923353355874</v>
+        <v>0.04411017704548593</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06554849668688452</v>
+        <v>0.06320649074410017</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1008140187022384</v>
+        <v>0.1018099296343252</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06554849668688452</v>
+        <v>0.06210571833669738</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1582765591043526</v>
+        <v>0.158788090714551</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0657995645260805</v>
+        <v>0.0623375894209551</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02053742572184857</v>
+        <v>0.01310216988112359</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0666661997833996</v>
+        <v>0.02016154755241671</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04330439678955395</v>
+        <v>0.04400941413654104</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06718720910405664</v>
+        <v>0.06478665301270269</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1000554195203023</v>
+        <v>0.1018392788635534</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06718720910405664</v>
+        <v>0.06365836129511482</v>
       </c>
       <c r="N106" t="n">
-        <v>0.158154976391929</v>
+        <v>0.1590748608758737</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0674445536392325</v>
+        <v>0.06389602915647898</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01944695477171002</v>
+        <v>0.01319375276285682</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06829220465616546</v>
+        <v>0.02065329261467078</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04333162998965893</v>
+        <v>0.04398547749583182</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06882592152122875</v>
+        <v>0.06636681528130518</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09965529464357295</v>
+        <v>0.1016163136198195</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06882592152122875</v>
+        <v>0.06521100425353225</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1567637322306695</v>
+        <v>0.1594706126370612</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06908954275238452</v>
+        <v>0.06545446889200286</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01934999839602151</v>
+        <v>0.01328358876401377</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0699182095289313</v>
+        <v>0.02114503767692484</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04314275730499748</v>
+        <v>0.04363098957604437</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07046463393840086</v>
+        <v>0.06794697754990769</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09931786882036145</v>
+        <v>0.1006500083516689</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07046463393840086</v>
+        <v>0.06676364721194969</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1560095283682171</v>
+        <v>0.1587895781115039</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07073453186553653</v>
+        <v>0.06701290862752673</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01824740202343912</v>
+        <v>0.01337168334083378</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07154421440169716</v>
+        <v>0.02163678273917891</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04253960290669338</v>
+        <v>0.04375003510173051</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07210334635557297</v>
+        <v>0.06952713981851019</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09864736679897868</v>
+        <v>0.1010493375076469</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07210334635557297</v>
+        <v>0.06831629017036712</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1563990665522146</v>
+        <v>0.1581459894125921</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07237952097868855</v>
+        <v>0.06857134836305061</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02014001108261897</v>
+        <v>0.01345804194955615</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07317021927446299</v>
+        <v>0.02212852780143297</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04252399096587045</v>
+        <v>0.04354669879744205</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07374205877274508</v>
+        <v>0.0711073020871127</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09854801332773555</v>
+        <v>0.1002232755362987</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07374205877274508</v>
+        <v>0.06986893312878456</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1552390485303053</v>
+        <v>0.1580540786537161</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07402451009184056</v>
+        <v>0.07012978809857448</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01802867100221715</v>
+        <v>0.01354267004642021</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07479622414722883</v>
+        <v>0.02262027286368704</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04239774565365249</v>
+        <v>0.04362506538773074</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07538077118991719</v>
+        <v>0.0726874643557152</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09742403315494308</v>
+        <v>0.1000807968861696</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07538077118991719</v>
+        <v>0.071421576087202</v>
       </c>
       <c r="N111" t="n">
-        <v>0.153336176050132</v>
+        <v>0.1576280779482664</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07566949920499257</v>
+        <v>0.07168822783409837</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01991422721088978</v>
+        <v>0.01362557308766528</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07642222901999468</v>
+        <v>0.0231120179259411</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04226269114116329</v>
+        <v>0.04328921959714845</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07701948360708931</v>
+        <v>0.07426762662431771</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09737965102891219</v>
+        <v>0.0990308760058049</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07701948360708931</v>
+        <v>0.07297421904561943</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1537971508593378</v>
+        <v>0.1568822194096334</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07731448831814458</v>
+        <v>0.07324666756962224</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01979752513729295</v>
+        <v>0.01370675652953068</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07804823389276051</v>
+        <v>0.02360376298819517</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04172065159952666</v>
+        <v>0.0432432461502469</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07865819602426143</v>
+        <v>0.07584778889292021</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09641909169795376</v>
+        <v>0.09928248734374992</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07865819602426143</v>
+        <v>0.07452686200403687</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1523286747055656</v>
+        <v>0.1562307351512073</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0789594774312966</v>
+        <v>0.07480510730514611</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01867941021008276</v>
+        <v>0.01378622582825573</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07967423876552637</v>
+        <v>0.02409550805044924</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04157345119986637</v>
+        <v>0.04299122977157795</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08029690844143353</v>
+        <v>0.07742795116152272</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09654657991037882</v>
+        <v>0.09924460534854992</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08029690844143353</v>
+        <v>0.0760795049624543</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1513374493364585</v>
+        <v>0.1547878572863787</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08060446654444861</v>
+        <v>0.07636354704067</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01856072785791534</v>
+        <v>0.01386398644007975</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08130024363829221</v>
+        <v>0.0245872531127033</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04122291411330629</v>
+        <v>0.04273725518569338</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08193562085860565</v>
+        <v>0.07900811343012522</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09556634041449835</v>
+        <v>0.09892620446875022</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08193562085860565</v>
+        <v>0.07763214792087174</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1501301764996595</v>
+        <v>0.1544678179285378</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08224945565760063</v>
+        <v>0.07792198677619387</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01944232350944677</v>
+        <v>0.01394004382124205</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08292624851105805</v>
+        <v>0.02507899817495737</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04097086451097018</v>
+        <v>0.04268540711714497</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08357433327577776</v>
+        <v>0.08058827569872773</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09498259795862318</v>
+        <v>0.09853625915289604</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08357433327577776</v>
+        <v>0.07918479087928917</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1495135579428115</v>
+        <v>0.1547848491910749</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08389444477075263</v>
+        <v>0.07948042651171776</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01932504259333316</v>
+        <v>0.01401440342798197</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0845522533838239</v>
+        <v>0.02557074323721143</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04091912656398181</v>
+        <v>0.04273977029048454</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08521304569294988</v>
+        <v>0.08216843796733024</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09439957729106432</v>
+        <v>0.09798374384953273</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08521304569294988</v>
+        <v>0.0807374338377066</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1479942954135576</v>
+        <v>0.1530531831873806</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08553943388390466</v>
+        <v>0.08103886624724162</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01720397335284696</v>
+        <v>0.01408707071653882</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08617825825658974</v>
+        <v>0.0260624882994655</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04036952444346503</v>
+        <v>0.04260442943026388</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08685175811012198</v>
+        <v>0.08374860023593274</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0934215031601327</v>
+        <v>0.09827763300720557</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08685175811012198</v>
+        <v>0.08229007679612405</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1480790906595407</v>
+        <v>0.1541870520308453</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08718442299705666</v>
+        <v>0.0825973059827655</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01706602602399951</v>
+        <v>0.01415805114315192</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08780426312935559</v>
+        <v>0.02655423336171957</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04011572274883776</v>
+        <v>0.0424834692610348</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0884904705272941</v>
+        <v>0.08532876250453525</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09283370288925816</v>
+        <v>0.09802690107445983</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0884904705272941</v>
+        <v>0.08384271975454147</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1463745087172327</v>
+        <v>0.153200687834859</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08882941211020867</v>
+        <v>0.08415574571828938</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01891317142412934</v>
+        <v>0.01422735016406058</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08943026800212144</v>
+        <v>0.02704597842397363</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04012719944392647</v>
+        <v>0.04208097450734907</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09012918294446622</v>
+        <v>0.08690892477313775</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09276548797828388</v>
+        <v>0.09804051263086144</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09012918294446622</v>
+        <v>0.08539536271295892</v>
       </c>
       <c r="N120" t="n">
-        <v>0.145197805648475</v>
+        <v>0.1534083227128125</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09047440122336069</v>
+        <v>0.08571418545381326</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01774816406085655</v>
+        <v>0.01429497323550414</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09105627287488727</v>
+        <v>0.0275377234862277</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03970602088185737</v>
+        <v>0.04240102989375855</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09176789536163833</v>
+        <v>0.08848908704174026</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09202164406478847</v>
+        <v>0.09769119858589462</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09176789536163833</v>
+        <v>0.08694800567137634</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1446895921742607</v>
+        <v>0.152811657485237</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09211939033651269</v>
+        <v>0.08727262518933714</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01657375844180122</v>
+        <v>0.01436092581372191</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09268227774765313</v>
+        <v>0.02802946854848177</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03915813043020452</v>
+        <v>0.04204772014481495</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09340660777881045</v>
+        <v>0.09006924931034276</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09081593588377521</v>
+        <v>0.09714762190676943</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09340660777881045</v>
+        <v>0.08850064862979379</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1433717033895058</v>
+        <v>0.1536383641049981</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09376437944966472</v>
+        <v>0.08883106492486102</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01639270907458345</v>
+        <v>0.0144252133549532</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09430828262041896</v>
+        <v>0.02852121361073583</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03908947145654197</v>
+        <v>0.04222115882778468</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09504532019598255</v>
+        <v>0.09164941157894527</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0907621281702474</v>
+        <v>0.09760924953638447</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09504532019598255</v>
+        <v>0.09005329158821121</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1417659743891257</v>
+        <v>0.1527737397685951</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09540936856281672</v>
+        <v>0.0903895046603849</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01620777046682333</v>
+        <v>0.01448784131543736</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09593428749318482</v>
+        <v>0.02901295867298989</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03870598732844373</v>
+        <v>0.04230080261346633</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09668403261315466</v>
+        <v>0.09322957384754776</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08907398565920835</v>
+        <v>0.09747554841763822</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09668403261315466</v>
+        <v>0.09160593454662865</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1415942402680367</v>
+        <v>0.1523169391283642</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09705435767596873</v>
+        <v>0.09194794439590877</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01602169712614096</v>
+        <v>0.01454881515141367</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09756029236595065</v>
+        <v>0.02950470373524397</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03841362141348389</v>
+        <v>0.04208288864985811</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09832274503032677</v>
+        <v>0.09480973611615028</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08856527308566134</v>
+        <v>0.09704598549342927</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09832274503032677</v>
+        <v>0.09315857750504608</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1395783361211543</v>
+        <v>0.1532671168366417</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09869934678912075</v>
+        <v>0.09350638413143264</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01683724356015641</v>
+        <v>0.01460814031912149</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0991862972387165</v>
+        <v>0.02999644879749803</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03801831707923649</v>
+        <v>0.04186717431576517</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09996145744749889</v>
+        <v>0.09638989838475277</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08794975518460968</v>
+        <v>0.09742002770665606</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09996145744749889</v>
+        <v>0.09471122046346352</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1379400970433943</v>
+        <v>0.1521234275457635</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1003443359022728</v>
+        <v>0.09506482386695653</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01565716427648979</v>
+        <v>0.01466582227480011</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1008123021114823</v>
+        <v>0.03048819385975209</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03762601769327557</v>
+        <v>0.04185341698999252</v>
       </c>
       <c r="K127" t="n">
-        <v>0.101600169864671</v>
+        <v>0.09797006065335528</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08684119669105667</v>
+        <v>0.09769714200021706</v>
       </c>
       <c r="M127" t="n">
-        <v>0.101600169864671</v>
+        <v>0.09626386342188095</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1371013581296726</v>
+        <v>0.153185025908066</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1019893250154248</v>
+        <v>0.0966232636024804</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01648421378276118</v>
+        <v>0.01472186647468886</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1024383069842482</v>
+        <v>0.03097993892200616</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03704266662317517</v>
+        <v>0.04224137405134522</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1032388822818431</v>
+        <v>0.09955022292195778</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0853533623400056</v>
+        <v>0.09727679531701081</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1032388822818431</v>
+        <v>0.09781650638029839</v>
       </c>
       <c r="N128" t="n">
-        <v>0.135783954474905</v>
+        <v>0.1530510665758852</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1036343141285768</v>
+        <v>0.09818170333800429</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01731575388000028</v>
+        <v>0.01477627837502708</v>
       </c>
       <c r="G129" t="n">
-        <v>0.104064311857014</v>
+        <v>0.03147168398426023</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03687420723650936</v>
+        <v>0.04213080287862836</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1048775946990152</v>
+        <v>0.1011303851905603</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08480001686645983</v>
+        <v>0.0972584545999359</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1048775946990152</v>
+        <v>0.09936914933871582</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1345097211740072</v>
+        <v>0.1525207042015574</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1052793032417288</v>
+        <v>0.09974014307352816</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01713254519869607</v>
+        <v>0.01482906343205406</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1056903167297799</v>
+        <v>0.03196342904651429</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03641694040315348</v>
+        <v>0.04212146085064698</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1065163071161873</v>
+        <v>0.1027105474591628</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08387259314996534</v>
+        <v>0.09764158679189072</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1065163071161873</v>
+        <v>0.1009217922971332</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1327003776805331</v>
+        <v>0.1522930934374187</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1069242923548808</v>
+        <v>0.101298582809052</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01693601908824106</v>
+        <v>0.01488022710200912</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1073163216025457</v>
+        <v>0.03245517410876836</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03602916099240316</v>
+        <v>0.04201310534620614</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1081550195333594</v>
+        <v>0.1042907097277653</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08267450283968053</v>
+        <v>0.09762565883577384</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1081550195333594</v>
+        <v>0.1024744352555507</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1311523525304644</v>
+        <v>0.1529673889358053</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1085692814680328</v>
+        <v>0.1028570225445759</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01573011862710037</v>
+        <v>0.01492977484113161</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1089423264753116</v>
+        <v>0.03294691917102242</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03551253676455017</v>
+        <v>0.04190549374411093</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1097937319505316</v>
+        <v>0.1058708719963678</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08240960843917411</v>
+        <v>0.09681013767448374</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1097937319505316</v>
+        <v>0.1040270782139681</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1290828976354225</v>
+        <v>0.1530427453490534</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1102142705811848</v>
+        <v>0.1044154622800998</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01451878689373906</v>
+        <v>0.01497771210566082</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1105683313480774</v>
+        <v>0.03343866423327649</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0351755756520179</v>
+        <v>0.04209838342316637</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1114324443677037</v>
+        <v>0.1074510342649703</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08089761417063573</v>
+        <v>0.09729449025091894</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1114324443677037</v>
+        <v>0.1055797211723856</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1273232699401758</v>
+        <v>0.1530183173294989</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1118592596943368</v>
+        <v>0.1059739020156237</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01430596696662226</v>
+        <v>0.0150240443518361</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1121943362208433</v>
+        <v>0.03393040929553056</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03472678558722969</v>
+        <v>0.04179153176217756</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1130711567848758</v>
+        <v>0.1090311965335728</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08015822425625502</v>
+        <v>0.09677818350797801</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1130711567848758</v>
+        <v>0.107132364130803</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1261047263894928</v>
+        <v>0.1530932595294783</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1135042488074888</v>
+        <v>0.1075323417511476</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01509560192421506</v>
+        <v>0.01506877703589674</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1138203410936091</v>
+        <v>0.03442215435778462</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03417467450260896</v>
+        <v>0.04188469613994954</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1147098692020479</v>
+        <v>0.1106113588021753</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07911114291822161</v>
+        <v>0.09676068438855939</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1147098692020479</v>
+        <v>0.1086850070892204</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1250585239281423</v>
+        <v>0.1520667266013276</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1151492379206409</v>
+        <v>0.1090907814866714</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01589163484498254</v>
+        <v>0.01511191561408207</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1154463459663749</v>
+        <v>0.03491389942003869</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03392775033057902</v>
+        <v>0.04177763393528737</v>
       </c>
       <c r="K136" t="n">
-        <v>0.11634858161922</v>
+        <v>0.1121915210707778</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07787607437872504</v>
+        <v>0.09764145983556158</v>
       </c>
       <c r="M136" t="n">
-        <v>0.11634858161922</v>
+        <v>0.1102376500476379</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1227159195008927</v>
+        <v>0.1521378731973831</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1167942270337929</v>
+        <v>0.1106492212221953</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01369800880738982</v>
+        <v>0.01515346554263142</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1170723508391408</v>
+        <v>0.03540564448229275</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03339452100356324</v>
+        <v>0.04217010252699611</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1179872940363921</v>
+        <v>0.1137716833393803</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0769727228599551</v>
+        <v>0.09721997679188313</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1179872940363921</v>
+        <v>0.1117902930060553</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1214081700525128</v>
+        <v>0.1521058539699807</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1184392161469449</v>
+        <v>0.1122076609577192</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01351866688990197</v>
+        <v>0.01519343227778409</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1186983557119066</v>
+        <v>0.03589738954454682</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03278349445398501</v>
+        <v>0.04176185929388085</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1196260064535642</v>
+        <v>0.1153518456079828</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0761207925841012</v>
+        <v>0.09659570220042252</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1196260064535642</v>
+        <v>0.1133429359644727</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1206665325277709</v>
+        <v>0.151869823571457</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1200842052600969</v>
+        <v>0.1137661006932431</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01335755217098412</v>
+        <v>0.01523182127577943</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1203243605846725</v>
+        <v>0.03638913460680088</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03250317861426771</v>
+        <v>0.04205266161474662</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1212647188707364</v>
+        <v>0.1169320078765853</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07513998777335312</v>
+        <v>0.09686810300407828</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1212647188707364</v>
+        <v>0.1148955789228902</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1179222638714358</v>
+        <v>0.1527289366541476</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1217291943732489</v>
+        <v>0.1153245404287669</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01421860772910134</v>
+        <v>0.01526863799285674</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1219503654574383</v>
+        <v>0.03688087966905496</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03216208141683467</v>
+        <v>0.04184226686839849</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1229034312879085</v>
+        <v>0.1185121701451878</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07445001264990042</v>
+        <v>0.09663664614574893</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1229034312879085</v>
+        <v>0.1164482218813076</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1179066210282761</v>
+        <v>0.1523823478703891</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1233741834864009</v>
+        <v>0.1168829801642908</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01410577664271873</v>
+        <v>0.01530388788525534</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1235763703302042</v>
+        <v>0.03737262473130902</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03186871079410933</v>
+        <v>0.04183043243364154</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1245421437050806</v>
+        <v>0.1200923324137903</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07387057143593267</v>
+        <v>0.09690079856833295</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1245421437050806</v>
+        <v>0.118000864839725</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1162508609430603</v>
+        <v>0.1525292118725175</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1250191725995529</v>
+        <v>0.1184414198998147</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01302300199030139</v>
+        <v>0.01533757640921456</v>
       </c>
       <c r="G142" t="n">
-        <v>0.12520237520297</v>
+        <v>0.03786436979356309</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03163157467851496</v>
+        <v>0.0421169156892808</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1261808561222527</v>
+        <v>0.1216724946823928</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07272136835363963</v>
+        <v>0.09676002721472884</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1261808561222527</v>
+        <v>0.1195535077981425</v>
       </c>
       <c r="N142" t="n">
-        <v>0.114986240560557</v>
+        <v>0.1524686833128691</v>
       </c>
       <c r="O142" t="n">
-        <v>0.126664161712705</v>
+        <v>0.1199998596353386</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01297422685031442</v>
+        <v>0.01536970902097371</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1268283800757359</v>
+        <v>0.03835611485581716</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03135918100247499</v>
+        <v>0.04170147401412136</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1278195685394248</v>
+        <v>0.1232526569509953</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07242210762521079</v>
+        <v>0.09711379902783518</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1278195685394248</v>
+        <v>0.1211061507565599</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1136440168255348</v>
+        <v>0.1515999168437798</v>
       </c>
       <c r="O143" t="n">
-        <v>0.128309150825857</v>
+        <v>0.1215582993708624</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01396247485380232</v>
+        <v>0.01540029117677211</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1284543849485017</v>
+        <v>0.03884785991807121</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03126003769841276</v>
+        <v>0.04168386478696826</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1294582809565969</v>
+        <v>0.1248328192195979</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07259249347283578</v>
+        <v>0.09675836735241594</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1294582809565969</v>
+        <v>0.1226587937149773</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1132554466827622</v>
+        <v>0.1512220671175861</v>
       </c>
       <c r="O144" t="n">
-        <v>0.129954139939009</v>
+        <v>0.1231167391063863</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01396673774304974</v>
+        <v>0.01542932833284909</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1300803898212675</v>
+        <v>0.03933960498032529</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03113933375004775</v>
+        <v>0.04186384538662657</v>
       </c>
       <c r="K145" t="n">
-        <v>0.131096993373769</v>
+        <v>0.1264129814882003</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07284454349174915</v>
+        <v>0.09654288206037848</v>
       </c>
       <c r="M145" t="n">
-        <v>0.131096993373769</v>
+        <v>0.1242114366733948</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1135517870770079</v>
+        <v>0.1510928025724447</v>
       </c>
       <c r="O145" t="n">
-        <v>0.131599129052161</v>
+        <v>0.1246751788419102</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01397662136635118</v>
+        <v>0.01545682594544397</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1317063946940334</v>
+        <v>0.03983135004257935</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03134929268465601</v>
+        <v>0.04164051902003528</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1327357057909412</v>
+        <v>0.1279931437568028</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07236760820953586</v>
+        <v>0.09675934306338305</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1327357057909412</v>
+        <v>0.1257640796318122</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1139640484802704</v>
+        <v>0.1518489089673558</v>
       </c>
       <c r="O146" t="n">
-        <v>0.133244118165313</v>
+        <v>0.1262336185774341</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01299183598773738</v>
+        <v>0.01548278947079605</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1333323995667992</v>
+        <v>0.04032309510483342</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03127123709805499</v>
+        <v>0.04179249032707415</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1343744182081133</v>
+        <v>0.1295733060254054</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07301843108587261</v>
+        <v>0.09622005244841855</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1343744182081133</v>
+        <v>0.1273167225902296</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1142246700923258</v>
+        <v>0.1518083677574531</v>
       </c>
       <c r="O147" t="n">
-        <v>0.134889107278465</v>
+        <v>0.127792058312958</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01401209187123906</v>
+        <v>0.01550722436514468</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1349584044395651</v>
+        <v>0.04081484016708749</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03120454183046933</v>
+        <v>0.04161362076098618</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1360131306252854</v>
+        <v>0.1311534682940079</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07249556426169046</v>
+        <v>0.09653731230247389</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1360131306252854</v>
+        <v>0.1288693655486471</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1145278940038523</v>
+        <v>0.1509906881856814</v>
       </c>
       <c r="O148" t="n">
-        <v>0.136534096391617</v>
+        <v>0.1293504980484818</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01503709928088693</v>
+        <v>0.01553013608472917</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1365844093123309</v>
+        <v>0.04130658522934155</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03164858172212376</v>
+        <v>0.04180950962255388</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1376518430424575</v>
+        <v>0.1327336305626104</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07289755987792054</v>
+        <v>0.09572342471253811</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1376518430424575</v>
+        <v>0.1304220085070645</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1137714234659341</v>
+        <v>0.1505153794949855</v>
       </c>
       <c r="O149" t="n">
-        <v>0.138179085504769</v>
+        <v>0.1309089377840057</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01406656848071173</v>
+        <v>0.01555153008578882</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1382104141850967</v>
+        <v>0.04179833029159561</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03170273161324295</v>
+        <v>0.04128575621255975</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1392905554596296</v>
+        <v>0.1343137928312129</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07342297007549406</v>
+        <v>0.09499069176560013</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1392905554596296</v>
+        <v>0.131974651465482</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1147529617296554</v>
+        <v>0.15030195092831</v>
       </c>
       <c r="O150" t="n">
-        <v>0.139824074617921</v>
+        <v>0.1324673775195296</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01310020973474416</v>
+        <v>0.01557141182456297</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1398364190578626</v>
+        <v>0.04229007535384968</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03156636634405162</v>
+        <v>0.04114795983178628</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1409292678768017</v>
+        <v>0.1358939550998154</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07267034699534208</v>
+        <v>0.09555141554864893</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1409292678768017</v>
+        <v>0.1335272944238994</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1147702120461008</v>
+        <v>0.1487699117285998</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1414690637310731</v>
+        <v>0.1340258172550535</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01313773330701496</v>
+        <v>0.01558978675729094</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1414624239306284</v>
+        <v>0.04278182041610375</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03153886075477449</v>
+        <v>0.04130171978101596</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1425679802939738</v>
+        <v>0.1374741173684179</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07343824277839575</v>
+        <v>0.09441789814867343</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1425679802939738</v>
+        <v>0.1350799373823168</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1148208776663543</v>
+        <v>0.1493387711387995</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1431140528442251</v>
+        <v>0.1355842569905773</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01317884946155486</v>
+        <v>0.01560666034021203</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1430884288033943</v>
+        <v>0.04327356547835781</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03191958968563624</v>
+        <v>0.04105263536103132</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1442066927111459</v>
+        <v>0.1390542796370204</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07342520956558615</v>
+        <v>0.09450244165266256</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1442066927111459</v>
+        <v>0.1366325803407342</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1151026618415005</v>
+        <v>0.1474280384018538</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1447590419573771</v>
+        <v>0.1371426967261012</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01322326846239456</v>
+        <v>0.0156220380295656</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1447144336761601</v>
+        <v>0.04376531054061188</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03170792797686155</v>
+        <v>0.04080630587261486</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1458454051283181</v>
+        <v>0.1406344419056229</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07392979949784445</v>
+        <v>0.09401734814760535</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1458454051283181</v>
+        <v>0.1381852232991517</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1147132678226234</v>
+        <v>0.1482572227607075</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1464040310705291</v>
+        <v>0.1387011364616251</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01327070057356478</v>
+        <v>0.01563592528159093</v>
       </c>
       <c r="G155" t="n">
-        <v>0.146340438548926</v>
+        <v>0.04425705560286595</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03210325046867513</v>
+        <v>0.04056833061654903</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1474841175454902</v>
+        <v>0.1422146041742254</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07355056471610177</v>
+        <v>0.09377491972049065</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1474841175454902</v>
+        <v>0.1397378662575691</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1164503988608075</v>
+        <v>0.1466458334583053</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1480490201836811</v>
+        <v>0.140259576197149</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01332133411619983</v>
+        <v>0.01564832755252737</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1479664434216918</v>
+        <v>0.04474880066512001</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03210493200130168</v>
+        <v>0.04074430889361637</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1491228299626623</v>
+        <v>0.1437947664428279</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07398605736128924</v>
+        <v>0.09398745845830742</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1491228299626623</v>
+        <v>0.1412905092159866</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1168117582071372</v>
+        <v>0.1476133797375921</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1496940092968331</v>
+        <v>0.1418180159326728</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01540495228496716</v>
+        <v>0.01565925029861422</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1495924482944577</v>
+        <v>0.04524054572737408</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03231719700603075</v>
+        <v>0.04033984000459938</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1507615423798344</v>
+        <v>0.1453749287114304</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07484606114214018</v>
+        <v>0.09376726644804473</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1507615423798344</v>
+        <v>0.142843152174404</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1157950491126966</v>
+        <v>0.1464793708415123</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1513389984099851</v>
+        <v>0.1433764556681967</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01553313319015102</v>
+        <v>0.01566869897609081</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1512184531672235</v>
+        <v>0.04573229078962814</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03211198993998589</v>
+        <v>0.04056052325028056</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1524002547970065</v>
+        <v>0.1469550909800329</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07519719815882339</v>
+        <v>0.09342661379454467</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1524002547970065</v>
+        <v>0.1443957951328214</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1169509136191798</v>
+        <v>0.1460633160130109</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1529839875231372</v>
+        <v>0.1449348954037206</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01569713040214163</v>
+        <v>0.01567667904119645</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1528444580399894</v>
+        <v>0.04622403585188221</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03249897659036119</v>
+        <v>0.04031195793144239</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1540389672141786</v>
+        <v>0.1485352532486354</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07556185420485853</v>
+        <v>0.09384805749749334</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1540389672141786</v>
+        <v>0.1459484380912389</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1175696672848396</v>
+        <v>0.1464673202133225</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1546289766362892</v>
+        <v>0.1464933351392445</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01388819749132918</v>
+        <v>0.01568319595017047</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1544704629127552</v>
+        <v>0.04671578091413628</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03305928489241726</v>
+        <v>0.04059933445529834</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1556776796313507</v>
+        <v>0.1501154155172379</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07609632190948892</v>
+        <v>0.09410713151333944</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1556776796313507</v>
+        <v>0.1475010810496563</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1196845444239814</v>
+        <v>0.1461378480800558</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1562739657494412</v>
+        <v>0.1480517748747684</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01509758802810389</v>
+        <v>0.01568825515925219</v>
       </c>
       <c r="G161" t="n">
-        <v>0.156096467785521</v>
+        <v>0.04720752597639034</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03347404278141469</v>
+        <v>0.04021159856424292</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1573163920485229</v>
+        <v>0.1516955777858404</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07775689390195761</v>
+        <v>0.0933003516388009</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1573163920485229</v>
+        <v>0.1490537240080737</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1206262117302414</v>
+        <v>0.1476644625213683</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1579189548625932</v>
+        <v>0.1496102146102922</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01631655558285595</v>
+        <v>0.01569186212468092</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1577224726582869</v>
+        <v>0.04769927103864441</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03382437819261404</v>
+        <v>0.0405404200755622</v>
       </c>
       <c r="K162" t="n">
-        <v>0.158955104465695</v>
+        <v>0.1532757400544429</v>
       </c>
       <c r="L162" t="n">
-        <v>0.0777998628115078</v>
+        <v>0.09432423367059564</v>
       </c>
       <c r="M162" t="n">
-        <v>0.158955104465695</v>
+        <v>0.1506063669664912</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1224253358972563</v>
+        <v>0.1469416381196327</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1595639439757452</v>
+        <v>0.1511686543458161</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01553635372597555</v>
+        <v>0.01569402230269599</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1593484775310527</v>
+        <v>0.04819101610089847</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03419141906127593</v>
+        <v>0.04058421315246433</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1605938168828671</v>
+        <v>0.1548559023230454</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07918152126738257</v>
+        <v>0.0944752934054415</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1605938168828671</v>
+        <v>0.1521590099249086</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1240125836186627</v>
+        <v>0.147963849457222</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1612089330888972</v>
+        <v>0.15272709408134</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0167482360278529</v>
+        <v>0.01569474114953672</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1609744824038186</v>
+        <v>0.04868276116315254</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03455629332266089</v>
+        <v>0.04044139195815745</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1622325293000392</v>
+        <v>0.1564360645916479</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08085816189882516</v>
+        <v>0.09465004664005641</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1622325293000392</v>
+        <v>0.153711652883326</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1253186215880971</v>
+        <v>0.1478255711165088</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1628539222020492</v>
+        <v>0.1542855338168639</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01594345605887821</v>
+        <v>0.01569474114953671</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1626004872765844</v>
+        <v>0.04868276116315254</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03540012891202952</v>
+        <v>0.04061037065584965</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1638712417172113</v>
+        <v>0.1580162268602504</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08138607733507863</v>
+        <v>0.09394500917115833</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1638712417172113</v>
+        <v>0.1552642958417435</v>
       </c>
       <c r="N165" t="n">
-        <v>0.126774116499196</v>
+        <v>0.1471212776798664</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1644989113152013</v>
+        <v>0.1558439735523877</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01611333120453958</v>
+        <v>0.01530284978057964</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1642264921493503</v>
+        <v>0.04868249263468852</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03570405376464245</v>
+        <v>0.04048956340874908</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1655099541343834</v>
+        <v>0.159596389128853</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08262156020538619</v>
+        <v>0.09465669679546504</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1655099541343834</v>
+        <v>0.1568169388001609</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1279097350455957</v>
+        <v>0.1480454437296673</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1661439004283533</v>
+        <v>0.1574024132879116</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01626747981872583</v>
+        <v>0.01491537575940731</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1658524970221161</v>
+        <v>0.0486822241062245</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03615222595371152</v>
+        <v>0.04067738438006391</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1671486665515555</v>
+        <v>0.1611765513974555</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08372792088531128</v>
+        <v>0.09508162530969455</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1671486665515555</v>
+        <v>0.1583695817585783</v>
       </c>
       <c r="N167" t="n">
-        <v>0.130456143920933</v>
+        <v>0.1489925438482844</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1677888895415053</v>
+        <v>0.1589608530234355</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01641782229880869</v>
+        <v>0.01453285975315433</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1674785018948819</v>
+        <v>0.04868195557776049</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03637765015692593</v>
+        <v>0.04087224773300219</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1687873789687276</v>
+        <v>0.162756713666058</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08438159762919392</v>
+        <v>0.09551631051056469</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1687873789687276</v>
+        <v>0.1599222247169958</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1314544368571759</v>
+        <v>0.1487570526180907</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1694338786546573</v>
+        <v>0.1605192927589594</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01556463610786025</v>
+        <v>0.01415584242892182</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1691045067676478</v>
+        <v>0.04868168704929647</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03639507395046764</v>
+        <v>0.04077256763077214</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1704260913858998</v>
+        <v>0.1643368759346605</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08431674556467103</v>
+        <v>0.09555726819479338</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1704260913858998</v>
+        <v>0.1614748676754132</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1327221417970329</v>
+        <v>0.1486334446214591</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1710788677678093</v>
+        <v>0.1620777324944832</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01670819870895258</v>
+        <v>0.01378486445384395</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1707305116404136</v>
+        <v>0.04868141852083246</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03680509601303099</v>
+        <v>0.04107675823658183</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1720648038030718</v>
+        <v>0.165917038203263</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08513475122109293</v>
+        <v>0.09560101415909852</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1720648038030718</v>
+        <v>0.1630275106338306</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1330619603042115</v>
+        <v>0.1496161944407623</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1727238568809613</v>
+        <v>0.1636361722300071</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01684878756515779</v>
+        <v>0.01342046649502233</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1723565165131795</v>
+        <v>0.04868114999236844</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03720831502331039</v>
+        <v>0.04118323371363941</v>
       </c>
       <c r="K171" t="n">
-        <v>0.173703516220244</v>
+        <v>0.1674972004718655</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08593700112780964</v>
+        <v>0.09604406420019801</v>
       </c>
       <c r="M171" t="n">
-        <v>0.173703516220244</v>
+        <v>0.1645801535922481</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1340760918398679</v>
+        <v>0.1498997766583733</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1743688459941133</v>
+        <v>0.165194611965531</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01598668013954792</v>
+        <v>0.01306318921959061</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1739825213859453</v>
+        <v>0.04868088146390442</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03760532966000016</v>
+        <v>0.04109040822515302</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1753422286374161</v>
+        <v>0.169077362740468</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08642488181417129</v>
+        <v>0.09558293411480973</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1753422286374161</v>
+        <v>0.1661327965506655</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1364667358651582</v>
+        <v>0.1503786658566648</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1760138351072653</v>
+        <v>0.1667530517010549</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0181221538951951</v>
+        <v>0.01271357329465098</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1756085262587112</v>
+        <v>0.0486806129354404</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03799673860179473</v>
+        <v>0.04119669593433077</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1769809410545882</v>
+        <v>0.1706575250090705</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08729977980952813</v>
+        <v>0.09611413969965166</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1769809410545882</v>
+        <v>0.1676854395090829</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1372360918412385</v>
+        <v>0.1511473366180098</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1776588242204173</v>
+        <v>0.1683114914365788</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01725548629517139</v>
+        <v>0.01237215938733641</v>
       </c>
       <c r="G174" t="n">
-        <v>0.177234531131477</v>
+        <v>0.04868034440697638</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03788314052738838</v>
+        <v>0.04140051100438082</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1786196534717603</v>
+        <v>0.172237687277673</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08856308164323015</v>
+        <v>0.0964341967514416</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1786196534717603</v>
+        <v>0.1692380824675004</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1374863592292649</v>
+        <v>0.1518002635247812</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1793038133335693</v>
+        <v>0.1698699311721026</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01638695480254888</v>
+        <v>0.01203948816474983</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1788605360042429</v>
+        <v>0.04868007587851236</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03826513411547554</v>
+        <v>0.04160026759851126</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1802583658889324</v>
+        <v>0.1738178495462755</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08891617384462758</v>
+        <v>0.09683962106689747</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1802583658889324</v>
+        <v>0.1707907254259178</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1394197374903935</v>
+        <v>0.1510319211593518</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1809488024467214</v>
+        <v>0.1714283709076265</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01851683688039964</v>
+        <v>0.01171610029402346</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1804865408770087</v>
+        <v>0.04867980735004835</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03844331804475054</v>
+        <v>0.04149437987993028</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1818970783061045</v>
+        <v>0.175398011814878</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08916044294307057</v>
+        <v>0.09682692844273724</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1818970783061045</v>
+        <v>0.1723433683843353</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1401384260857804</v>
+        <v>0.1520367841040943</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1825937915598734</v>
+        <v>0.1729868106431504</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01764540999179578</v>
+        <v>0.011402536442261</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1821125457497745</v>
+        <v>0.04867953882158433</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03891829099390778</v>
+        <v>0.04158126201184596</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1835357907232767</v>
+        <v>0.1769781740834805</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08959727546790916</v>
+        <v>0.09659263467567872</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1835357907232767</v>
+        <v>0.1738960113427527</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1408446244765817</v>
+        <v>0.1526093269413819</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1842387806730254</v>
+        <v>0.1745452503786743</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01677588916789033</v>
+        <v>0.01109933727659385</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1837385506225404</v>
+        <v>0.04867927029312032</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03909068447280925</v>
+        <v>0.04185932815746643</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1851745031404488</v>
+        <v>0.178558336352083</v>
       </c>
       <c r="L178" t="n">
-        <v>0.09052813398490159</v>
+        <v>0.09753325556243986</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1851745031404488</v>
+        <v>0.1754486543011701</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1418405321239535</v>
+        <v>0.1529440242535871</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1858837697861774</v>
+        <v>0.1761036901141982</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01791394936691427</v>
+        <v>0.01080704346412659</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1853645554953063</v>
+        <v>0.0486790017646563</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03937361900460995</v>
+        <v>0.04202699247999986</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1868132155576209</v>
+        <v>0.1801384986206855</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09128340539542731</v>
+        <v>0.09694530689973854</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1868132155576209</v>
+        <v>0.1770012972595876</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1430512870197445</v>
+        <v>0.1531353506230831</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1875287588993294</v>
+        <v>0.177662129849722</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01705532358007967</v>
+        <v>0.01052619567198969</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1869905603680721</v>
+        <v>0.04867873323619228</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03987042745332324</v>
+        <v>0.04188266914265436</v>
       </c>
       <c r="K180" t="n">
-        <v>0.188451927974793</v>
+        <v>0.181718660889288</v>
       </c>
       <c r="L180" t="n">
-        <v>0.09227080855405376</v>
+        <v>0.09772530448429265</v>
       </c>
       <c r="M180" t="n">
-        <v>0.188451927974793</v>
+        <v>0.178553940218005</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1436211343967115</v>
+        <v>0.1522777806322426</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1891737480124814</v>
+        <v>0.1792205695852459</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0191952454811776</v>
+        <v>0.0102573345672887</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1886165652408379</v>
+        <v>0.04867846470772826</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03997082557488645</v>
+        <v>0.04192477230863804</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1900906403919651</v>
+        <v>0.1832988231578905</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09296652533200667</v>
+        <v>0.09746976411282013</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1900906403919651</v>
+        <v>0.1801065831764224</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1458162293516784</v>
+        <v>0.1529657888634384</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1908187371256334</v>
+        <v>0.1807790093207698</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01832894874399916</v>
+        <v>0.01000100081715306</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1902425701136038</v>
+        <v>0.04867819617926425</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04046452912523693</v>
+        <v>0.04215171614115906</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1917293528091372</v>
+        <v>0.184878985426493</v>
       </c>
       <c r="L182" t="n">
-        <v>0.09304673760051166</v>
+        <v>0.09747221574444068</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1917293528091372</v>
+        <v>0.1816592261348399</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1465987890212349</v>
+        <v>0.1520937296696331</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1924637262387855</v>
+        <v>0.1823374490562937</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0174516670423354</v>
+        <v>0.009757735088694562</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1918685749863696</v>
+        <v>0.04867792765080024</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04044125386031201</v>
+        <v>0.04216191480342556</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1933680652263093</v>
+        <v>0.1864591476950955</v>
       </c>
       <c r="L183" t="n">
-        <v>0.09408762723079447</v>
+        <v>0.09679906976854888</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1933680652263093</v>
+        <v>0.1832118690932573</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1477310305419711</v>
+        <v>0.1518185036412377</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1941087153519375</v>
+        <v>0.1838958887918175</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0195586340499774</v>
+        <v>0.009528078049026077</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1934945798591355</v>
+        <v>0.04867765912233622</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04089071553604905</v>
+        <v>0.04184541821274529</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1950067776434815</v>
+        <v>0.188039309963698</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09496537609408082</v>
+        <v>0.09664640908720618</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1950067776434815</v>
+        <v>0.1847645120516747</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1477751710504772</v>
+        <v>0.1530148582425399</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1957537044650895</v>
+        <v>0.1854543285273414</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01864508344071625</v>
+        <v>0.009312570365275379</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1951205847319013</v>
+        <v>0.0486773905938722</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04110262990838537</v>
+        <v>0.04189232100473878</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1966454900606535</v>
+        <v>0.1896194722323006</v>
       </c>
       <c r="L185" t="n">
-        <v>0.09525616606159631</v>
+        <v>0.09652007331769563</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1966454900606535</v>
+        <v>0.1863171550100922</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1497934276833431</v>
+        <v>0.151792054220304</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1973986935782415</v>
+        <v>0.1870127682628653</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01770664978044192</v>
+        <v>0.009111752704550842</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1967465896046671</v>
+        <v>0.04867712206540818</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04116671273325834</v>
+        <v>0.04180522934967783</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1982842024778257</v>
+        <v>0.191199634500903</v>
       </c>
       <c r="L186" t="n">
-        <v>0.09593617900456677</v>
+        <v>0.0968259020773003</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1982842024778257</v>
+        <v>0.1878697979685096</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1492480175771591</v>
+        <v>0.1511593523212946</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1990436826913935</v>
+        <v>0.1885712079983892</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01875783210685717</v>
+        <v>0.008926165733978968</v>
       </c>
       <c r="G187" t="n">
-        <v>0.198372594477433</v>
+        <v>0.04867685353694416</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04148249655242939</v>
+        <v>0.04178680115216445</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1999229148949978</v>
+        <v>0.1927797967695055</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0959043322979149</v>
+        <v>0.09656973498330318</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1999229148949978</v>
+        <v>0.189422440926927</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1499090724696043</v>
+        <v>0.1515260132922761</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2006886718045455</v>
+        <v>0.1901296477339131</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01780790511623555</v>
+        <v>0.008756350120669443</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1999985993501988</v>
+        <v>0.04867658500848014</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04149028269715174</v>
+        <v>0.04143969431680071</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2015616273121699</v>
+        <v>0.1943599590381081</v>
       </c>
       <c r="L188" t="n">
-        <v>0.09565396311758839</v>
+        <v>0.0962574116529874</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2015616273121699</v>
+        <v>0.1909750838853445</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1497045747259594</v>
+        <v>0.1512012978800132</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2023336609176976</v>
+        <v>0.1916880874694369</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01885685126785165</v>
+        <v>0.008602846531747421</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2016246042229647</v>
+        <v>0.04867631648001613</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04179567859449088</v>
+        <v>0.04126656674818861</v>
       </c>
       <c r="K189" t="n">
-        <v>0.203200339729342</v>
+        <v>0.1959401213067106</v>
       </c>
       <c r="L189" t="n">
-        <v>0.096198058166268</v>
+        <v>0.09549477170363593</v>
       </c>
       <c r="M189" t="n">
-        <v>0.203200339729342</v>
+        <v>0.1925277268437619</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1502913693789396</v>
+        <v>0.15019446683127</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2039786500308496</v>
+        <v>0.1932465272049608</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01890465302098004</v>
+        <v>0.00846411180354649</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2032506090957305</v>
+        <v>0.04867604795155211</v>
       </c>
       <c r="J190" t="n">
-        <v>0.041598646397037</v>
+        <v>0.04117007635093019</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2048390521465141</v>
+        <v>0.1975202835753131</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09623652979001682</v>
+        <v>0.0947876547525319</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2048390521465141</v>
+        <v>0.1940803698021794</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1520693173824948</v>
+        <v>0.1482147808928113</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2056236391440016</v>
+        <v>0.1948049669404847</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01895129283489533</v>
+        <v>0.00832813715854383</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2048766139684964</v>
+        <v>0.04867577942308809</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04179914825738032</v>
+        <v>0.04085288102962745</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2064777645636862</v>
+        <v>0.1991004458439156</v>
       </c>
       <c r="L191" t="n">
-        <v>0.09706929033489795</v>
+        <v>0.09444190041695824</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2064777645636862</v>
+        <v>0.1956330127605968</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1515382796905752</v>
+        <v>0.1485715008114013</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2072686282571536</v>
+        <v>0.1963634066760086</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01799675316887209</v>
+        <v>0.008193260702007446</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2065026188412622</v>
+        <v>0.04867551089462407</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04199714632811107</v>
+        <v>0.04101763868888245</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2081164769808584</v>
+        <v>0.2006806081125181</v>
       </c>
       <c r="L192" t="n">
-        <v>0.09679625214697452</v>
+        <v>0.09406334831419813</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2081164769808584</v>
+        <v>0.1971856557190142</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1521981172571307</v>
+        <v>0.1465738873338048</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2089136173703056</v>
+        <v>0.1979218464115324</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02004101648218492</v>
+        <v>0.008059899207774127</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2081286237140281</v>
+        <v>0.04867524236616006</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04179260276181944</v>
+        <v>0.04076700723329718</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2097551893980305</v>
+        <v>0.2022607703811206</v>
       </c>
       <c r="L193" t="n">
-        <v>0.09691732757230967</v>
+        <v>0.09295783806153454</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2097551893980305</v>
+        <v>0.1987382986774316</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1518486910361113</v>
+        <v>0.1466312012067859</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2105586064834576</v>
+        <v>0.1994802861470563</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01908406523410839</v>
+        <v>0.007928469449669018</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2097546285867939</v>
+        <v>0.04867497383769604</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04228547971109568</v>
+        <v>0.04040364456747372</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2113939018152026</v>
+        <v>0.2038409326497231</v>
       </c>
       <c r="L194" t="n">
-        <v>0.09783242895696651</v>
+        <v>0.09263120927625051</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2113939018152026</v>
+        <v>0.2002909416358491</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1532898619814669</v>
+        <v>0.1455527031771094</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2122035955966096</v>
+        <v>0.2010387258825802</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02012588188391708</v>
+        <v>0.00779938820152877</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2113806334595597</v>
+        <v>0.04867470530923203</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04227573932852999</v>
+        <v>0.03993020859601404</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2130326142323747</v>
+        <v>0.2054210949183256</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09784146864700813</v>
+        <v>0.09208930157562917</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2130326142323747</v>
+        <v>0.2018435845942665</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1525214910471476</v>
+        <v>0.1442476539915395</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2138485847097616</v>
+        <v>0.2025971656181041</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01916644889088561</v>
+        <v>0.007673072237178703</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2130066383323256</v>
+        <v>0.04867443678076801</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04246334376671258</v>
+        <v>0.0397493572235202</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2146713266495468</v>
+        <v>0.2070012571869281</v>
       </c>
       <c r="L196" t="n">
-        <v>0.09754435898849764</v>
+        <v>0.09153795457695346</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2146713266495468</v>
+        <v>0.2033962275526839</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1534434391871033</v>
+        <v>0.144025314396841</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2154935738229136</v>
+        <v>0.204155605353628</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01820574871428853</v>
+        <v>0.007549938330455259</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2146326432050914</v>
+        <v>0.04867416825230399</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04224825517823368</v>
+        <v>0.03956374835459422</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2163100390667189</v>
+        <v>0.2085814194555306</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09784101232749814</v>
+        <v>0.09108300789750645</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2163100390667189</v>
+        <v>0.2049488705111014</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1538555673552839</v>
+        <v>0.142794945139778</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2171385629360657</v>
+        <v>0.2057140450891518</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01824376381340045</v>
+        <v>0.007430403255186568</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2162586480778573</v>
+        <v>0.04867389972383997</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04233043571568348</v>
+        <v>0.03897603989383812</v>
       </c>
       <c r="K198" t="n">
-        <v>0.217948751483891</v>
+        <v>0.2101615817241331</v>
       </c>
       <c r="L198" t="n">
-        <v>0.09773134101007278</v>
+        <v>0.09013030115457127</v>
       </c>
       <c r="M198" t="n">
-        <v>0.217948751483891</v>
+        <v>0.2065015134695188</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1543577365056397</v>
+        <v>0.1414658069671153</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2187835520492176</v>
+        <v>0.2072724848246757</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01928047664749595</v>
+        <v>0.007314883785201093</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2178846529506231</v>
+        <v>0.04867363119537595</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04270984753165223</v>
+        <v>0.03908888974585394</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2195874639010632</v>
+        <v>0.2117417439927356</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09861525738228463</v>
+        <v>0.08878567396543088</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2195874639010632</v>
+        <v>0.2080541564279362</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1540498075921203</v>
+        <v>0.1399471606256172</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2204285411623697</v>
+        <v>0.2088309245601996</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01931586967584961</v>
+        <v>0.007203796694334789</v>
       </c>
       <c r="G200" t="n">
-        <v>0.219510657823389</v>
+        <v>0.04867336266691194</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04248645277873014</v>
+        <v>0.03860495581524369</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2212261763182353</v>
+        <v>0.2133219062613381</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09859267379019687</v>
+        <v>0.08815496594736838</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2212261763182353</v>
+        <v>0.2096067993863537</v>
       </c>
       <c r="N200" t="n">
-        <v>0.155031641568676</v>
+        <v>0.1400482668620482</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2220735302755217</v>
+        <v>0.2103893642957234</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01934992535773602</v>
+        <v>0.007097558756413769</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2211366626961548</v>
+        <v>0.04867309413844792</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04276021360950738</v>
+        <v>0.03832689600660939</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2228648887354074</v>
+        <v>0.2149020685299406</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0986635025798725</v>
+        <v>0.08794401671766683</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2228648887354074</v>
+        <v>0.2111594423447711</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1550030993892567</v>
+        <v>0.1375783864231727</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2237185193886737</v>
+        <v>0.2119478040312473</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01938262615242975</v>
+        <v>0.006996586745273585</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2227626675689207</v>
+        <v>0.04867282560998391</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04293109217657426</v>
+        <v>0.03785736822455311</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2245036011525795</v>
+        <v>0.2164822307985431</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09862765609737473</v>
+        <v>0.08755866589360917</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2245036011525795</v>
+        <v>0.2127120853031885</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1555640420078123</v>
+        <v>0.1371467800557553</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2253635085018257</v>
+        <v>0.2135062437667712</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01841395451920542</v>
+        <v>0.006901297434740786</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2243886724416865</v>
+        <v>0.04867255708151989</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04299905063252089</v>
+        <v>0.03759903037367684</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2261423135697516</v>
+        <v>0.2180623930671456</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09958504668876669</v>
+        <v>0.08680475309247856</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2261423135697516</v>
+        <v>0.214264728261606</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1547143303782927</v>
+        <v>0.1367627085065604</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2270084976149777</v>
+        <v>0.2150646835022951</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01944389291733759</v>
+        <v>0.006812107598650453</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2260146773144524</v>
+        <v>0.04867228855305587</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04296405112993756</v>
+        <v>0.0377545403585826</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2277810259869237</v>
+        <v>0.2196425553357481</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09963558670011138</v>
+        <v>0.08608811793155799</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2277810259869237</v>
+        <v>0.2158173712200234</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1557538254546482</v>
+        <v>0.1359354325223525</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2286534867281297</v>
+        <v>0.216623123237819</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02047242380610086</v>
+        <v>0.006729434010829649</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2276406821872182</v>
+        <v>0.04867202002459185</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04302605582141446</v>
+        <v>0.03732655608387243</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2294197384040958</v>
+        <v>0.2212227176043506</v>
       </c>
       <c r="L205" t="n">
-        <v>0.09947918847747203</v>
+        <v>0.08611460002813054</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2294197384040958</v>
+        <v>0.2173700141784408</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1554823881908286</v>
+        <v>0.1355742128498961</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2302984758412817</v>
+        <v>0.2181815629733428</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0204995296447698</v>
+        <v>0.006653693445112893</v>
       </c>
       <c r="G206" t="n">
-        <v>0.229266687059984</v>
+        <v>0.04867175149612784</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0430850268595418</v>
+        <v>0.03721773545414839</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2310584508212679</v>
+        <v>0.2228028798729531</v>
       </c>
       <c r="L206" t="n">
-        <v>0.09961576436691161</v>
+        <v>0.08539003899947925</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2310584508212679</v>
+        <v>0.2189226571368583</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1554998795407838</v>
+        <v>0.1349883102359556</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2319434649544337</v>
+        <v>0.2197400027088667</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01852519289261902</v>
+        <v>0.006585302675327843</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2308926919327499</v>
+        <v>0.04867148296766382</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04284092639690981</v>
+        <v>0.03683073637401245</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2326971632384401</v>
+        <v>0.2243830421415556</v>
       </c>
       <c r="L207" t="n">
-        <v>0.09974522671449337</v>
+        <v>0.08482027446288715</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2326971632384401</v>
+        <v>0.2204753000952757</v>
       </c>
       <c r="N207" t="n">
-        <v>0.155806160458464</v>
+        <v>0.1338869854272957</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2335884540675858</v>
+        <v>0.2212984424443906</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01954939600892308</v>
+        <v>0.006524678475308403</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2325186968055157</v>
+        <v>0.04867121443919981</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04289371658610869</v>
+        <v>0.03656821674806666</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2343358756556121</v>
+        <v>0.2259632044101581</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09996748786628043</v>
+        <v>0.08459322183200416</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2343358756556121</v>
+        <v>0.2220279430536932</v>
       </c>
       <c r="N208" t="n">
-        <v>0.156601091897819</v>
+        <v>0.1336659148151124</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2352334431807378</v>
+        <v>0.2228568821799145</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01857212145295657</v>
+        <v>0.006472237618882888</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2341447016782816</v>
+        <v>0.04867094591073579</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04294335957972868</v>
+        <v>0.03672451612319438</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2359745880727843</v>
+        <v>0.2275433666787606</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09978246016833575</v>
+        <v>0.08415957965835819</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2359745880727843</v>
+        <v>0.2235805860121106</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1566845348127988</v>
+        <v>0.1325435727896274</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2368784322938898</v>
+        <v>0.2244153219154384</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0185933516839941</v>
+        <v>0.006428396879884495</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2357707065510474</v>
+        <v>0.04867067738227177</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04338981753035998</v>
+        <v>0.03667778195370519</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2376133004899564</v>
+        <v>0.2291235289473631</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1000900559667227</v>
+        <v>0.08451966741285974</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2376133004899564</v>
+        <v>0.225133228970528</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1574563501573536</v>
+        <v>0.1313100258080051</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2385234214070418</v>
+        <v>0.2259737616509622</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01861306916131023</v>
+        <v>0.006393573032142261</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2373967114238132</v>
+        <v>0.04867040885380775</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04343305259059281</v>
+        <v>0.03652832044263721</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2392520129071285</v>
+        <v>0.2307036912159657</v>
       </c>
       <c r="L211" t="n">
-        <v>0.100590187607504</v>
+        <v>0.08367748768313182</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2392520129071285</v>
+        <v>0.2266858719289455</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1566163988854331</v>
+        <v>0.1315716213667651</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2401684105201938</v>
+        <v>0.2275322013864861</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02063125634417957</v>
+        <v>0.006368182849488639</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2390227162965791</v>
+        <v>0.04867014032534373</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04337302691301737</v>
+        <v>0.03597795336966322</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2408907253243006</v>
+        <v>0.2322838534845681</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1006827674367432</v>
+        <v>0.08303704305679732</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2408907253243006</v>
+        <v>0.2282385148873629</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1578645419509874</v>
+        <v>0.1309347069624267</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2418133996333458</v>
+        <v>0.22909064112201</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01864789569187668</v>
+        <v>0.006352643105753474</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2406487211693449</v>
+        <v>0.04866987179687971</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0431097026502239</v>
+        <v>0.03582850251445599</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2425294377414727</v>
+        <v>0.2338640157531706</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1000677078005031</v>
+        <v>0.08350233612147925</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2425294377414727</v>
+        <v>0.2297911578457803</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1564006403079666</v>
+        <v>0.1310056300915092</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2434583887464978</v>
+        <v>0.2306490808575339</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02066296966367616</v>
+        <v>0.006347370574768356</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2422747260421108</v>
+        <v>0.0486696032684157</v>
       </c>
       <c r="J214" t="n">
-        <v>0.0434430419548026</v>
+        <v>0.03568178965668829</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2441681501586448</v>
+        <v>0.2354441780217732</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1004449210448469</v>
+        <v>0.08227736946480044</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2441681501586448</v>
+        <v>0.2313438008041978</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1569245549103206</v>
+        <v>0.1302907382505322</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2451033778596499</v>
+        <v>0.2322075205930577</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01867646071885259</v>
+        <v>0.006347370574768356</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2439007309148767</v>
+        <v>0.0486696032684157</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0435730069793437</v>
+        <v>0.03563963657603289</v>
       </c>
       <c r="K215" t="n">
-        <v>0.245806862575817</v>
+        <v>0.2370243402903757</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1005143195158377</v>
+        <v>0.08266614567438391</v>
       </c>
       <c r="M215" t="n">
-        <v>0.245806862575817</v>
+        <v>0.2328964437626152</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1579361467119992</v>
+        <v>0.1300963789360148</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2467483669728019</v>
+        <v>0.2337659603285816</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02068835131668056</v>
+        <v>0.006141166167208001</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2455267357876425</v>
+        <v>0.04864927768528602</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0435995598764374</v>
+        <v>0.03550386505216256</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2474455749929891</v>
+        <v>0.2386045025589782</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1003758155595387</v>
+        <v>0.08237266733785259</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2474455749929891</v>
+        <v>0.2344490867210327</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1573352766669528</v>
+        <v>0.1291288996444766</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2483933560859539</v>
+        <v>0.2353244000641055</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01969862391643467</v>
+        <v>0.005940393207934692</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2471527406604083</v>
+        <v>0.04862895210215634</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04332266279867394</v>
+        <v>0.03527629686475006</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2490842874101612</v>
+        <v>0.2401846648275807</v>
       </c>
       <c r="L217" t="n">
-        <v>0.100929321522013</v>
+        <v>0.08140093704282936</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2490842874101612</v>
+        <v>0.23600172967945</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1572218057291311</v>
+        <v>0.1292946478724368</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2500383451991059</v>
+        <v>0.2368828397996294</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02070726097738949</v>
+        <v>0.005745326556010392</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2487787455331741</v>
+        <v>0.04860862651902666</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0435422778986435</v>
+        <v>0.03555875379346819</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2507229998273333</v>
+        <v>0.2417648270961832</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1008747497493236</v>
+        <v>0.08155495737693724</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2507229998273333</v>
+        <v>0.2375543726378675</v>
       </c>
       <c r="N218" t="n">
-        <v>0.158295594852484</v>
+        <v>0.127599971116415</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2516833343122579</v>
+        <v>0.2384412795351532</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0197142449588196</v>
+        <v>0.005556241070497285</v>
       </c>
       <c r="G219" t="n">
-        <v>0.25040475040594</v>
+        <v>0.04858830093589699</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04365836732893634</v>
+        <v>0.03535305761798971</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2523617122445054</v>
+        <v>0.2433449893647857</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1007120125875337</v>
+        <v>0.0812387309277991</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2523617122445054</v>
+        <v>0.2391070155962849</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1576565049909618</v>
+        <v>0.1282512168729303</v>
       </c>
       <c r="O219" t="n">
-        <v>0.25332832342541</v>
+        <v>0.2399997192706771</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0207195583199996</v>
+        <v>0.005373411610457346</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2520307552787059</v>
+        <v>0.0485679753527673</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04367089324214264</v>
+        <v>0.03536103011798739</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2540004246616775</v>
+        <v>0.2449251516333882</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1008410223827064</v>
+        <v>0.08165626028303796</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2540004246616775</v>
+        <v>0.2406596585547024</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1571043970985141</v>
+        <v>0.1279547326385023</v>
       </c>
       <c r="O220" t="n">
-        <v>0.254973312538562</v>
+        <v>0.241558159006201</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02072318352020407</v>
+        <v>0.005197113034952752</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2536567601514717</v>
+        <v>0.04854764976963763</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04347981779085262</v>
+        <v>0.03518449307313398</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2556391370788496</v>
+        <v>0.2465053139019907</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1007616914809048</v>
+        <v>0.08141154803027664</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2556391370788496</v>
+        <v>0.2422123015131198</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1571391321290914</v>
+        <v>0.1280168659096503</v>
       </c>
       <c r="O221" t="n">
-        <v>0.256618301651714</v>
+        <v>0.2431165987417249</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01972510301870759</v>
+        <v>0.005027620203045494</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2552827650242375</v>
+        <v>0.04852732418650794</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04328510312765653</v>
+        <v>0.03522526826310231</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2572778494960217</v>
+        <v>0.2480854761705932</v>
       </c>
       <c r="L222" t="n">
-        <v>0.100973932228192</v>
+        <v>0.08130859675713817</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2572778494960217</v>
+        <v>0.2437649444715373</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1586605710366431</v>
+        <v>0.1274439641828938</v>
       </c>
       <c r="O222" t="n">
-        <v>0.258263290764866</v>
+        <v>0.2446750384772488</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01872138648564341</v>
+        <v>0.004865207973797733</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2569087698970034</v>
+        <v>0.04850699860337827</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04328646867030826</v>
+        <v>0.03508517746756507</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2589165619131938</v>
+        <v>0.2496656384391957</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1010770948010099</v>
+        <v>0.08135140905124547</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2589165619131938</v>
+        <v>0.2453175874299547</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1578685747751196</v>
+        <v>0.1266423749547519</v>
       </c>
       <c r="O223" t="n">
-        <v>0.259908279878018</v>
+        <v>0.2462334782127726</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01967512722286487</v>
+        <v>0.004710151206271461</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2585347747697692</v>
+        <v>0.04848667302024859</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04342242379292174</v>
+        <v>0.03516604246619512</v>
       </c>
       <c r="K224" t="n">
-        <v>0.260555274330366</v>
+        <v>0.2512458007077982</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1009287679888852</v>
+        <v>0.08124247968150788</v>
       </c>
       <c r="M224" t="n">
-        <v>0.260555274330366</v>
+        <v>0.2468702303883721</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1582965352963944</v>
+        <v>0.1272176642502322</v>
       </c>
       <c r="O224" t="n">
-        <v>0.26155326899117</v>
+        <v>0.2477919179482965</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01958157655206746</v>
+        <v>0.004562724759528847</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2601607796425351</v>
+        <v>0.04846634743711892</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04325347034178523</v>
+        <v>0.0350673469780426</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2621939867475381</v>
+        <v>0.2528259629764007</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1006374747609614</v>
+        <v>0.08096649897248165</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2621939867475381</v>
+        <v>0.2484228733467895</v>
       </c>
       <c r="N225" t="n">
-        <v>0.157135671888828</v>
+        <v>0.126749077451811</v>
       </c>
       <c r="O225" t="n">
-        <v>0.263198258104322</v>
+        <v>0.2493503576838204</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01944620267832335</v>
+        <v>0.004423203492631873</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2617867845153009</v>
+        <v>0.04844602185398923</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04289140699644388</v>
+        <v>0.03508168404443353</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2638326991647102</v>
+        <v>0.2544061252450032</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09943054065201395</v>
+        <v>0.08081698281907557</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2638326991647102</v>
+        <v>0.249975516305207</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1558275906506248</v>
+        <v>0.1274227363356478</v>
       </c>
       <c r="O226" t="n">
-        <v>0.264843247217474</v>
+        <v>0.2509087974193442</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02027447380670468</v>
+        <v>0.004291862264642711</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2634127893880668</v>
+        <v>0.04842569627085955</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04264803243644283</v>
+        <v>0.03480758185695167</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2654714115818823</v>
+        <v>0.2559862875136057</v>
       </c>
       <c r="L227" t="n">
-        <v>0.09883529119681836</v>
+        <v>0.08089204893482041</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2654714115818823</v>
+        <v>0.2515281592636244</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1558156382677401</v>
+        <v>0.1269356558810666</v>
       </c>
       <c r="O227" t="n">
-        <v>0.266488236330626</v>
+        <v>0.2524672371548681</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01807185814228365</v>
+        <v>0.004168975934623363</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2650387942608326</v>
+        <v>0.04840537068772988</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04203514534132727</v>
+        <v>0.03524418369200938</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2671101239990544</v>
+        <v>0.2575664497822082</v>
       </c>
       <c r="L228" t="n">
-        <v>0.09727905193015013</v>
+        <v>0.08168981503324693</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2671101239990544</v>
+        <v>0.2530808022220419</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1533431614261294</v>
+        <v>0.1264848510673913</v>
       </c>
       <c r="O228" t="n">
-        <v>0.268133225443778</v>
+        <v>0.254025676890392</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01784382389013241</v>
+        <v>0.004054819361635972</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2666647991335984</v>
+        <v>0.0483850451046002</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04176454439064234</v>
+        <v>0.03499063282601909</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2687488364162265</v>
+        <v>0.2591466120508107</v>
       </c>
       <c r="L229" t="n">
-        <v>0.09688914838678467</v>
+        <v>0.08120839882788583</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2687488364162265</v>
+        <v>0.2546334451804593</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1519535068117481</v>
+        <v>0.1274673368739458</v>
       </c>
       <c r="O229" t="n">
-        <v>0.26977821455693</v>
+        <v>0.2555841166259159</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01959583925532314</v>
+        <v>0.003949667404742542</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2682908040063643</v>
+        <v>0.04836471952147052</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04114802826393325</v>
+        <v>0.03504607253539319</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2703875488333987</v>
+        <v>0.2607267743194132</v>
       </c>
       <c r="L230" t="n">
-        <v>0.09539290610149745</v>
+        <v>0.08124591803226788</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2703875488333987</v>
+        <v>0.2561860881388767</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1504900211105514</v>
+        <v>0.1278801282800542</v>
       </c>
       <c r="O230" t="n">
-        <v>0.271423203670082</v>
+        <v>0.2571425563614398</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01833337244292799</v>
+        <v>0.003853794923005235</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2699168088791301</v>
+        <v>0.04834439393834084</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04069739564074511</v>
+        <v>0.03510964609654406</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2720262612505707</v>
+        <v>0.2623069365880157</v>
       </c>
       <c r="L231" t="n">
-        <v>0.09431765060906397</v>
+        <v>0.08200049035992385</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2720262612505707</v>
+        <v>0.2577387310972942</v>
       </c>
       <c r="N231" t="n">
-        <v>0.148496051008495</v>
+        <v>0.1273202402650405</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2730681927832341</v>
+        <v>0.2587009960969637</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01706189165801914</v>
+        <v>0.003767476775486056</v>
       </c>
       <c r="G232" t="n">
-        <v>0.271542813751896</v>
+        <v>0.04832406835521116</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04012444520062312</v>
+        <v>0.03548049678588409</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2736649736677428</v>
+        <v>0.2638870988566183</v>
       </c>
       <c r="L232" t="n">
-        <v>0.09289070744425967</v>
+        <v>0.08127023352438439</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2736649736677428</v>
+        <v>0.2592913740557116</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1457149431915342</v>
+        <v>0.1275846878082285</v>
       </c>
       <c r="O232" t="n">
-        <v>0.274713181896386</v>
+        <v>0.2602594358324875</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01678686510566875</v>
+        <v>0.003690987821247112</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2731688186246619</v>
+        <v>0.04830374277208148</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03974097562311243</v>
+        <v>0.0354577678798257</v>
       </c>
       <c r="K233" t="n">
-        <v>0.275303686084915</v>
+        <v>0.2654672611252207</v>
       </c>
       <c r="L233" t="n">
-        <v>0.09193940214186003</v>
+        <v>0.08195326523918034</v>
       </c>
       <c r="M233" t="n">
-        <v>0.275303686084915</v>
+        <v>0.260844017014129</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1436900443456243</v>
+        <v>0.1280704858889422</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2763581710095381</v>
+        <v>0.2618178755680114</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01651376099094899</v>
+        <v>0.003624602919350503</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2747948234974277</v>
+        <v>0.04828341718895181</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03905878558775824</v>
+        <v>0.03524060265478128</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2769423985020871</v>
+        <v>0.2670474233938233</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08999106023664052</v>
+        <v>0.08184770321784235</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2769423985020871</v>
+        <v>0.2623966599725465</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1415647011567207</v>
+        <v>0.1289746494865057</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2780031601226901</v>
+        <v>0.2633763153035353</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01724804751893204</v>
+        <v>0.003568596928858275</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2764208283701935</v>
+        <v>0.04826309160582212</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03858967377410566</v>
+        <v>0.0354281443871632</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2785811109192592</v>
+        <v>0.2686275856624258</v>
       </c>
       <c r="L235" t="n">
-        <v>0.08857300726337655</v>
+        <v>0.08245166517390123</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2785811109192592</v>
+        <v>0.2639493029309639</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1393822603107789</v>
+        <v>0.1286941935802429</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2796481492358421</v>
+        <v>0.2649347550390592</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01799519289469004</v>
+        <v>0.003523244708832536</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2780468332429594</v>
+        <v>0.04824276602269245</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03804543886169988</v>
+        <v>0.03561953635338386</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2802198233364313</v>
+        <v>0.2702077479310283</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08751256875684368</v>
+        <v>0.08306326882088769</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2802198233364313</v>
+        <v>0.2655019458893813</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1368860684937542</v>
+        <v>0.1297261331494777</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2812931383489941</v>
+        <v>0.2664931947745831</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01676066532329519</v>
+        <v>0.003488821118335331</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2796728381157252</v>
+        <v>0.04822244043956277</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03753787953008605</v>
+        <v>0.03551392182985567</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2818585357536034</v>
+        <v>0.2717879101996308</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0861370702518173</v>
+        <v>0.08318063187233249</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2818585357536034</v>
+        <v>0.2670545888477988</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1356194723916021</v>
+        <v>0.1289674831735341</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2829381274621461</v>
+        <v>0.2680516345101069</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01754366777920413</v>
+        <v>0.00346560101642876</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2812988429884911</v>
+        <v>0.04820211485643309</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03667243980294069</v>
+        <v>0.03571044409299101</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2834972481707755</v>
+        <v>0.2733680724682332</v>
       </c>
       <c r="L238" t="n">
-        <v>0.08525912001159683</v>
+        <v>0.08330187204176631</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2834972481707755</v>
+        <v>0.2686072318062162</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1339116314719766</v>
+        <v>0.1294152586317361</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2845831165752982</v>
+        <v>0.2696100742456308</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01632723565798888</v>
+        <v>0.00345385926217489</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2829248478612569</v>
+        <v>0.04818178927330341</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0363130053567131</v>
+        <v>0.03570824641920227</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2851359605879477</v>
+        <v>0.2749482347368358</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08399507789659727</v>
+        <v>0.08352510704271995</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2851359605879477</v>
+        <v>0.2701598747646337</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1320372081781031</v>
+        <v>0.1298664745034077</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2862281056884502</v>
+        <v>0.2711685139811547</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01710998338244977</v>
+        <v>0.003452748373465667</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2845508527340228</v>
+        <v>0.04816146369017373</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03615182041510495</v>
+        <v>0.03620647208490187</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2867746730051198</v>
+        <v>0.2765283970054383</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0830269816650151</v>
+        <v>0.08334845458872414</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2867746730051198</v>
+        <v>0.2717125177230511</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1300563881452915</v>
+        <v>0.1312181457678728</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2878730948016022</v>
+        <v>0.2727269537166785</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01589189799820624</v>
+        <v>0.003455809162342227</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2861768576067886</v>
+        <v>0.04814113810704405</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03528885702660682</v>
+        <v>0.03630426436650218</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2884133854222919</v>
+        <v>0.2781085592740408</v>
       </c>
       <c r="L241" t="n">
-        <v>0.08185476658164523</v>
+        <v>0.08397003239330961</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2884133854222919</v>
+        <v>0.2732651606814685</v>
       </c>
       <c r="N241" t="n">
-        <v>0.128369068683635</v>
+        <v>0.1319672874044555</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2895180839147542</v>
+        <v>0.2742853934522024</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01667296655087768</v>
+        <v>0.003462194146696504</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2878028624795544</v>
+        <v>0.04812081252391438</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03502408723970936</v>
+        <v>0.03640076654041559</v>
       </c>
       <c r="K242" t="n">
-        <v>0.290052097839464</v>
+        <v>0.2796887215426433</v>
       </c>
       <c r="L242" t="n">
-        <v>0.08137836791128236</v>
+        <v>0.08398795817000709</v>
       </c>
       <c r="M242" t="n">
-        <v>0.290052097839464</v>
+        <v>0.2748178036398859</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1273751471032274</v>
+        <v>0.1323109143924795</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2911630730279062</v>
+        <v>0.2758438331877263</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0144531760860835</v>
+        <v>0.003472178185590584</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2894288673523203</v>
+        <v>0.0481004869407847</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03445748310290318</v>
+        <v>0.03649512188305452</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2916908102566361</v>
+        <v>0.2812688838112458</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07979772091872123</v>
+        <v>0.08360147148998404</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2916908102566361</v>
+        <v>0.2763704465983034</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1257745207141622</v>
+        <v>0.1313471059580324</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2928080621410582</v>
+        <v>0.2774022729232501</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0152325136494431</v>
+        <v>0.003486036138086533</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2910548722250861</v>
+        <v>0.04808016135765502</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0341890166646789</v>
+        <v>0.03649040691082016</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2933295226738082</v>
+        <v>0.2828490460798483</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07941276086875673</v>
+        <v>0.08392221440898423</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2933295226738082</v>
+        <v>0.2779230895567208</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1239670868265328</v>
+        <v>0.1328932792499149</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2944530512542102</v>
+        <v>0.2789607126587741</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01601096628657587</v>
+        <v>0.003504042863246438</v>
       </c>
       <c r="G245" t="n">
-        <v>0.292680877097852</v>
+        <v>0.04805983577452534</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03361865997352713</v>
+        <v>0.03649046552363734</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2949682350909803</v>
+        <v>0.2844292083484508</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07762342302618366</v>
+        <v>0.08445354199658656</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2949682350909803</v>
+        <v>0.2794757325151382</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1223527427504329</v>
+        <v>0.1317562063666485</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2960980403673623</v>
+        <v>0.2805191523942979</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01578852104310122</v>
+        <v>0.00352647322013238</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2943068819706178</v>
+        <v>0.04803951019139566</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03314638507793852</v>
+        <v>0.03659518095932968</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2966069475081524</v>
+        <v>0.2860093706170533</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07682964265579673</v>
+        <v>0.08459519501983112</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2966069475081524</v>
+        <v>0.2810283754735557</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1208313857959559</v>
+        <v>0.1336354762041016</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2977430294805142</v>
+        <v>0.2820775921298218</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01356516496463857</v>
+        <v>0.003553602067806437</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2959328868433836</v>
+        <v>0.04801918460826599</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03277216402640365</v>
+        <v>0.03670443522789141</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2982456599253245</v>
+        <v>0.2875895328856558</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07613135502239077</v>
+        <v>0.08554691424575817</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2982456599253245</v>
+        <v>0.2825810184319731</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1182029132731953</v>
+        <v>0.134030677658142</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2993880185936663</v>
+        <v>0.2836360318653457</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01534088509680732</v>
+        <v>0.003585704265330683</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2975588917161495</v>
+        <v>0.0479988590251363</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0321959688674132</v>
+        <v>0.03691811033931676</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2998843723424967</v>
+        <v>0.2891696951542583</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07502849539076054</v>
+        <v>0.08580844044140787</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2998843723424967</v>
+        <v>0.2841336613903905</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1164672224922447</v>
+        <v>0.1331413996246378</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3010330077068183</v>
+        <v>0.2851944716008696</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01411566848522686</v>
+        <v>0.003623054671767184</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2991848965889153</v>
+        <v>0.04797853344200662</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03151777164945775</v>
+        <v>0.03673608830359996</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3015230847596688</v>
+        <v>0.2907498574228608</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07322099902570089</v>
+        <v>0.08547951437382034</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3015230847596688</v>
+        <v>0.285686304348808</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1157242107631977</v>
+        <v>0.1334672309994572</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3026779968199703</v>
+        <v>0.2867529113363935</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01388950217551661</v>
+        <v>0.003665928146178041</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3008109014616812</v>
+        <v>0.04795820785887694</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0314375444210279</v>
+        <v>0.03725825113073526</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3031617971768409</v>
+        <v>0.2923300196914633</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07180880119200661</v>
+        <v>0.08595987681003581</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3031617971768409</v>
+        <v>0.2872389473072254</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1136737753961477</v>
+        <v>0.1354077606784682</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3043229859331223</v>
+        <v>0.2883113510719174</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01266237321329595</v>
+        <v>0.003714599547625312</v>
       </c>
       <c r="G251" t="n">
-        <v>0.302436906334447</v>
+        <v>0.04793788227574727</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03065525923061432</v>
+        <v>0.03728448083071687</v>
       </c>
       <c r="K251" t="n">
-        <v>0.304800509594013</v>
+        <v>0.2939101819600659</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0715918371544724</v>
+        <v>0.08594926851709447</v>
       </c>
       <c r="M251" t="n">
-        <v>0.304800509594013</v>
+        <v>0.2887915902656428</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1119158137011882</v>
+        <v>0.1356625775575389</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3059679750462743</v>
+        <v>0.2898697908074412</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01243426864418432</v>
+        <v>0.003769343735171092</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3040629112072128</v>
+        <v>0.04791755669261759</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03027088812670761</v>
+        <v>0.03731465941353904</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3064392220111851</v>
+        <v>0.2954903442286683</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07037004217789314</v>
+        <v>0.08634743026203651</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3064392220111851</v>
+        <v>0.2903442332240603</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1106502229884129</v>
+        <v>0.1351312705325374</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3076129641594263</v>
+        <v>0.2914282305429651</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01420517551380109</v>
+        <v>0.00383043556787744</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3056889160799787</v>
+        <v>0.04789723110948791</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02978440315779841</v>
+        <v>0.03744866888919597</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3080779344283572</v>
+        <v>0.2970705064972708</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0687433515270636</v>
+        <v>0.08685410281190198</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3080779344283572</v>
+        <v>0.2918968761824777</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1079769005679151</v>
+        <v>0.1366134284993317</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3092579532725783</v>
+        <v>0.292986670278489</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01197508086776569</v>
+        <v>0.003898149904806456</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3073149209527446</v>
+        <v>0.04787690552635823</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02919577637237732</v>
+        <v>0.03738639126768196</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3097166468455294</v>
+        <v>0.2986506687658734</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06751170046677854</v>
+        <v>0.08716902693373124</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3097166468455294</v>
+        <v>0.2934495191408952</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1055957437497885</v>
+        <v>0.1369086403537899</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3109029423857304</v>
+        <v>0.2945451100140128</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0117439717516975</v>
+        <v>0.003972761605020199</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3089409258255104</v>
+        <v>0.04785657994322855</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02870497981893493</v>
+        <v>0.03772770855899116</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3113553592627015</v>
+        <v>0.3002308310344758</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0669750242618328</v>
+        <v>0.08709194339456441</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3113553592627015</v>
+        <v>0.2950021620993126</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1046066498441265</v>
+        <v>0.1373164949917802</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3125479314988824</v>
+        <v>0.2961035497495367</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01351183521121595</v>
+        <v>0.004054545527580777</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3105669306982762</v>
+        <v>0.04783625436009888</v>
       </c>
       <c r="J256" t="n">
-        <v>0.0283119855459619</v>
+        <v>0.03797250277311788</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3129940716798736</v>
+        <v>0.3018109933030784</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06543325817702114</v>
+        <v>0.08772259296144161</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3129940716798736</v>
+        <v>0.29655480505773</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1030095161610228</v>
+        <v>0.1383365813091705</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3141929206120344</v>
+        <v>0.2976619894850606</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01227865829194041</v>
+        <v>0.004143776531550215</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3121929355710421</v>
+        <v>0.0478159287769692</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02761676560194889</v>
+        <v>0.0380206559200563</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3146327840970457</v>
+        <v>0.3033911555716808</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06388633747713837</v>
+        <v>0.08766071640140302</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3146327840970457</v>
+        <v>0.2981074480161475</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1011042400105708</v>
+        <v>0.1379684882018289</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3158379097251864</v>
+        <v>0.2992204292205844</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01104442803949032</v>
+        <v>0.004240729475990662</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3138189404438079</v>
+        <v>0.04779560319383952</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02711929203538646</v>
+        <v>0.03837205000980067</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3162714965142178</v>
+        <v>0.3049713178402834</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06333419742697924</v>
+        <v>0.08880605448148893</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3162714965142178</v>
+        <v>0.2996600909745649</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09879071870286388</v>
+        <v>0.1383118045656238</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3174828988383384</v>
+        <v>0.3007788689561083</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01280913149948504</v>
+        <v>0.004345679219964121</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3154449453165738</v>
+        <v>0.04777527761070984</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02691953689476523</v>
+        <v>0.03842656705234522</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3179102089313899</v>
+        <v>0.3065514801088859</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06227677329133857</v>
+        <v>0.08925834796873941</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3179102089313899</v>
+        <v>0.3012127339329823</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09716884954799582</v>
+        <v>0.1396661192964227</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3191278879514904</v>
+        <v>0.3023373086916322</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01157275571754404</v>
+        <v>0.004458900622532742</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3170709501893396</v>
+        <v>0.04775495202758016</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02651747222857588</v>
+        <v>0.03858408905768419</v>
       </c>
       <c r="K260" t="n">
-        <v>0.319548921348562</v>
+        <v>0.3081316423774884</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06121400033501118</v>
+        <v>0.08861733763019466</v>
       </c>
       <c r="M260" t="n">
-        <v>0.319548921348562</v>
+        <v>0.3027653768913998</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09593852985606011</v>
+        <v>0.1405310212900942</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3207728770646424</v>
+        <v>0.3038957484271561</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01033528773928667</v>
+        <v>0.004580668542758536</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3186969550621055</v>
+        <v>0.04773462644445049</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02601307008530897</v>
+        <v>0.03864449803581181</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3211876337657341</v>
+        <v>0.3097118046460909</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0598458138227918</v>
+        <v>0.0893827642328949</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3211876337657341</v>
+        <v>0.3043180198498172</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09329965693715014</v>
+        <v>0.1411060994425061</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3224178661777944</v>
+        <v>0.30545418816268</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01009671461033233</v>
+        <v>0.00471125783970365</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3203229599348713</v>
+        <v>0.0477143008613208</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02530630251345513</v>
+        <v>0.03860767599672232</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3228263461829062</v>
+        <v>0.3112919669146934</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05847214901947526</v>
+        <v>0.08935436854388029</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3228263461829062</v>
+        <v>0.3058706628082347</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09105212810135954</v>
+        <v>0.1403909426495265</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3240628552909465</v>
+        <v>0.3070126278982038</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01185702337630047</v>
+        <v>0.004850943372430083</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3219489648076371</v>
+        <v>0.04769397527819113</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02479714156150502</v>
+        <v>0.03907350495040993</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3244650586000784</v>
+        <v>0.3128721291832959</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05719294118985632</v>
+        <v>0.09023189133019094</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3244650586000784</v>
+        <v>0.3074233057666521</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08919584065878189</v>
+        <v>0.1413851398070236</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3257078444040984</v>
+        <v>0.3085710676337278</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01161620108281046</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.323574969680403</v>
+        <v>0.04767364969506144</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02428555927794925</v>
+        <v>0.03894186690686889</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3261037710172505</v>
+        <v>0.3144522914518984</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05650812559872986</v>
+        <v>0.09071507335886717</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3261037710172505</v>
+        <v>0.3089759487250695</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08763069191951051</v>
+        <v>0.1423882798108654</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3273528335172505</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.3101295073692516</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0476604918003246</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005268532928965647</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04766076032878862</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005534425648024109</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04766102885725264</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.00579759627051523</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04766129738571665</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006057962909801852</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04766156591418067</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006315443679224056</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04766183444264469</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006569956692144455</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04766210297110871</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.00682142006190338</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04766237149957273</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.00706975190186316</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04766264002803675</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007314870325364417</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04766290855650076</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007556693445769216</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04766317708496478</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.007795139376418431</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04766344561342879</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008030126230673854</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04766371414189281</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008261572121876649</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04766398267035683</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008489395163388314</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04766425119882085</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.008713513468550316</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04766451972728486</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.008933845150723839</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04766478825574888</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009150308323250679</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.0476650567842129</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009362821099487093</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04766532531267691</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009571301592788968</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04766559384114093</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.00977566791649865</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04766586236960495</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.009975838183976432</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04766613089806897</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.010171730508565</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04766639942653298</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.0103632630036243</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.047666667954997</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01055035378249738</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04766693648346101</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.0107332553290256</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04766720501192503</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01091389197944292</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04766747354038905</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.0110925162175904</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04766774206885307</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01126904615681162</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04766801059731709</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.0114433999104657</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04766827912578111</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01161549559189647</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04766854765424512</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01178525131446279</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04766881618270914</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01195258519150869</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04766908471117316</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01211741533638931</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04766935323963717</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01227965986245956</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04766962176810119</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01243923688306377</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0476698902965652</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0125960645115603</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04767015882502922</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01275006086129371</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04767042735349324</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01290114404562214</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04767069588195726</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0130492321778904</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04767096441042127</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01319424337145635</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04767123293888529</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01333609573966507</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04767150146734931</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01347470739587415</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04767176999581333</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01360999645342895</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04767203852427734</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01374188102568678</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04767230705274136</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01387027922599331</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04767257558120538</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01399510916770551</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.0476728441096694</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01411628896416937</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04767311263813341</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01423373672874155</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04767338116659743</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01434737057476836</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04767364969506144</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01434737057476836</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0476604918003246</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01443993941883675</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04768135444038232</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01452946602263285</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04770221708044003</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0146158795237286</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04772307972049774</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01469910905969603</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04774394236055546</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01477908376810706</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04776480500061317</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01485573278653372</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04778566764067088</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01492898525254794</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04780653028072859</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01499877030372174</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04782739292078631</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01506501707762706</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04784825556084402</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01512765471183591</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04786911820090173</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01518661234392023</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04788998084095945</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01524181911145203</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04791084348101717</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01529320415200328</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04793170612107487</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01534069660314595</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04795256876113259</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01538422560245202</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0479734314011903</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01542372028749347</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04799429404124802</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01545910979584227</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04801515668130572</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01549032326507041</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04803601932136344</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01551728983274986</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04805688196142115</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.0155399386364526</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04807774460147887</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.0155581988137506</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04809860724153658</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01557199950221583</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04811946988159429</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.0155812698394203</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04814033252165201</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01558593896293596</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04816119516170971</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01558622536524921</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04818205780176743</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.0155837943134186</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04820292044182514</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01557886429993054</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04822378308188285</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01557136446235698</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04824464572194057</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01556122393826991</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04826550836199828</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01554837186524131</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.048286371002056</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01553273738084315</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04830723364211371</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01551424962264743</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04832809628217142</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01549283772822609</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04834895892222913</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01546843083515113</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04836982156228684</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01544095808099454</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04839068420234455</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01541034860332827</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04841154684240227</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01537653153972433</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04843240948245998</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01533943602775464</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0484532721225177</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01529899120499124</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04847413476257541</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01525512620900607</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04849499740263313</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01520777017737113</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04851586004269084</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01515685224765838</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04853672268274855</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01510230155743982</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04855758532280626</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01504404724428738</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04857844796286398</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01498201844577308</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04859931060292168</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01491614429946889</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0486201732429794</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01484635394294678</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04864103588303711</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01477257651377872</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04866189852309483</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01469474114953672</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04868276116315254</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01469474114953672</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04868276116315254</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01516721111056524</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05167353727877482</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01562371517300102</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0546643133943971</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.0160639066126816</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05765508951001939</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01648743870544448</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06064586562564167</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01689396472712721</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06363664174126396</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01728313795356728</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06662741785688624</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01765461166060224</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06961819397250851</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01800803912406961</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.0726089700881308</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01834307361980691</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07559974620375308</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01865936842365166</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07859052231937536</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01895657681144138</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08158129843499765</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01923435205901361</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08457207455061992</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.01949234744220585</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08756285066624221</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.01973021623685563</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09055362678186449</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.0199476117188005</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09354440289748678</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02014418716387794</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09653517901310907</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0203195958479255</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09952595512873134</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.0204734910467807</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1025167312443536</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02060552603628105</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1055075073599759</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02071535409226409</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1084982834755982</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02080262849056733</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1114890595912205</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02086700250702831</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1144798357068428</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02092632153271563</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.117470611822465</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02092566249777356</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1204613879380873</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02091928682468752</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1234521640537096</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02089040622314274</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1264429401693319</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02084187472811911</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1294337162849542</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02077657294155164</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1324244924005764</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02069738146537532</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1354152685161987</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02060718090152516</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.138406044631821</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02050885185193616</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1413968207474433</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02040527491854333</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1443875968630656</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02029933070328168</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1473783729786879</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.0201938998080862</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02009186283489191</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1533599252099324</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.01999610038563378</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1563507013255547</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.01990566352085476</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.159341477441177</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.01979770116593645</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1623322535567993</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.01967687226733256</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1653230296724215</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.01955406014170501</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1683138057880438</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.01944014810571573</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1713045819036661</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.01934601947602661</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1742953580192884</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0192825575692996</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1772861341349107</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0192606219684086</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.180276910250533</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.01927681241481655</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1832676863661552</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.01931900181174062</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1862584624817775</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.01938208911328203</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1892492385973998</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.01946097327354205</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1922400147130221</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.01955055324662191</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1952307908286444</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.01964572798662283</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1982215669442667</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.01974139644764608</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2012123430598889</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.01983245758379289</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2042031191755112</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.0199138103491645</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2071938952911335</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.01998035369786216</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2101846714067558</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02002698658398709</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2131754475223781</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02004860796164055</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2161662236380003</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02003099561116245</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2191569997536226</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.01995443627358341</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2221477758692449</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.01982642412642204</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2251385519848672</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.01965550865814965</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2281293281004895</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.01945023935723757</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2311201042161118</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.01921916571215709</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2341108803317341</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.01897083721137952</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2371016564473563</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.01871380334337615</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2400924325629786</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.01845661359661832</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2430832086786009</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.01820781745957732</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2460739847942232</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.01797596442072447</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2490647609098454</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.01776960396853106</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2520555370254677</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.01759728559146841</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2550463131410901</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.01746224835857103</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2580370892567123</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.0173291010092396</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2610278653723346</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.01719442812560885</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2640186414879569</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.01706408969388663</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2670094176035792</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.01694394570028075</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2700001937192014</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.01683985613099907</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2729909698348237</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.01675768097224942</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.275981745950446</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.01670328021023964</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2789725220660683</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.01668251383117756</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2819632981816906</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.01669201380180785</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2849540742973128</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.01672097091871304</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2879448504129351</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.01676660712374695</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2909356265285574</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.01682616665643957</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2939264026441797</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.01689689375632089</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.296917178759802</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.01697603266292089</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2999079548754243</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.01706082761576955</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3028987309910465</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.01714852285439685</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3058895071066688</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.01723636261833281</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3088802832222911</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.01732164103440603</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3118710593379134</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.01740988560104313</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3148618354535357</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.01750602975561723</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.317852611569158</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.01760969396825608</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3208433876847802</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.01772049870908744</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3238341638004025</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.01783806444823906</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3268249399160248</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.01796201165583874</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3298157160316471</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.0180919608020142</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3328064921472694</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.01822753235689319</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3357972682628916</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.01836834679060349</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3387880443785139</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.01851402457327288</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3417788204941362</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.01866418617502907</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3447695966097585</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
